--- a/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(Webサービス)_(取引ID)_(取引名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(Webサービス)_(取引ID)_(取引名).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="-15" windowWidth="17970" windowHeight="12450" tabRatio="822" activeTab="5"/>
+    <workbookView xWindow="10800" yWindow="-15" windowWidth="17970" windowHeight="12450" tabRatio="822"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="36" r:id="rId1"/>
@@ -1398,6 +1398,117 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1434,158 +1545,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1623,41 +1659,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1686,15 +1710,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1704,20 +1719,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1725,21 +1743,168 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1754,171 +1919,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4907,7 +4907,7 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5608,55 +5608,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="188" t="s">
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="190"/>
-      <c r="S1" s="197" t="s">
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="171" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="198"/>
-      <c r="U1" s="198"/>
-      <c r="V1" s="198"/>
-      <c r="W1" s="198"/>
-      <c r="X1" s="198"/>
-      <c r="Y1" s="198"/>
-      <c r="Z1" s="199"/>
-      <c r="AA1" s="185" t="s">
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="187"/>
-      <c r="AC1" s="169" t="str">
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="143" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="172" t="str">
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="146" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="173"/>
-      <c r="AI1" s="174"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="148"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
@@ -5664,51 +5664,51 @@
       <c r="AN1" s="14"/>
     </row>
     <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="192"/>
-      <c r="Q2" s="192"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="185" t="s">
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="187"/>
-      <c r="AC2" s="182" t="str">
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="156" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="183"/>
-      <c r="AE2" s="183"/>
-      <c r="AF2" s="184"/>
-      <c r="AG2" s="172" t="str">
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="146" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="173"/>
-      <c r="AI2" s="174"/>
+      <c r="AH2" s="147"/>
+      <c r="AI2" s="148"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
@@ -5716,43 +5716,43 @@
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
-      <c r="N3" s="181"/>
-      <c r="O3" s="194"/>
-      <c r="P3" s="195"/>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="196"/>
-      <c r="S3" s="203"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
-      <c r="Z3" s="205"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="187"/>
-      <c r="AC3" s="169"/>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="171"/>
-      <c r="AG3" s="172"/>
-      <c r="AH3" s="173"/>
-      <c r="AI3" s="174"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="178"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="144"/>
+      <c r="AF3" s="145"/>
+      <c r="AG3" s="146"/>
+      <c r="AH3" s="147"/>
+      <c r="AI3" s="148"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -5789,1020 +5789,1176 @@
       <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="175" t="s">
+      <c r="C7" s="150"/>
+      <c r="D7" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="177"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="175" t="s">
+      <c r="E7" s="151"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="177"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="178" t="s">
+      <c r="H7" s="151"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="176"/>
-      <c r="Q7" s="175" t="s">
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="177"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="177"/>
-      <c r="W7" s="177"/>
-      <c r="X7" s="177"/>
-      <c r="Y7" s="177"/>
-      <c r="Z7" s="177"/>
-      <c r="AA7" s="177"/>
-      <c r="AB7" s="177"/>
-      <c r="AC7" s="177"/>
-      <c r="AD7" s="177"/>
-      <c r="AE7" s="176"/>
-      <c r="AF7" s="175" t="s">
+      <c r="R7" s="151"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="151"/>
+      <c r="V7" s="151"/>
+      <c r="W7" s="151"/>
+      <c r="X7" s="151"/>
+      <c r="Y7" s="151"/>
+      <c r="Z7" s="151"/>
+      <c r="AA7" s="151"/>
+      <c r="AB7" s="151"/>
+      <c r="AC7" s="151"/>
+      <c r="AD7" s="151"/>
+      <c r="AE7" s="150"/>
+      <c r="AF7" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="177"/>
-      <c r="AH7" s="177"/>
-      <c r="AI7" s="176"/>
+      <c r="AG7" s="151"/>
+      <c r="AH7" s="151"/>
+      <c r="AI7" s="150"/>
     </row>
     <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="132"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="164"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="164"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="167"/>
-      <c r="S8" s="167"/>
-      <c r="T8" s="167"/>
-      <c r="U8" s="167"/>
-      <c r="V8" s="167"/>
-      <c r="W8" s="167"/>
-      <c r="X8" s="167"/>
-      <c r="Y8" s="167"/>
-      <c r="Z8" s="167"/>
-      <c r="AA8" s="167"/>
-      <c r="AB8" s="167"/>
-      <c r="AC8" s="167"/>
-      <c r="AD8" s="167"/>
-      <c r="AE8" s="168"/>
-      <c r="AF8" s="163"/>
-      <c r="AG8" s="164"/>
-      <c r="AH8" s="164"/>
-      <c r="AI8" s="165"/>
+      <c r="B8" s="192"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="200"/>
+      <c r="O8" s="200"/>
+      <c r="P8" s="201"/>
+      <c r="Q8" s="202"/>
+      <c r="R8" s="203"/>
+      <c r="S8" s="203"/>
+      <c r="T8" s="203"/>
+      <c r="U8" s="203"/>
+      <c r="V8" s="203"/>
+      <c r="W8" s="203"/>
+      <c r="X8" s="203"/>
+      <c r="Y8" s="203"/>
+      <c r="Z8" s="203"/>
+      <c r="AA8" s="203"/>
+      <c r="AB8" s="203"/>
+      <c r="AC8" s="203"/>
+      <c r="AD8" s="203"/>
+      <c r="AE8" s="204"/>
+      <c r="AF8" s="199"/>
+      <c r="AG8" s="200"/>
+      <c r="AH8" s="200"/>
+      <c r="AI8" s="201"/>
     </row>
     <row r="9" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="133"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="153"/>
-      <c r="T9" s="153"/>
-      <c r="U9" s="153"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="153"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="153"/>
-      <c r="AA9" s="153"/>
-      <c r="AB9" s="153"/>
-      <c r="AC9" s="153"/>
-      <c r="AD9" s="153"/>
-      <c r="AE9" s="154"/>
-      <c r="AF9" s="149"/>
-      <c r="AG9" s="150"/>
-      <c r="AH9" s="150"/>
-      <c r="AI9" s="151"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="187"/>
+      <c r="P9" s="188"/>
+      <c r="Q9" s="189"/>
+      <c r="R9" s="190"/>
+      <c r="S9" s="190"/>
+      <c r="T9" s="190"/>
+      <c r="U9" s="190"/>
+      <c r="V9" s="190"/>
+      <c r="W9" s="190"/>
+      <c r="X9" s="190"/>
+      <c r="Y9" s="190"/>
+      <c r="Z9" s="190"/>
+      <c r="AA9" s="190"/>
+      <c r="AB9" s="190"/>
+      <c r="AC9" s="190"/>
+      <c r="AD9" s="190"/>
+      <c r="AE9" s="191"/>
+      <c r="AF9" s="186"/>
+      <c r="AG9" s="187"/>
+      <c r="AH9" s="187"/>
+      <c r="AI9" s="188"/>
     </row>
     <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="133"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="150"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="152"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="153"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="153"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="154"/>
-      <c r="AF10" s="149"/>
-      <c r="AG10" s="150"/>
-      <c r="AH10" s="150"/>
-      <c r="AI10" s="151"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="187"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="187"/>
+      <c r="O10" s="187"/>
+      <c r="P10" s="188"/>
+      <c r="Q10" s="189"/>
+      <c r="R10" s="190"/>
+      <c r="S10" s="190"/>
+      <c r="T10" s="190"/>
+      <c r="U10" s="190"/>
+      <c r="V10" s="190"/>
+      <c r="W10" s="190"/>
+      <c r="X10" s="190"/>
+      <c r="Y10" s="190"/>
+      <c r="Z10" s="190"/>
+      <c r="AA10" s="190"/>
+      <c r="AB10" s="190"/>
+      <c r="AC10" s="190"/>
+      <c r="AD10" s="190"/>
+      <c r="AE10" s="191"/>
+      <c r="AF10" s="186"/>
+      <c r="AG10" s="187"/>
+      <c r="AH10" s="187"/>
+      <c r="AI10" s="188"/>
     </row>
     <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="133"/>
-      <c r="B11" s="143"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="150"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="150"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="153"/>
-      <c r="T11" s="153"/>
-      <c r="U11" s="153"/>
-      <c r="V11" s="153"/>
-      <c r="W11" s="153"/>
-      <c r="X11" s="153"/>
-      <c r="Y11" s="153"/>
-      <c r="Z11" s="153"/>
-      <c r="AA11" s="153"/>
-      <c r="AB11" s="153"/>
-      <c r="AC11" s="153"/>
-      <c r="AD11" s="153"/>
-      <c r="AE11" s="154"/>
-      <c r="AF11" s="149"/>
-      <c r="AG11" s="150"/>
-      <c r="AH11" s="150"/>
-      <c r="AI11" s="151"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="186"/>
+      <c r="K11" s="187"/>
+      <c r="L11" s="187"/>
+      <c r="M11" s="187"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="187"/>
+      <c r="P11" s="188"/>
+      <c r="Q11" s="189"/>
+      <c r="R11" s="190"/>
+      <c r="S11" s="190"/>
+      <c r="T11" s="190"/>
+      <c r="U11" s="190"/>
+      <c r="V11" s="190"/>
+      <c r="W11" s="190"/>
+      <c r="X11" s="190"/>
+      <c r="Y11" s="190"/>
+      <c r="Z11" s="190"/>
+      <c r="AA11" s="190"/>
+      <c r="AB11" s="190"/>
+      <c r="AC11" s="190"/>
+      <c r="AD11" s="190"/>
+      <c r="AE11" s="191"/>
+      <c r="AF11" s="186"/>
+      <c r="AG11" s="187"/>
+      <c r="AH11" s="187"/>
+      <c r="AI11" s="188"/>
     </row>
     <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="133"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="150"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="153"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="153"/>
-      <c r="X12" s="153"/>
-      <c r="Y12" s="153"/>
-      <c r="Z12" s="153"/>
-      <c r="AA12" s="153"/>
-      <c r="AB12" s="153"/>
-      <c r="AC12" s="153"/>
-      <c r="AD12" s="153"/>
-      <c r="AE12" s="154"/>
-      <c r="AF12" s="149"/>
-      <c r="AG12" s="150"/>
-      <c r="AH12" s="150"/>
-      <c r="AI12" s="151"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="186"/>
+      <c r="K12" s="187"/>
+      <c r="L12" s="187"/>
+      <c r="M12" s="187"/>
+      <c r="N12" s="187"/>
+      <c r="O12" s="187"/>
+      <c r="P12" s="188"/>
+      <c r="Q12" s="189"/>
+      <c r="R12" s="190"/>
+      <c r="S12" s="190"/>
+      <c r="T12" s="190"/>
+      <c r="U12" s="190"/>
+      <c r="V12" s="190"/>
+      <c r="W12" s="190"/>
+      <c r="X12" s="190"/>
+      <c r="Y12" s="190"/>
+      <c r="Z12" s="190"/>
+      <c r="AA12" s="190"/>
+      <c r="AB12" s="190"/>
+      <c r="AC12" s="190"/>
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="191"/>
+      <c r="AF12" s="186"/>
+      <c r="AG12" s="187"/>
+      <c r="AH12" s="187"/>
+      <c r="AI12" s="188"/>
     </row>
     <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="133"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="150"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="150"/>
-      <c r="O13" s="150"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="152"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="153"/>
-      <c r="T13" s="153"/>
-      <c r="U13" s="153"/>
-      <c r="V13" s="153"/>
-      <c r="W13" s="153"/>
-      <c r="X13" s="153"/>
-      <c r="Y13" s="153"/>
-      <c r="Z13" s="153"/>
-      <c r="AA13" s="153"/>
-      <c r="AB13" s="153"/>
-      <c r="AC13" s="153"/>
-      <c r="AD13" s="153"/>
-      <c r="AE13" s="154"/>
-      <c r="AF13" s="149"/>
-      <c r="AG13" s="150"/>
-      <c r="AH13" s="150"/>
-      <c r="AI13" s="151"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="187"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="187"/>
+      <c r="P13" s="188"/>
+      <c r="Q13" s="189"/>
+      <c r="R13" s="190"/>
+      <c r="S13" s="190"/>
+      <c r="T13" s="190"/>
+      <c r="U13" s="190"/>
+      <c r="V13" s="190"/>
+      <c r="W13" s="190"/>
+      <c r="X13" s="190"/>
+      <c r="Y13" s="190"/>
+      <c r="Z13" s="190"/>
+      <c r="AA13" s="190"/>
+      <c r="AB13" s="190"/>
+      <c r="AC13" s="190"/>
+      <c r="AD13" s="190"/>
+      <c r="AE13" s="191"/>
+      <c r="AF13" s="186"/>
+      <c r="AG13" s="187"/>
+      <c r="AH13" s="187"/>
+      <c r="AI13" s="188"/>
     </row>
     <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="133"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="150"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="150"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="153"/>
-      <c r="T14" s="153"/>
-      <c r="U14" s="153"/>
-      <c r="V14" s="153"/>
-      <c r="W14" s="153"/>
-      <c r="X14" s="153"/>
-      <c r="Y14" s="153"/>
-      <c r="Z14" s="153"/>
-      <c r="AA14" s="153"/>
-      <c r="AB14" s="153"/>
-      <c r="AC14" s="153"/>
-      <c r="AD14" s="153"/>
-      <c r="AE14" s="154"/>
-      <c r="AF14" s="149"/>
-      <c r="AG14" s="150"/>
-      <c r="AH14" s="150"/>
-      <c r="AI14" s="151"/>
+      <c r="B14" s="180"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="186"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="187"/>
+      <c r="N14" s="187"/>
+      <c r="O14" s="187"/>
+      <c r="P14" s="188"/>
+      <c r="Q14" s="189"/>
+      <c r="R14" s="190"/>
+      <c r="S14" s="190"/>
+      <c r="T14" s="190"/>
+      <c r="U14" s="190"/>
+      <c r="V14" s="190"/>
+      <c r="W14" s="190"/>
+      <c r="X14" s="190"/>
+      <c r="Y14" s="190"/>
+      <c r="Z14" s="190"/>
+      <c r="AA14" s="190"/>
+      <c r="AB14" s="190"/>
+      <c r="AC14" s="190"/>
+      <c r="AD14" s="190"/>
+      <c r="AE14" s="191"/>
+      <c r="AF14" s="186"/>
+      <c r="AG14" s="187"/>
+      <c r="AH14" s="187"/>
+      <c r="AI14" s="188"/>
     </row>
     <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="133"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="150"/>
-      <c r="M15" s="150"/>
-      <c r="N15" s="150"/>
-      <c r="O15" s="150"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="152"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="153"/>
-      <c r="T15" s="153"/>
-      <c r="U15" s="153"/>
-      <c r="V15" s="153"/>
-      <c r="W15" s="153"/>
-      <c r="X15" s="153"/>
-      <c r="Y15" s="153"/>
-      <c r="Z15" s="153"/>
-      <c r="AA15" s="153"/>
-      <c r="AB15" s="153"/>
-      <c r="AC15" s="153"/>
-      <c r="AD15" s="153"/>
-      <c r="AE15" s="154"/>
-      <c r="AF15" s="149"/>
-      <c r="AG15" s="150"/>
-      <c r="AH15" s="150"/>
-      <c r="AI15" s="151"/>
+      <c r="B15" s="180"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="186"/>
+      <c r="K15" s="187"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="187"/>
+      <c r="N15" s="187"/>
+      <c r="O15" s="187"/>
+      <c r="P15" s="188"/>
+      <c r="Q15" s="189"/>
+      <c r="R15" s="190"/>
+      <c r="S15" s="190"/>
+      <c r="T15" s="190"/>
+      <c r="U15" s="190"/>
+      <c r="V15" s="190"/>
+      <c r="W15" s="190"/>
+      <c r="X15" s="190"/>
+      <c r="Y15" s="190"/>
+      <c r="Z15" s="190"/>
+      <c r="AA15" s="190"/>
+      <c r="AB15" s="190"/>
+      <c r="AC15" s="190"/>
+      <c r="AD15" s="190"/>
+      <c r="AE15" s="191"/>
+      <c r="AF15" s="186"/>
+      <c r="AG15" s="187"/>
+      <c r="AH15" s="187"/>
+      <c r="AI15" s="188"/>
     </row>
     <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="133"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="150"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="150"/>
-      <c r="O16" s="150"/>
-      <c r="P16" s="151"/>
-      <c r="Q16" s="152"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="153"/>
-      <c r="T16" s="153"/>
-      <c r="U16" s="153"/>
-      <c r="V16" s="153"/>
-      <c r="W16" s="153"/>
-      <c r="X16" s="153"/>
-      <c r="Y16" s="153"/>
-      <c r="Z16" s="153"/>
-      <c r="AA16" s="153"/>
-      <c r="AB16" s="153"/>
-      <c r="AC16" s="153"/>
-      <c r="AD16" s="153"/>
-      <c r="AE16" s="154"/>
-      <c r="AF16" s="149"/>
-      <c r="AG16" s="150"/>
-      <c r="AH16" s="150"/>
-      <c r="AI16" s="151"/>
+      <c r="B16" s="180"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="187"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="187"/>
+      <c r="N16" s="187"/>
+      <c r="O16" s="187"/>
+      <c r="P16" s="188"/>
+      <c r="Q16" s="189"/>
+      <c r="R16" s="190"/>
+      <c r="S16" s="190"/>
+      <c r="T16" s="190"/>
+      <c r="U16" s="190"/>
+      <c r="V16" s="190"/>
+      <c r="W16" s="190"/>
+      <c r="X16" s="190"/>
+      <c r="Y16" s="190"/>
+      <c r="Z16" s="190"/>
+      <c r="AA16" s="190"/>
+      <c r="AB16" s="190"/>
+      <c r="AC16" s="190"/>
+      <c r="AD16" s="190"/>
+      <c r="AE16" s="191"/>
+      <c r="AF16" s="186"/>
+      <c r="AG16" s="187"/>
+      <c r="AH16" s="187"/>
+      <c r="AI16" s="188"/>
     </row>
     <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="133"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="150"/>
-      <c r="L17" s="150"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
-      <c r="O17" s="150"/>
-      <c r="P17" s="151"/>
-      <c r="Q17" s="152"/>
-      <c r="R17" s="153"/>
-      <c r="S17" s="153"/>
-      <c r="T17" s="153"/>
-      <c r="U17" s="153"/>
-      <c r="V17" s="153"/>
-      <c r="W17" s="153"/>
-      <c r="X17" s="153"/>
-      <c r="Y17" s="153"/>
-      <c r="Z17" s="153"/>
-      <c r="AA17" s="153"/>
-      <c r="AB17" s="153"/>
-      <c r="AC17" s="153"/>
-      <c r="AD17" s="153"/>
-      <c r="AE17" s="154"/>
-      <c r="AF17" s="149"/>
-      <c r="AG17" s="150"/>
-      <c r="AH17" s="150"/>
-      <c r="AI17" s="151"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="184"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="186"/>
+      <c r="K17" s="187"/>
+      <c r="L17" s="187"/>
+      <c r="M17" s="187"/>
+      <c r="N17" s="187"/>
+      <c r="O17" s="187"/>
+      <c r="P17" s="188"/>
+      <c r="Q17" s="189"/>
+      <c r="R17" s="190"/>
+      <c r="S17" s="190"/>
+      <c r="T17" s="190"/>
+      <c r="U17" s="190"/>
+      <c r="V17" s="190"/>
+      <c r="W17" s="190"/>
+      <c r="X17" s="190"/>
+      <c r="Y17" s="190"/>
+      <c r="Z17" s="190"/>
+      <c r="AA17" s="190"/>
+      <c r="AB17" s="190"/>
+      <c r="AC17" s="190"/>
+      <c r="AD17" s="190"/>
+      <c r="AE17" s="191"/>
+      <c r="AF17" s="186"/>
+      <c r="AG17" s="187"/>
+      <c r="AH17" s="187"/>
+      <c r="AI17" s="188"/>
     </row>
     <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="133"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="150"/>
-      <c r="L18" s="150"/>
-      <c r="M18" s="150"/>
-      <c r="N18" s="150"/>
-      <c r="O18" s="150"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="152"/>
-      <c r="R18" s="153"/>
-      <c r="S18" s="153"/>
-      <c r="T18" s="153"/>
-      <c r="U18" s="153"/>
-      <c r="V18" s="153"/>
-      <c r="W18" s="153"/>
-      <c r="X18" s="153"/>
-      <c r="Y18" s="153"/>
-      <c r="Z18" s="153"/>
-      <c r="AA18" s="153"/>
-      <c r="AB18" s="153"/>
-      <c r="AC18" s="153"/>
-      <c r="AD18" s="153"/>
-      <c r="AE18" s="154"/>
-      <c r="AF18" s="149"/>
-      <c r="AG18" s="150"/>
-      <c r="AH18" s="150"/>
-      <c r="AI18" s="151"/>
+      <c r="B18" s="180"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="187"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="187"/>
+      <c r="P18" s="188"/>
+      <c r="Q18" s="189"/>
+      <c r="R18" s="190"/>
+      <c r="S18" s="190"/>
+      <c r="T18" s="190"/>
+      <c r="U18" s="190"/>
+      <c r="V18" s="190"/>
+      <c r="W18" s="190"/>
+      <c r="X18" s="190"/>
+      <c r="Y18" s="190"/>
+      <c r="Z18" s="190"/>
+      <c r="AA18" s="190"/>
+      <c r="AB18" s="190"/>
+      <c r="AC18" s="190"/>
+      <c r="AD18" s="190"/>
+      <c r="AE18" s="191"/>
+      <c r="AF18" s="186"/>
+      <c r="AG18" s="187"/>
+      <c r="AH18" s="187"/>
+      <c r="AI18" s="188"/>
     </row>
     <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="133"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="150"/>
-      <c r="M19" s="150"/>
-      <c r="N19" s="150"/>
-      <c r="O19" s="150"/>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="153"/>
-      <c r="S19" s="153"/>
-      <c r="T19" s="153"/>
-      <c r="U19" s="153"/>
-      <c r="V19" s="153"/>
-      <c r="W19" s="153"/>
-      <c r="X19" s="153"/>
-      <c r="Y19" s="153"/>
-      <c r="Z19" s="153"/>
-      <c r="AA19" s="153"/>
-      <c r="AB19" s="153"/>
-      <c r="AC19" s="153"/>
-      <c r="AD19" s="153"/>
-      <c r="AE19" s="154"/>
-      <c r="AF19" s="149"/>
-      <c r="AG19" s="150"/>
-      <c r="AH19" s="150"/>
-      <c r="AI19" s="151"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="186"/>
+      <c r="K19" s="187"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="187"/>
+      <c r="N19" s="187"/>
+      <c r="O19" s="187"/>
+      <c r="P19" s="188"/>
+      <c r="Q19" s="189"/>
+      <c r="R19" s="190"/>
+      <c r="S19" s="190"/>
+      <c r="T19" s="190"/>
+      <c r="U19" s="190"/>
+      <c r="V19" s="190"/>
+      <c r="W19" s="190"/>
+      <c r="X19" s="190"/>
+      <c r="Y19" s="190"/>
+      <c r="Z19" s="190"/>
+      <c r="AA19" s="190"/>
+      <c r="AB19" s="190"/>
+      <c r="AC19" s="190"/>
+      <c r="AD19" s="190"/>
+      <c r="AE19" s="191"/>
+      <c r="AF19" s="186"/>
+      <c r="AG19" s="187"/>
+      <c r="AH19" s="187"/>
+      <c r="AI19" s="188"/>
     </row>
     <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="133"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="150"/>
-      <c r="L20" s="150"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="150"/>
-      <c r="O20" s="150"/>
-      <c r="P20" s="151"/>
-      <c r="Q20" s="152"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="153"/>
-      <c r="T20" s="153"/>
-      <c r="U20" s="153"/>
-      <c r="V20" s="153"/>
-      <c r="W20" s="153"/>
-      <c r="X20" s="153"/>
-      <c r="Y20" s="153"/>
-      <c r="Z20" s="153"/>
-      <c r="AA20" s="153"/>
-      <c r="AB20" s="153"/>
-      <c r="AC20" s="153"/>
-      <c r="AD20" s="153"/>
-      <c r="AE20" s="154"/>
-      <c r="AF20" s="149"/>
-      <c r="AG20" s="150"/>
-      <c r="AH20" s="150"/>
-      <c r="AI20" s="151"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="187"/>
+      <c r="L20" s="187"/>
+      <c r="M20" s="187"/>
+      <c r="N20" s="187"/>
+      <c r="O20" s="187"/>
+      <c r="P20" s="188"/>
+      <c r="Q20" s="189"/>
+      <c r="R20" s="190"/>
+      <c r="S20" s="190"/>
+      <c r="T20" s="190"/>
+      <c r="U20" s="190"/>
+      <c r="V20" s="190"/>
+      <c r="W20" s="190"/>
+      <c r="X20" s="190"/>
+      <c r="Y20" s="190"/>
+      <c r="Z20" s="190"/>
+      <c r="AA20" s="190"/>
+      <c r="AB20" s="190"/>
+      <c r="AC20" s="190"/>
+      <c r="AD20" s="190"/>
+      <c r="AE20" s="191"/>
+      <c r="AF20" s="186"/>
+      <c r="AG20" s="187"/>
+      <c r="AH20" s="187"/>
+      <c r="AI20" s="188"/>
     </row>
     <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="133"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="150"/>
-      <c r="L21" s="150"/>
-      <c r="M21" s="150"/>
-      <c r="N21" s="150"/>
-      <c r="O21" s="150"/>
-      <c r="P21" s="151"/>
-      <c r="Q21" s="152"/>
-      <c r="R21" s="153"/>
-      <c r="S21" s="153"/>
-      <c r="T21" s="153"/>
-      <c r="U21" s="153"/>
-      <c r="V21" s="153"/>
-      <c r="W21" s="153"/>
-      <c r="X21" s="153"/>
-      <c r="Y21" s="153"/>
-      <c r="Z21" s="153"/>
-      <c r="AA21" s="153"/>
-      <c r="AB21" s="153"/>
-      <c r="AC21" s="153"/>
-      <c r="AD21" s="153"/>
-      <c r="AE21" s="154"/>
-      <c r="AF21" s="149"/>
-      <c r="AG21" s="150"/>
-      <c r="AH21" s="150"/>
-      <c r="AI21" s="151"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="186"/>
+      <c r="K21" s="187"/>
+      <c r="L21" s="187"/>
+      <c r="M21" s="187"/>
+      <c r="N21" s="187"/>
+      <c r="O21" s="187"/>
+      <c r="P21" s="188"/>
+      <c r="Q21" s="189"/>
+      <c r="R21" s="190"/>
+      <c r="S21" s="190"/>
+      <c r="T21" s="190"/>
+      <c r="U21" s="190"/>
+      <c r="V21" s="190"/>
+      <c r="W21" s="190"/>
+      <c r="X21" s="190"/>
+      <c r="Y21" s="190"/>
+      <c r="Z21" s="190"/>
+      <c r="AA21" s="190"/>
+      <c r="AB21" s="190"/>
+      <c r="AC21" s="190"/>
+      <c r="AD21" s="190"/>
+      <c r="AE21" s="191"/>
+      <c r="AF21" s="186"/>
+      <c r="AG21" s="187"/>
+      <c r="AH21" s="187"/>
+      <c r="AI21" s="188"/>
     </row>
     <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="133"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="150"/>
-      <c r="L22" s="150"/>
-      <c r="M22" s="150"/>
-      <c r="N22" s="150"/>
-      <c r="O22" s="150"/>
-      <c r="P22" s="151"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="153"/>
-      <c r="S22" s="153"/>
-      <c r="T22" s="153"/>
-      <c r="U22" s="153"/>
-      <c r="V22" s="153"/>
-      <c r="W22" s="153"/>
-      <c r="X22" s="153"/>
-      <c r="Y22" s="153"/>
-      <c r="Z22" s="153"/>
-      <c r="AA22" s="153"/>
-      <c r="AB22" s="153"/>
-      <c r="AC22" s="153"/>
-      <c r="AD22" s="153"/>
-      <c r="AE22" s="154"/>
-      <c r="AF22" s="149"/>
-      <c r="AG22" s="150"/>
-      <c r="AH22" s="150"/>
-      <c r="AI22" s="151"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="186"/>
+      <c r="K22" s="187"/>
+      <c r="L22" s="187"/>
+      <c r="M22" s="187"/>
+      <c r="N22" s="187"/>
+      <c r="O22" s="187"/>
+      <c r="P22" s="188"/>
+      <c r="Q22" s="189"/>
+      <c r="R22" s="190"/>
+      <c r="S22" s="190"/>
+      <c r="T22" s="190"/>
+      <c r="U22" s="190"/>
+      <c r="V22" s="190"/>
+      <c r="W22" s="190"/>
+      <c r="X22" s="190"/>
+      <c r="Y22" s="190"/>
+      <c r="Z22" s="190"/>
+      <c r="AA22" s="190"/>
+      <c r="AB22" s="190"/>
+      <c r="AC22" s="190"/>
+      <c r="AD22" s="190"/>
+      <c r="AE22" s="191"/>
+      <c r="AF22" s="186"/>
+      <c r="AG22" s="187"/>
+      <c r="AH22" s="187"/>
+      <c r="AI22" s="188"/>
     </row>
     <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="133"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="149"/>
-      <c r="K23" s="150"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="150"/>
-      <c r="O23" s="150"/>
-      <c r="P23" s="151"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="153"/>
-      <c r="S23" s="153"/>
-      <c r="T23" s="153"/>
-      <c r="U23" s="153"/>
-      <c r="V23" s="153"/>
-      <c r="W23" s="153"/>
-      <c r="X23" s="153"/>
-      <c r="Y23" s="153"/>
-      <c r="Z23" s="153"/>
-      <c r="AA23" s="153"/>
-      <c r="AB23" s="153"/>
-      <c r="AC23" s="153"/>
-      <c r="AD23" s="153"/>
-      <c r="AE23" s="154"/>
-      <c r="AF23" s="149"/>
-      <c r="AG23" s="150"/>
-      <c r="AH23" s="150"/>
-      <c r="AI23" s="151"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="186"/>
+      <c r="K23" s="187"/>
+      <c r="L23" s="187"/>
+      <c r="M23" s="187"/>
+      <c r="N23" s="187"/>
+      <c r="O23" s="187"/>
+      <c r="P23" s="188"/>
+      <c r="Q23" s="189"/>
+      <c r="R23" s="190"/>
+      <c r="S23" s="190"/>
+      <c r="T23" s="190"/>
+      <c r="U23" s="190"/>
+      <c r="V23" s="190"/>
+      <c r="W23" s="190"/>
+      <c r="X23" s="190"/>
+      <c r="Y23" s="190"/>
+      <c r="Z23" s="190"/>
+      <c r="AA23" s="190"/>
+      <c r="AB23" s="190"/>
+      <c r="AC23" s="190"/>
+      <c r="AD23" s="190"/>
+      <c r="AE23" s="191"/>
+      <c r="AF23" s="186"/>
+      <c r="AG23" s="187"/>
+      <c r="AH23" s="187"/>
+      <c r="AI23" s="188"/>
     </row>
     <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="133"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="150"/>
-      <c r="M24" s="150"/>
-      <c r="N24" s="150"/>
-      <c r="O24" s="150"/>
-      <c r="P24" s="151"/>
-      <c r="Q24" s="152"/>
-      <c r="R24" s="153"/>
-      <c r="S24" s="153"/>
-      <c r="T24" s="153"/>
-      <c r="U24" s="153"/>
-      <c r="V24" s="153"/>
-      <c r="W24" s="153"/>
-      <c r="X24" s="153"/>
-      <c r="Y24" s="153"/>
-      <c r="Z24" s="153"/>
-      <c r="AA24" s="153"/>
-      <c r="AB24" s="153"/>
-      <c r="AC24" s="153"/>
-      <c r="AD24" s="153"/>
-      <c r="AE24" s="154"/>
-      <c r="AF24" s="149"/>
-      <c r="AG24" s="150"/>
-      <c r="AH24" s="150"/>
-      <c r="AI24" s="151"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="187"/>
+      <c r="L24" s="187"/>
+      <c r="M24" s="187"/>
+      <c r="N24" s="187"/>
+      <c r="O24" s="187"/>
+      <c r="P24" s="188"/>
+      <c r="Q24" s="189"/>
+      <c r="R24" s="190"/>
+      <c r="S24" s="190"/>
+      <c r="T24" s="190"/>
+      <c r="U24" s="190"/>
+      <c r="V24" s="190"/>
+      <c r="W24" s="190"/>
+      <c r="X24" s="190"/>
+      <c r="Y24" s="190"/>
+      <c r="Z24" s="190"/>
+      <c r="AA24" s="190"/>
+      <c r="AB24" s="190"/>
+      <c r="AC24" s="190"/>
+      <c r="AD24" s="190"/>
+      <c r="AE24" s="191"/>
+      <c r="AF24" s="186"/>
+      <c r="AG24" s="187"/>
+      <c r="AH24" s="187"/>
+      <c r="AI24" s="188"/>
     </row>
     <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="133"/>
-      <c r="B25" s="143"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="150"/>
-      <c r="O25" s="150"/>
-      <c r="P25" s="151"/>
-      <c r="Q25" s="152"/>
-      <c r="R25" s="153"/>
-      <c r="S25" s="153"/>
-      <c r="T25" s="153"/>
-      <c r="U25" s="153"/>
-      <c r="V25" s="153"/>
-      <c r="W25" s="153"/>
-      <c r="X25" s="153"/>
-      <c r="Y25" s="153"/>
-      <c r="Z25" s="153"/>
-      <c r="AA25" s="153"/>
-      <c r="AB25" s="153"/>
-      <c r="AC25" s="153"/>
-      <c r="AD25" s="153"/>
-      <c r="AE25" s="154"/>
-      <c r="AF25" s="149"/>
-      <c r="AG25" s="150"/>
-      <c r="AH25" s="150"/>
-      <c r="AI25" s="151"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="187"/>
+      <c r="L25" s="187"/>
+      <c r="M25" s="187"/>
+      <c r="N25" s="187"/>
+      <c r="O25" s="187"/>
+      <c r="P25" s="188"/>
+      <c r="Q25" s="189"/>
+      <c r="R25" s="190"/>
+      <c r="S25" s="190"/>
+      <c r="T25" s="190"/>
+      <c r="U25" s="190"/>
+      <c r="V25" s="190"/>
+      <c r="W25" s="190"/>
+      <c r="X25" s="190"/>
+      <c r="Y25" s="190"/>
+      <c r="Z25" s="190"/>
+      <c r="AA25" s="190"/>
+      <c r="AB25" s="190"/>
+      <c r="AC25" s="190"/>
+      <c r="AD25" s="190"/>
+      <c r="AE25" s="191"/>
+      <c r="AF25" s="186"/>
+      <c r="AG25" s="187"/>
+      <c r="AH25" s="187"/>
+      <c r="AI25" s="188"/>
     </row>
     <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="133"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
-      <c r="N26" s="150"/>
-      <c r="O26" s="150"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="152"/>
-      <c r="R26" s="153"/>
-      <c r="S26" s="153"/>
-      <c r="T26" s="153"/>
-      <c r="U26" s="153"/>
-      <c r="V26" s="153"/>
-      <c r="W26" s="153"/>
-      <c r="X26" s="153"/>
-      <c r="Y26" s="153"/>
-      <c r="Z26" s="153"/>
-      <c r="AA26" s="153"/>
-      <c r="AB26" s="153"/>
-      <c r="AC26" s="153"/>
-      <c r="AD26" s="153"/>
-      <c r="AE26" s="154"/>
-      <c r="AF26" s="149"/>
-      <c r="AG26" s="150"/>
-      <c r="AH26" s="150"/>
-      <c r="AI26" s="151"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="180"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="186"/>
+      <c r="K26" s="187"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="187"/>
+      <c r="N26" s="187"/>
+      <c r="O26" s="187"/>
+      <c r="P26" s="188"/>
+      <c r="Q26" s="189"/>
+      <c r="R26" s="190"/>
+      <c r="S26" s="190"/>
+      <c r="T26" s="190"/>
+      <c r="U26" s="190"/>
+      <c r="V26" s="190"/>
+      <c r="W26" s="190"/>
+      <c r="X26" s="190"/>
+      <c r="Y26" s="190"/>
+      <c r="Z26" s="190"/>
+      <c r="AA26" s="190"/>
+      <c r="AB26" s="190"/>
+      <c r="AC26" s="190"/>
+      <c r="AD26" s="190"/>
+      <c r="AE26" s="191"/>
+      <c r="AF26" s="186"/>
+      <c r="AG26" s="187"/>
+      <c r="AH26" s="187"/>
+      <c r="AI26" s="188"/>
     </row>
     <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="133"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
-      <c r="N27" s="150"/>
-      <c r="O27" s="150"/>
-      <c r="P27" s="151"/>
-      <c r="Q27" s="152"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="153"/>
-      <c r="T27" s="153"/>
-      <c r="U27" s="153"/>
-      <c r="V27" s="153"/>
-      <c r="W27" s="153"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="153"/>
-      <c r="Z27" s="153"/>
-      <c r="AA27" s="153"/>
-      <c r="AB27" s="153"/>
-      <c r="AC27" s="153"/>
-      <c r="AD27" s="153"/>
-      <c r="AE27" s="154"/>
-      <c r="AF27" s="149"/>
-      <c r="AG27" s="150"/>
-      <c r="AH27" s="150"/>
-      <c r="AI27" s="151"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="187"/>
+      <c r="O27" s="187"/>
+      <c r="P27" s="188"/>
+      <c r="Q27" s="189"/>
+      <c r="R27" s="190"/>
+      <c r="S27" s="190"/>
+      <c r="T27" s="190"/>
+      <c r="U27" s="190"/>
+      <c r="V27" s="190"/>
+      <c r="W27" s="190"/>
+      <c r="X27" s="190"/>
+      <c r="Y27" s="190"/>
+      <c r="Z27" s="190"/>
+      <c r="AA27" s="190"/>
+      <c r="AB27" s="190"/>
+      <c r="AC27" s="190"/>
+      <c r="AD27" s="190"/>
+      <c r="AE27" s="191"/>
+      <c r="AF27" s="186"/>
+      <c r="AG27" s="187"/>
+      <c r="AH27" s="187"/>
+      <c r="AI27" s="188"/>
     </row>
     <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="133"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="150"/>
-      <c r="P28" s="151"/>
-      <c r="Q28" s="152"/>
-      <c r="R28" s="153"/>
-      <c r="S28" s="153"/>
-      <c r="T28" s="153"/>
-      <c r="U28" s="153"/>
-      <c r="V28" s="153"/>
-      <c r="W28" s="153"/>
-      <c r="X28" s="153"/>
-      <c r="Y28" s="153"/>
-      <c r="Z28" s="153"/>
-      <c r="AA28" s="153"/>
-      <c r="AB28" s="153"/>
-      <c r="AC28" s="153"/>
-      <c r="AD28" s="153"/>
-      <c r="AE28" s="154"/>
-      <c r="AF28" s="149"/>
-      <c r="AG28" s="150"/>
-      <c r="AH28" s="150"/>
-      <c r="AI28" s="151"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="180"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="187"/>
+      <c r="L28" s="187"/>
+      <c r="M28" s="187"/>
+      <c r="N28" s="187"/>
+      <c r="O28" s="187"/>
+      <c r="P28" s="188"/>
+      <c r="Q28" s="189"/>
+      <c r="R28" s="190"/>
+      <c r="S28" s="190"/>
+      <c r="T28" s="190"/>
+      <c r="U28" s="190"/>
+      <c r="V28" s="190"/>
+      <c r="W28" s="190"/>
+      <c r="X28" s="190"/>
+      <c r="Y28" s="190"/>
+      <c r="Z28" s="190"/>
+      <c r="AA28" s="190"/>
+      <c r="AB28" s="190"/>
+      <c r="AC28" s="190"/>
+      <c r="AD28" s="190"/>
+      <c r="AE28" s="191"/>
+      <c r="AF28" s="186"/>
+      <c r="AG28" s="187"/>
+      <c r="AH28" s="187"/>
+      <c r="AI28" s="188"/>
     </row>
     <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="133"/>
-      <c r="B29" s="143"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
-      <c r="N29" s="150"/>
-      <c r="O29" s="150"/>
-      <c r="P29" s="151"/>
-      <c r="Q29" s="152"/>
-      <c r="R29" s="153"/>
-      <c r="S29" s="153"/>
-      <c r="T29" s="153"/>
-      <c r="U29" s="153"/>
-      <c r="V29" s="153"/>
-      <c r="W29" s="153"/>
-      <c r="X29" s="153"/>
-      <c r="Y29" s="153"/>
-      <c r="Z29" s="153"/>
-      <c r="AA29" s="153"/>
-      <c r="AB29" s="153"/>
-      <c r="AC29" s="153"/>
-      <c r="AD29" s="153"/>
-      <c r="AE29" s="154"/>
-      <c r="AF29" s="149"/>
-      <c r="AG29" s="150"/>
-      <c r="AH29" s="150"/>
-      <c r="AI29" s="151"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="180"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="186"/>
+      <c r="K29" s="187"/>
+      <c r="L29" s="187"/>
+      <c r="M29" s="187"/>
+      <c r="N29" s="187"/>
+      <c r="O29" s="187"/>
+      <c r="P29" s="188"/>
+      <c r="Q29" s="189"/>
+      <c r="R29" s="190"/>
+      <c r="S29" s="190"/>
+      <c r="T29" s="190"/>
+      <c r="U29" s="190"/>
+      <c r="V29" s="190"/>
+      <c r="W29" s="190"/>
+      <c r="X29" s="190"/>
+      <c r="Y29" s="190"/>
+      <c r="Z29" s="190"/>
+      <c r="AA29" s="190"/>
+      <c r="AB29" s="190"/>
+      <c r="AC29" s="190"/>
+      <c r="AD29" s="190"/>
+      <c r="AE29" s="191"/>
+      <c r="AF29" s="186"/>
+      <c r="AG29" s="187"/>
+      <c r="AH29" s="187"/>
+      <c r="AI29" s="188"/>
     </row>
     <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="133"/>
-      <c r="B30" s="143"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
-      <c r="N30" s="150"/>
-      <c r="O30" s="150"/>
-      <c r="P30" s="151"/>
-      <c r="Q30" s="152"/>
-      <c r="R30" s="153"/>
-      <c r="S30" s="153"/>
-      <c r="T30" s="153"/>
-      <c r="U30" s="153"/>
-      <c r="V30" s="153"/>
-      <c r="W30" s="153"/>
-      <c r="X30" s="153"/>
-      <c r="Y30" s="153"/>
-      <c r="Z30" s="153"/>
-      <c r="AA30" s="153"/>
-      <c r="AB30" s="153"/>
-      <c r="AC30" s="153"/>
-      <c r="AD30" s="153"/>
-      <c r="AE30" s="154"/>
-      <c r="AF30" s="149"/>
-      <c r="AG30" s="150"/>
-      <c r="AH30" s="150"/>
-      <c r="AI30" s="151"/>
+      <c r="B30" s="180"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="180"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="187"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="187"/>
+      <c r="N30" s="187"/>
+      <c r="O30" s="187"/>
+      <c r="P30" s="188"/>
+      <c r="Q30" s="189"/>
+      <c r="R30" s="190"/>
+      <c r="S30" s="190"/>
+      <c r="T30" s="190"/>
+      <c r="U30" s="190"/>
+      <c r="V30" s="190"/>
+      <c r="W30" s="190"/>
+      <c r="X30" s="190"/>
+      <c r="Y30" s="190"/>
+      <c r="Z30" s="190"/>
+      <c r="AA30" s="190"/>
+      <c r="AB30" s="190"/>
+      <c r="AC30" s="190"/>
+      <c r="AD30" s="190"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="186"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="188"/>
     </row>
     <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="133"/>
-      <c r="B31" s="143"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
-      <c r="N31" s="150"/>
-      <c r="O31" s="150"/>
-      <c r="P31" s="151"/>
-      <c r="Q31" s="152"/>
-      <c r="R31" s="153"/>
-      <c r="S31" s="153"/>
-      <c r="T31" s="153"/>
-      <c r="U31" s="153"/>
-      <c r="V31" s="153"/>
-      <c r="W31" s="153"/>
-      <c r="X31" s="153"/>
-      <c r="Y31" s="153"/>
-      <c r="Z31" s="153"/>
-      <c r="AA31" s="153"/>
-      <c r="AB31" s="153"/>
-      <c r="AC31" s="153"/>
-      <c r="AD31" s="153"/>
-      <c r="AE31" s="154"/>
-      <c r="AF31" s="149"/>
-      <c r="AG31" s="150"/>
-      <c r="AH31" s="150"/>
-      <c r="AI31" s="151"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="180"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="186"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="187"/>
+      <c r="M31" s="187"/>
+      <c r="N31" s="187"/>
+      <c r="O31" s="187"/>
+      <c r="P31" s="188"/>
+      <c r="Q31" s="189"/>
+      <c r="R31" s="190"/>
+      <c r="S31" s="190"/>
+      <c r="T31" s="190"/>
+      <c r="U31" s="190"/>
+      <c r="V31" s="190"/>
+      <c r="W31" s="190"/>
+      <c r="X31" s="190"/>
+      <c r="Y31" s="190"/>
+      <c r="Z31" s="190"/>
+      <c r="AA31" s="190"/>
+      <c r="AB31" s="190"/>
+      <c r="AC31" s="190"/>
+      <c r="AD31" s="190"/>
+      <c r="AE31" s="191"/>
+      <c r="AF31" s="186"/>
+      <c r="AG31" s="187"/>
+      <c r="AH31" s="187"/>
+      <c r="AI31" s="188"/>
     </row>
     <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="133"/>
-      <c r="B32" s="143"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
-      <c r="N32" s="150"/>
-      <c r="O32" s="150"/>
-      <c r="P32" s="151"/>
-      <c r="Q32" s="152"/>
-      <c r="R32" s="153"/>
-      <c r="S32" s="153"/>
-      <c r="T32" s="153"/>
-      <c r="U32" s="153"/>
-      <c r="V32" s="153"/>
-      <c r="W32" s="153"/>
-      <c r="X32" s="153"/>
-      <c r="Y32" s="153"/>
-      <c r="Z32" s="153"/>
-      <c r="AA32" s="153"/>
-      <c r="AB32" s="153"/>
-      <c r="AC32" s="153"/>
-      <c r="AD32" s="153"/>
-      <c r="AE32" s="154"/>
-      <c r="AF32" s="149"/>
-      <c r="AG32" s="150"/>
-      <c r="AH32" s="150"/>
-      <c r="AI32" s="151"/>
+      <c r="B32" s="180"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="180"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="186"/>
+      <c r="K32" s="205"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="187"/>
+      <c r="N32" s="187"/>
+      <c r="O32" s="187"/>
+      <c r="P32" s="188"/>
+      <c r="Q32" s="189"/>
+      <c r="R32" s="190"/>
+      <c r="S32" s="190"/>
+      <c r="T32" s="190"/>
+      <c r="U32" s="190"/>
+      <c r="V32" s="190"/>
+      <c r="W32" s="190"/>
+      <c r="X32" s="190"/>
+      <c r="Y32" s="190"/>
+      <c r="Z32" s="190"/>
+      <c r="AA32" s="190"/>
+      <c r="AB32" s="190"/>
+      <c r="AC32" s="190"/>
+      <c r="AD32" s="190"/>
+      <c r="AE32" s="191"/>
+      <c r="AF32" s="186"/>
+      <c r="AG32" s="187"/>
+      <c r="AH32" s="187"/>
+      <c r="AI32" s="188"/>
     </row>
     <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="133"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
-      <c r="N33" s="150"/>
-      <c r="O33" s="150"/>
-      <c r="P33" s="151"/>
-      <c r="Q33" s="152"/>
-      <c r="R33" s="153"/>
-      <c r="S33" s="153"/>
-      <c r="T33" s="153"/>
-      <c r="U33" s="153"/>
-      <c r="V33" s="153"/>
-      <c r="W33" s="153"/>
-      <c r="X33" s="153"/>
-      <c r="Y33" s="153"/>
-      <c r="Z33" s="153"/>
-      <c r="AA33" s="153"/>
-      <c r="AB33" s="153"/>
-      <c r="AC33" s="153"/>
-      <c r="AD33" s="153"/>
-      <c r="AE33" s="154"/>
-      <c r="AF33" s="149"/>
-      <c r="AG33" s="150"/>
-      <c r="AH33" s="150"/>
-      <c r="AI33" s="151"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="180"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="186"/>
+      <c r="K33" s="187"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="187"/>
+      <c r="N33" s="187"/>
+      <c r="O33" s="187"/>
+      <c r="P33" s="188"/>
+      <c r="Q33" s="189"/>
+      <c r="R33" s="190"/>
+      <c r="S33" s="190"/>
+      <c r="T33" s="190"/>
+      <c r="U33" s="190"/>
+      <c r="V33" s="190"/>
+      <c r="W33" s="190"/>
+      <c r="X33" s="190"/>
+      <c r="Y33" s="190"/>
+      <c r="Z33" s="190"/>
+      <c r="AA33" s="190"/>
+      <c r="AB33" s="190"/>
+      <c r="AC33" s="190"/>
+      <c r="AD33" s="190"/>
+      <c r="AE33" s="191"/>
+      <c r="AF33" s="186"/>
+      <c r="AG33" s="187"/>
+      <c r="AH33" s="187"/>
+      <c r="AI33" s="188"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -6826,162 +6982,6 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -7138,157 +7138,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="179" t="str">
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="221" t="s">
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="209" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="223"/>
-      <c r="S1" s="209" t="str">
+      <c r="P1" s="210"/>
+      <c r="Q1" s="210"/>
+      <c r="R1" s="211"/>
+      <c r="S1" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="218" t="s">
+      <c r="T1" s="222"/>
+      <c r="U1" s="222"/>
+      <c r="V1" s="222"/>
+      <c r="W1" s="222"/>
+      <c r="X1" s="222"/>
+      <c r="Y1" s="222"/>
+      <c r="Z1" s="223"/>
+      <c r="AA1" s="206" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="220"/>
-      <c r="AC1" s="169" t="str">
+      <c r="AB1" s="208"/>
+      <c r="AC1" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="206" t="str">
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="207"/>
-      <c r="AI1" s="208"/>
+      <c r="AH1" s="219"/>
+      <c r="AI1" s="220"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="179" t="str">
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="225"/>
-      <c r="Q2" s="225"/>
-      <c r="R2" s="226"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="218" t="s">
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="212"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="225"/>
+      <c r="U2" s="225"/>
+      <c r="V2" s="225"/>
+      <c r="W2" s="225"/>
+      <c r="X2" s="225"/>
+      <c r="Y2" s="225"/>
+      <c r="Z2" s="226"/>
+      <c r="AA2" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="220"/>
-      <c r="AC2" s="169" t="str">
+      <c r="AB2" s="208"/>
+      <c r="AC2" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="170"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="206" t="str">
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
+      <c r="AH2" s="219"/>
+      <c r="AI2" s="220"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="218" t="s">
+      <c r="A3" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="219"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="179" t="str">
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
-      <c r="N3" s="181"/>
-      <c r="O3" s="227"/>
-      <c r="P3" s="228"/>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="229"/>
-      <c r="S3" s="215"/>
-      <c r="T3" s="216"/>
-      <c r="U3" s="216"/>
-      <c r="V3" s="216"/>
-      <c r="W3" s="216"/>
-      <c r="X3" s="216"/>
-      <c r="Y3" s="216"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="218"/>
-      <c r="AB3" s="220"/>
-      <c r="AC3" s="169" t="str">
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="215"/>
+      <c r="P3" s="216"/>
+      <c r="Q3" s="216"/>
+      <c r="R3" s="217"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="228"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="228"/>
+      <c r="W3" s="228"/>
+      <c r="X3" s="228"/>
+      <c r="Y3" s="228"/>
+      <c r="Z3" s="229"/>
+      <c r="AA3" s="206"/>
+      <c r="AB3" s="208"/>
+      <c r="AC3" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="171"/>
-      <c r="AG3" s="206" t="str">
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="144"/>
+      <c r="AF3" s="145"/>
+      <c r="AG3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="207"/>
-      <c r="AI3" s="208"/>
+      <c r="AH3" s="219"/>
+      <c r="AI3" s="220"/>
     </row>
     <row r="4" spans="1:35" s="46" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="44"/>
@@ -8755,14 +8755,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -8772,6 +8764,14 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -8800,157 +8800,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="179" t="str">
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="188" t="s">
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="190"/>
-      <c r="S1" s="209" t="str">
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="185" t="s">
+      <c r="T1" s="222"/>
+      <c r="U1" s="222"/>
+      <c r="V1" s="222"/>
+      <c r="W1" s="222"/>
+      <c r="X1" s="222"/>
+      <c r="Y1" s="222"/>
+      <c r="Z1" s="223"/>
+      <c r="AA1" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="187"/>
-      <c r="AC1" s="169" t="str">
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="246" t="str">
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="247"/>
-      <c r="AI1" s="248"/>
+      <c r="AH1" s="232"/>
+      <c r="AI1" s="233"/>
     </row>
     <row r="2" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="179" t="str">
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="192"/>
-      <c r="Q2" s="192"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="185" t="s">
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="225"/>
+      <c r="U2" s="225"/>
+      <c r="V2" s="225"/>
+      <c r="W2" s="225"/>
+      <c r="X2" s="225"/>
+      <c r="Y2" s="225"/>
+      <c r="Z2" s="226"/>
+      <c r="AA2" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="187"/>
-      <c r="AC2" s="169" t="str">
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="170"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="246" t="str">
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="247"/>
-      <c r="AI2" s="248"/>
+      <c r="AH2" s="232"/>
+      <c r="AI2" s="233"/>
     </row>
     <row r="3" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="179" t="str">
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
-      <c r="N3" s="181"/>
-      <c r="O3" s="194"/>
-      <c r="P3" s="195"/>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="196"/>
-      <c r="S3" s="215"/>
-      <c r="T3" s="216"/>
-      <c r="U3" s="216"/>
-      <c r="V3" s="216"/>
-      <c r="W3" s="216"/>
-      <c r="X3" s="216"/>
-      <c r="Y3" s="216"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="187"/>
-      <c r="AC3" s="169" t="str">
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="228"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="228"/>
+      <c r="W3" s="228"/>
+      <c r="X3" s="228"/>
+      <c r="Y3" s="228"/>
+      <c r="Z3" s="229"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="171"/>
-      <c r="AG3" s="246" t="str">
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="144"/>
+      <c r="AF3" s="145"/>
+      <c r="AG3" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="247"/>
-      <c r="AI3" s="248"/>
+      <c r="AH3" s="232"/>
+      <c r="AI3" s="233"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30"/>
@@ -9106,88 +9106,88 @@
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="239" t="s">
+      <c r="D8" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="240"/>
-      <c r="F8" s="240"/>
-      <c r="G8" s="241"/>
-      <c r="H8" s="249"/>
-      <c r="I8" s="249"/>
-      <c r="J8" s="249"/>
-      <c r="K8" s="249"/>
-      <c r="L8" s="249"/>
-      <c r="M8" s="249"/>
-      <c r="N8" s="249"/>
-      <c r="O8" s="249"/>
-      <c r="P8" s="249"/>
-      <c r="Q8" s="249"/>
-      <c r="R8" s="249"/>
-      <c r="S8" s="249"/>
-      <c r="T8" s="249"/>
-      <c r="U8" s="249"/>
-      <c r="V8" s="249"/>
-      <c r="W8" s="249"/>
-      <c r="X8" s="249"/>
-      <c r="Y8" s="249"/>
-      <c r="Z8" s="249"/>
-      <c r="AA8" s="249"/>
-      <c r="AB8" s="249"/>
-      <c r="AC8" s="249"/>
-      <c r="AD8" s="249"/>
-      <c r="AE8" s="249"/>
-      <c r="AF8" s="249"/>
-      <c r="AG8" s="249"/>
-      <c r="AH8" s="249"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="236"/>
+      <c r="G8" s="237"/>
+      <c r="H8" s="234"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="234"/>
+      <c r="M8" s="234"/>
+      <c r="N8" s="234"/>
+      <c r="O8" s="234"/>
+      <c r="P8" s="234"/>
+      <c r="Q8" s="234"/>
+      <c r="R8" s="234"/>
+      <c r="S8" s="234"/>
+      <c r="T8" s="234"/>
+      <c r="U8" s="234"/>
+      <c r="V8" s="234"/>
+      <c r="W8" s="234"/>
+      <c r="X8" s="234"/>
+      <c r="Y8" s="234"/>
+      <c r="Z8" s="234"/>
+      <c r="AA8" s="234"/>
+      <c r="AB8" s="234"/>
+      <c r="AC8" s="234"/>
+      <c r="AD8" s="234"/>
+      <c r="AE8" s="234"/>
+      <c r="AF8" s="234"/>
+      <c r="AG8" s="234"/>
+      <c r="AH8" s="234"/>
     </row>
     <row r="9" spans="1:35" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="239" t="s">
+      <c r="D9" s="235" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="240"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="241"/>
-      <c r="H9" s="245"/>
-      <c r="I9" s="245"/>
-      <c r="J9" s="245"/>
-      <c r="K9" s="245"/>
-      <c r="L9" s="245"/>
-      <c r="M9" s="245"/>
-      <c r="N9" s="245"/>
-      <c r="O9" s="245"/>
-      <c r="P9" s="245"/>
-      <c r="Q9" s="245"/>
-      <c r="R9" s="245"/>
-      <c r="S9" s="245"/>
-      <c r="T9" s="245"/>
-      <c r="U9" s="245"/>
-      <c r="V9" s="245"/>
-      <c r="W9" s="245"/>
-      <c r="X9" s="245"/>
-      <c r="Y9" s="245"/>
-      <c r="Z9" s="245"/>
-      <c r="AA9" s="245"/>
-      <c r="AB9" s="245"/>
-      <c r="AC9" s="245"/>
-      <c r="AD9" s="245"/>
-      <c r="AE9" s="245"/>
-      <c r="AF9" s="245"/>
-      <c r="AG9" s="245"/>
-      <c r="AH9" s="245"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
+      <c r="G9" s="237"/>
+      <c r="H9" s="230"/>
+      <c r="I9" s="230"/>
+      <c r="J9" s="230"/>
+      <c r="K9" s="230"/>
+      <c r="L9" s="230"/>
+      <c r="M9" s="230"/>
+      <c r="N9" s="230"/>
+      <c r="O9" s="230"/>
+      <c r="P9" s="230"/>
+      <c r="Q9" s="230"/>
+      <c r="R9" s="230"/>
+      <c r="S9" s="230"/>
+      <c r="T9" s="230"/>
+      <c r="U9" s="230"/>
+      <c r="V9" s="230"/>
+      <c r="W9" s="230"/>
+      <c r="X9" s="230"/>
+      <c r="Y9" s="230"/>
+      <c r="Z9" s="230"/>
+      <c r="AA9" s="230"/>
+      <c r="AB9" s="230"/>
+      <c r="AC9" s="230"/>
+      <c r="AD9" s="230"/>
+      <c r="AE9" s="230"/>
+      <c r="AF9" s="230"/>
+      <c r="AG9" s="230"/>
+      <c r="AH9" s="230"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="230" t="s">
+      <c r="D10" s="238" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="231"/>
-      <c r="F10" s="231"/>
-      <c r="G10" s="232"/>
+      <c r="E10" s="239"/>
+      <c r="F10" s="239"/>
+      <c r="G10" s="240"/>
       <c r="H10" s="104"/>
       <c r="I10" s="105"/>
       <c r="J10" s="105"/>
@@ -9220,10 +9220,10 @@
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="235"/>
+      <c r="D11" s="241"/>
+      <c r="E11" s="242"/>
+      <c r="F11" s="242"/>
+      <c r="G11" s="243"/>
       <c r="H11" s="107"/>
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
@@ -9256,10 +9256,10 @@
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="233"/>
-      <c r="E12" s="234"/>
-      <c r="F12" s="234"/>
-      <c r="G12" s="235"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="242"/>
+      <c r="F12" s="242"/>
+      <c r="G12" s="243"/>
       <c r="H12" s="107"/>
       <c r="I12" s="121"/>
       <c r="J12" s="121"/>
@@ -9292,10 +9292,10 @@
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="234"/>
-      <c r="F13" s="234"/>
-      <c r="G13" s="235"/>
+      <c r="D13" s="241"/>
+      <c r="E13" s="242"/>
+      <c r="F13" s="242"/>
+      <c r="G13" s="243"/>
       <c r="H13" s="107"/>
       <c r="I13" s="121"/>
       <c r="J13" s="121"/>
@@ -9328,10 +9328,10 @@
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="233"/>
-      <c r="E14" s="234"/>
-      <c r="F14" s="234"/>
-      <c r="G14" s="235"/>
+      <c r="D14" s="241"/>
+      <c r="E14" s="242"/>
+      <c r="F14" s="242"/>
+      <c r="G14" s="243"/>
       <c r="H14" s="107"/>
       <c r="I14" s="121"/>
       <c r="J14" s="121"/>
@@ -9364,10 +9364,10 @@
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="233"/>
-      <c r="E15" s="234"/>
-      <c r="F15" s="234"/>
-      <c r="G15" s="235"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="242"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="243"/>
       <c r="H15" s="107"/>
       <c r="I15" s="121"/>
       <c r="J15" s="121"/>
@@ -9400,10 +9400,10 @@
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="233"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="234"/>
-      <c r="G16" s="235"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="242"/>
+      <c r="F16" s="242"/>
+      <c r="G16" s="243"/>
       <c r="H16" s="107"/>
       <c r="I16" s="121"/>
       <c r="J16" s="121"/>
@@ -9436,10 +9436,10 @@
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="233"/>
-      <c r="E17" s="234"/>
-      <c r="F17" s="234"/>
-      <c r="G17" s="235"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="242"/>
+      <c r="G17" s="243"/>
       <c r="H17" s="107"/>
       <c r="I17" s="121"/>
       <c r="J17" s="121"/>
@@ -9472,10 +9472,10 @@
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="233"/>
-      <c r="E18" s="234"/>
-      <c r="F18" s="234"/>
-      <c r="G18" s="235"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="242"/>
+      <c r="F18" s="242"/>
+      <c r="G18" s="243"/>
       <c r="H18" s="107"/>
       <c r="I18" s="121"/>
       <c r="J18" s="121"/>
@@ -9508,10 +9508,10 @@
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="233"/>
-      <c r="E19" s="234"/>
-      <c r="F19" s="234"/>
-      <c r="G19" s="235"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="242"/>
+      <c r="F19" s="242"/>
+      <c r="G19" s="243"/>
       <c r="H19" s="107"/>
       <c r="I19" s="121"/>
       <c r="J19" s="121"/>
@@ -9544,10 +9544,10 @@
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="233"/>
-      <c r="E20" s="234"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="235"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="242"/>
+      <c r="F20" s="242"/>
+      <c r="G20" s="243"/>
       <c r="H20" s="107"/>
       <c r="I20" s="121"/>
       <c r="J20" s="121"/>
@@ -9580,10 +9580,10 @@
       <c r="A21" s="30"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="234"/>
-      <c r="F21" s="234"/>
-      <c r="G21" s="235"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="242"/>
+      <c r="F21" s="242"/>
+      <c r="G21" s="243"/>
       <c r="H21" s="107"/>
       <c r="I21" s="121"/>
       <c r="J21" s="121"/>
@@ -9616,10 +9616,10 @@
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="233"/>
-      <c r="E22" s="234"/>
-      <c r="F22" s="234"/>
-      <c r="G22" s="235"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="242"/>
+      <c r="F22" s="242"/>
+      <c r="G22" s="243"/>
       <c r="H22" s="107"/>
       <c r="I22" s="121"/>
       <c r="J22" s="121"/>
@@ -9652,10 +9652,10 @@
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="234"/>
-      <c r="F23" s="234"/>
-      <c r="G23" s="235"/>
+      <c r="D23" s="241"/>
+      <c r="E23" s="242"/>
+      <c r="F23" s="242"/>
+      <c r="G23" s="243"/>
       <c r="H23" s="107"/>
       <c r="I23" s="121"/>
       <c r="J23" s="121"/>
@@ -9688,10 +9688,10 @@
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="233"/>
-      <c r="E24" s="234"/>
-      <c r="F24" s="234"/>
-      <c r="G24" s="235"/>
+      <c r="D24" s="241"/>
+      <c r="E24" s="242"/>
+      <c r="F24" s="242"/>
+      <c r="G24" s="243"/>
       <c r="H24" s="107"/>
       <c r="I24" s="98"/>
       <c r="J24" s="98"/>
@@ -9724,10 +9724,10 @@
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
-      <c r="D25" s="233"/>
-      <c r="E25" s="234"/>
-      <c r="F25" s="234"/>
-      <c r="G25" s="235"/>
+      <c r="D25" s="241"/>
+      <c r="E25" s="242"/>
+      <c r="F25" s="242"/>
+      <c r="G25" s="243"/>
       <c r="H25" s="107"/>
       <c r="I25" s="98"/>
       <c r="J25" s="98"/>
@@ -9760,10 +9760,10 @@
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="233"/>
-      <c r="E26" s="234"/>
-      <c r="F26" s="234"/>
-      <c r="G26" s="235"/>
+      <c r="D26" s="241"/>
+      <c r="E26" s="242"/>
+      <c r="F26" s="242"/>
+      <c r="G26" s="243"/>
       <c r="H26" s="107"/>
       <c r="I26" s="98"/>
       <c r="J26" s="98"/>
@@ -9796,10 +9796,10 @@
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="234"/>
-      <c r="F27" s="234"/>
-      <c r="G27" s="235"/>
+      <c r="D27" s="241"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="242"/>
+      <c r="G27" s="243"/>
       <c r="H27" s="107"/>
       <c r="I27" s="98"/>
       <c r="J27" s="98"/>
@@ -9832,10 +9832,10 @@
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="233"/>
-      <c r="E28" s="234"/>
-      <c r="F28" s="234"/>
-      <c r="G28" s="235"/>
+      <c r="D28" s="241"/>
+      <c r="E28" s="242"/>
+      <c r="F28" s="242"/>
+      <c r="G28" s="243"/>
       <c r="H28" s="107"/>
       <c r="I28" s="98"/>
       <c r="J28" s="98"/>
@@ -9868,10 +9868,10 @@
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
-      <c r="D29" s="236"/>
-      <c r="E29" s="237"/>
-      <c r="F29" s="237"/>
-      <c r="G29" s="238"/>
+      <c r="D29" s="244"/>
+      <c r="E29" s="245"/>
+      <c r="F29" s="245"/>
+      <c r="G29" s="246"/>
       <c r="H29" s="109"/>
       <c r="I29" s="110"/>
       <c r="J29" s="110"/>
@@ -9904,164 +9904,164 @@
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="239" t="s">
+      <c r="D30" s="235" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="240"/>
-      <c r="F30" s="240"/>
-      <c r="G30" s="241"/>
-      <c r="H30" s="245"/>
-      <c r="I30" s="245"/>
-      <c r="J30" s="245"/>
-      <c r="K30" s="245"/>
-      <c r="L30" s="245"/>
-      <c r="M30" s="245"/>
-      <c r="N30" s="245"/>
-      <c r="O30" s="245"/>
-      <c r="P30" s="245"/>
-      <c r="Q30" s="245"/>
-      <c r="R30" s="245"/>
-      <c r="S30" s="245"/>
-      <c r="T30" s="245"/>
-      <c r="U30" s="245"/>
-      <c r="V30" s="245"/>
-      <c r="W30" s="245"/>
-      <c r="X30" s="245"/>
-      <c r="Y30" s="245"/>
-      <c r="Z30" s="245"/>
-      <c r="AA30" s="245"/>
-      <c r="AB30" s="245"/>
-      <c r="AC30" s="245"/>
-      <c r="AD30" s="245"/>
-      <c r="AE30" s="245"/>
-      <c r="AF30" s="245"/>
-      <c r="AG30" s="245"/>
-      <c r="AH30" s="245"/>
+      <c r="E30" s="236"/>
+      <c r="F30" s="236"/>
+      <c r="G30" s="237"/>
+      <c r="H30" s="230"/>
+      <c r="I30" s="230"/>
+      <c r="J30" s="230"/>
+      <c r="K30" s="230"/>
+      <c r="L30" s="230"/>
+      <c r="M30" s="230"/>
+      <c r="N30" s="230"/>
+      <c r="O30" s="230"/>
+      <c r="P30" s="230"/>
+      <c r="Q30" s="230"/>
+      <c r="R30" s="230"/>
+      <c r="S30" s="230"/>
+      <c r="T30" s="230"/>
+      <c r="U30" s="230"/>
+      <c r="V30" s="230"/>
+      <c r="W30" s="230"/>
+      <c r="X30" s="230"/>
+      <c r="Y30" s="230"/>
+      <c r="Z30" s="230"/>
+      <c r="AA30" s="230"/>
+      <c r="AB30" s="230"/>
+      <c r="AC30" s="230"/>
+      <c r="AD30" s="230"/>
+      <c r="AE30" s="230"/>
+      <c r="AF30" s="230"/>
+      <c r="AG30" s="230"/>
+      <c r="AH30" s="230"/>
     </row>
     <row r="31" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="239" t="s">
+      <c r="D31" s="235" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="240"/>
-      <c r="F31" s="240"/>
-      <c r="G31" s="241"/>
-      <c r="H31" s="245"/>
-      <c r="I31" s="245"/>
-      <c r="J31" s="245"/>
-      <c r="K31" s="245"/>
-      <c r="L31" s="245"/>
-      <c r="M31" s="245"/>
-      <c r="N31" s="245"/>
-      <c r="O31" s="245"/>
-      <c r="P31" s="245"/>
-      <c r="Q31" s="245"/>
-      <c r="R31" s="245"/>
-      <c r="S31" s="245"/>
-      <c r="T31" s="245"/>
-      <c r="U31" s="245"/>
-      <c r="V31" s="245"/>
-      <c r="W31" s="245"/>
-      <c r="X31" s="245"/>
-      <c r="Y31" s="245"/>
-      <c r="Z31" s="245"/>
-      <c r="AA31" s="245"/>
-      <c r="AB31" s="245"/>
-      <c r="AC31" s="245"/>
-      <c r="AD31" s="245"/>
-      <c r="AE31" s="245"/>
-      <c r="AF31" s="245"/>
-      <c r="AG31" s="245"/>
-      <c r="AH31" s="245"/>
+      <c r="E31" s="236"/>
+      <c r="F31" s="236"/>
+      <c r="G31" s="237"/>
+      <c r="H31" s="230"/>
+      <c r="I31" s="230"/>
+      <c r="J31" s="230"/>
+      <c r="K31" s="230"/>
+      <c r="L31" s="230"/>
+      <c r="M31" s="230"/>
+      <c r="N31" s="230"/>
+      <c r="O31" s="230"/>
+      <c r="P31" s="230"/>
+      <c r="Q31" s="230"/>
+      <c r="R31" s="230"/>
+      <c r="S31" s="230"/>
+      <c r="T31" s="230"/>
+      <c r="U31" s="230"/>
+      <c r="V31" s="230"/>
+      <c r="W31" s="230"/>
+      <c r="X31" s="230"/>
+      <c r="Y31" s="230"/>
+      <c r="Z31" s="230"/>
+      <c r="AA31" s="230"/>
+      <c r="AB31" s="230"/>
+      <c r="AC31" s="230"/>
+      <c r="AD31" s="230"/>
+      <c r="AE31" s="230"/>
+      <c r="AF31" s="230"/>
+      <c r="AG31" s="230"/>
+      <c r="AH31" s="230"/>
     </row>
     <row r="32" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
-      <c r="D32" s="239" t="s">
+      <c r="D32" s="235" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="240"/>
-      <c r="F32" s="240"/>
-      <c r="G32" s="241"/>
-      <c r="H32" s="245"/>
-      <c r="I32" s="245"/>
-      <c r="J32" s="245"/>
-      <c r="K32" s="245"/>
-      <c r="L32" s="245"/>
-      <c r="M32" s="245"/>
-      <c r="N32" s="245"/>
-      <c r="O32" s="245"/>
-      <c r="P32" s="245"/>
-      <c r="Q32" s="245"/>
-      <c r="R32" s="245"/>
-      <c r="S32" s="245"/>
-      <c r="T32" s="245"/>
-      <c r="U32" s="245"/>
-      <c r="V32" s="245"/>
-      <c r="W32" s="245"/>
-      <c r="X32" s="245"/>
-      <c r="Y32" s="245"/>
-      <c r="Z32" s="245"/>
-      <c r="AA32" s="245"/>
-      <c r="AB32" s="245"/>
-      <c r="AC32" s="245"/>
-      <c r="AD32" s="245"/>
-      <c r="AE32" s="245"/>
-      <c r="AF32" s="245"/>
-      <c r="AG32" s="245"/>
-      <c r="AH32" s="245"/>
+      <c r="E32" s="236"/>
+      <c r="F32" s="236"/>
+      <c r="G32" s="237"/>
+      <c r="H32" s="230"/>
+      <c r="I32" s="230"/>
+      <c r="J32" s="230"/>
+      <c r="K32" s="230"/>
+      <c r="L32" s="230"/>
+      <c r="M32" s="230"/>
+      <c r="N32" s="230"/>
+      <c r="O32" s="230"/>
+      <c r="P32" s="230"/>
+      <c r="Q32" s="230"/>
+      <c r="R32" s="230"/>
+      <c r="S32" s="230"/>
+      <c r="T32" s="230"/>
+      <c r="U32" s="230"/>
+      <c r="V32" s="230"/>
+      <c r="W32" s="230"/>
+      <c r="X32" s="230"/>
+      <c r="Y32" s="230"/>
+      <c r="Z32" s="230"/>
+      <c r="AA32" s="230"/>
+      <c r="AB32" s="230"/>
+      <c r="AC32" s="230"/>
+      <c r="AD32" s="230"/>
+      <c r="AE32" s="230"/>
+      <c r="AF32" s="230"/>
+      <c r="AG32" s="230"/>
+      <c r="AH32" s="230"/>
     </row>
     <row r="33" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="239" t="s">
+      <c r="D33" s="235" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="240"/>
-      <c r="F33" s="240"/>
-      <c r="G33" s="241"/>
-      <c r="H33" s="245"/>
-      <c r="I33" s="245"/>
-      <c r="J33" s="245"/>
-      <c r="K33" s="245"/>
-      <c r="L33" s="245"/>
-      <c r="M33" s="245"/>
-      <c r="N33" s="245"/>
-      <c r="O33" s="245"/>
-      <c r="P33" s="245"/>
-      <c r="Q33" s="245"/>
-      <c r="R33" s="245"/>
-      <c r="S33" s="245"/>
-      <c r="T33" s="245"/>
-      <c r="U33" s="245"/>
-      <c r="V33" s="245"/>
-      <c r="W33" s="245"/>
-      <c r="X33" s="245"/>
-      <c r="Y33" s="245"/>
-      <c r="Z33" s="245"/>
-      <c r="AA33" s="245"/>
-      <c r="AB33" s="245"/>
-      <c r="AC33" s="245"/>
-      <c r="AD33" s="245"/>
-      <c r="AE33" s="245"/>
-      <c r="AF33" s="245"/>
-      <c r="AG33" s="245"/>
-      <c r="AH33" s="245"/>
+      <c r="E33" s="236"/>
+      <c r="F33" s="236"/>
+      <c r="G33" s="237"/>
+      <c r="H33" s="230"/>
+      <c r="I33" s="230"/>
+      <c r="J33" s="230"/>
+      <c r="K33" s="230"/>
+      <c r="L33" s="230"/>
+      <c r="M33" s="230"/>
+      <c r="N33" s="230"/>
+      <c r="O33" s="230"/>
+      <c r="P33" s="230"/>
+      <c r="Q33" s="230"/>
+      <c r="R33" s="230"/>
+      <c r="S33" s="230"/>
+      <c r="T33" s="230"/>
+      <c r="U33" s="230"/>
+      <c r="V33" s="230"/>
+      <c r="W33" s="230"/>
+      <c r="X33" s="230"/>
+      <c r="Y33" s="230"/>
+      <c r="Z33" s="230"/>
+      <c r="AA33" s="230"/>
+      <c r="AB33" s="230"/>
+      <c r="AC33" s="230"/>
+      <c r="AD33" s="230"/>
+      <c r="AE33" s="230"/>
+      <c r="AF33" s="230"/>
+      <c r="AG33" s="230"/>
+      <c r="AH33" s="230"/>
     </row>
     <row r="34" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
-      <c r="D34" s="230" t="s">
+      <c r="D34" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="231"/>
-      <c r="F34" s="231"/>
-      <c r="G34" s="232"/>
+      <c r="E34" s="239"/>
+      <c r="F34" s="239"/>
+      <c r="G34" s="240"/>
       <c r="H34" s="112"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -10094,10 +10094,10 @@
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="233"/>
-      <c r="E35" s="234"/>
-      <c r="F35" s="234"/>
-      <c r="G35" s="235"/>
+      <c r="D35" s="241"/>
+      <c r="E35" s="242"/>
+      <c r="F35" s="242"/>
+      <c r="G35" s="243"/>
       <c r="H35" s="115"/>
       <c r="I35" s="116"/>
       <c r="J35" s="116"/>
@@ -10130,10 +10130,10 @@
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="233"/>
-      <c r="E36" s="234"/>
-      <c r="F36" s="234"/>
-      <c r="G36" s="235"/>
+      <c r="D36" s="241"/>
+      <c r="E36" s="242"/>
+      <c r="F36" s="242"/>
+      <c r="G36" s="243"/>
       <c r="H36" s="115"/>
       <c r="I36" s="116"/>
       <c r="J36" s="116"/>
@@ -10166,10 +10166,10 @@
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
-      <c r="D37" s="233"/>
-      <c r="E37" s="234"/>
-      <c r="F37" s="234"/>
-      <c r="G37" s="235"/>
+      <c r="D37" s="241"/>
+      <c r="E37" s="242"/>
+      <c r="F37" s="242"/>
+      <c r="G37" s="243"/>
       <c r="H37" s="115"/>
       <c r="I37" s="116"/>
       <c r="J37" s="116"/>
@@ -10202,10 +10202,10 @@
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
-      <c r="D38" s="233"/>
-      <c r="E38" s="234"/>
-      <c r="F38" s="234"/>
-      <c r="G38" s="235"/>
+      <c r="D38" s="241"/>
+      <c r="E38" s="242"/>
+      <c r="F38" s="242"/>
+      <c r="G38" s="243"/>
       <c r="H38" s="115"/>
       <c r="I38" s="116"/>
       <c r="J38" s="116"/>
@@ -10238,10 +10238,10 @@
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
-      <c r="D39" s="233"/>
-      <c r="E39" s="234"/>
-      <c r="F39" s="234"/>
-      <c r="G39" s="235"/>
+      <c r="D39" s="241"/>
+      <c r="E39" s="242"/>
+      <c r="F39" s="242"/>
+      <c r="G39" s="243"/>
       <c r="H39" s="115"/>
       <c r="I39" s="116"/>
       <c r="J39" s="116"/>
@@ -10274,10 +10274,10 @@
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
-      <c r="D40" s="233"/>
-      <c r="E40" s="234"/>
-      <c r="F40" s="234"/>
-      <c r="G40" s="235"/>
+      <c r="D40" s="241"/>
+      <c r="E40" s="242"/>
+      <c r="F40" s="242"/>
+      <c r="G40" s="243"/>
       <c r="H40" s="115"/>
       <c r="I40" s="116"/>
       <c r="J40" s="116"/>
@@ -10310,10 +10310,10 @@
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
-      <c r="D41" s="236"/>
-      <c r="E41" s="237"/>
-      <c r="F41" s="237"/>
-      <c r="G41" s="238"/>
+      <c r="D41" s="244"/>
+      <c r="E41" s="245"/>
+      <c r="F41" s="245"/>
+      <c r="G41" s="246"/>
       <c r="H41" s="118"/>
       <c r="I41" s="119"/>
       <c r="J41" s="119"/>
@@ -10463,30 +10463,30 @@
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
       <c r="F45" s="29"/>
-      <c r="G45" s="244"/>
-      <c r="H45" s="244"/>
-      <c r="I45" s="244"/>
-      <c r="J45" s="244"/>
-      <c r="K45" s="244"/>
-      <c r="L45" s="244"/>
-      <c r="M45" s="244"/>
-      <c r="N45" s="244"/>
-      <c r="O45" s="242"/>
-      <c r="P45" s="243"/>
-      <c r="Q45" s="243"/>
-      <c r="R45" s="243"/>
-      <c r="S45" s="243"/>
-      <c r="T45" s="243"/>
-      <c r="U45" s="243"/>
-      <c r="V45" s="243"/>
-      <c r="W45" s="243"/>
-      <c r="X45" s="243"/>
-      <c r="Y45" s="243"/>
-      <c r="Z45" s="243"/>
-      <c r="AA45" s="243"/>
-      <c r="AB45" s="243"/>
-      <c r="AC45" s="243"/>
-      <c r="AD45" s="243"/>
+      <c r="G45" s="249"/>
+      <c r="H45" s="249"/>
+      <c r="I45" s="249"/>
+      <c r="J45" s="249"/>
+      <c r="K45" s="249"/>
+      <c r="L45" s="249"/>
+      <c r="M45" s="249"/>
+      <c r="N45" s="249"/>
+      <c r="O45" s="247"/>
+      <c r="P45" s="248"/>
+      <c r="Q45" s="248"/>
+      <c r="R45" s="248"/>
+      <c r="S45" s="248"/>
+      <c r="T45" s="248"/>
+      <c r="U45" s="248"/>
+      <c r="V45" s="248"/>
+      <c r="W45" s="248"/>
+      <c r="X45" s="248"/>
+      <c r="Y45" s="248"/>
+      <c r="Z45" s="248"/>
+      <c r="AA45" s="248"/>
+      <c r="AB45" s="248"/>
+      <c r="AC45" s="248"/>
+      <c r="AD45" s="248"/>
       <c r="AE45" s="32"/>
     </row>
     <row r="46" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10938,14 +10938,15 @@
     <row r="60" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="O45:AD45"/>
+    <mergeCell ref="G45:N45"/>
+    <mergeCell ref="H31:AH31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G41"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -10962,15 +10963,14 @@
     <mergeCell ref="H30:AH30"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="O45:AD45"/>
-    <mergeCell ref="G45:N45"/>
-    <mergeCell ref="H31:AH31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G41"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -10999,157 +10999,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="179" t="str">
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="188" t="s">
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="190"/>
-      <c r="S1" s="209" t="str">
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="185" t="s">
+      <c r="T1" s="222"/>
+      <c r="U1" s="222"/>
+      <c r="V1" s="222"/>
+      <c r="W1" s="222"/>
+      <c r="X1" s="222"/>
+      <c r="Y1" s="222"/>
+      <c r="Z1" s="223"/>
+      <c r="AA1" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="187"/>
-      <c r="AC1" s="169" t="str">
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="246" t="str">
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="247"/>
-      <c r="AI1" s="248"/>
+      <c r="AH1" s="232"/>
+      <c r="AI1" s="233"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="179" t="str">
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="192"/>
-      <c r="Q2" s="192"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="185" t="s">
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="225"/>
+      <c r="U2" s="225"/>
+      <c r="V2" s="225"/>
+      <c r="W2" s="225"/>
+      <c r="X2" s="225"/>
+      <c r="Y2" s="225"/>
+      <c r="Z2" s="226"/>
+      <c r="AA2" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="187"/>
-      <c r="AC2" s="169" t="str">
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="170"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="246" t="str">
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="247"/>
-      <c r="AI2" s="248"/>
+      <c r="AH2" s="232"/>
+      <c r="AI2" s="233"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="179" t="str">
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
-      <c r="N3" s="181"/>
-      <c r="O3" s="194"/>
-      <c r="P3" s="195"/>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="196"/>
-      <c r="S3" s="215"/>
-      <c r="T3" s="216"/>
-      <c r="U3" s="216"/>
-      <c r="V3" s="216"/>
-      <c r="W3" s="216"/>
-      <c r="X3" s="216"/>
-      <c r="Y3" s="216"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="187"/>
-      <c r="AC3" s="169" t="str">
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="228"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="228"/>
+      <c r="W3" s="228"/>
+      <c r="X3" s="228"/>
+      <c r="Y3" s="228"/>
+      <c r="Z3" s="229"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="171"/>
-      <c r="AG3" s="246" t="str">
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="144"/>
+      <c r="AF3" s="145"/>
+      <c r="AG3" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="247"/>
-      <c r="AI3" s="248"/>
+      <c r="AH3" s="232"/>
+      <c r="AI3" s="233"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11160,6 +11160,12 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11171,12 +11177,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11196,7 +11196,7 @@
   </sheetPr>
   <dimension ref="A1:AL100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -11206,163 +11206,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="179" t="str">
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="188" t="s">
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="190"/>
-      <c r="S1" s="209" t="str">
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="185" t="s">
+      <c r="T1" s="222"/>
+      <c r="U1" s="222"/>
+      <c r="V1" s="222"/>
+      <c r="W1" s="222"/>
+      <c r="X1" s="222"/>
+      <c r="Y1" s="222"/>
+      <c r="Z1" s="223"/>
+      <c r="AA1" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="187"/>
-      <c r="AC1" s="169" t="str">
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="246" t="str">
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="247"/>
-      <c r="AI1" s="248"/>
+      <c r="AH1" s="232"/>
+      <c r="AI1" s="233"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="179" t="str">
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="192"/>
-      <c r="Q2" s="192"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="185" t="s">
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="225"/>
+      <c r="U2" s="225"/>
+      <c r="V2" s="225"/>
+      <c r="W2" s="225"/>
+      <c r="X2" s="225"/>
+      <c r="Y2" s="225"/>
+      <c r="Z2" s="226"/>
+      <c r="AA2" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="187"/>
-      <c r="AC2" s="169" t="str">
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="170"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="246" t="str">
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="247"/>
-      <c r="AI2" s="248"/>
+      <c r="AH2" s="232"/>
+      <c r="AI2" s="233"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="179" t="str">
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
-      <c r="N3" s="181"/>
-      <c r="O3" s="194"/>
-      <c r="P3" s="195"/>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="196"/>
-      <c r="S3" s="215"/>
-      <c r="T3" s="216"/>
-      <c r="U3" s="216"/>
-      <c r="V3" s="216"/>
-      <c r="W3" s="216"/>
-      <c r="X3" s="216"/>
-      <c r="Y3" s="216"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="187"/>
-      <c r="AC3" s="169" t="str">
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="228"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="228"/>
+      <c r="W3" s="228"/>
+      <c r="X3" s="228"/>
+      <c r="Y3" s="228"/>
+      <c r="Z3" s="229"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="171"/>
-      <c r="AG3" s="246" t="str">
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="144"/>
+      <c r="AF3" s="145"/>
+      <c r="AG3" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="247"/>
-      <c r="AI3" s="248"/>
+      <c r="AH3" s="232"/>
+      <c r="AI3" s="233"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -11480,65 +11480,65 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="262" t="s">
+      <c r="D8" s="300" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="264" t="s">
+      <c r="E8" s="302" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="265"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="265"/>
-      <c r="I8" s="265"/>
-      <c r="J8" s="266"/>
-      <c r="K8" s="270" t="s">
+      <c r="F8" s="303"/>
+      <c r="G8" s="303"/>
+      <c r="H8" s="303"/>
+      <c r="I8" s="303"/>
+      <c r="J8" s="304"/>
+      <c r="K8" s="288" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="265"/>
-      <c r="M8" s="265"/>
-      <c r="N8" s="266"/>
-      <c r="O8" s="271" t="s">
+      <c r="L8" s="303"/>
+      <c r="M8" s="303"/>
+      <c r="N8" s="304"/>
+      <c r="O8" s="308" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="309" t="s">
+      <c r="P8" s="258" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="310"/>
-      <c r="R8" s="310"/>
-      <c r="S8" s="310"/>
-      <c r="T8" s="310"/>
-      <c r="U8" s="311"/>
-      <c r="V8" s="273" t="s">
+      <c r="Q8" s="259"/>
+      <c r="R8" s="259"/>
+      <c r="S8" s="259"/>
+      <c r="T8" s="259"/>
+      <c r="U8" s="260"/>
+      <c r="V8" s="310" t="s">
         <v>37</v>
       </c>
-      <c r="W8" s="273"/>
-      <c r="X8" s="273"/>
-      <c r="Y8" s="273"/>
-      <c r="Z8" s="273"/>
-      <c r="AA8" s="273"/>
-      <c r="AB8" s="273"/>
-      <c r="AC8" s="273"/>
-      <c r="AD8" s="273"/>
-      <c r="AE8" s="273"/>
-      <c r="AF8" s="273"/>
-      <c r="AG8" s="273"/>
-      <c r="AH8" s="273"/>
+      <c r="W8" s="310"/>
+      <c r="X8" s="310"/>
+      <c r="Y8" s="310"/>
+      <c r="Z8" s="310"/>
+      <c r="AA8" s="310"/>
+      <c r="AB8" s="310"/>
+      <c r="AC8" s="310"/>
+      <c r="AD8" s="310"/>
+      <c r="AE8" s="310"/>
+      <c r="AF8" s="310"/>
+      <c r="AG8" s="310"/>
+      <c r="AH8" s="310"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="263"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="268"/>
-      <c r="G9" s="268"/>
-      <c r="H9" s="268"/>
-      <c r="I9" s="268"/>
-      <c r="J9" s="269"/>
-      <c r="K9" s="267"/>
-      <c r="L9" s="268"/>
-      <c r="M9" s="268"/>
-      <c r="N9" s="269"/>
-      <c r="O9" s="272"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="305"/>
+      <c r="F9" s="306"/>
+      <c r="G9" s="306"/>
+      <c r="H9" s="306"/>
+      <c r="I9" s="306"/>
+      <c r="J9" s="307"/>
+      <c r="K9" s="305"/>
+      <c r="L9" s="306"/>
+      <c r="M9" s="306"/>
+      <c r="N9" s="307"/>
+      <c r="O9" s="309"/>
       <c r="P9" s="90" t="s">
         <v>48</v>
       </c>
@@ -11551,23 +11551,23 @@
       <c r="S9" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="T9" s="257" t="s">
+      <c r="T9" s="312" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="258"/>
-      <c r="V9" s="273"/>
-      <c r="W9" s="273"/>
-      <c r="X9" s="273"/>
-      <c r="Y9" s="273"/>
-      <c r="Z9" s="273"/>
-      <c r="AA9" s="273"/>
-      <c r="AB9" s="273"/>
-      <c r="AC9" s="273"/>
-      <c r="AD9" s="273"/>
-      <c r="AE9" s="273"/>
-      <c r="AF9" s="273"/>
-      <c r="AG9" s="273"/>
-      <c r="AH9" s="273"/>
+      <c r="U9" s="313"/>
+      <c r="V9" s="310"/>
+      <c r="W9" s="310"/>
+      <c r="X9" s="310"/>
+      <c r="Y9" s="310"/>
+      <c r="Z9" s="310"/>
+      <c r="AA9" s="310"/>
+      <c r="AB9" s="310"/>
+      <c r="AC9" s="310"/>
+      <c r="AD9" s="310"/>
+      <c r="AE9" s="310"/>
+      <c r="AF9" s="310"/>
+      <c r="AG9" s="310"/>
+      <c r="AH9" s="310"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="30"/>
@@ -11575,36 +11575,36 @@
       <c r="D10" s="129">
         <v>1</v>
       </c>
-      <c r="E10" s="152"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="154"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="191"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="191"/>
       <c r="O10" s="130"/>
       <c r="P10" s="89"/>
       <c r="Q10" s="89"/>
       <c r="R10" s="89"/>
       <c r="S10" s="89"/>
-      <c r="T10" s="260"/>
-      <c r="U10" s="261"/>
-      <c r="V10" s="152"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="153"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="153"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="153"/>
-      <c r="AF10" s="153"/>
-      <c r="AG10" s="153"/>
-      <c r="AH10" s="154"/>
+      <c r="T10" s="315"/>
+      <c r="U10" s="316"/>
+      <c r="V10" s="189"/>
+      <c r="W10" s="190"/>
+      <c r="X10" s="190"/>
+      <c r="Y10" s="190"/>
+      <c r="Z10" s="190"/>
+      <c r="AA10" s="190"/>
+      <c r="AB10" s="190"/>
+      <c r="AC10" s="190"/>
+      <c r="AD10" s="190"/>
+      <c r="AE10" s="190"/>
+      <c r="AF10" s="190"/>
+      <c r="AG10" s="190"/>
+      <c r="AH10" s="191"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B11" s="30"/>
@@ -11612,36 +11612,36 @@
       <c r="D11" s="129">
         <v>2</v>
       </c>
-      <c r="E11" s="152"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="154"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="191"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="190"/>
+      <c r="N11" s="191"/>
       <c r="O11" s="131"/>
       <c r="P11" s="89"/>
       <c r="Q11" s="89"/>
       <c r="R11" s="89"/>
       <c r="S11" s="89"/>
-      <c r="T11" s="260"/>
-      <c r="U11" s="261"/>
-      <c r="V11" s="152"/>
-      <c r="W11" s="153"/>
-      <c r="X11" s="153"/>
-      <c r="Y11" s="153"/>
-      <c r="Z11" s="153"/>
-      <c r="AA11" s="153"/>
-      <c r="AB11" s="153"/>
-      <c r="AC11" s="153"/>
-      <c r="AD11" s="153"/>
-      <c r="AE11" s="153"/>
-      <c r="AF11" s="153"/>
-      <c r="AG11" s="153"/>
-      <c r="AH11" s="154"/>
+      <c r="T11" s="315"/>
+      <c r="U11" s="316"/>
+      <c r="V11" s="189"/>
+      <c r="W11" s="190"/>
+      <c r="X11" s="190"/>
+      <c r="Y11" s="190"/>
+      <c r="Z11" s="190"/>
+      <c r="AA11" s="190"/>
+      <c r="AB11" s="190"/>
+      <c r="AC11" s="190"/>
+      <c r="AD11" s="190"/>
+      <c r="AE11" s="190"/>
+      <c r="AF11" s="190"/>
+      <c r="AG11" s="190"/>
+      <c r="AH11" s="191"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B12" s="30"/>
@@ -11649,36 +11649,36 @@
       <c r="D12" s="129">
         <v>3</v>
       </c>
-      <c r="E12" s="152"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="154"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="191"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="191"/>
       <c r="O12" s="131"/>
       <c r="P12" s="89"/>
       <c r="Q12" s="89"/>
       <c r="R12" s="89"/>
       <c r="S12" s="89"/>
-      <c r="T12" s="260"/>
-      <c r="U12" s="261"/>
-      <c r="V12" s="152"/>
-      <c r="W12" s="153"/>
-      <c r="X12" s="153"/>
-      <c r="Y12" s="153"/>
-      <c r="Z12" s="153"/>
-      <c r="AA12" s="153"/>
-      <c r="AB12" s="153"/>
-      <c r="AC12" s="153"/>
-      <c r="AD12" s="153"/>
-      <c r="AE12" s="153"/>
-      <c r="AF12" s="153"/>
-      <c r="AG12" s="153"/>
-      <c r="AH12" s="154"/>
+      <c r="T12" s="315"/>
+      <c r="U12" s="316"/>
+      <c r="V12" s="189"/>
+      <c r="W12" s="190"/>
+      <c r="X12" s="190"/>
+      <c r="Y12" s="190"/>
+      <c r="Z12" s="190"/>
+      <c r="AA12" s="190"/>
+      <c r="AB12" s="190"/>
+      <c r="AC12" s="190"/>
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="190"/>
+      <c r="AF12" s="190"/>
+      <c r="AG12" s="190"/>
+      <c r="AH12" s="191"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B13" s="30"/>
@@ -11825,82 +11825,82 @@
     <row r="17" spans="1:34" s="88" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="30"/>
       <c r="C17" s="128"/>
-      <c r="D17" s="300" t="s">
+      <c r="D17" s="276" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="285" t="s">
+      <c r="E17" s="294" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="286"/>
-      <c r="G17" s="287"/>
-      <c r="H17" s="270" t="s">
+      <c r="F17" s="295"/>
+      <c r="G17" s="296"/>
+      <c r="H17" s="288" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="280"/>
-      <c r="J17" s="280"/>
-      <c r="K17" s="280"/>
-      <c r="L17" s="280"/>
-      <c r="M17" s="280"/>
-      <c r="N17" s="280"/>
-      <c r="O17" s="280"/>
-      <c r="P17" s="280"/>
-      <c r="Q17" s="280"/>
-      <c r="R17" s="280"/>
-      <c r="S17" s="280"/>
-      <c r="T17" s="280"/>
-      <c r="U17" s="280"/>
-      <c r="V17" s="281"/>
-      <c r="W17" s="274" t="s">
+      <c r="I17" s="289"/>
+      <c r="J17" s="289"/>
+      <c r="K17" s="289"/>
+      <c r="L17" s="289"/>
+      <c r="M17" s="289"/>
+      <c r="N17" s="289"/>
+      <c r="O17" s="289"/>
+      <c r="P17" s="289"/>
+      <c r="Q17" s="289"/>
+      <c r="R17" s="289"/>
+      <c r="S17" s="289"/>
+      <c r="T17" s="289"/>
+      <c r="U17" s="289"/>
+      <c r="V17" s="290"/>
+      <c r="W17" s="282" t="s">
         <v>71</v>
       </c>
-      <c r="X17" s="275"/>
-      <c r="Y17" s="275"/>
-      <c r="Z17" s="276"/>
-      <c r="AA17" s="315" t="s">
+      <c r="X17" s="283"/>
+      <c r="Y17" s="283"/>
+      <c r="Z17" s="284"/>
+      <c r="AA17" s="252" t="s">
         <v>61</v>
       </c>
-      <c r="AB17" s="315"/>
-      <c r="AC17" s="315"/>
-      <c r="AD17" s="315"/>
-      <c r="AE17" s="315"/>
-      <c r="AF17" s="315"/>
-      <c r="AG17" s="315"/>
-      <c r="AH17" s="315"/>
+      <c r="AB17" s="252"/>
+      <c r="AC17" s="252"/>
+      <c r="AD17" s="252"/>
+      <c r="AE17" s="252"/>
+      <c r="AF17" s="252"/>
+      <c r="AG17" s="252"/>
+      <c r="AH17" s="252"/>
     </row>
     <row r="18" spans="1:34" s="88" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="30"/>
       <c r="C18" s="93"/>
-      <c r="D18" s="301"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="289"/>
-      <c r="G18" s="290"/>
-      <c r="H18" s="282"/>
-      <c r="I18" s="283"/>
-      <c r="J18" s="283"/>
-      <c r="K18" s="283"/>
-      <c r="L18" s="283"/>
-      <c r="M18" s="283"/>
-      <c r="N18" s="283"/>
-      <c r="O18" s="283"/>
-      <c r="P18" s="283"/>
-      <c r="Q18" s="283"/>
-      <c r="R18" s="283"/>
-      <c r="S18" s="283"/>
-      <c r="T18" s="283"/>
-      <c r="U18" s="283"/>
-      <c r="V18" s="284"/>
-      <c r="W18" s="277"/>
-      <c r="X18" s="278"/>
-      <c r="Y18" s="278"/>
-      <c r="Z18" s="279"/>
-      <c r="AA18" s="315"/>
-      <c r="AB18" s="315"/>
-      <c r="AC18" s="315"/>
-      <c r="AD18" s="315"/>
-      <c r="AE18" s="315"/>
-      <c r="AF18" s="315"/>
-      <c r="AG18" s="315"/>
-      <c r="AH18" s="315"/>
+      <c r="D18" s="277"/>
+      <c r="E18" s="297"/>
+      <c r="F18" s="298"/>
+      <c r="G18" s="299"/>
+      <c r="H18" s="291"/>
+      <c r="I18" s="292"/>
+      <c r="J18" s="292"/>
+      <c r="K18" s="292"/>
+      <c r="L18" s="292"/>
+      <c r="M18" s="292"/>
+      <c r="N18" s="292"/>
+      <c r="O18" s="292"/>
+      <c r="P18" s="292"/>
+      <c r="Q18" s="292"/>
+      <c r="R18" s="292"/>
+      <c r="S18" s="292"/>
+      <c r="T18" s="292"/>
+      <c r="U18" s="292"/>
+      <c r="V18" s="293"/>
+      <c r="W18" s="285"/>
+      <c r="X18" s="286"/>
+      <c r="Y18" s="286"/>
+      <c r="Z18" s="287"/>
+      <c r="AA18" s="252"/>
+      <c r="AB18" s="252"/>
+      <c r="AC18" s="252"/>
+      <c r="AD18" s="252"/>
+      <c r="AE18" s="252"/>
+      <c r="AF18" s="252"/>
+      <c r="AG18" s="252"/>
+      <c r="AH18" s="252"/>
     </row>
     <row r="19" spans="1:34" s="88" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="30"/>
@@ -11908,36 +11908,36 @@
       <c r="D19" s="129">
         <v>1</v>
       </c>
-      <c r="E19" s="152"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
-      <c r="S19" s="153"/>
-      <c r="T19" s="153"/>
-      <c r="U19" s="153"/>
-      <c r="V19" s="154"/>
-      <c r="W19" s="291"/>
-      <c r="X19" s="292"/>
-      <c r="Y19" s="292"/>
-      <c r="Z19" s="293"/>
-      <c r="AA19" s="316"/>
-      <c r="AB19" s="316"/>
-      <c r="AC19" s="316"/>
-      <c r="AD19" s="316"/>
-      <c r="AE19" s="316"/>
-      <c r="AF19" s="316"/>
-      <c r="AG19" s="316"/>
-      <c r="AH19" s="316"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="190"/>
+      <c r="J19" s="190"/>
+      <c r="K19" s="190"/>
+      <c r="L19" s="190"/>
+      <c r="M19" s="190"/>
+      <c r="N19" s="190"/>
+      <c r="O19" s="190"/>
+      <c r="P19" s="190"/>
+      <c r="Q19" s="190"/>
+      <c r="R19" s="190"/>
+      <c r="S19" s="190"/>
+      <c r="T19" s="190"/>
+      <c r="U19" s="190"/>
+      <c r="V19" s="191"/>
+      <c r="W19" s="253"/>
+      <c r="X19" s="254"/>
+      <c r="Y19" s="254"/>
+      <c r="Z19" s="255"/>
+      <c r="AA19" s="250"/>
+      <c r="AB19" s="250"/>
+      <c r="AC19" s="250"/>
+      <c r="AD19" s="250"/>
+      <c r="AE19" s="250"/>
+      <c r="AF19" s="250"/>
+      <c r="AG19" s="250"/>
+      <c r="AH19" s="250"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
@@ -11945,36 +11945,36 @@
       <c r="D20" s="129">
         <v>2</v>
       </c>
-      <c r="E20" s="152"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="153"/>
-      <c r="T20" s="153"/>
-      <c r="U20" s="153"/>
-      <c r="V20" s="154"/>
-      <c r="W20" s="291"/>
-      <c r="X20" s="292"/>
-      <c r="Y20" s="292"/>
-      <c r="Z20" s="293"/>
-      <c r="AA20" s="252"/>
-      <c r="AB20" s="252"/>
-      <c r="AC20" s="252"/>
-      <c r="AD20" s="252"/>
-      <c r="AE20" s="252"/>
-      <c r="AF20" s="252"/>
-      <c r="AG20" s="252"/>
-      <c r="AH20" s="252"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="191"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="190"/>
+      <c r="J20" s="190"/>
+      <c r="K20" s="190"/>
+      <c r="L20" s="190"/>
+      <c r="M20" s="190"/>
+      <c r="N20" s="190"/>
+      <c r="O20" s="190"/>
+      <c r="P20" s="190"/>
+      <c r="Q20" s="190"/>
+      <c r="R20" s="190"/>
+      <c r="S20" s="190"/>
+      <c r="T20" s="190"/>
+      <c r="U20" s="190"/>
+      <c r="V20" s="191"/>
+      <c r="W20" s="253"/>
+      <c r="X20" s="254"/>
+      <c r="Y20" s="254"/>
+      <c r="Z20" s="255"/>
+      <c r="AA20" s="251"/>
+      <c r="AB20" s="251"/>
+      <c r="AC20" s="251"/>
+      <c r="AD20" s="251"/>
+      <c r="AE20" s="251"/>
+      <c r="AF20" s="251"/>
+      <c r="AG20" s="251"/>
+      <c r="AH20" s="251"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B21" s="1"/>
@@ -11982,36 +11982,36 @@
       <c r="D21" s="129">
         <v>3</v>
       </c>
-      <c r="E21" s="152"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="153"/>
-      <c r="S21" s="153"/>
-      <c r="T21" s="153"/>
-      <c r="U21" s="153"/>
-      <c r="V21" s="154"/>
-      <c r="W21" s="291"/>
-      <c r="X21" s="292"/>
-      <c r="Y21" s="292"/>
-      <c r="Z21" s="293"/>
-      <c r="AA21" s="252"/>
-      <c r="AB21" s="252"/>
-      <c r="AC21" s="252"/>
-      <c r="AD21" s="252"/>
-      <c r="AE21" s="252"/>
-      <c r="AF21" s="252"/>
-      <c r="AG21" s="252"/>
-      <c r="AH21" s="252"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="190"/>
+      <c r="J21" s="190"/>
+      <c r="K21" s="190"/>
+      <c r="L21" s="190"/>
+      <c r="M21" s="190"/>
+      <c r="N21" s="190"/>
+      <c r="O21" s="190"/>
+      <c r="P21" s="190"/>
+      <c r="Q21" s="190"/>
+      <c r="R21" s="190"/>
+      <c r="S21" s="190"/>
+      <c r="T21" s="190"/>
+      <c r="U21" s="190"/>
+      <c r="V21" s="191"/>
+      <c r="W21" s="253"/>
+      <c r="X21" s="254"/>
+      <c r="Y21" s="254"/>
+      <c r="Z21" s="255"/>
+      <c r="AA21" s="251"/>
+      <c r="AB21" s="251"/>
+      <c r="AC21" s="251"/>
+      <c r="AD21" s="251"/>
+      <c r="AE21" s="251"/>
+      <c r="AF21" s="251"/>
+      <c r="AG21" s="251"/>
+      <c r="AH21" s="251"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B22" s="1"/>
@@ -12019,36 +12019,36 @@
       <c r="D22" s="129">
         <v>4</v>
       </c>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
-      <c r="S22" s="153"/>
-      <c r="T22" s="153"/>
-      <c r="U22" s="153"/>
-      <c r="V22" s="154"/>
-      <c r="W22" s="291"/>
-      <c r="X22" s="292"/>
-      <c r="Y22" s="292"/>
-      <c r="Z22" s="293"/>
-      <c r="AA22" s="316"/>
-      <c r="AB22" s="316"/>
-      <c r="AC22" s="316"/>
-      <c r="AD22" s="316"/>
-      <c r="AE22" s="316"/>
-      <c r="AF22" s="316"/>
-      <c r="AG22" s="316"/>
-      <c r="AH22" s="316"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="191"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="190"/>
+      <c r="J22" s="190"/>
+      <c r="K22" s="190"/>
+      <c r="L22" s="190"/>
+      <c r="M22" s="190"/>
+      <c r="N22" s="190"/>
+      <c r="O22" s="190"/>
+      <c r="P22" s="190"/>
+      <c r="Q22" s="190"/>
+      <c r="R22" s="190"/>
+      <c r="S22" s="190"/>
+      <c r="T22" s="190"/>
+      <c r="U22" s="190"/>
+      <c r="V22" s="191"/>
+      <c r="W22" s="253"/>
+      <c r="X22" s="254"/>
+      <c r="Y22" s="254"/>
+      <c r="Z22" s="255"/>
+      <c r="AA22" s="250"/>
+      <c r="AB22" s="250"/>
+      <c r="AC22" s="250"/>
+      <c r="AD22" s="250"/>
+      <c r="AE22" s="250"/>
+      <c r="AF22" s="250"/>
+      <c r="AG22" s="250"/>
+      <c r="AH22" s="250"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B23" s="87"/>
@@ -12056,36 +12056,36 @@
       <c r="D23" s="129">
         <v>5</v>
       </c>
-      <c r="E23" s="152"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
-      <c r="S23" s="153"/>
-      <c r="T23" s="153"/>
-      <c r="U23" s="153"/>
-      <c r="V23" s="154"/>
-      <c r="W23" s="291"/>
-      <c r="X23" s="292"/>
-      <c r="Y23" s="292"/>
-      <c r="Z23" s="293"/>
-      <c r="AA23" s="252"/>
-      <c r="AB23" s="252"/>
-      <c r="AC23" s="252"/>
-      <c r="AD23" s="252"/>
-      <c r="AE23" s="252"/>
-      <c r="AF23" s="252"/>
-      <c r="AG23" s="252"/>
-      <c r="AH23" s="252"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="191"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="190"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="190"/>
+      <c r="L23" s="190"/>
+      <c r="M23" s="190"/>
+      <c r="N23" s="190"/>
+      <c r="O23" s="190"/>
+      <c r="P23" s="190"/>
+      <c r="Q23" s="190"/>
+      <c r="R23" s="190"/>
+      <c r="S23" s="190"/>
+      <c r="T23" s="190"/>
+      <c r="U23" s="190"/>
+      <c r="V23" s="191"/>
+      <c r="W23" s="253"/>
+      <c r="X23" s="254"/>
+      <c r="Y23" s="254"/>
+      <c r="Z23" s="255"/>
+      <c r="AA23" s="251"/>
+      <c r="AB23" s="251"/>
+      <c r="AC23" s="251"/>
+      <c r="AD23" s="251"/>
+      <c r="AE23" s="251"/>
+      <c r="AF23" s="251"/>
+      <c r="AG23" s="251"/>
+      <c r="AH23" s="251"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B24" s="87"/>
@@ -12093,36 +12093,36 @@
       <c r="D24" s="129">
         <v>6</v>
       </c>
-      <c r="E24" s="152"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="153"/>
-      <c r="R24" s="153"/>
-      <c r="S24" s="153"/>
-      <c r="T24" s="153"/>
-      <c r="U24" s="153"/>
-      <c r="V24" s="154"/>
-      <c r="W24" s="291"/>
-      <c r="X24" s="292"/>
-      <c r="Y24" s="292"/>
-      <c r="Z24" s="293"/>
-      <c r="AA24" s="252"/>
-      <c r="AB24" s="252"/>
-      <c r="AC24" s="252"/>
-      <c r="AD24" s="252"/>
-      <c r="AE24" s="252"/>
-      <c r="AF24" s="252"/>
-      <c r="AG24" s="252"/>
-      <c r="AH24" s="252"/>
+      <c r="E24" s="189"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="191"/>
+      <c r="H24" s="189"/>
+      <c r="I24" s="190"/>
+      <c r="J24" s="190"/>
+      <c r="K24" s="190"/>
+      <c r="L24" s="190"/>
+      <c r="M24" s="190"/>
+      <c r="N24" s="190"/>
+      <c r="O24" s="190"/>
+      <c r="P24" s="190"/>
+      <c r="Q24" s="190"/>
+      <c r="R24" s="190"/>
+      <c r="S24" s="190"/>
+      <c r="T24" s="190"/>
+      <c r="U24" s="190"/>
+      <c r="V24" s="191"/>
+      <c r="W24" s="253"/>
+      <c r="X24" s="254"/>
+      <c r="Y24" s="254"/>
+      <c r="Z24" s="255"/>
+      <c r="AA24" s="251"/>
+      <c r="AB24" s="251"/>
+      <c r="AC24" s="251"/>
+      <c r="AD24" s="251"/>
+      <c r="AE24" s="251"/>
+      <c r="AF24" s="251"/>
+      <c r="AG24" s="251"/>
+      <c r="AH24" s="251"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B25" s="87"/>
@@ -12378,40 +12378,40 @@
       <c r="B32" s="87"/>
       <c r="C32" s="93"/>
       <c r="D32" s="140"/>
-      <c r="E32" s="253" t="s">
+      <c r="E32" s="311" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="253"/>
-      <c r="G32" s="259"/>
-      <c r="H32" s="259"/>
-      <c r="I32" s="259"/>
-      <c r="J32" s="259"/>
-      <c r="K32" s="259"/>
-      <c r="L32" s="259"/>
-      <c r="M32" s="253" t="s">
+      <c r="F32" s="311"/>
+      <c r="G32" s="314"/>
+      <c r="H32" s="314"/>
+      <c r="I32" s="314"/>
+      <c r="J32" s="314"/>
+      <c r="K32" s="314"/>
+      <c r="L32" s="314"/>
+      <c r="M32" s="311" t="s">
         <v>25</v>
       </c>
-      <c r="N32" s="253"/>
-      <c r="O32" s="312"/>
-      <c r="P32" s="313"/>
-      <c r="Q32" s="313"/>
-      <c r="R32" s="313"/>
-      <c r="S32" s="313"/>
-      <c r="T32" s="313"/>
-      <c r="U32" s="313"/>
-      <c r="V32" s="313"/>
-      <c r="W32" s="313"/>
-      <c r="X32" s="313"/>
-      <c r="Y32" s="313"/>
-      <c r="Z32" s="313"/>
-      <c r="AA32" s="313"/>
-      <c r="AB32" s="313"/>
-      <c r="AC32" s="313"/>
-      <c r="AD32" s="313"/>
-      <c r="AE32" s="313"/>
-      <c r="AF32" s="313"/>
-      <c r="AG32" s="313"/>
-      <c r="AH32" s="314"/>
+      <c r="N32" s="311"/>
+      <c r="O32" s="270"/>
+      <c r="P32" s="271"/>
+      <c r="Q32" s="271"/>
+      <c r="R32" s="271"/>
+      <c r="S32" s="271"/>
+      <c r="T32" s="271"/>
+      <c r="U32" s="271"/>
+      <c r="V32" s="271"/>
+      <c r="W32" s="271"/>
+      <c r="X32" s="271"/>
+      <c r="Y32" s="271"/>
+      <c r="Z32" s="271"/>
+      <c r="AA32" s="271"/>
+      <c r="AB32" s="271"/>
+      <c r="AC32" s="271"/>
+      <c r="AD32" s="271"/>
+      <c r="AE32" s="271"/>
+      <c r="AF32" s="271"/>
+      <c r="AG32" s="271"/>
+      <c r="AH32" s="272"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A33" s="48"/>
@@ -14401,40 +14401,40 @@
     <row r="89" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C89" s="30"/>
       <c r="D89" s="30"/>
-      <c r="E89" s="253" t="s">
+      <c r="E89" s="311" t="s">
         <v>24</v>
       </c>
-      <c r="F89" s="253"/>
-      <c r="G89" s="254"/>
-      <c r="H89" s="255"/>
-      <c r="I89" s="255"/>
-      <c r="J89" s="255"/>
-      <c r="K89" s="255"/>
-      <c r="L89" s="256"/>
-      <c r="M89" s="253" t="s">
+      <c r="F89" s="311"/>
+      <c r="G89" s="261"/>
+      <c r="H89" s="262"/>
+      <c r="I89" s="262"/>
+      <c r="J89" s="262"/>
+      <c r="K89" s="262"/>
+      <c r="L89" s="263"/>
+      <c r="M89" s="311" t="s">
         <v>25</v>
       </c>
-      <c r="N89" s="253"/>
-      <c r="O89" s="254"/>
-      <c r="P89" s="255"/>
-      <c r="Q89" s="255"/>
-      <c r="R89" s="255"/>
-      <c r="S89" s="255"/>
-      <c r="T89" s="255"/>
-      <c r="U89" s="255"/>
-      <c r="V89" s="255"/>
-      <c r="W89" s="255"/>
-      <c r="X89" s="255"/>
-      <c r="Y89" s="255"/>
-      <c r="Z89" s="255"/>
-      <c r="AA89" s="255"/>
-      <c r="AB89" s="255"/>
-      <c r="AC89" s="255"/>
-      <c r="AD89" s="255"/>
-      <c r="AE89" s="255"/>
-      <c r="AF89" s="255"/>
-      <c r="AG89" s="255"/>
-      <c r="AH89" s="256"/>
+      <c r="N89" s="311"/>
+      <c r="O89" s="261"/>
+      <c r="P89" s="262"/>
+      <c r="Q89" s="262"/>
+      <c r="R89" s="262"/>
+      <c r="S89" s="262"/>
+      <c r="T89" s="262"/>
+      <c r="U89" s="262"/>
+      <c r="V89" s="262"/>
+      <c r="W89" s="262"/>
+      <c r="X89" s="262"/>
+      <c r="Y89" s="262"/>
+      <c r="Z89" s="262"/>
+      <c r="AA89" s="262"/>
+      <c r="AB89" s="262"/>
+      <c r="AC89" s="262"/>
+      <c r="AD89" s="262"/>
+      <c r="AE89" s="262"/>
+      <c r="AF89" s="262"/>
+      <c r="AG89" s="262"/>
+      <c r="AH89" s="263"/>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C90" s="30"/>
@@ -14569,86 +14569,86 @@
     <row r="94" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C94" s="30"/>
       <c r="D94" s="30"/>
-      <c r="E94" s="302" t="s">
+      <c r="E94" s="278" t="s">
         <v>57</v>
       </c>
-      <c r="F94" s="294" t="s">
+      <c r="F94" s="264" t="s">
         <v>26</v>
       </c>
-      <c r="G94" s="295"/>
-      <c r="H94" s="295"/>
-      <c r="I94" s="296"/>
-      <c r="J94" s="294" t="s">
+      <c r="G94" s="265"/>
+      <c r="H94" s="265"/>
+      <c r="I94" s="266"/>
+      <c r="J94" s="264" t="s">
         <v>27</v>
       </c>
-      <c r="K94" s="295"/>
-      <c r="L94" s="295"/>
-      <c r="M94" s="296"/>
-      <c r="N94" s="304" t="s">
+      <c r="K94" s="265"/>
+      <c r="L94" s="265"/>
+      <c r="M94" s="266"/>
+      <c r="N94" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="O94" s="304"/>
-      <c r="P94" s="304"/>
-      <c r="Q94" s="304"/>
-      <c r="R94" s="304"/>
-      <c r="S94" s="304"/>
-      <c r="T94" s="304"/>
-      <c r="U94" s="304"/>
-      <c r="V94" s="304"/>
-      <c r="W94" s="294" t="s">
+      <c r="O94" s="280"/>
+      <c r="P94" s="280"/>
+      <c r="Q94" s="280"/>
+      <c r="R94" s="280"/>
+      <c r="S94" s="280"/>
+      <c r="T94" s="280"/>
+      <c r="U94" s="280"/>
+      <c r="V94" s="280"/>
+      <c r="W94" s="264" t="s">
         <v>36</v>
       </c>
-      <c r="X94" s="295"/>
-      <c r="Y94" s="295"/>
-      <c r="Z94" s="295"/>
-      <c r="AA94" s="295"/>
-      <c r="AB94" s="295"/>
-      <c r="AC94" s="296"/>
-      <c r="AD94" s="294" t="s">
+      <c r="X94" s="265"/>
+      <c r="Y94" s="265"/>
+      <c r="Z94" s="265"/>
+      <c r="AA94" s="265"/>
+      <c r="AB94" s="265"/>
+      <c r="AC94" s="266"/>
+      <c r="AD94" s="264" t="s">
         <v>37</v>
       </c>
-      <c r="AE94" s="295"/>
-      <c r="AF94" s="295"/>
-      <c r="AG94" s="295"/>
-      <c r="AH94" s="296"/>
+      <c r="AE94" s="265"/>
+      <c r="AF94" s="265"/>
+      <c r="AG94" s="265"/>
+      <c r="AH94" s="266"/>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C95" s="30"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="303"/>
-      <c r="F95" s="297"/>
-      <c r="G95" s="298"/>
-      <c r="H95" s="298"/>
-      <c r="I95" s="299"/>
-      <c r="J95" s="297"/>
-      <c r="K95" s="298"/>
-      <c r="L95" s="298"/>
-      <c r="M95" s="299"/>
-      <c r="N95" s="304" t="s">
+      <c r="E95" s="279"/>
+      <c r="F95" s="267"/>
+      <c r="G95" s="268"/>
+      <c r="H95" s="268"/>
+      <c r="I95" s="269"/>
+      <c r="J95" s="267"/>
+      <c r="K95" s="268"/>
+      <c r="L95" s="268"/>
+      <c r="M95" s="269"/>
+      <c r="N95" s="280" t="s">
         <v>31</v>
       </c>
-      <c r="O95" s="304"/>
-      <c r="P95" s="304"/>
-      <c r="Q95" s="304"/>
-      <c r="R95" s="304"/>
-      <c r="S95" s="305" t="s">
+      <c r="O95" s="280"/>
+      <c r="P95" s="280"/>
+      <c r="Q95" s="280"/>
+      <c r="R95" s="280"/>
+      <c r="S95" s="281" t="s">
         <v>32</v>
       </c>
-      <c r="T95" s="305"/>
-      <c r="U95" s="305"/>
-      <c r="V95" s="305"/>
-      <c r="W95" s="297"/>
-      <c r="X95" s="298"/>
-      <c r="Y95" s="298"/>
-      <c r="Z95" s="298"/>
-      <c r="AA95" s="298"/>
-      <c r="AB95" s="298"/>
-      <c r="AC95" s="299"/>
-      <c r="AD95" s="297"/>
-      <c r="AE95" s="298"/>
-      <c r="AF95" s="298"/>
-      <c r="AG95" s="298"/>
-      <c r="AH95" s="299"/>
+      <c r="T95" s="281"/>
+      <c r="U95" s="281"/>
+      <c r="V95" s="281"/>
+      <c r="W95" s="267"/>
+      <c r="X95" s="268"/>
+      <c r="Y95" s="268"/>
+      <c r="Z95" s="268"/>
+      <c r="AA95" s="268"/>
+      <c r="AB95" s="268"/>
+      <c r="AC95" s="269"/>
+      <c r="AD95" s="267"/>
+      <c r="AE95" s="268"/>
+      <c r="AF95" s="268"/>
+      <c r="AG95" s="268"/>
+      <c r="AH95" s="269"/>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C96" s="30"/>
@@ -14656,35 +14656,35 @@
       <c r="E96" s="41">
         <v>1</v>
       </c>
-      <c r="F96" s="306"/>
-      <c r="G96" s="307"/>
-      <c r="H96" s="307"/>
-      <c r="I96" s="308"/>
-      <c r="J96" s="306"/>
-      <c r="K96" s="307"/>
-      <c r="L96" s="307"/>
-      <c r="M96" s="308"/>
-      <c r="N96" s="250"/>
-      <c r="O96" s="251"/>
-      <c r="P96" s="251"/>
-      <c r="Q96" s="251"/>
-      <c r="R96" s="251"/>
-      <c r="S96" s="252"/>
-      <c r="T96" s="252"/>
-      <c r="U96" s="252"/>
-      <c r="V96" s="252"/>
-      <c r="W96" s="291"/>
-      <c r="X96" s="292"/>
-      <c r="Y96" s="292"/>
-      <c r="Z96" s="292"/>
-      <c r="AA96" s="292"/>
-      <c r="AB96" s="292"/>
-      <c r="AC96" s="293"/>
-      <c r="AD96" s="291"/>
-      <c r="AE96" s="292"/>
-      <c r="AF96" s="292"/>
-      <c r="AG96" s="292"/>
-      <c r="AH96" s="293"/>
+      <c r="F96" s="273"/>
+      <c r="G96" s="274"/>
+      <c r="H96" s="274"/>
+      <c r="I96" s="275"/>
+      <c r="J96" s="273"/>
+      <c r="K96" s="274"/>
+      <c r="L96" s="274"/>
+      <c r="M96" s="275"/>
+      <c r="N96" s="256"/>
+      <c r="O96" s="257"/>
+      <c r="P96" s="257"/>
+      <c r="Q96" s="257"/>
+      <c r="R96" s="257"/>
+      <c r="S96" s="251"/>
+      <c r="T96" s="251"/>
+      <c r="U96" s="251"/>
+      <c r="V96" s="251"/>
+      <c r="W96" s="253"/>
+      <c r="X96" s="254"/>
+      <c r="Y96" s="254"/>
+      <c r="Z96" s="254"/>
+      <c r="AA96" s="254"/>
+      <c r="AB96" s="254"/>
+      <c r="AC96" s="255"/>
+      <c r="AD96" s="253"/>
+      <c r="AE96" s="254"/>
+      <c r="AF96" s="254"/>
+      <c r="AG96" s="254"/>
+      <c r="AH96" s="255"/>
     </row>
     <row r="97" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C97" s="30"/>
@@ -14692,35 +14692,35 @@
       <c r="E97" s="41">
         <v>2</v>
       </c>
-      <c r="F97" s="306"/>
-      <c r="G97" s="307"/>
-      <c r="H97" s="307"/>
-      <c r="I97" s="308"/>
-      <c r="J97" s="306"/>
-      <c r="K97" s="307"/>
-      <c r="L97" s="307"/>
-      <c r="M97" s="308"/>
-      <c r="N97" s="250"/>
-      <c r="O97" s="251"/>
-      <c r="P97" s="251"/>
-      <c r="Q97" s="251"/>
-      <c r="R97" s="251"/>
-      <c r="S97" s="252"/>
-      <c r="T97" s="252"/>
-      <c r="U97" s="252"/>
-      <c r="V97" s="252"/>
-      <c r="W97" s="291"/>
-      <c r="X97" s="292"/>
-      <c r="Y97" s="292"/>
-      <c r="Z97" s="292"/>
-      <c r="AA97" s="292"/>
-      <c r="AB97" s="292"/>
-      <c r="AC97" s="293"/>
-      <c r="AD97" s="291"/>
-      <c r="AE97" s="292"/>
-      <c r="AF97" s="292"/>
-      <c r="AG97" s="292"/>
-      <c r="AH97" s="293"/>
+      <c r="F97" s="273"/>
+      <c r="G97" s="274"/>
+      <c r="H97" s="274"/>
+      <c r="I97" s="275"/>
+      <c r="J97" s="273"/>
+      <c r="K97" s="274"/>
+      <c r="L97" s="274"/>
+      <c r="M97" s="275"/>
+      <c r="N97" s="256"/>
+      <c r="O97" s="257"/>
+      <c r="P97" s="257"/>
+      <c r="Q97" s="257"/>
+      <c r="R97" s="257"/>
+      <c r="S97" s="251"/>
+      <c r="T97" s="251"/>
+      <c r="U97" s="251"/>
+      <c r="V97" s="251"/>
+      <c r="W97" s="253"/>
+      <c r="X97" s="254"/>
+      <c r="Y97" s="254"/>
+      <c r="Z97" s="254"/>
+      <c r="AA97" s="254"/>
+      <c r="AB97" s="254"/>
+      <c r="AC97" s="255"/>
+      <c r="AD97" s="253"/>
+      <c r="AE97" s="254"/>
+      <c r="AF97" s="254"/>
+      <c r="AG97" s="254"/>
+      <c r="AH97" s="255"/>
     </row>
     <row r="98" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C98" s="30"/>
@@ -14728,35 +14728,35 @@
       <c r="E98" s="41">
         <v>3</v>
       </c>
-      <c r="F98" s="306"/>
-      <c r="G98" s="307"/>
-      <c r="H98" s="307"/>
-      <c r="I98" s="308"/>
-      <c r="J98" s="306"/>
-      <c r="K98" s="307"/>
-      <c r="L98" s="307"/>
-      <c r="M98" s="308"/>
-      <c r="N98" s="250"/>
-      <c r="O98" s="251"/>
-      <c r="P98" s="251"/>
-      <c r="Q98" s="251"/>
-      <c r="R98" s="251"/>
-      <c r="S98" s="252"/>
-      <c r="T98" s="252"/>
-      <c r="U98" s="252"/>
-      <c r="V98" s="252"/>
-      <c r="W98" s="291"/>
-      <c r="X98" s="292"/>
-      <c r="Y98" s="292"/>
-      <c r="Z98" s="292"/>
-      <c r="AA98" s="292"/>
-      <c r="AB98" s="292"/>
-      <c r="AC98" s="293"/>
-      <c r="AD98" s="291"/>
-      <c r="AE98" s="292"/>
-      <c r="AF98" s="292"/>
-      <c r="AG98" s="292"/>
-      <c r="AH98" s="293"/>
+      <c r="F98" s="273"/>
+      <c r="G98" s="274"/>
+      <c r="H98" s="274"/>
+      <c r="I98" s="275"/>
+      <c r="J98" s="273"/>
+      <c r="K98" s="274"/>
+      <c r="L98" s="274"/>
+      <c r="M98" s="275"/>
+      <c r="N98" s="256"/>
+      <c r="O98" s="257"/>
+      <c r="P98" s="257"/>
+      <c r="Q98" s="257"/>
+      <c r="R98" s="257"/>
+      <c r="S98" s="251"/>
+      <c r="T98" s="251"/>
+      <c r="U98" s="251"/>
+      <c r="V98" s="251"/>
+      <c r="W98" s="253"/>
+      <c r="X98" s="254"/>
+      <c r="Y98" s="254"/>
+      <c r="Z98" s="254"/>
+      <c r="AA98" s="254"/>
+      <c r="AB98" s="254"/>
+      <c r="AC98" s="255"/>
+      <c r="AD98" s="253"/>
+      <c r="AE98" s="254"/>
+      <c r="AF98" s="254"/>
+      <c r="AG98" s="254"/>
+      <c r="AH98" s="255"/>
     </row>
     <row r="99" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C99" s="30"/>
@@ -14764,35 +14764,35 @@
       <c r="E99" s="41">
         <v>4</v>
       </c>
-      <c r="F99" s="306"/>
-      <c r="G99" s="307"/>
-      <c r="H99" s="307"/>
-      <c r="I99" s="308"/>
-      <c r="J99" s="306"/>
-      <c r="K99" s="307"/>
-      <c r="L99" s="307"/>
-      <c r="M99" s="308"/>
-      <c r="N99" s="250"/>
-      <c r="O99" s="251"/>
-      <c r="P99" s="251"/>
-      <c r="Q99" s="251"/>
-      <c r="R99" s="251"/>
-      <c r="S99" s="252"/>
-      <c r="T99" s="252"/>
-      <c r="U99" s="252"/>
-      <c r="V99" s="252"/>
-      <c r="W99" s="291"/>
-      <c r="X99" s="292"/>
-      <c r="Y99" s="292"/>
-      <c r="Z99" s="292"/>
-      <c r="AA99" s="292"/>
-      <c r="AB99" s="292"/>
-      <c r="AC99" s="293"/>
-      <c r="AD99" s="291"/>
-      <c r="AE99" s="292"/>
-      <c r="AF99" s="292"/>
-      <c r="AG99" s="292"/>
-      <c r="AH99" s="293"/>
+      <c r="F99" s="273"/>
+      <c r="G99" s="274"/>
+      <c r="H99" s="274"/>
+      <c r="I99" s="275"/>
+      <c r="J99" s="273"/>
+      <c r="K99" s="274"/>
+      <c r="L99" s="274"/>
+      <c r="M99" s="275"/>
+      <c r="N99" s="256"/>
+      <c r="O99" s="257"/>
+      <c r="P99" s="257"/>
+      <c r="Q99" s="257"/>
+      <c r="R99" s="257"/>
+      <c r="S99" s="251"/>
+      <c r="T99" s="251"/>
+      <c r="U99" s="251"/>
+      <c r="V99" s="251"/>
+      <c r="W99" s="253"/>
+      <c r="X99" s="254"/>
+      <c r="Y99" s="254"/>
+      <c r="Z99" s="254"/>
+      <c r="AA99" s="254"/>
+      <c r="AB99" s="254"/>
+      <c r="AC99" s="255"/>
+      <c r="AD99" s="253"/>
+      <c r="AE99" s="254"/>
+      <c r="AF99" s="254"/>
+      <c r="AG99" s="254"/>
+      <c r="AH99" s="255"/>
     </row>
     <row r="100" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C100" s="30"/>
@@ -14800,47 +14800,116 @@
       <c r="E100" s="41">
         <v>5</v>
       </c>
-      <c r="F100" s="306"/>
-      <c r="G100" s="307"/>
-      <c r="H100" s="307"/>
-      <c r="I100" s="308"/>
-      <c r="J100" s="306"/>
-      <c r="K100" s="307"/>
-      <c r="L100" s="307"/>
-      <c r="M100" s="308"/>
-      <c r="N100" s="250"/>
-      <c r="O100" s="251"/>
-      <c r="P100" s="251"/>
-      <c r="Q100" s="251"/>
-      <c r="R100" s="251"/>
-      <c r="S100" s="252"/>
-      <c r="T100" s="252"/>
-      <c r="U100" s="252"/>
-      <c r="V100" s="252"/>
-      <c r="W100" s="291"/>
-      <c r="X100" s="292"/>
-      <c r="Y100" s="292"/>
-      <c r="Z100" s="292"/>
-      <c r="AA100" s="292"/>
-      <c r="AB100" s="292"/>
-      <c r="AC100" s="293"/>
-      <c r="AD100" s="291"/>
-      <c r="AE100" s="292"/>
-      <c r="AF100" s="292"/>
-      <c r="AG100" s="292"/>
-      <c r="AH100" s="293"/>
+      <c r="F100" s="273"/>
+      <c r="G100" s="274"/>
+      <c r="H100" s="274"/>
+      <c r="I100" s="275"/>
+      <c r="J100" s="273"/>
+      <c r="K100" s="274"/>
+      <c r="L100" s="274"/>
+      <c r="M100" s="275"/>
+      <c r="N100" s="256"/>
+      <c r="O100" s="257"/>
+      <c r="P100" s="257"/>
+      <c r="Q100" s="257"/>
+      <c r="R100" s="257"/>
+      <c r="S100" s="251"/>
+      <c r="T100" s="251"/>
+      <c r="U100" s="251"/>
+      <c r="V100" s="251"/>
+      <c r="W100" s="253"/>
+      <c r="X100" s="254"/>
+      <c r="Y100" s="254"/>
+      <c r="Z100" s="254"/>
+      <c r="AA100" s="254"/>
+      <c r="AB100" s="254"/>
+      <c r="AC100" s="255"/>
+      <c r="AD100" s="253"/>
+      <c r="AE100" s="254"/>
+      <c r="AF100" s="254"/>
+      <c r="AG100" s="254"/>
+      <c r="AH100" s="255"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="AA19:AH19"/>
-    <mergeCell ref="AA20:AH20"/>
-    <mergeCell ref="AA21:AH21"/>
-    <mergeCell ref="AA22:AH22"/>
-    <mergeCell ref="AA23:AH23"/>
-    <mergeCell ref="AA24:AH24"/>
-    <mergeCell ref="AA17:AH18"/>
-    <mergeCell ref="AD99:AH99"/>
-    <mergeCell ref="AD100:AH100"/>
+    <mergeCell ref="N97:R97"/>
+    <mergeCell ref="S97:V97"/>
+    <mergeCell ref="N96:R96"/>
+    <mergeCell ref="S96:V96"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="G89:L89"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:V24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="N94:V94"/>
+    <mergeCell ref="N95:R95"/>
+    <mergeCell ref="S95:V95"/>
+    <mergeCell ref="H20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="W17:Z18"/>
+    <mergeCell ref="H17:V18"/>
+    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:V19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="J100:M100"/>
+    <mergeCell ref="J94:M95"/>
+    <mergeCell ref="F94:I95"/>
     <mergeCell ref="N100:R100"/>
     <mergeCell ref="S100:V100"/>
     <mergeCell ref="N99:R99"/>
@@ -14865,84 +14934,15 @@
     <mergeCell ref="F96:I96"/>
     <mergeCell ref="F97:I97"/>
     <mergeCell ref="F98:I98"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="J94:M95"/>
-    <mergeCell ref="F94:I95"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="N94:V94"/>
-    <mergeCell ref="N95:R95"/>
-    <mergeCell ref="S95:V95"/>
-    <mergeCell ref="H20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="W17:Z18"/>
-    <mergeCell ref="H17:V18"/>
-    <mergeCell ref="E17:G18"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="N97:R97"/>
-    <mergeCell ref="S97:V97"/>
-    <mergeCell ref="N96:R96"/>
-    <mergeCell ref="S96:V96"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="G89:L89"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="AA20:AH20"/>
+    <mergeCell ref="AA21:AH21"/>
+    <mergeCell ref="AA22:AH22"/>
+    <mergeCell ref="AA23:AH23"/>
+    <mergeCell ref="AA24:AH24"/>
+    <mergeCell ref="AA17:AH18"/>
+    <mergeCell ref="AD99:AH99"/>
+    <mergeCell ref="AD100:AH100"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">

--- a/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(Webサービス)_(取引ID)_(取引名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(Webサービス)_(取引ID)_(取引名).xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.1. Webサービス取引概要'!$A$1:$AI$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. 取引ID（取引名）'!$A$1:$AI$101</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. 取引ID（取引名）'!$A$1:$AI$100</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">データ!$A$1:$B$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -40,7 +40,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="E36" authorId="0">
+    <comment ref="E35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F37" authorId="0">
+    <comment ref="F36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>PJ名</t>
   </si>
@@ -516,19 +516,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>埋め込み文字列</t>
-    <rPh sb="0" eb="1">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>モジレツ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 種別一覧</t>
     <rPh sb="1" eb="3">
       <t>シュベツ</t>
@@ -580,10 +567,6 @@
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>メッセージID</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -1048,7 +1031,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1386,18 +1369,99 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1509,83 +1573,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1623,41 +1645,50 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1674,58 +1705,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1737,11 +1786,53 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1753,33 +1844,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1788,137 +1852,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4968,12 +4909,12 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="142" t="str">
+      <c r="I25" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="142"/>
-      <c r="K25" s="142"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
       <c r="L25" s="37"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5608,55 +5549,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="162" t="s">
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="171" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="159" t="s">
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="198" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="200"/>
+      <c r="AA1" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="143" t="str">
+      <c r="AB1" s="188"/>
+      <c r="AC1" s="170" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="146" t="str">
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="173" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
+      <c r="AH1" s="174"/>
+      <c r="AI1" s="175"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
@@ -5664,51 +5605,51 @@
       <c r="AN1" s="14"/>
     </row>
     <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="176"/>
-      <c r="AA2" s="159" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="194"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="203"/>
+      <c r="AA2" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="156" t="str">
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="183" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="146" t="str">
+      <c r="AD2" s="184"/>
+      <c r="AE2" s="184"/>
+      <c r="AF2" s="185"/>
+      <c r="AG2" s="173" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="148"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="175"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
@@ -5716,43 +5657,43 @@
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="177"/>
-      <c r="T3" s="178"/>
-      <c r="U3" s="178"/>
-      <c r="V3" s="178"/>
-      <c r="W3" s="178"/>
-      <c r="X3" s="178"/>
-      <c r="Y3" s="178"/>
-      <c r="Z3" s="179"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="145"/>
-      <c r="AG3" s="146"/>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="196"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="205"/>
+      <c r="U3" s="205"/>
+      <c r="V3" s="205"/>
+      <c r="W3" s="205"/>
+      <c r="X3" s="205"/>
+      <c r="Y3" s="205"/>
+      <c r="Z3" s="206"/>
+      <c r="AA3" s="186"/>
+      <c r="AB3" s="188"/>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="173"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="175"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -5789,1176 +5730,1020 @@
       <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="150"/>
-      <c r="D7" s="149" t="s">
+      <c r="C7" s="177"/>
+      <c r="D7" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="151"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="149" t="s">
+      <c r="E7" s="178"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="151"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="152" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="149" t="s">
+      <c r="H7" s="178"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="179" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="178"/>
+      <c r="L7" s="178"/>
+      <c r="M7" s="178"/>
+      <c r="N7" s="178"/>
+      <c r="O7" s="178"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="151"/>
-      <c r="S7" s="151"/>
-      <c r="T7" s="151"/>
-      <c r="U7" s="151"/>
-      <c r="V7" s="151"/>
-      <c r="W7" s="151"/>
-      <c r="X7" s="151"/>
-      <c r="Y7" s="151"/>
-      <c r="Z7" s="151"/>
-      <c r="AA7" s="151"/>
-      <c r="AB7" s="151"/>
-      <c r="AC7" s="151"/>
-      <c r="AD7" s="151"/>
-      <c r="AE7" s="150"/>
-      <c r="AF7" s="149" t="s">
+      <c r="R7" s="178"/>
+      <c r="S7" s="178"/>
+      <c r="T7" s="178"/>
+      <c r="U7" s="178"/>
+      <c r="V7" s="178"/>
+      <c r="W7" s="178"/>
+      <c r="X7" s="178"/>
+      <c r="Y7" s="178"/>
+      <c r="Z7" s="178"/>
+      <c r="AA7" s="178"/>
+      <c r="AB7" s="178"/>
+      <c r="AC7" s="178"/>
+      <c r="AD7" s="178"/>
+      <c r="AE7" s="177"/>
+      <c r="AF7" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="151"/>
-      <c r="AH7" s="151"/>
-      <c r="AI7" s="150"/>
+      <c r="AG7" s="178"/>
+      <c r="AH7" s="178"/>
+      <c r="AI7" s="177"/>
     </row>
     <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="132"/>
-      <c r="B8" s="192"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="200"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="200"/>
-      <c r="O8" s="200"/>
-      <c r="P8" s="201"/>
-      <c r="Q8" s="202"/>
-      <c r="R8" s="203"/>
-      <c r="S8" s="203"/>
-      <c r="T8" s="203"/>
-      <c r="U8" s="203"/>
-      <c r="V8" s="203"/>
-      <c r="W8" s="203"/>
-      <c r="X8" s="203"/>
-      <c r="Y8" s="203"/>
-      <c r="Z8" s="203"/>
-      <c r="AA8" s="203"/>
-      <c r="AB8" s="203"/>
-      <c r="AC8" s="203"/>
-      <c r="AD8" s="203"/>
-      <c r="AE8" s="204"/>
-      <c r="AF8" s="199"/>
-      <c r="AG8" s="200"/>
-      <c r="AH8" s="200"/>
-      <c r="AI8" s="201"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="166"/>
+      <c r="Q8" s="167"/>
+      <c r="R8" s="168"/>
+      <c r="S8" s="168"/>
+      <c r="T8" s="168"/>
+      <c r="U8" s="168"/>
+      <c r="V8" s="168"/>
+      <c r="W8" s="168"/>
+      <c r="X8" s="168"/>
+      <c r="Y8" s="168"/>
+      <c r="Z8" s="168"/>
+      <c r="AA8" s="168"/>
+      <c r="AB8" s="168"/>
+      <c r="AC8" s="168"/>
+      <c r="AD8" s="168"/>
+      <c r="AE8" s="169"/>
+      <c r="AF8" s="164"/>
+      <c r="AG8" s="165"/>
+      <c r="AH8" s="165"/>
+      <c r="AI8" s="166"/>
     </row>
     <row r="9" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="133"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="187"/>
-      <c r="M9" s="187"/>
-      <c r="N9" s="187"/>
-      <c r="O9" s="187"/>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="189"/>
-      <c r="R9" s="190"/>
-      <c r="S9" s="190"/>
-      <c r="T9" s="190"/>
-      <c r="U9" s="190"/>
-      <c r="V9" s="190"/>
-      <c r="W9" s="190"/>
-      <c r="X9" s="190"/>
-      <c r="Y9" s="190"/>
-      <c r="Z9" s="190"/>
-      <c r="AA9" s="190"/>
-      <c r="AB9" s="190"/>
-      <c r="AC9" s="190"/>
-      <c r="AD9" s="190"/>
-      <c r="AE9" s="191"/>
-      <c r="AF9" s="186"/>
-      <c r="AG9" s="187"/>
-      <c r="AH9" s="187"/>
-      <c r="AI9" s="188"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="153"/>
+      <c r="R9" s="154"/>
+      <c r="S9" s="154"/>
+      <c r="T9" s="154"/>
+      <c r="U9" s="154"/>
+      <c r="V9" s="154"/>
+      <c r="W9" s="154"/>
+      <c r="X9" s="154"/>
+      <c r="Y9" s="154"/>
+      <c r="Z9" s="154"/>
+      <c r="AA9" s="154"/>
+      <c r="AB9" s="154"/>
+      <c r="AC9" s="154"/>
+      <c r="AD9" s="154"/>
+      <c r="AE9" s="155"/>
+      <c r="AF9" s="150"/>
+      <c r="AG9" s="151"/>
+      <c r="AH9" s="151"/>
+      <c r="AI9" s="152"/>
     </row>
     <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="133"/>
-      <c r="B10" s="180"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="187"/>
-      <c r="O10" s="187"/>
-      <c r="P10" s="188"/>
-      <c r="Q10" s="189"/>
-      <c r="R10" s="190"/>
-      <c r="S10" s="190"/>
-      <c r="T10" s="190"/>
-      <c r="U10" s="190"/>
-      <c r="V10" s="190"/>
-      <c r="W10" s="190"/>
-      <c r="X10" s="190"/>
-      <c r="Y10" s="190"/>
-      <c r="Z10" s="190"/>
-      <c r="AA10" s="190"/>
-      <c r="AB10" s="190"/>
-      <c r="AC10" s="190"/>
-      <c r="AD10" s="190"/>
-      <c r="AE10" s="191"/>
-      <c r="AF10" s="186"/>
-      <c r="AG10" s="187"/>
-      <c r="AH10" s="187"/>
-      <c r="AI10" s="188"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="154"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="154"/>
+      <c r="U10" s="154"/>
+      <c r="V10" s="154"/>
+      <c r="W10" s="154"/>
+      <c r="X10" s="154"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="154"/>
+      <c r="AA10" s="154"/>
+      <c r="AB10" s="154"/>
+      <c r="AC10" s="154"/>
+      <c r="AD10" s="154"/>
+      <c r="AE10" s="155"/>
+      <c r="AF10" s="150"/>
+      <c r="AG10" s="151"/>
+      <c r="AH10" s="151"/>
+      <c r="AI10" s="152"/>
     </row>
     <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="133"/>
-      <c r="B11" s="180"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="187"/>
-      <c r="P11" s="188"/>
-      <c r="Q11" s="189"/>
-      <c r="R11" s="190"/>
-      <c r="S11" s="190"/>
-      <c r="T11" s="190"/>
-      <c r="U11" s="190"/>
-      <c r="V11" s="190"/>
-      <c r="W11" s="190"/>
-      <c r="X11" s="190"/>
-      <c r="Y11" s="190"/>
-      <c r="Z11" s="190"/>
-      <c r="AA11" s="190"/>
-      <c r="AB11" s="190"/>
-      <c r="AC11" s="190"/>
-      <c r="AD11" s="190"/>
-      <c r="AE11" s="191"/>
-      <c r="AF11" s="186"/>
-      <c r="AG11" s="187"/>
-      <c r="AH11" s="187"/>
-      <c r="AI11" s="188"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="153"/>
+      <c r="R11" s="154"/>
+      <c r="S11" s="154"/>
+      <c r="T11" s="154"/>
+      <c r="U11" s="154"/>
+      <c r="V11" s="154"/>
+      <c r="W11" s="154"/>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="154"/>
+      <c r="Z11" s="154"/>
+      <c r="AA11" s="154"/>
+      <c r="AB11" s="154"/>
+      <c r="AC11" s="154"/>
+      <c r="AD11" s="154"/>
+      <c r="AE11" s="155"/>
+      <c r="AF11" s="150"/>
+      <c r="AG11" s="151"/>
+      <c r="AH11" s="151"/>
+      <c r="AI11" s="152"/>
     </row>
     <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="133"/>
-      <c r="B12" s="180"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="181"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="187"/>
-      <c r="M12" s="187"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="187"/>
-      <c r="P12" s="188"/>
-      <c r="Q12" s="189"/>
-      <c r="R12" s="190"/>
-      <c r="S12" s="190"/>
-      <c r="T12" s="190"/>
-      <c r="U12" s="190"/>
-      <c r="V12" s="190"/>
-      <c r="W12" s="190"/>
-      <c r="X12" s="190"/>
-      <c r="Y12" s="190"/>
-      <c r="Z12" s="190"/>
-      <c r="AA12" s="190"/>
-      <c r="AB12" s="190"/>
-      <c r="AC12" s="190"/>
-      <c r="AD12" s="190"/>
-      <c r="AE12" s="191"/>
-      <c r="AF12" s="186"/>
-      <c r="AG12" s="187"/>
-      <c r="AH12" s="187"/>
-      <c r="AI12" s="188"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="154"/>
+      <c r="S12" s="154"/>
+      <c r="T12" s="154"/>
+      <c r="U12" s="154"/>
+      <c r="V12" s="154"/>
+      <c r="W12" s="154"/>
+      <c r="X12" s="154"/>
+      <c r="Y12" s="154"/>
+      <c r="Z12" s="154"/>
+      <c r="AA12" s="154"/>
+      <c r="AB12" s="154"/>
+      <c r="AC12" s="154"/>
+      <c r="AD12" s="154"/>
+      <c r="AE12" s="155"/>
+      <c r="AF12" s="150"/>
+      <c r="AG12" s="151"/>
+      <c r="AH12" s="151"/>
+      <c r="AI12" s="152"/>
     </row>
     <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="133"/>
-      <c r="B13" s="180"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="187"/>
-      <c r="P13" s="188"/>
-      <c r="Q13" s="189"/>
-      <c r="R13" s="190"/>
-      <c r="S13" s="190"/>
-      <c r="T13" s="190"/>
-      <c r="U13" s="190"/>
-      <c r="V13" s="190"/>
-      <c r="W13" s="190"/>
-      <c r="X13" s="190"/>
-      <c r="Y13" s="190"/>
-      <c r="Z13" s="190"/>
-      <c r="AA13" s="190"/>
-      <c r="AB13" s="190"/>
-      <c r="AC13" s="190"/>
-      <c r="AD13" s="190"/>
-      <c r="AE13" s="191"/>
-      <c r="AF13" s="186"/>
-      <c r="AG13" s="187"/>
-      <c r="AH13" s="187"/>
-      <c r="AI13" s="188"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="154"/>
+      <c r="S13" s="154"/>
+      <c r="T13" s="154"/>
+      <c r="U13" s="154"/>
+      <c r="V13" s="154"/>
+      <c r="W13" s="154"/>
+      <c r="X13" s="154"/>
+      <c r="Y13" s="154"/>
+      <c r="Z13" s="154"/>
+      <c r="AA13" s="154"/>
+      <c r="AB13" s="154"/>
+      <c r="AC13" s="154"/>
+      <c r="AD13" s="154"/>
+      <c r="AE13" s="155"/>
+      <c r="AF13" s="150"/>
+      <c r="AG13" s="151"/>
+      <c r="AH13" s="151"/>
+      <c r="AI13" s="152"/>
     </row>
     <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="133"/>
-      <c r="B14" s="180"/>
-      <c r="C14" s="181"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="184"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="187"/>
-      <c r="O14" s="187"/>
-      <c r="P14" s="188"/>
-      <c r="Q14" s="189"/>
-      <c r="R14" s="190"/>
-      <c r="S14" s="190"/>
-      <c r="T14" s="190"/>
-      <c r="U14" s="190"/>
-      <c r="V14" s="190"/>
-      <c r="W14" s="190"/>
-      <c r="X14" s="190"/>
-      <c r="Y14" s="190"/>
-      <c r="Z14" s="190"/>
-      <c r="AA14" s="190"/>
-      <c r="AB14" s="190"/>
-      <c r="AC14" s="190"/>
-      <c r="AD14" s="190"/>
-      <c r="AE14" s="191"/>
-      <c r="AF14" s="186"/>
-      <c r="AG14" s="187"/>
-      <c r="AH14" s="187"/>
-      <c r="AI14" s="188"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="153"/>
+      <c r="R14" s="154"/>
+      <c r="S14" s="154"/>
+      <c r="T14" s="154"/>
+      <c r="U14" s="154"/>
+      <c r="V14" s="154"/>
+      <c r="W14" s="154"/>
+      <c r="X14" s="154"/>
+      <c r="Y14" s="154"/>
+      <c r="Z14" s="154"/>
+      <c r="AA14" s="154"/>
+      <c r="AB14" s="154"/>
+      <c r="AC14" s="154"/>
+      <c r="AD14" s="154"/>
+      <c r="AE14" s="155"/>
+      <c r="AF14" s="150"/>
+      <c r="AG14" s="151"/>
+      <c r="AH14" s="151"/>
+      <c r="AI14" s="152"/>
     </row>
     <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="133"/>
-      <c r="B15" s="180"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="187"/>
-      <c r="N15" s="187"/>
-      <c r="O15" s="187"/>
-      <c r="P15" s="188"/>
-      <c r="Q15" s="189"/>
-      <c r="R15" s="190"/>
-      <c r="S15" s="190"/>
-      <c r="T15" s="190"/>
-      <c r="U15" s="190"/>
-      <c r="V15" s="190"/>
-      <c r="W15" s="190"/>
-      <c r="X15" s="190"/>
-      <c r="Y15" s="190"/>
-      <c r="Z15" s="190"/>
-      <c r="AA15" s="190"/>
-      <c r="AB15" s="190"/>
-      <c r="AC15" s="190"/>
-      <c r="AD15" s="190"/>
-      <c r="AE15" s="191"/>
-      <c r="AF15" s="186"/>
-      <c r="AG15" s="187"/>
-      <c r="AH15" s="187"/>
-      <c r="AI15" s="188"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="154"/>
+      <c r="S15" s="154"/>
+      <c r="T15" s="154"/>
+      <c r="U15" s="154"/>
+      <c r="V15" s="154"/>
+      <c r="W15" s="154"/>
+      <c r="X15" s="154"/>
+      <c r="Y15" s="154"/>
+      <c r="Z15" s="154"/>
+      <c r="AA15" s="154"/>
+      <c r="AB15" s="154"/>
+      <c r="AC15" s="154"/>
+      <c r="AD15" s="154"/>
+      <c r="AE15" s="155"/>
+      <c r="AF15" s="150"/>
+      <c r="AG15" s="151"/>
+      <c r="AH15" s="151"/>
+      <c r="AI15" s="152"/>
     </row>
     <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="133"/>
-      <c r="B16" s="180"/>
-      <c r="C16" s="181"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="187"/>
-      <c r="L16" s="187"/>
-      <c r="M16" s="187"/>
-      <c r="N16" s="187"/>
-      <c r="O16" s="187"/>
-      <c r="P16" s="188"/>
-      <c r="Q16" s="189"/>
-      <c r="R16" s="190"/>
-      <c r="S16" s="190"/>
-      <c r="T16" s="190"/>
-      <c r="U16" s="190"/>
-      <c r="V16" s="190"/>
-      <c r="W16" s="190"/>
-      <c r="X16" s="190"/>
-      <c r="Y16" s="190"/>
-      <c r="Z16" s="190"/>
-      <c r="AA16" s="190"/>
-      <c r="AB16" s="190"/>
-      <c r="AC16" s="190"/>
-      <c r="AD16" s="190"/>
-      <c r="AE16" s="191"/>
-      <c r="AF16" s="186"/>
-      <c r="AG16" s="187"/>
-      <c r="AH16" s="187"/>
-      <c r="AI16" s="188"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="154"/>
+      <c r="S16" s="154"/>
+      <c r="T16" s="154"/>
+      <c r="U16" s="154"/>
+      <c r="V16" s="154"/>
+      <c r="W16" s="154"/>
+      <c r="X16" s="154"/>
+      <c r="Y16" s="154"/>
+      <c r="Z16" s="154"/>
+      <c r="AA16" s="154"/>
+      <c r="AB16" s="154"/>
+      <c r="AC16" s="154"/>
+      <c r="AD16" s="154"/>
+      <c r="AE16" s="155"/>
+      <c r="AF16" s="150"/>
+      <c r="AG16" s="151"/>
+      <c r="AH16" s="151"/>
+      <c r="AI16" s="152"/>
     </row>
     <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="133"/>
-      <c r="B17" s="180"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="181"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="187"/>
-      <c r="L17" s="187"/>
-      <c r="M17" s="187"/>
-      <c r="N17" s="187"/>
-      <c r="O17" s="187"/>
-      <c r="P17" s="188"/>
-      <c r="Q17" s="189"/>
-      <c r="R17" s="190"/>
-      <c r="S17" s="190"/>
-      <c r="T17" s="190"/>
-      <c r="U17" s="190"/>
-      <c r="V17" s="190"/>
-      <c r="W17" s="190"/>
-      <c r="X17" s="190"/>
-      <c r="Y17" s="190"/>
-      <c r="Z17" s="190"/>
-      <c r="AA17" s="190"/>
-      <c r="AB17" s="190"/>
-      <c r="AC17" s="190"/>
-      <c r="AD17" s="190"/>
-      <c r="AE17" s="191"/>
-      <c r="AF17" s="186"/>
-      <c r="AG17" s="187"/>
-      <c r="AH17" s="187"/>
-      <c r="AI17" s="188"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="154"/>
+      <c r="S17" s="154"/>
+      <c r="T17" s="154"/>
+      <c r="U17" s="154"/>
+      <c r="V17" s="154"/>
+      <c r="W17" s="154"/>
+      <c r="X17" s="154"/>
+      <c r="Y17" s="154"/>
+      <c r="Z17" s="154"/>
+      <c r="AA17" s="154"/>
+      <c r="AB17" s="154"/>
+      <c r="AC17" s="154"/>
+      <c r="AD17" s="154"/>
+      <c r="AE17" s="155"/>
+      <c r="AF17" s="150"/>
+      <c r="AG17" s="151"/>
+      <c r="AH17" s="151"/>
+      <c r="AI17" s="152"/>
     </row>
     <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="133"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="181"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="187"/>
-      <c r="N18" s="187"/>
-      <c r="O18" s="187"/>
-      <c r="P18" s="188"/>
-      <c r="Q18" s="189"/>
-      <c r="R18" s="190"/>
-      <c r="S18" s="190"/>
-      <c r="T18" s="190"/>
-      <c r="U18" s="190"/>
-      <c r="V18" s="190"/>
-      <c r="W18" s="190"/>
-      <c r="X18" s="190"/>
-      <c r="Y18" s="190"/>
-      <c r="Z18" s="190"/>
-      <c r="AA18" s="190"/>
-      <c r="AB18" s="190"/>
-      <c r="AC18" s="190"/>
-      <c r="AD18" s="190"/>
-      <c r="AE18" s="191"/>
-      <c r="AF18" s="186"/>
-      <c r="AG18" s="187"/>
-      <c r="AH18" s="187"/>
-      <c r="AI18" s="188"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="154"/>
+      <c r="S18" s="154"/>
+      <c r="T18" s="154"/>
+      <c r="U18" s="154"/>
+      <c r="V18" s="154"/>
+      <c r="W18" s="154"/>
+      <c r="X18" s="154"/>
+      <c r="Y18" s="154"/>
+      <c r="Z18" s="154"/>
+      <c r="AA18" s="154"/>
+      <c r="AB18" s="154"/>
+      <c r="AC18" s="154"/>
+      <c r="AD18" s="154"/>
+      <c r="AE18" s="155"/>
+      <c r="AF18" s="150"/>
+      <c r="AG18" s="151"/>
+      <c r="AH18" s="151"/>
+      <c r="AI18" s="152"/>
     </row>
     <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="133"/>
-      <c r="B19" s="180"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="181"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="187"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="187"/>
-      <c r="N19" s="187"/>
-      <c r="O19" s="187"/>
-      <c r="P19" s="188"/>
-      <c r="Q19" s="189"/>
-      <c r="R19" s="190"/>
-      <c r="S19" s="190"/>
-      <c r="T19" s="190"/>
-      <c r="U19" s="190"/>
-      <c r="V19" s="190"/>
-      <c r="W19" s="190"/>
-      <c r="X19" s="190"/>
-      <c r="Y19" s="190"/>
-      <c r="Z19" s="190"/>
-      <c r="AA19" s="190"/>
-      <c r="AB19" s="190"/>
-      <c r="AC19" s="190"/>
-      <c r="AD19" s="190"/>
-      <c r="AE19" s="191"/>
-      <c r="AF19" s="186"/>
-      <c r="AG19" s="187"/>
-      <c r="AH19" s="187"/>
-      <c r="AI19" s="188"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="154"/>
+      <c r="S19" s="154"/>
+      <c r="T19" s="154"/>
+      <c r="U19" s="154"/>
+      <c r="V19" s="154"/>
+      <c r="W19" s="154"/>
+      <c r="X19" s="154"/>
+      <c r="Y19" s="154"/>
+      <c r="Z19" s="154"/>
+      <c r="AA19" s="154"/>
+      <c r="AB19" s="154"/>
+      <c r="AC19" s="154"/>
+      <c r="AD19" s="154"/>
+      <c r="AE19" s="155"/>
+      <c r="AF19" s="150"/>
+      <c r="AG19" s="151"/>
+      <c r="AH19" s="151"/>
+      <c r="AI19" s="152"/>
     </row>
     <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="133"/>
-      <c r="B20" s="180"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="181"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="187"/>
-      <c r="L20" s="187"/>
-      <c r="M20" s="187"/>
-      <c r="N20" s="187"/>
-      <c r="O20" s="187"/>
-      <c r="P20" s="188"/>
-      <c r="Q20" s="189"/>
-      <c r="R20" s="190"/>
-      <c r="S20" s="190"/>
-      <c r="T20" s="190"/>
-      <c r="U20" s="190"/>
-      <c r="V20" s="190"/>
-      <c r="W20" s="190"/>
-      <c r="X20" s="190"/>
-      <c r="Y20" s="190"/>
-      <c r="Z20" s="190"/>
-      <c r="AA20" s="190"/>
-      <c r="AB20" s="190"/>
-      <c r="AC20" s="190"/>
-      <c r="AD20" s="190"/>
-      <c r="AE20" s="191"/>
-      <c r="AF20" s="186"/>
-      <c r="AG20" s="187"/>
-      <c r="AH20" s="187"/>
-      <c r="AI20" s="188"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="151"/>
+      <c r="O20" s="151"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="154"/>
+      <c r="S20" s="154"/>
+      <c r="T20" s="154"/>
+      <c r="U20" s="154"/>
+      <c r="V20" s="154"/>
+      <c r="W20" s="154"/>
+      <c r="X20" s="154"/>
+      <c r="Y20" s="154"/>
+      <c r="Z20" s="154"/>
+      <c r="AA20" s="154"/>
+      <c r="AB20" s="154"/>
+      <c r="AC20" s="154"/>
+      <c r="AD20" s="154"/>
+      <c r="AE20" s="155"/>
+      <c r="AF20" s="150"/>
+      <c r="AG20" s="151"/>
+      <c r="AH20" s="151"/>
+      <c r="AI20" s="152"/>
     </row>
     <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="133"/>
-      <c r="B21" s="180"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="187"/>
-      <c r="L21" s="187"/>
-      <c r="M21" s="187"/>
-      <c r="N21" s="187"/>
-      <c r="O21" s="187"/>
-      <c r="P21" s="188"/>
-      <c r="Q21" s="189"/>
-      <c r="R21" s="190"/>
-      <c r="S21" s="190"/>
-      <c r="T21" s="190"/>
-      <c r="U21" s="190"/>
-      <c r="V21" s="190"/>
-      <c r="W21" s="190"/>
-      <c r="X21" s="190"/>
-      <c r="Y21" s="190"/>
-      <c r="Z21" s="190"/>
-      <c r="AA21" s="190"/>
-      <c r="AB21" s="190"/>
-      <c r="AC21" s="190"/>
-      <c r="AD21" s="190"/>
-      <c r="AE21" s="191"/>
-      <c r="AF21" s="186"/>
-      <c r="AG21" s="187"/>
-      <c r="AH21" s="187"/>
-      <c r="AI21" s="188"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="153"/>
+      <c r="R21" s="154"/>
+      <c r="S21" s="154"/>
+      <c r="T21" s="154"/>
+      <c r="U21" s="154"/>
+      <c r="V21" s="154"/>
+      <c r="W21" s="154"/>
+      <c r="X21" s="154"/>
+      <c r="Y21" s="154"/>
+      <c r="Z21" s="154"/>
+      <c r="AA21" s="154"/>
+      <c r="AB21" s="154"/>
+      <c r="AC21" s="154"/>
+      <c r="AD21" s="154"/>
+      <c r="AE21" s="155"/>
+      <c r="AF21" s="150"/>
+      <c r="AG21" s="151"/>
+      <c r="AH21" s="151"/>
+      <c r="AI21" s="152"/>
     </row>
     <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="133"/>
-      <c r="B22" s="180"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="187"/>
-      <c r="L22" s="187"/>
-      <c r="M22" s="187"/>
-      <c r="N22" s="187"/>
-      <c r="O22" s="187"/>
-      <c r="P22" s="188"/>
-      <c r="Q22" s="189"/>
-      <c r="R22" s="190"/>
-      <c r="S22" s="190"/>
-      <c r="T22" s="190"/>
-      <c r="U22" s="190"/>
-      <c r="V22" s="190"/>
-      <c r="W22" s="190"/>
-      <c r="X22" s="190"/>
-      <c r="Y22" s="190"/>
-      <c r="Z22" s="190"/>
-      <c r="AA22" s="190"/>
-      <c r="AB22" s="190"/>
-      <c r="AC22" s="190"/>
-      <c r="AD22" s="190"/>
-      <c r="AE22" s="191"/>
-      <c r="AF22" s="186"/>
-      <c r="AG22" s="187"/>
-      <c r="AH22" s="187"/>
-      <c r="AI22" s="188"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="154"/>
+      <c r="S22" s="154"/>
+      <c r="T22" s="154"/>
+      <c r="U22" s="154"/>
+      <c r="V22" s="154"/>
+      <c r="W22" s="154"/>
+      <c r="X22" s="154"/>
+      <c r="Y22" s="154"/>
+      <c r="Z22" s="154"/>
+      <c r="AA22" s="154"/>
+      <c r="AB22" s="154"/>
+      <c r="AC22" s="154"/>
+      <c r="AD22" s="154"/>
+      <c r="AE22" s="155"/>
+      <c r="AF22" s="150"/>
+      <c r="AG22" s="151"/>
+      <c r="AH22" s="151"/>
+      <c r="AI22" s="152"/>
     </row>
     <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="133"/>
-      <c r="B23" s="180"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="186"/>
-      <c r="K23" s="187"/>
-      <c r="L23" s="187"/>
-      <c r="M23" s="187"/>
-      <c r="N23" s="187"/>
-      <c r="O23" s="187"/>
-      <c r="P23" s="188"/>
-      <c r="Q23" s="189"/>
-      <c r="R23" s="190"/>
-      <c r="S23" s="190"/>
-      <c r="T23" s="190"/>
-      <c r="U23" s="190"/>
-      <c r="V23" s="190"/>
-      <c r="W23" s="190"/>
-      <c r="X23" s="190"/>
-      <c r="Y23" s="190"/>
-      <c r="Z23" s="190"/>
-      <c r="AA23" s="190"/>
-      <c r="AB23" s="190"/>
-      <c r="AC23" s="190"/>
-      <c r="AD23" s="190"/>
-      <c r="AE23" s="191"/>
-      <c r="AF23" s="186"/>
-      <c r="AG23" s="187"/>
-      <c r="AH23" s="187"/>
-      <c r="AI23" s="188"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="151"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="153"/>
+      <c r="R23" s="154"/>
+      <c r="S23" s="154"/>
+      <c r="T23" s="154"/>
+      <c r="U23" s="154"/>
+      <c r="V23" s="154"/>
+      <c r="W23" s="154"/>
+      <c r="X23" s="154"/>
+      <c r="Y23" s="154"/>
+      <c r="Z23" s="154"/>
+      <c r="AA23" s="154"/>
+      <c r="AB23" s="154"/>
+      <c r="AC23" s="154"/>
+      <c r="AD23" s="154"/>
+      <c r="AE23" s="155"/>
+      <c r="AF23" s="150"/>
+      <c r="AG23" s="151"/>
+      <c r="AH23" s="151"/>
+      <c r="AI23" s="152"/>
     </row>
     <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="133"/>
-      <c r="B24" s="180"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="182"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="181"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="187"/>
-      <c r="L24" s="187"/>
-      <c r="M24" s="187"/>
-      <c r="N24" s="187"/>
-      <c r="O24" s="187"/>
-      <c r="P24" s="188"/>
-      <c r="Q24" s="189"/>
-      <c r="R24" s="190"/>
-      <c r="S24" s="190"/>
-      <c r="T24" s="190"/>
-      <c r="U24" s="190"/>
-      <c r="V24" s="190"/>
-      <c r="W24" s="190"/>
-      <c r="X24" s="190"/>
-      <c r="Y24" s="190"/>
-      <c r="Z24" s="190"/>
-      <c r="AA24" s="190"/>
-      <c r="AB24" s="190"/>
-      <c r="AC24" s="190"/>
-      <c r="AD24" s="190"/>
-      <c r="AE24" s="191"/>
-      <c r="AF24" s="186"/>
-      <c r="AG24" s="187"/>
-      <c r="AH24" s="187"/>
-      <c r="AI24" s="188"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="153"/>
+      <c r="R24" s="154"/>
+      <c r="S24" s="154"/>
+      <c r="T24" s="154"/>
+      <c r="U24" s="154"/>
+      <c r="V24" s="154"/>
+      <c r="W24" s="154"/>
+      <c r="X24" s="154"/>
+      <c r="Y24" s="154"/>
+      <c r="Z24" s="154"/>
+      <c r="AA24" s="154"/>
+      <c r="AB24" s="154"/>
+      <c r="AC24" s="154"/>
+      <c r="AD24" s="154"/>
+      <c r="AE24" s="155"/>
+      <c r="AF24" s="150"/>
+      <c r="AG24" s="151"/>
+      <c r="AH24" s="151"/>
+      <c r="AI24" s="152"/>
     </row>
     <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="133"/>
-      <c r="B25" s="180"/>
-      <c r="C25" s="181"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="181"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="187"/>
-      <c r="L25" s="187"/>
-      <c r="M25" s="187"/>
-      <c r="N25" s="187"/>
-      <c r="O25" s="187"/>
-      <c r="P25" s="188"/>
-      <c r="Q25" s="189"/>
-      <c r="R25" s="190"/>
-      <c r="S25" s="190"/>
-      <c r="T25" s="190"/>
-      <c r="U25" s="190"/>
-      <c r="V25" s="190"/>
-      <c r="W25" s="190"/>
-      <c r="X25" s="190"/>
-      <c r="Y25" s="190"/>
-      <c r="Z25" s="190"/>
-      <c r="AA25" s="190"/>
-      <c r="AB25" s="190"/>
-      <c r="AC25" s="190"/>
-      <c r="AD25" s="190"/>
-      <c r="AE25" s="191"/>
-      <c r="AF25" s="186"/>
-      <c r="AG25" s="187"/>
-      <c r="AH25" s="187"/>
-      <c r="AI25" s="188"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="151"/>
+      <c r="N25" s="151"/>
+      <c r="O25" s="151"/>
+      <c r="P25" s="152"/>
+      <c r="Q25" s="153"/>
+      <c r="R25" s="154"/>
+      <c r="S25" s="154"/>
+      <c r="T25" s="154"/>
+      <c r="U25" s="154"/>
+      <c r="V25" s="154"/>
+      <c r="W25" s="154"/>
+      <c r="X25" s="154"/>
+      <c r="Y25" s="154"/>
+      <c r="Z25" s="154"/>
+      <c r="AA25" s="154"/>
+      <c r="AB25" s="154"/>
+      <c r="AC25" s="154"/>
+      <c r="AD25" s="154"/>
+      <c r="AE25" s="155"/>
+      <c r="AF25" s="150"/>
+      <c r="AG25" s="151"/>
+      <c r="AH25" s="151"/>
+      <c r="AI25" s="152"/>
     </row>
     <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="133"/>
-      <c r="B26" s="180"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="180"/>
-      <c r="H26" s="185"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="186"/>
-      <c r="K26" s="187"/>
-      <c r="L26" s="187"/>
-      <c r="M26" s="187"/>
-      <c r="N26" s="187"/>
-      <c r="O26" s="187"/>
-      <c r="P26" s="188"/>
-      <c r="Q26" s="189"/>
-      <c r="R26" s="190"/>
-      <c r="S26" s="190"/>
-      <c r="T26" s="190"/>
-      <c r="U26" s="190"/>
-      <c r="V26" s="190"/>
-      <c r="W26" s="190"/>
-      <c r="X26" s="190"/>
-      <c r="Y26" s="190"/>
-      <c r="Z26" s="190"/>
-      <c r="AA26" s="190"/>
-      <c r="AB26" s="190"/>
-      <c r="AC26" s="190"/>
-      <c r="AD26" s="190"/>
-      <c r="AE26" s="191"/>
-      <c r="AF26" s="186"/>
-      <c r="AG26" s="187"/>
-      <c r="AH26" s="187"/>
-      <c r="AI26" s="188"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="151"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="153"/>
+      <c r="R26" s="154"/>
+      <c r="S26" s="154"/>
+      <c r="T26" s="154"/>
+      <c r="U26" s="154"/>
+      <c r="V26" s="154"/>
+      <c r="W26" s="154"/>
+      <c r="X26" s="154"/>
+      <c r="Y26" s="154"/>
+      <c r="Z26" s="154"/>
+      <c r="AA26" s="154"/>
+      <c r="AB26" s="154"/>
+      <c r="AC26" s="154"/>
+      <c r="AD26" s="154"/>
+      <c r="AE26" s="155"/>
+      <c r="AF26" s="150"/>
+      <c r="AG26" s="151"/>
+      <c r="AH26" s="151"/>
+      <c r="AI26" s="152"/>
     </row>
     <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="133"/>
-      <c r="B27" s="180"/>
-      <c r="C27" s="181"/>
-      <c r="D27" s="182"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="185"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="187"/>
-      <c r="M27" s="187"/>
-      <c r="N27" s="187"/>
-      <c r="O27" s="187"/>
-      <c r="P27" s="188"/>
-      <c r="Q27" s="189"/>
-      <c r="R27" s="190"/>
-      <c r="S27" s="190"/>
-      <c r="T27" s="190"/>
-      <c r="U27" s="190"/>
-      <c r="V27" s="190"/>
-      <c r="W27" s="190"/>
-      <c r="X27" s="190"/>
-      <c r="Y27" s="190"/>
-      <c r="Z27" s="190"/>
-      <c r="AA27" s="190"/>
-      <c r="AB27" s="190"/>
-      <c r="AC27" s="190"/>
-      <c r="AD27" s="190"/>
-      <c r="AE27" s="191"/>
-      <c r="AF27" s="186"/>
-      <c r="AG27" s="187"/>
-      <c r="AH27" s="187"/>
-      <c r="AI27" s="188"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="151"/>
+      <c r="N27" s="151"/>
+      <c r="O27" s="151"/>
+      <c r="P27" s="152"/>
+      <c r="Q27" s="153"/>
+      <c r="R27" s="154"/>
+      <c r="S27" s="154"/>
+      <c r="T27" s="154"/>
+      <c r="U27" s="154"/>
+      <c r="V27" s="154"/>
+      <c r="W27" s="154"/>
+      <c r="X27" s="154"/>
+      <c r="Y27" s="154"/>
+      <c r="Z27" s="154"/>
+      <c r="AA27" s="154"/>
+      <c r="AB27" s="154"/>
+      <c r="AC27" s="154"/>
+      <c r="AD27" s="154"/>
+      <c r="AE27" s="155"/>
+      <c r="AF27" s="150"/>
+      <c r="AG27" s="151"/>
+      <c r="AH27" s="151"/>
+      <c r="AI27" s="152"/>
     </row>
     <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="133"/>
-      <c r="B28" s="180"/>
-      <c r="C28" s="181"/>
-      <c r="D28" s="182"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="187"/>
-      <c r="L28" s="187"/>
-      <c r="M28" s="187"/>
-      <c r="N28" s="187"/>
-      <c r="O28" s="187"/>
-      <c r="P28" s="188"/>
-      <c r="Q28" s="189"/>
-      <c r="R28" s="190"/>
-      <c r="S28" s="190"/>
-      <c r="T28" s="190"/>
-      <c r="U28" s="190"/>
-      <c r="V28" s="190"/>
-      <c r="W28" s="190"/>
-      <c r="X28" s="190"/>
-      <c r="Y28" s="190"/>
-      <c r="Z28" s="190"/>
-      <c r="AA28" s="190"/>
-      <c r="AB28" s="190"/>
-      <c r="AC28" s="190"/>
-      <c r="AD28" s="190"/>
-      <c r="AE28" s="191"/>
-      <c r="AF28" s="186"/>
-      <c r="AG28" s="187"/>
-      <c r="AH28" s="187"/>
-      <c r="AI28" s="188"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="151"/>
+      <c r="O28" s="151"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="153"/>
+      <c r="R28" s="154"/>
+      <c r="S28" s="154"/>
+      <c r="T28" s="154"/>
+      <c r="U28" s="154"/>
+      <c r="V28" s="154"/>
+      <c r="W28" s="154"/>
+      <c r="X28" s="154"/>
+      <c r="Y28" s="154"/>
+      <c r="Z28" s="154"/>
+      <c r="AA28" s="154"/>
+      <c r="AB28" s="154"/>
+      <c r="AC28" s="154"/>
+      <c r="AD28" s="154"/>
+      <c r="AE28" s="155"/>
+      <c r="AF28" s="150"/>
+      <c r="AG28" s="151"/>
+      <c r="AH28" s="151"/>
+      <c r="AI28" s="152"/>
     </row>
     <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="133"/>
-      <c r="B29" s="180"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="186"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="187"/>
-      <c r="M29" s="187"/>
-      <c r="N29" s="187"/>
-      <c r="O29" s="187"/>
-      <c r="P29" s="188"/>
-      <c r="Q29" s="189"/>
-      <c r="R29" s="190"/>
-      <c r="S29" s="190"/>
-      <c r="T29" s="190"/>
-      <c r="U29" s="190"/>
-      <c r="V29" s="190"/>
-      <c r="W29" s="190"/>
-      <c r="X29" s="190"/>
-      <c r="Y29" s="190"/>
-      <c r="Z29" s="190"/>
-      <c r="AA29" s="190"/>
-      <c r="AB29" s="190"/>
-      <c r="AC29" s="190"/>
-      <c r="AD29" s="190"/>
-      <c r="AE29" s="191"/>
-      <c r="AF29" s="186"/>
-      <c r="AG29" s="187"/>
-      <c r="AH29" s="187"/>
-      <c r="AI29" s="188"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="151"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="153"/>
+      <c r="R29" s="154"/>
+      <c r="S29" s="154"/>
+      <c r="T29" s="154"/>
+      <c r="U29" s="154"/>
+      <c r="V29" s="154"/>
+      <c r="W29" s="154"/>
+      <c r="X29" s="154"/>
+      <c r="Y29" s="154"/>
+      <c r="Z29" s="154"/>
+      <c r="AA29" s="154"/>
+      <c r="AB29" s="154"/>
+      <c r="AC29" s="154"/>
+      <c r="AD29" s="154"/>
+      <c r="AE29" s="155"/>
+      <c r="AF29" s="150"/>
+      <c r="AG29" s="151"/>
+      <c r="AH29" s="151"/>
+      <c r="AI29" s="152"/>
     </row>
     <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="133"/>
-      <c r="B30" s="180"/>
-      <c r="C30" s="181"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="187"/>
-      <c r="L30" s="187"/>
-      <c r="M30" s="187"/>
-      <c r="N30" s="187"/>
-      <c r="O30" s="187"/>
-      <c r="P30" s="188"/>
-      <c r="Q30" s="189"/>
-      <c r="R30" s="190"/>
-      <c r="S30" s="190"/>
-      <c r="T30" s="190"/>
-      <c r="U30" s="190"/>
-      <c r="V30" s="190"/>
-      <c r="W30" s="190"/>
-      <c r="X30" s="190"/>
-      <c r="Y30" s="190"/>
-      <c r="Z30" s="190"/>
-      <c r="AA30" s="190"/>
-      <c r="AB30" s="190"/>
-      <c r="AC30" s="190"/>
-      <c r="AD30" s="190"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="186"/>
-      <c r="AG30" s="187"/>
-      <c r="AH30" s="187"/>
-      <c r="AI30" s="188"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="151"/>
+      <c r="O30" s="151"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="153"/>
+      <c r="R30" s="154"/>
+      <c r="S30" s="154"/>
+      <c r="T30" s="154"/>
+      <c r="U30" s="154"/>
+      <c r="V30" s="154"/>
+      <c r="W30" s="154"/>
+      <c r="X30" s="154"/>
+      <c r="Y30" s="154"/>
+      <c r="Z30" s="154"/>
+      <c r="AA30" s="154"/>
+      <c r="AB30" s="154"/>
+      <c r="AC30" s="154"/>
+      <c r="AD30" s="154"/>
+      <c r="AE30" s="155"/>
+      <c r="AF30" s="150"/>
+      <c r="AG30" s="151"/>
+      <c r="AH30" s="151"/>
+      <c r="AI30" s="152"/>
     </row>
     <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="133"/>
-      <c r="B31" s="180"/>
-      <c r="C31" s="181"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="186"/>
-      <c r="K31" s="187"/>
-      <c r="L31" s="187"/>
-      <c r="M31" s="187"/>
-      <c r="N31" s="187"/>
-      <c r="O31" s="187"/>
-      <c r="P31" s="188"/>
-      <c r="Q31" s="189"/>
-      <c r="R31" s="190"/>
-      <c r="S31" s="190"/>
-      <c r="T31" s="190"/>
-      <c r="U31" s="190"/>
-      <c r="V31" s="190"/>
-      <c r="W31" s="190"/>
-      <c r="X31" s="190"/>
-      <c r="Y31" s="190"/>
-      <c r="Z31" s="190"/>
-      <c r="AA31" s="190"/>
-      <c r="AB31" s="190"/>
-      <c r="AC31" s="190"/>
-      <c r="AD31" s="190"/>
-      <c r="AE31" s="191"/>
-      <c r="AF31" s="186"/>
-      <c r="AG31" s="187"/>
-      <c r="AH31" s="187"/>
-      <c r="AI31" s="188"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="151"/>
+      <c r="M31" s="151"/>
+      <c r="N31" s="151"/>
+      <c r="O31" s="151"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="153"/>
+      <c r="R31" s="154"/>
+      <c r="S31" s="154"/>
+      <c r="T31" s="154"/>
+      <c r="U31" s="154"/>
+      <c r="V31" s="154"/>
+      <c r="W31" s="154"/>
+      <c r="X31" s="154"/>
+      <c r="Y31" s="154"/>
+      <c r="Z31" s="154"/>
+      <c r="AA31" s="154"/>
+      <c r="AB31" s="154"/>
+      <c r="AC31" s="154"/>
+      <c r="AD31" s="154"/>
+      <c r="AE31" s="155"/>
+      <c r="AF31" s="150"/>
+      <c r="AG31" s="151"/>
+      <c r="AH31" s="151"/>
+      <c r="AI31" s="152"/>
     </row>
     <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="133"/>
-      <c r="B32" s="180"/>
-      <c r="C32" s="181"/>
-      <c r="D32" s="182"/>
-      <c r="E32" s="183"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="181"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="205"/>
-      <c r="L32" s="187"/>
-      <c r="M32" s="187"/>
-      <c r="N32" s="187"/>
-      <c r="O32" s="187"/>
-      <c r="P32" s="188"/>
-      <c r="Q32" s="189"/>
-      <c r="R32" s="190"/>
-      <c r="S32" s="190"/>
-      <c r="T32" s="190"/>
-      <c r="U32" s="190"/>
-      <c r="V32" s="190"/>
-      <c r="W32" s="190"/>
-      <c r="X32" s="190"/>
-      <c r="Y32" s="190"/>
-      <c r="Z32" s="190"/>
-      <c r="AA32" s="190"/>
-      <c r="AB32" s="190"/>
-      <c r="AC32" s="190"/>
-      <c r="AD32" s="190"/>
-      <c r="AE32" s="191"/>
-      <c r="AF32" s="186"/>
-      <c r="AG32" s="187"/>
-      <c r="AH32" s="187"/>
-      <c r="AI32" s="188"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="151"/>
+      <c r="O32" s="151"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="153"/>
+      <c r="R32" s="154"/>
+      <c r="S32" s="154"/>
+      <c r="T32" s="154"/>
+      <c r="U32" s="154"/>
+      <c r="V32" s="154"/>
+      <c r="W32" s="154"/>
+      <c r="X32" s="154"/>
+      <c r="Y32" s="154"/>
+      <c r="Z32" s="154"/>
+      <c r="AA32" s="154"/>
+      <c r="AB32" s="154"/>
+      <c r="AC32" s="154"/>
+      <c r="AD32" s="154"/>
+      <c r="AE32" s="155"/>
+      <c r="AF32" s="150"/>
+      <c r="AG32" s="151"/>
+      <c r="AH32" s="151"/>
+      <c r="AI32" s="152"/>
     </row>
     <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="133"/>
-      <c r="B33" s="180"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="182"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="180"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="187"/>
-      <c r="L33" s="187"/>
-      <c r="M33" s="187"/>
-      <c r="N33" s="187"/>
-      <c r="O33" s="187"/>
-      <c r="P33" s="188"/>
-      <c r="Q33" s="189"/>
-      <c r="R33" s="190"/>
-      <c r="S33" s="190"/>
-      <c r="T33" s="190"/>
-      <c r="U33" s="190"/>
-      <c r="V33" s="190"/>
-      <c r="W33" s="190"/>
-      <c r="X33" s="190"/>
-      <c r="Y33" s="190"/>
-      <c r="Z33" s="190"/>
-      <c r="AA33" s="190"/>
-      <c r="AB33" s="190"/>
-      <c r="AC33" s="190"/>
-      <c r="AD33" s="190"/>
-      <c r="AE33" s="191"/>
-      <c r="AF33" s="186"/>
-      <c r="AG33" s="187"/>
-      <c r="AH33" s="187"/>
-      <c r="AI33" s="188"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="151"/>
+      <c r="M33" s="151"/>
+      <c r="N33" s="151"/>
+      <c r="O33" s="151"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="153"/>
+      <c r="R33" s="154"/>
+      <c r="S33" s="154"/>
+      <c r="T33" s="154"/>
+      <c r="U33" s="154"/>
+      <c r="V33" s="154"/>
+      <c r="W33" s="154"/>
+      <c r="X33" s="154"/>
+      <c r="Y33" s="154"/>
+      <c r="Z33" s="154"/>
+      <c r="AA33" s="154"/>
+      <c r="AB33" s="154"/>
+      <c r="AC33" s="154"/>
+      <c r="AD33" s="154"/>
+      <c r="AE33" s="155"/>
+      <c r="AF33" s="150"/>
+      <c r="AG33" s="151"/>
+      <c r="AH33" s="151"/>
+      <c r="AI33" s="152"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -6982,6 +6767,162 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -7138,157 +7079,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="209" t="s">
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="221" t="str">
+      <c r="P1" s="223"/>
+      <c r="Q1" s="223"/>
+      <c r="R1" s="224"/>
+      <c r="S1" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="223"/>
-      <c r="AA1" s="206" t="s">
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="211"/>
+      <c r="X1" s="211"/>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="212"/>
+      <c r="AA1" s="219" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="143" t="str">
+      <c r="AB1" s="221"/>
+      <c r="AC1" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="218" t="str">
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="219"/>
-      <c r="AI1" s="220"/>
+      <c r="AH1" s="208"/>
+      <c r="AI1" s="209"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="212"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="225"/>
-      <c r="U2" s="225"/>
-      <c r="V2" s="225"/>
-      <c r="W2" s="225"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="226"/>
-      <c r="AA2" s="206" t="s">
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="225"/>
+      <c r="P2" s="226"/>
+      <c r="Q2" s="226"/>
+      <c r="R2" s="227"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="214"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="215"/>
+      <c r="AA2" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="208"/>
-      <c r="AC2" s="143" t="str">
+      <c r="AB2" s="221"/>
+      <c r="AC2" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="145"/>
-      <c r="AG2" s="218" t="str">
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="219"/>
-      <c r="AI2" s="220"/>
+      <c r="AH2" s="208"/>
+      <c r="AI2" s="209"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="206" t="s">
+      <c r="A3" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="215"/>
-      <c r="P3" s="216"/>
-      <c r="Q3" s="216"/>
-      <c r="R3" s="217"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="228"/>
-      <c r="U3" s="228"/>
-      <c r="V3" s="228"/>
-      <c r="W3" s="228"/>
-      <c r="X3" s="228"/>
-      <c r="Y3" s="228"/>
-      <c r="Z3" s="229"/>
-      <c r="AA3" s="206"/>
-      <c r="AB3" s="208"/>
-      <c r="AC3" s="143" t="str">
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="228"/>
+      <c r="P3" s="229"/>
+      <c r="Q3" s="229"/>
+      <c r="R3" s="230"/>
+      <c r="S3" s="216"/>
+      <c r="T3" s="217"/>
+      <c r="U3" s="217"/>
+      <c r="V3" s="217"/>
+      <c r="W3" s="217"/>
+      <c r="X3" s="217"/>
+      <c r="Y3" s="217"/>
+      <c r="Z3" s="218"/>
+      <c r="AA3" s="219"/>
+      <c r="AB3" s="221"/>
+      <c r="AC3" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="145"/>
-      <c r="AG3" s="218" t="str">
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="219"/>
-      <c r="AI3" s="220"/>
+      <c r="AH3" s="208"/>
+      <c r="AI3" s="209"/>
     </row>
     <row r="4" spans="1:35" s="46" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="44"/>
@@ -7560,7 +7501,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="48"/>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="49"/>
       <c r="D11" s="48"/>
@@ -7639,7 +7580,7 @@
       <c r="A13" s="48"/>
       <c r="B13" s="49"/>
       <c r="C13" s="58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
@@ -8755,6 +8696,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -8764,14 +8713,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -8800,157 +8741,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="162" t="s">
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="221" t="str">
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="223"/>
-      <c r="AA1" s="159" t="s">
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="211"/>
+      <c r="X1" s="211"/>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="212"/>
+      <c r="AA1" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="143" t="str">
+      <c r="AB1" s="188"/>
+      <c r="AC1" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="231" t="str">
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="232"/>
-      <c r="AI1" s="233"/>
+      <c r="AH1" s="248"/>
+      <c r="AI1" s="249"/>
     </row>
     <row r="2" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="225"/>
-      <c r="U2" s="225"/>
-      <c r="V2" s="225"/>
-      <c r="W2" s="225"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="226"/>
-      <c r="AA2" s="159" t="s">
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="194"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="214"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="215"/>
+      <c r="AA2" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="143" t="str">
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="145"/>
-      <c r="AG2" s="231" t="str">
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="232"/>
-      <c r="AI2" s="233"/>
+      <c r="AH2" s="248"/>
+      <c r="AI2" s="249"/>
     </row>
     <row r="3" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="228"/>
-      <c r="U3" s="228"/>
-      <c r="V3" s="228"/>
-      <c r="W3" s="228"/>
-      <c r="X3" s="228"/>
-      <c r="Y3" s="228"/>
-      <c r="Z3" s="229"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="143" t="str">
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="196"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="216"/>
+      <c r="T3" s="217"/>
+      <c r="U3" s="217"/>
+      <c r="V3" s="217"/>
+      <c r="W3" s="217"/>
+      <c r="X3" s="217"/>
+      <c r="Y3" s="217"/>
+      <c r="Z3" s="218"/>
+      <c r="AA3" s="186"/>
+      <c r="AB3" s="188"/>
+      <c r="AC3" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="145"/>
-      <c r="AG3" s="231" t="str">
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="232"/>
-      <c r="AI3" s="233"/>
+      <c r="AH3" s="248"/>
+      <c r="AI3" s="249"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30"/>
@@ -9106,88 +9047,88 @@
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="235" t="s">
+      <c r="D8" s="240" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="236"/>
-      <c r="F8" s="236"/>
-      <c r="G8" s="237"/>
-      <c r="H8" s="234"/>
-      <c r="I8" s="234"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234"/>
-      <c r="L8" s="234"/>
-      <c r="M8" s="234"/>
-      <c r="N8" s="234"/>
-      <c r="O8" s="234"/>
-      <c r="P8" s="234"/>
-      <c r="Q8" s="234"/>
-      <c r="R8" s="234"/>
-      <c r="S8" s="234"/>
-      <c r="T8" s="234"/>
-      <c r="U8" s="234"/>
-      <c r="V8" s="234"/>
-      <c r="W8" s="234"/>
-      <c r="X8" s="234"/>
-      <c r="Y8" s="234"/>
-      <c r="Z8" s="234"/>
-      <c r="AA8" s="234"/>
-      <c r="AB8" s="234"/>
-      <c r="AC8" s="234"/>
-      <c r="AD8" s="234"/>
-      <c r="AE8" s="234"/>
-      <c r="AF8" s="234"/>
-      <c r="AG8" s="234"/>
-      <c r="AH8" s="234"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="250"/>
+      <c r="I8" s="250"/>
+      <c r="J8" s="250"/>
+      <c r="K8" s="250"/>
+      <c r="L8" s="250"/>
+      <c r="M8" s="250"/>
+      <c r="N8" s="250"/>
+      <c r="O8" s="250"/>
+      <c r="P8" s="250"/>
+      <c r="Q8" s="250"/>
+      <c r="R8" s="250"/>
+      <c r="S8" s="250"/>
+      <c r="T8" s="250"/>
+      <c r="U8" s="250"/>
+      <c r="V8" s="250"/>
+      <c r="W8" s="250"/>
+      <c r="X8" s="250"/>
+      <c r="Y8" s="250"/>
+      <c r="Z8" s="250"/>
+      <c r="AA8" s="250"/>
+      <c r="AB8" s="250"/>
+      <c r="AC8" s="250"/>
+      <c r="AD8" s="250"/>
+      <c r="AE8" s="250"/>
+      <c r="AF8" s="250"/>
+      <c r="AG8" s="250"/>
+      <c r="AH8" s="250"/>
     </row>
     <row r="9" spans="1:35" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="235" t="s">
+      <c r="D9" s="240" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
-      <c r="G9" s="237"/>
-      <c r="H9" s="230"/>
-      <c r="I9" s="230"/>
-      <c r="J9" s="230"/>
-      <c r="K9" s="230"/>
-      <c r="L9" s="230"/>
-      <c r="M9" s="230"/>
-      <c r="N9" s="230"/>
-      <c r="O9" s="230"/>
-      <c r="P9" s="230"/>
-      <c r="Q9" s="230"/>
-      <c r="R9" s="230"/>
-      <c r="S9" s="230"/>
-      <c r="T9" s="230"/>
-      <c r="U9" s="230"/>
-      <c r="V9" s="230"/>
-      <c r="W9" s="230"/>
-      <c r="X9" s="230"/>
-      <c r="Y9" s="230"/>
-      <c r="Z9" s="230"/>
-      <c r="AA9" s="230"/>
-      <c r="AB9" s="230"/>
-      <c r="AC9" s="230"/>
-      <c r="AD9" s="230"/>
-      <c r="AE9" s="230"/>
-      <c r="AF9" s="230"/>
-      <c r="AG9" s="230"/>
-      <c r="AH9" s="230"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="241"/>
+      <c r="G9" s="242"/>
+      <c r="H9" s="246"/>
+      <c r="I9" s="246"/>
+      <c r="J9" s="246"/>
+      <c r="K9" s="246"/>
+      <c r="L9" s="246"/>
+      <c r="M9" s="246"/>
+      <c r="N9" s="246"/>
+      <c r="O9" s="246"/>
+      <c r="P9" s="246"/>
+      <c r="Q9" s="246"/>
+      <c r="R9" s="246"/>
+      <c r="S9" s="246"/>
+      <c r="T9" s="246"/>
+      <c r="U9" s="246"/>
+      <c r="V9" s="246"/>
+      <c r="W9" s="246"/>
+      <c r="X9" s="246"/>
+      <c r="Y9" s="246"/>
+      <c r="Z9" s="246"/>
+      <c r="AA9" s="246"/>
+      <c r="AB9" s="246"/>
+      <c r="AC9" s="246"/>
+      <c r="AD9" s="246"/>
+      <c r="AE9" s="246"/>
+      <c r="AF9" s="246"/>
+      <c r="AG9" s="246"/>
+      <c r="AH9" s="246"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="238" t="s">
+      <c r="D10" s="231" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="239"/>
-      <c r="F10" s="239"/>
-      <c r="G10" s="240"/>
+      <c r="E10" s="232"/>
+      <c r="F10" s="232"/>
+      <c r="G10" s="233"/>
       <c r="H10" s="104"/>
       <c r="I10" s="105"/>
       <c r="J10" s="105"/>
@@ -9220,10 +9161,10 @@
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="242"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="243"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="235"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="236"/>
       <c r="H11" s="107"/>
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
@@ -9256,10 +9197,10 @@
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="241"/>
-      <c r="E12" s="242"/>
-      <c r="F12" s="242"/>
-      <c r="G12" s="243"/>
+      <c r="D12" s="234"/>
+      <c r="E12" s="235"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="236"/>
       <c r="H12" s="107"/>
       <c r="I12" s="121"/>
       <c r="J12" s="121"/>
@@ -9292,10 +9233,10 @@
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="241"/>
-      <c r="E13" s="242"/>
-      <c r="F13" s="242"/>
-      <c r="G13" s="243"/>
+      <c r="D13" s="234"/>
+      <c r="E13" s="235"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="236"/>
       <c r="H13" s="107"/>
       <c r="I13" s="121"/>
       <c r="J13" s="121"/>
@@ -9328,10 +9269,10 @@
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="241"/>
-      <c r="E14" s="242"/>
-      <c r="F14" s="242"/>
-      <c r="G14" s="243"/>
+      <c r="D14" s="234"/>
+      <c r="E14" s="235"/>
+      <c r="F14" s="235"/>
+      <c r="G14" s="236"/>
       <c r="H14" s="107"/>
       <c r="I14" s="121"/>
       <c r="J14" s="121"/>
@@ -9364,10 +9305,10 @@
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="241"/>
-      <c r="E15" s="242"/>
-      <c r="F15" s="242"/>
-      <c r="G15" s="243"/>
+      <c r="D15" s="234"/>
+      <c r="E15" s="235"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="236"/>
       <c r="H15" s="107"/>
       <c r="I15" s="121"/>
       <c r="J15" s="121"/>
@@ -9400,10 +9341,10 @@
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="242"/>
-      <c r="F16" s="242"/>
-      <c r="G16" s="243"/>
+      <c r="D16" s="234"/>
+      <c r="E16" s="235"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="236"/>
       <c r="H16" s="107"/>
       <c r="I16" s="121"/>
       <c r="J16" s="121"/>
@@ -9436,10 +9377,10 @@
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="241"/>
-      <c r="E17" s="242"/>
-      <c r="F17" s="242"/>
-      <c r="G17" s="243"/>
+      <c r="D17" s="234"/>
+      <c r="E17" s="235"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="236"/>
       <c r="H17" s="107"/>
       <c r="I17" s="121"/>
       <c r="J17" s="121"/>
@@ -9472,10 +9413,10 @@
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="242"/>
-      <c r="G18" s="243"/>
+      <c r="D18" s="234"/>
+      <c r="E18" s="235"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="236"/>
       <c r="H18" s="107"/>
       <c r="I18" s="121"/>
       <c r="J18" s="121"/>
@@ -9508,10 +9449,10 @@
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="242"/>
-      <c r="F19" s="242"/>
-      <c r="G19" s="243"/>
+      <c r="D19" s="234"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="236"/>
       <c r="H19" s="107"/>
       <c r="I19" s="121"/>
       <c r="J19" s="121"/>
@@ -9544,10 +9485,10 @@
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="242"/>
-      <c r="F20" s="242"/>
-      <c r="G20" s="243"/>
+      <c r="D20" s="234"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="236"/>
       <c r="H20" s="107"/>
       <c r="I20" s="121"/>
       <c r="J20" s="121"/>
@@ -9580,10 +9521,10 @@
       <c r="A21" s="30"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="242"/>
-      <c r="F21" s="242"/>
-      <c r="G21" s="243"/>
+      <c r="D21" s="234"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="236"/>
       <c r="H21" s="107"/>
       <c r="I21" s="121"/>
       <c r="J21" s="121"/>
@@ -9616,10 +9557,10 @@
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="242"/>
-      <c r="F22" s="242"/>
-      <c r="G22" s="243"/>
+      <c r="D22" s="234"/>
+      <c r="E22" s="235"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="236"/>
       <c r="H22" s="107"/>
       <c r="I22" s="121"/>
       <c r="J22" s="121"/>
@@ -9652,10 +9593,10 @@
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="241"/>
-      <c r="E23" s="242"/>
-      <c r="F23" s="242"/>
-      <c r="G23" s="243"/>
+      <c r="D23" s="234"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="236"/>
       <c r="H23" s="107"/>
       <c r="I23" s="121"/>
       <c r="J23" s="121"/>
@@ -9688,10 +9629,10 @@
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="241"/>
-      <c r="E24" s="242"/>
-      <c r="F24" s="242"/>
-      <c r="G24" s="243"/>
+      <c r="D24" s="234"/>
+      <c r="E24" s="235"/>
+      <c r="F24" s="235"/>
+      <c r="G24" s="236"/>
       <c r="H24" s="107"/>
       <c r="I24" s="98"/>
       <c r="J24" s="98"/>
@@ -9724,10 +9665,10 @@
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
-      <c r="D25" s="241"/>
-      <c r="E25" s="242"/>
-      <c r="F25" s="242"/>
-      <c r="G25" s="243"/>
+      <c r="D25" s="234"/>
+      <c r="E25" s="235"/>
+      <c r="F25" s="235"/>
+      <c r="G25" s="236"/>
       <c r="H25" s="107"/>
       <c r="I25" s="98"/>
       <c r="J25" s="98"/>
@@ -9760,10 +9701,10 @@
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="241"/>
-      <c r="E26" s="242"/>
-      <c r="F26" s="242"/>
-      <c r="G26" s="243"/>
+      <c r="D26" s="234"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="236"/>
       <c r="H26" s="107"/>
       <c r="I26" s="98"/>
       <c r="J26" s="98"/>
@@ -9796,10 +9737,10 @@
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="242"/>
-      <c r="G27" s="243"/>
+      <c r="D27" s="234"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="236"/>
       <c r="H27" s="107"/>
       <c r="I27" s="98"/>
       <c r="J27" s="98"/>
@@ -9832,10 +9773,10 @@
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="242"/>
-      <c r="F28" s="242"/>
-      <c r="G28" s="243"/>
+      <c r="D28" s="234"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="236"/>
       <c r="H28" s="107"/>
       <c r="I28" s="98"/>
       <c r="J28" s="98"/>
@@ -9868,10 +9809,10 @@
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
-      <c r="D29" s="244"/>
-      <c r="E29" s="245"/>
-      <c r="F29" s="245"/>
-      <c r="G29" s="246"/>
+      <c r="D29" s="237"/>
+      <c r="E29" s="238"/>
+      <c r="F29" s="238"/>
+      <c r="G29" s="239"/>
       <c r="H29" s="109"/>
       <c r="I29" s="110"/>
       <c r="J29" s="110"/>
@@ -9904,164 +9845,164 @@
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="235" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="236"/>
-      <c r="F30" s="236"/>
-      <c r="G30" s="237"/>
-      <c r="H30" s="230"/>
-      <c r="I30" s="230"/>
-      <c r="J30" s="230"/>
-      <c r="K30" s="230"/>
-      <c r="L30" s="230"/>
-      <c r="M30" s="230"/>
-      <c r="N30" s="230"/>
-      <c r="O30" s="230"/>
-      <c r="P30" s="230"/>
-      <c r="Q30" s="230"/>
-      <c r="R30" s="230"/>
-      <c r="S30" s="230"/>
-      <c r="T30" s="230"/>
-      <c r="U30" s="230"/>
-      <c r="V30" s="230"/>
-      <c r="W30" s="230"/>
-      <c r="X30" s="230"/>
-      <c r="Y30" s="230"/>
-      <c r="Z30" s="230"/>
-      <c r="AA30" s="230"/>
-      <c r="AB30" s="230"/>
-      <c r="AC30" s="230"/>
-      <c r="AD30" s="230"/>
-      <c r="AE30" s="230"/>
-      <c r="AF30" s="230"/>
-      <c r="AG30" s="230"/>
-      <c r="AH30" s="230"/>
+      <c r="D30" s="240" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="241"/>
+      <c r="F30" s="241"/>
+      <c r="G30" s="242"/>
+      <c r="H30" s="246"/>
+      <c r="I30" s="246"/>
+      <c r="J30" s="246"/>
+      <c r="K30" s="246"/>
+      <c r="L30" s="246"/>
+      <c r="M30" s="246"/>
+      <c r="N30" s="246"/>
+      <c r="O30" s="246"/>
+      <c r="P30" s="246"/>
+      <c r="Q30" s="246"/>
+      <c r="R30" s="246"/>
+      <c r="S30" s="246"/>
+      <c r="T30" s="246"/>
+      <c r="U30" s="246"/>
+      <c r="V30" s="246"/>
+      <c r="W30" s="246"/>
+      <c r="X30" s="246"/>
+      <c r="Y30" s="246"/>
+      <c r="Z30" s="246"/>
+      <c r="AA30" s="246"/>
+      <c r="AB30" s="246"/>
+      <c r="AC30" s="246"/>
+      <c r="AD30" s="246"/>
+      <c r="AE30" s="246"/>
+      <c r="AF30" s="246"/>
+      <c r="AG30" s="246"/>
+      <c r="AH30" s="246"/>
     </row>
     <row r="31" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="235" t="s">
+      <c r="D31" s="240" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="236"/>
-      <c r="F31" s="236"/>
-      <c r="G31" s="237"/>
-      <c r="H31" s="230"/>
-      <c r="I31" s="230"/>
-      <c r="J31" s="230"/>
-      <c r="K31" s="230"/>
-      <c r="L31" s="230"/>
-      <c r="M31" s="230"/>
-      <c r="N31" s="230"/>
-      <c r="O31" s="230"/>
-      <c r="P31" s="230"/>
-      <c r="Q31" s="230"/>
-      <c r="R31" s="230"/>
-      <c r="S31" s="230"/>
-      <c r="T31" s="230"/>
-      <c r="U31" s="230"/>
-      <c r="V31" s="230"/>
-      <c r="W31" s="230"/>
-      <c r="X31" s="230"/>
-      <c r="Y31" s="230"/>
-      <c r="Z31" s="230"/>
-      <c r="AA31" s="230"/>
-      <c r="AB31" s="230"/>
-      <c r="AC31" s="230"/>
-      <c r="AD31" s="230"/>
-      <c r="AE31" s="230"/>
-      <c r="AF31" s="230"/>
-      <c r="AG31" s="230"/>
-      <c r="AH31" s="230"/>
+      <c r="E31" s="241"/>
+      <c r="F31" s="241"/>
+      <c r="G31" s="242"/>
+      <c r="H31" s="246"/>
+      <c r="I31" s="246"/>
+      <c r="J31" s="246"/>
+      <c r="K31" s="246"/>
+      <c r="L31" s="246"/>
+      <c r="M31" s="246"/>
+      <c r="N31" s="246"/>
+      <c r="O31" s="246"/>
+      <c r="P31" s="246"/>
+      <c r="Q31" s="246"/>
+      <c r="R31" s="246"/>
+      <c r="S31" s="246"/>
+      <c r="T31" s="246"/>
+      <c r="U31" s="246"/>
+      <c r="V31" s="246"/>
+      <c r="W31" s="246"/>
+      <c r="X31" s="246"/>
+      <c r="Y31" s="246"/>
+      <c r="Z31" s="246"/>
+      <c r="AA31" s="246"/>
+      <c r="AB31" s="246"/>
+      <c r="AC31" s="246"/>
+      <c r="AD31" s="246"/>
+      <c r="AE31" s="246"/>
+      <c r="AF31" s="246"/>
+      <c r="AG31" s="246"/>
+      <c r="AH31" s="246"/>
     </row>
     <row r="32" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
-      <c r="D32" s="235" t="s">
+      <c r="D32" s="240" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="236"/>
-      <c r="F32" s="236"/>
-      <c r="G32" s="237"/>
-      <c r="H32" s="230"/>
-      <c r="I32" s="230"/>
-      <c r="J32" s="230"/>
-      <c r="K32" s="230"/>
-      <c r="L32" s="230"/>
-      <c r="M32" s="230"/>
-      <c r="N32" s="230"/>
-      <c r="O32" s="230"/>
-      <c r="P32" s="230"/>
-      <c r="Q32" s="230"/>
-      <c r="R32" s="230"/>
-      <c r="S32" s="230"/>
-      <c r="T32" s="230"/>
-      <c r="U32" s="230"/>
-      <c r="V32" s="230"/>
-      <c r="W32" s="230"/>
-      <c r="X32" s="230"/>
-      <c r="Y32" s="230"/>
-      <c r="Z32" s="230"/>
-      <c r="AA32" s="230"/>
-      <c r="AB32" s="230"/>
-      <c r="AC32" s="230"/>
-      <c r="AD32" s="230"/>
-      <c r="AE32" s="230"/>
-      <c r="AF32" s="230"/>
-      <c r="AG32" s="230"/>
-      <c r="AH32" s="230"/>
+      <c r="E32" s="241"/>
+      <c r="F32" s="241"/>
+      <c r="G32" s="242"/>
+      <c r="H32" s="246"/>
+      <c r="I32" s="246"/>
+      <c r="J32" s="246"/>
+      <c r="K32" s="246"/>
+      <c r="L32" s="246"/>
+      <c r="M32" s="246"/>
+      <c r="N32" s="246"/>
+      <c r="O32" s="246"/>
+      <c r="P32" s="246"/>
+      <c r="Q32" s="246"/>
+      <c r="R32" s="246"/>
+      <c r="S32" s="246"/>
+      <c r="T32" s="246"/>
+      <c r="U32" s="246"/>
+      <c r="V32" s="246"/>
+      <c r="W32" s="246"/>
+      <c r="X32" s="246"/>
+      <c r="Y32" s="246"/>
+      <c r="Z32" s="246"/>
+      <c r="AA32" s="246"/>
+      <c r="AB32" s="246"/>
+      <c r="AC32" s="246"/>
+      <c r="AD32" s="246"/>
+      <c r="AE32" s="246"/>
+      <c r="AF32" s="246"/>
+      <c r="AG32" s="246"/>
+      <c r="AH32" s="246"/>
     </row>
     <row r="33" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="235" t="s">
+      <c r="D33" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="236"/>
-      <c r="F33" s="236"/>
-      <c r="G33" s="237"/>
-      <c r="H33" s="230"/>
-      <c r="I33" s="230"/>
-      <c r="J33" s="230"/>
-      <c r="K33" s="230"/>
-      <c r="L33" s="230"/>
-      <c r="M33" s="230"/>
-      <c r="N33" s="230"/>
-      <c r="O33" s="230"/>
-      <c r="P33" s="230"/>
-      <c r="Q33" s="230"/>
-      <c r="R33" s="230"/>
-      <c r="S33" s="230"/>
-      <c r="T33" s="230"/>
-      <c r="U33" s="230"/>
-      <c r="V33" s="230"/>
-      <c r="W33" s="230"/>
-      <c r="X33" s="230"/>
-      <c r="Y33" s="230"/>
-      <c r="Z33" s="230"/>
-      <c r="AA33" s="230"/>
-      <c r="AB33" s="230"/>
-      <c r="AC33" s="230"/>
-      <c r="AD33" s="230"/>
-      <c r="AE33" s="230"/>
-      <c r="AF33" s="230"/>
-      <c r="AG33" s="230"/>
-      <c r="AH33" s="230"/>
+      <c r="E33" s="241"/>
+      <c r="F33" s="241"/>
+      <c r="G33" s="242"/>
+      <c r="H33" s="246"/>
+      <c r="I33" s="246"/>
+      <c r="J33" s="246"/>
+      <c r="K33" s="246"/>
+      <c r="L33" s="246"/>
+      <c r="M33" s="246"/>
+      <c r="N33" s="246"/>
+      <c r="O33" s="246"/>
+      <c r="P33" s="246"/>
+      <c r="Q33" s="246"/>
+      <c r="R33" s="246"/>
+      <c r="S33" s="246"/>
+      <c r="T33" s="246"/>
+      <c r="U33" s="246"/>
+      <c r="V33" s="246"/>
+      <c r="W33" s="246"/>
+      <c r="X33" s="246"/>
+      <c r="Y33" s="246"/>
+      <c r="Z33" s="246"/>
+      <c r="AA33" s="246"/>
+      <c r="AB33" s="246"/>
+      <c r="AC33" s="246"/>
+      <c r="AD33" s="246"/>
+      <c r="AE33" s="246"/>
+      <c r="AF33" s="246"/>
+      <c r="AG33" s="246"/>
+      <c r="AH33" s="246"/>
     </row>
     <row r="34" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
-      <c r="D34" s="238" t="s">
+      <c r="D34" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="239"/>
-      <c r="F34" s="239"/>
-      <c r="G34" s="240"/>
+      <c r="E34" s="232"/>
+      <c r="F34" s="232"/>
+      <c r="G34" s="233"/>
       <c r="H34" s="112"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -10094,10 +10035,10 @@
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="241"/>
-      <c r="E35" s="242"/>
-      <c r="F35" s="242"/>
-      <c r="G35" s="243"/>
+      <c r="D35" s="234"/>
+      <c r="E35" s="235"/>
+      <c r="F35" s="235"/>
+      <c r="G35" s="236"/>
       <c r="H35" s="115"/>
       <c r="I35" s="116"/>
       <c r="J35" s="116"/>
@@ -10130,10 +10071,10 @@
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="241"/>
-      <c r="E36" s="242"/>
-      <c r="F36" s="242"/>
-      <c r="G36" s="243"/>
+      <c r="D36" s="234"/>
+      <c r="E36" s="235"/>
+      <c r="F36" s="235"/>
+      <c r="G36" s="236"/>
       <c r="H36" s="115"/>
       <c r="I36" s="116"/>
       <c r="J36" s="116"/>
@@ -10166,10 +10107,10 @@
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
-      <c r="D37" s="241"/>
-      <c r="E37" s="242"/>
-      <c r="F37" s="242"/>
-      <c r="G37" s="243"/>
+      <c r="D37" s="234"/>
+      <c r="E37" s="235"/>
+      <c r="F37" s="235"/>
+      <c r="G37" s="236"/>
       <c r="H37" s="115"/>
       <c r="I37" s="116"/>
       <c r="J37" s="116"/>
@@ -10202,10 +10143,10 @@
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
-      <c r="D38" s="241"/>
-      <c r="E38" s="242"/>
-      <c r="F38" s="242"/>
-      <c r="G38" s="243"/>
+      <c r="D38" s="234"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="235"/>
+      <c r="G38" s="236"/>
       <c r="H38" s="115"/>
       <c r="I38" s="116"/>
       <c r="J38" s="116"/>
@@ -10238,10 +10179,10 @@
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
-      <c r="D39" s="241"/>
-      <c r="E39" s="242"/>
-      <c r="F39" s="242"/>
-      <c r="G39" s="243"/>
+      <c r="D39" s="234"/>
+      <c r="E39" s="235"/>
+      <c r="F39" s="235"/>
+      <c r="G39" s="236"/>
       <c r="H39" s="115"/>
       <c r="I39" s="116"/>
       <c r="J39" s="116"/>
@@ -10274,10 +10215,10 @@
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
-      <c r="D40" s="241"/>
-      <c r="E40" s="242"/>
-      <c r="F40" s="242"/>
-      <c r="G40" s="243"/>
+      <c r="D40" s="234"/>
+      <c r="E40" s="235"/>
+      <c r="F40" s="235"/>
+      <c r="G40" s="236"/>
       <c r="H40" s="115"/>
       <c r="I40" s="116"/>
       <c r="J40" s="116"/>
@@ -10310,10 +10251,10 @@
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
-      <c r="D41" s="244"/>
-      <c r="E41" s="245"/>
-      <c r="F41" s="245"/>
-      <c r="G41" s="246"/>
+      <c r="D41" s="237"/>
+      <c r="E41" s="238"/>
+      <c r="F41" s="238"/>
+      <c r="G41" s="239"/>
       <c r="H41" s="118"/>
       <c r="I41" s="119"/>
       <c r="J41" s="119"/>
@@ -10463,30 +10404,30 @@
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
       <c r="F45" s="29"/>
-      <c r="G45" s="249"/>
-      <c r="H45" s="249"/>
-      <c r="I45" s="249"/>
-      <c r="J45" s="249"/>
-      <c r="K45" s="249"/>
-      <c r="L45" s="249"/>
-      <c r="M45" s="249"/>
-      <c r="N45" s="249"/>
-      <c r="O45" s="247"/>
-      <c r="P45" s="248"/>
-      <c r="Q45" s="248"/>
-      <c r="R45" s="248"/>
-      <c r="S45" s="248"/>
-      <c r="T45" s="248"/>
-      <c r="U45" s="248"/>
-      <c r="V45" s="248"/>
-      <c r="W45" s="248"/>
-      <c r="X45" s="248"/>
-      <c r="Y45" s="248"/>
-      <c r="Z45" s="248"/>
-      <c r="AA45" s="248"/>
-      <c r="AB45" s="248"/>
-      <c r="AC45" s="248"/>
-      <c r="AD45" s="248"/>
+      <c r="G45" s="245"/>
+      <c r="H45" s="245"/>
+      <c r="I45" s="245"/>
+      <c r="J45" s="245"/>
+      <c r="K45" s="245"/>
+      <c r="L45" s="245"/>
+      <c r="M45" s="245"/>
+      <c r="N45" s="245"/>
+      <c r="O45" s="243"/>
+      <c r="P45" s="244"/>
+      <c r="Q45" s="244"/>
+      <c r="R45" s="244"/>
+      <c r="S45" s="244"/>
+      <c r="T45" s="244"/>
+      <c r="U45" s="244"/>
+      <c r="V45" s="244"/>
+      <c r="W45" s="244"/>
+      <c r="X45" s="244"/>
+      <c r="Y45" s="244"/>
+      <c r="Z45" s="244"/>
+      <c r="AA45" s="244"/>
+      <c r="AB45" s="244"/>
+      <c r="AC45" s="244"/>
+      <c r="AD45" s="244"/>
       <c r="AE45" s="32"/>
     </row>
     <row r="46" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10938,15 +10879,14 @@
     <row r="60" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D10:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="O45:AD45"/>
-    <mergeCell ref="G45:N45"/>
-    <mergeCell ref="H31:AH31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G41"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -10963,14 +10903,15 @@
     <mergeCell ref="H30:AH30"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="O45:AD45"/>
+    <mergeCell ref="G45:N45"/>
+    <mergeCell ref="H31:AH31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G41"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -10999,157 +10940,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="162" t="s">
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="221" t="str">
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="223"/>
-      <c r="AA1" s="159" t="s">
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="211"/>
+      <c r="X1" s="211"/>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="212"/>
+      <c r="AA1" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="143" t="str">
+      <c r="AB1" s="188"/>
+      <c r="AC1" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="231" t="str">
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="232"/>
-      <c r="AI1" s="233"/>
+      <c r="AH1" s="248"/>
+      <c r="AI1" s="249"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="225"/>
-      <c r="U2" s="225"/>
-      <c r="V2" s="225"/>
-      <c r="W2" s="225"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="226"/>
-      <c r="AA2" s="159" t="s">
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="194"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="214"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="215"/>
+      <c r="AA2" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="143" t="str">
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="145"/>
-      <c r="AG2" s="231" t="str">
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="232"/>
-      <c r="AI2" s="233"/>
+      <c r="AH2" s="248"/>
+      <c r="AI2" s="249"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="228"/>
-      <c r="U3" s="228"/>
-      <c r="V3" s="228"/>
-      <c r="W3" s="228"/>
-      <c r="X3" s="228"/>
-      <c r="Y3" s="228"/>
-      <c r="Z3" s="229"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="143" t="str">
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="196"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="216"/>
+      <c r="T3" s="217"/>
+      <c r="U3" s="217"/>
+      <c r="V3" s="217"/>
+      <c r="W3" s="217"/>
+      <c r="X3" s="217"/>
+      <c r="Y3" s="217"/>
+      <c r="Z3" s="218"/>
+      <c r="AA3" s="186"/>
+      <c r="AB3" s="188"/>
+      <c r="AC3" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="145"/>
-      <c r="AG3" s="231" t="str">
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="232"/>
-      <c r="AI3" s="233"/>
+      <c r="AH3" s="248"/>
+      <c r="AI3" s="249"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11160,12 +11101,6 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11177,6 +11112,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11194,7 +11135,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL100"/>
+  <dimension ref="A1:AL99"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -11206,163 +11147,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="162" t="s">
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="221" t="str">
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="223"/>
-      <c r="AA1" s="159" t="s">
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="211"/>
+      <c r="X1" s="211"/>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="212"/>
+      <c r="AA1" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="143" t="str">
+      <c r="AB1" s="188"/>
+      <c r="AC1" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="231" t="str">
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="232"/>
-      <c r="AI1" s="233"/>
+      <c r="AH1" s="248"/>
+      <c r="AI1" s="249"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="225"/>
-      <c r="U2" s="225"/>
-      <c r="V2" s="225"/>
-      <c r="W2" s="225"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="226"/>
-      <c r="AA2" s="159" t="s">
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="194"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="214"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="215"/>
+      <c r="AA2" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="143" t="str">
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="145"/>
-      <c r="AG2" s="231" t="str">
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="232"/>
-      <c r="AI2" s="233"/>
+      <c r="AH2" s="248"/>
+      <c r="AI2" s="249"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="228"/>
-      <c r="U3" s="228"/>
-      <c r="V3" s="228"/>
-      <c r="W3" s="228"/>
-      <c r="X3" s="228"/>
-      <c r="Y3" s="228"/>
-      <c r="Z3" s="229"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="143" t="str">
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="196"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="216"/>
+      <c r="T3" s="217"/>
+      <c r="U3" s="217"/>
+      <c r="V3" s="217"/>
+      <c r="W3" s="217"/>
+      <c r="X3" s="217"/>
+      <c r="Y3" s="217"/>
+      <c r="Z3" s="218"/>
+      <c r="AA3" s="186"/>
+      <c r="AB3" s="188"/>
+      <c r="AC3" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="145"/>
-      <c r="AG3" s="231" t="str">
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="232"/>
-      <c r="AI3" s="233"/>
+      <c r="AH3" s="248"/>
+      <c r="AI3" s="249"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -11370,7 +11311,7 @@
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -11480,65 +11421,65 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="300" t="s">
+      <c r="D8" s="263" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="302" t="s">
+      <c r="E8" s="265" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="303"/>
-      <c r="G8" s="303"/>
-      <c r="H8" s="303"/>
-      <c r="I8" s="303"/>
-      <c r="J8" s="304"/>
-      <c r="K8" s="288" t="s">
+      <c r="F8" s="266"/>
+      <c r="G8" s="266"/>
+      <c r="H8" s="266"/>
+      <c r="I8" s="266"/>
+      <c r="J8" s="267"/>
+      <c r="K8" s="271" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="303"/>
-      <c r="M8" s="303"/>
-      <c r="N8" s="304"/>
-      <c r="O8" s="308" t="s">
+      <c r="L8" s="266"/>
+      <c r="M8" s="266"/>
+      <c r="N8" s="267"/>
+      <c r="O8" s="272" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="258" t="s">
+      <c r="P8" s="294" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="259"/>
-      <c r="R8" s="259"/>
-      <c r="S8" s="259"/>
-      <c r="T8" s="259"/>
-      <c r="U8" s="260"/>
-      <c r="V8" s="310" t="s">
+      <c r="Q8" s="295"/>
+      <c r="R8" s="295"/>
+      <c r="S8" s="295"/>
+      <c r="T8" s="295"/>
+      <c r="U8" s="296"/>
+      <c r="V8" s="274" t="s">
         <v>37</v>
       </c>
-      <c r="W8" s="310"/>
-      <c r="X8" s="310"/>
-      <c r="Y8" s="310"/>
-      <c r="Z8" s="310"/>
-      <c r="AA8" s="310"/>
-      <c r="AB8" s="310"/>
-      <c r="AC8" s="310"/>
-      <c r="AD8" s="310"/>
-      <c r="AE8" s="310"/>
-      <c r="AF8" s="310"/>
-      <c r="AG8" s="310"/>
-      <c r="AH8" s="310"/>
+      <c r="W8" s="274"/>
+      <c r="X8" s="274"/>
+      <c r="Y8" s="274"/>
+      <c r="Z8" s="274"/>
+      <c r="AA8" s="274"/>
+      <c r="AB8" s="274"/>
+      <c r="AC8" s="274"/>
+      <c r="AD8" s="274"/>
+      <c r="AE8" s="274"/>
+      <c r="AF8" s="274"/>
+      <c r="AG8" s="274"/>
+      <c r="AH8" s="274"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="305"/>
-      <c r="F9" s="306"/>
-      <c r="G9" s="306"/>
-      <c r="H9" s="306"/>
-      <c r="I9" s="306"/>
-      <c r="J9" s="307"/>
-      <c r="K9" s="305"/>
-      <c r="L9" s="306"/>
-      <c r="M9" s="306"/>
-      <c r="N9" s="307"/>
-      <c r="O9" s="309"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="269"/>
+      <c r="H9" s="269"/>
+      <c r="I9" s="269"/>
+      <c r="J9" s="270"/>
+      <c r="K9" s="268"/>
+      <c r="L9" s="269"/>
+      <c r="M9" s="269"/>
+      <c r="N9" s="270"/>
+      <c r="O9" s="273"/>
       <c r="P9" s="90" t="s">
         <v>48</v>
       </c>
@@ -11551,23 +11492,23 @@
       <c r="S9" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="T9" s="312" t="s">
+      <c r="T9" s="258" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="313"/>
-      <c r="V9" s="310"/>
-      <c r="W9" s="310"/>
-      <c r="X9" s="310"/>
-      <c r="Y9" s="310"/>
-      <c r="Z9" s="310"/>
-      <c r="AA9" s="310"/>
-      <c r="AB9" s="310"/>
-      <c r="AC9" s="310"/>
-      <c r="AD9" s="310"/>
-      <c r="AE9" s="310"/>
-      <c r="AF9" s="310"/>
-      <c r="AG9" s="310"/>
-      <c r="AH9" s="310"/>
+      <c r="U9" s="259"/>
+      <c r="V9" s="274"/>
+      <c r="W9" s="274"/>
+      <c r="X9" s="274"/>
+      <c r="Y9" s="274"/>
+      <c r="Z9" s="274"/>
+      <c r="AA9" s="274"/>
+      <c r="AB9" s="274"/>
+      <c r="AC9" s="274"/>
+      <c r="AD9" s="274"/>
+      <c r="AE9" s="274"/>
+      <c r="AF9" s="274"/>
+      <c r="AG9" s="274"/>
+      <c r="AH9" s="274"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="30"/>
@@ -11575,36 +11516,36 @@
       <c r="D10" s="129">
         <v>1</v>
       </c>
-      <c r="E10" s="189"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="190"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="190"/>
-      <c r="M10" s="190"/>
-      <c r="N10" s="191"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="155"/>
       <c r="O10" s="130"/>
       <c r="P10" s="89"/>
       <c r="Q10" s="89"/>
       <c r="R10" s="89"/>
       <c r="S10" s="89"/>
-      <c r="T10" s="315"/>
-      <c r="U10" s="316"/>
-      <c r="V10" s="189"/>
-      <c r="W10" s="190"/>
-      <c r="X10" s="190"/>
-      <c r="Y10" s="190"/>
-      <c r="Z10" s="190"/>
-      <c r="AA10" s="190"/>
-      <c r="AB10" s="190"/>
-      <c r="AC10" s="190"/>
-      <c r="AD10" s="190"/>
-      <c r="AE10" s="190"/>
-      <c r="AF10" s="190"/>
-      <c r="AG10" s="190"/>
-      <c r="AH10" s="191"/>
+      <c r="T10" s="261"/>
+      <c r="U10" s="262"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="154"/>
+      <c r="X10" s="154"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="154"/>
+      <c r="AA10" s="154"/>
+      <c r="AB10" s="154"/>
+      <c r="AC10" s="154"/>
+      <c r="AD10" s="154"/>
+      <c r="AE10" s="154"/>
+      <c r="AF10" s="154"/>
+      <c r="AG10" s="154"/>
+      <c r="AH10" s="155"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B11" s="30"/>
@@ -11612,36 +11553,36 @@
       <c r="D11" s="129">
         <v>2</v>
       </c>
-      <c r="E11" s="189"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
-      <c r="J11" s="191"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="190"/>
-      <c r="M11" s="190"/>
-      <c r="N11" s="191"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="155"/>
       <c r="O11" s="131"/>
       <c r="P11" s="89"/>
       <c r="Q11" s="89"/>
       <c r="R11" s="89"/>
       <c r="S11" s="89"/>
-      <c r="T11" s="315"/>
-      <c r="U11" s="316"/>
-      <c r="V11" s="189"/>
-      <c r="W11" s="190"/>
-      <c r="X11" s="190"/>
-      <c r="Y11" s="190"/>
-      <c r="Z11" s="190"/>
-      <c r="AA11" s="190"/>
-      <c r="AB11" s="190"/>
-      <c r="AC11" s="190"/>
-      <c r="AD11" s="190"/>
-      <c r="AE11" s="190"/>
-      <c r="AF11" s="190"/>
-      <c r="AG11" s="190"/>
-      <c r="AH11" s="191"/>
+      <c r="T11" s="261"/>
+      <c r="U11" s="262"/>
+      <c r="V11" s="153"/>
+      <c r="W11" s="154"/>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="154"/>
+      <c r="Z11" s="154"/>
+      <c r="AA11" s="154"/>
+      <c r="AB11" s="154"/>
+      <c r="AC11" s="154"/>
+      <c r="AD11" s="154"/>
+      <c r="AE11" s="154"/>
+      <c r="AF11" s="154"/>
+      <c r="AG11" s="154"/>
+      <c r="AH11" s="155"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B12" s="30"/>
@@ -11649,36 +11590,36 @@
       <c r="D12" s="129">
         <v>3</v>
       </c>
-      <c r="E12" s="189"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="191"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="191"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="155"/>
       <c r="O12" s="131"/>
       <c r="P12" s="89"/>
       <c r="Q12" s="89"/>
       <c r="R12" s="89"/>
       <c r="S12" s="89"/>
-      <c r="T12" s="315"/>
-      <c r="U12" s="316"/>
-      <c r="V12" s="189"/>
-      <c r="W12" s="190"/>
-      <c r="X12" s="190"/>
-      <c r="Y12" s="190"/>
-      <c r="Z12" s="190"/>
-      <c r="AA12" s="190"/>
-      <c r="AB12" s="190"/>
-      <c r="AC12" s="190"/>
-      <c r="AD12" s="190"/>
-      <c r="AE12" s="190"/>
-      <c r="AF12" s="190"/>
-      <c r="AG12" s="190"/>
-      <c r="AH12" s="191"/>
+      <c r="T12" s="261"/>
+      <c r="U12" s="262"/>
+      <c r="V12" s="153"/>
+      <c r="W12" s="154"/>
+      <c r="X12" s="154"/>
+      <c r="Y12" s="154"/>
+      <c r="Z12" s="154"/>
+      <c r="AA12" s="154"/>
+      <c r="AB12" s="154"/>
+      <c r="AC12" s="154"/>
+      <c r="AD12" s="154"/>
+      <c r="AE12" s="154"/>
+      <c r="AF12" s="154"/>
+      <c r="AG12" s="154"/>
+      <c r="AH12" s="155"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B13" s="30"/>
@@ -11774,18 +11715,18 @@
       <c r="T15" s="93"/>
       <c r="U15" s="93"/>
       <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="92"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="92"/>
+      <c r="W15" s="141"/>
+      <c r="X15" s="141"/>
+      <c r="Y15" s="141"/>
+      <c r="Z15" s="141"/>
+      <c r="AA15" s="141"/>
+      <c r="AB15" s="141"/>
+      <c r="AC15" s="141"/>
+      <c r="AD15" s="141"/>
+      <c r="AE15" s="141"/>
+      <c r="AF15" s="141"/>
+      <c r="AG15" s="141"/>
+      <c r="AH15" s="141"/>
     </row>
     <row r="16" spans="1:38" s="88" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="30"/>
@@ -11809,395 +11750,395 @@
       <c r="T16" s="93"/>
       <c r="U16" s="93"/>
       <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="92"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="92"/>
-    </row>
-    <row r="17" spans="1:34" s="88" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W16" s="141"/>
+      <c r="X16" s="141"/>
+      <c r="Y16" s="141"/>
+      <c r="Z16" s="141"/>
+      <c r="AA16" s="141"/>
+      <c r="AB16" s="141"/>
+      <c r="AC16" s="141"/>
+      <c r="AD16" s="141"/>
+      <c r="AE16" s="141"/>
+      <c r="AF16" s="141"/>
+      <c r="AG16" s="141"/>
+      <c r="AH16" s="141"/>
+    </row>
+    <row r="17" spans="1:34" s="88" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="30"/>
       <c r="C17" s="128"/>
-      <c r="D17" s="276" t="s">
+      <c r="D17" s="142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="282" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="294" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="295"/>
-      <c r="G17" s="296"/>
-      <c r="H17" s="288" t="s">
+      <c r="F17" s="283"/>
+      <c r="G17" s="284"/>
+      <c r="H17" s="300" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="289"/>
-      <c r="J17" s="289"/>
-      <c r="K17" s="289"/>
-      <c r="L17" s="289"/>
-      <c r="M17" s="289"/>
-      <c r="N17" s="289"/>
-      <c r="O17" s="289"/>
-      <c r="P17" s="289"/>
-      <c r="Q17" s="289"/>
-      <c r="R17" s="289"/>
-      <c r="S17" s="289"/>
-      <c r="T17" s="289"/>
-      <c r="U17" s="289"/>
-      <c r="V17" s="290"/>
-      <c r="W17" s="282" t="s">
-        <v>71</v>
-      </c>
-      <c r="X17" s="283"/>
-      <c r="Y17" s="283"/>
-      <c r="Z17" s="284"/>
-      <c r="AA17" s="252" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB17" s="252"/>
-      <c r="AC17" s="252"/>
-      <c r="AD17" s="252"/>
-      <c r="AE17" s="252"/>
-      <c r="AF17" s="252"/>
-      <c r="AG17" s="252"/>
-      <c r="AH17" s="252"/>
+      <c r="I17" s="301"/>
+      <c r="J17" s="301"/>
+      <c r="K17" s="301"/>
+      <c r="L17" s="301"/>
+      <c r="M17" s="301"/>
+      <c r="N17" s="301"/>
+      <c r="O17" s="301"/>
+      <c r="P17" s="301"/>
+      <c r="Q17" s="301"/>
+      <c r="R17" s="301"/>
+      <c r="S17" s="301"/>
+      <c r="T17" s="301"/>
+      <c r="U17" s="301"/>
+      <c r="V17" s="301"/>
+      <c r="W17" s="301"/>
+      <c r="X17" s="301"/>
+      <c r="Y17" s="301"/>
+      <c r="Z17" s="301"/>
+      <c r="AA17" s="301"/>
+      <c r="AB17" s="301"/>
+      <c r="AC17" s="301"/>
+      <c r="AD17" s="301"/>
+      <c r="AE17" s="301"/>
+      <c r="AF17" s="301"/>
+      <c r="AG17" s="301"/>
+      <c r="AH17" s="302"/>
     </row>
     <row r="18" spans="1:34" s="88" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="30"/>
       <c r="C18" s="93"/>
-      <c r="D18" s="277"/>
-      <c r="E18" s="297"/>
-      <c r="F18" s="298"/>
-      <c r="G18" s="299"/>
-      <c r="H18" s="291"/>
-      <c r="I18" s="292"/>
-      <c r="J18" s="292"/>
-      <c r="K18" s="292"/>
-      <c r="L18" s="292"/>
-      <c r="M18" s="292"/>
-      <c r="N18" s="292"/>
-      <c r="O18" s="292"/>
-      <c r="P18" s="292"/>
-      <c r="Q18" s="292"/>
-      <c r="R18" s="292"/>
-      <c r="S18" s="292"/>
-      <c r="T18" s="292"/>
-      <c r="U18" s="292"/>
-      <c r="V18" s="293"/>
-      <c r="W18" s="285"/>
-      <c r="X18" s="286"/>
-      <c r="Y18" s="286"/>
-      <c r="Z18" s="287"/>
-      <c r="AA18" s="252"/>
-      <c r="AB18" s="252"/>
-      <c r="AC18" s="252"/>
-      <c r="AD18" s="252"/>
-      <c r="AE18" s="252"/>
-      <c r="AF18" s="252"/>
-      <c r="AG18" s="252"/>
-      <c r="AH18" s="252"/>
-    </row>
-    <row r="19" spans="1:34" s="88" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="30"/>
+      <c r="D18" s="129">
+        <v>1</v>
+      </c>
+      <c r="E18" s="153"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="154"/>
+      <c r="S18" s="154"/>
+      <c r="T18" s="154"/>
+      <c r="U18" s="154"/>
+      <c r="V18" s="154"/>
+      <c r="W18" s="154"/>
+      <c r="X18" s="154"/>
+      <c r="Y18" s="154"/>
+      <c r="Z18" s="154"/>
+      <c r="AA18" s="154"/>
+      <c r="AB18" s="154"/>
+      <c r="AC18" s="154"/>
+      <c r="AD18" s="154"/>
+      <c r="AE18" s="154"/>
+      <c r="AF18" s="154"/>
+      <c r="AG18" s="154"/>
+      <c r="AH18" s="155"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
       <c r="C19" s="93"/>
       <c r="D19" s="129">
-        <v>1</v>
-      </c>
-      <c r="E19" s="189"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="191"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="190"/>
-      <c r="J19" s="190"/>
-      <c r="K19" s="190"/>
-      <c r="L19" s="190"/>
-      <c r="M19" s="190"/>
-      <c r="N19" s="190"/>
-      <c r="O19" s="190"/>
-      <c r="P19" s="190"/>
-      <c r="Q19" s="190"/>
-      <c r="R19" s="190"/>
-      <c r="S19" s="190"/>
-      <c r="T19" s="190"/>
-      <c r="U19" s="190"/>
-      <c r="V19" s="191"/>
-      <c r="W19" s="253"/>
-      <c r="X19" s="254"/>
-      <c r="Y19" s="254"/>
-      <c r="Z19" s="255"/>
-      <c r="AA19" s="250"/>
-      <c r="AB19" s="250"/>
-      <c r="AC19" s="250"/>
-      <c r="AD19" s="250"/>
-      <c r="AE19" s="250"/>
-      <c r="AF19" s="250"/>
-      <c r="AG19" s="250"/>
-      <c r="AH19" s="250"/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="153"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="154"/>
+      <c r="S19" s="154"/>
+      <c r="T19" s="154"/>
+      <c r="U19" s="154"/>
+      <c r="V19" s="154"/>
+      <c r="W19" s="154"/>
+      <c r="X19" s="154"/>
+      <c r="Y19" s="154"/>
+      <c r="Z19" s="154"/>
+      <c r="AA19" s="154"/>
+      <c r="AB19" s="154"/>
+      <c r="AC19" s="154"/>
+      <c r="AD19" s="154"/>
+      <c r="AE19" s="154"/>
+      <c r="AF19" s="154"/>
+      <c r="AG19" s="154"/>
+      <c r="AH19" s="155"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
       <c r="C20" s="93"/>
       <c r="D20" s="129">
-        <v>2</v>
-      </c>
-      <c r="E20" s="189"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="191"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="190"/>
-      <c r="K20" s="190"/>
-      <c r="L20" s="190"/>
-      <c r="M20" s="190"/>
-      <c r="N20" s="190"/>
-      <c r="O20" s="190"/>
-      <c r="P20" s="190"/>
-      <c r="Q20" s="190"/>
-      <c r="R20" s="190"/>
-      <c r="S20" s="190"/>
-      <c r="T20" s="190"/>
-      <c r="U20" s="190"/>
-      <c r="V20" s="191"/>
-      <c r="W20" s="253"/>
-      <c r="X20" s="254"/>
-      <c r="Y20" s="254"/>
-      <c r="Z20" s="255"/>
-      <c r="AA20" s="251"/>
-      <c r="AB20" s="251"/>
-      <c r="AC20" s="251"/>
-      <c r="AD20" s="251"/>
-      <c r="AE20" s="251"/>
-      <c r="AF20" s="251"/>
-      <c r="AG20" s="251"/>
-      <c r="AH20" s="251"/>
+        <v>3</v>
+      </c>
+      <c r="E20" s="153"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="154"/>
+      <c r="O20" s="154"/>
+      <c r="P20" s="154"/>
+      <c r="Q20" s="154"/>
+      <c r="R20" s="154"/>
+      <c r="S20" s="154"/>
+      <c r="T20" s="154"/>
+      <c r="U20" s="154"/>
+      <c r="V20" s="154"/>
+      <c r="W20" s="154"/>
+      <c r="X20" s="154"/>
+      <c r="Y20" s="154"/>
+      <c r="Z20" s="154"/>
+      <c r="AA20" s="154"/>
+      <c r="AB20" s="154"/>
+      <c r="AC20" s="154"/>
+      <c r="AD20" s="154"/>
+      <c r="AE20" s="154"/>
+      <c r="AF20" s="154"/>
+      <c r="AG20" s="154"/>
+      <c r="AH20" s="155"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B21" s="1"/>
       <c r="C21" s="93"/>
       <c r="D21" s="129">
-        <v>3</v>
-      </c>
-      <c r="E21" s="189"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="191"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="190"/>
-      <c r="K21" s="190"/>
-      <c r="L21" s="190"/>
-      <c r="M21" s="190"/>
-      <c r="N21" s="190"/>
-      <c r="O21" s="190"/>
-      <c r="P21" s="190"/>
-      <c r="Q21" s="190"/>
-      <c r="R21" s="190"/>
-      <c r="S21" s="190"/>
-      <c r="T21" s="190"/>
-      <c r="U21" s="190"/>
-      <c r="V21" s="191"/>
-      <c r="W21" s="253"/>
-      <c r="X21" s="254"/>
-      <c r="Y21" s="254"/>
-      <c r="Z21" s="255"/>
-      <c r="AA21" s="251"/>
-      <c r="AB21" s="251"/>
-      <c r="AC21" s="251"/>
-      <c r="AD21" s="251"/>
-      <c r="AE21" s="251"/>
-      <c r="AF21" s="251"/>
-      <c r="AG21" s="251"/>
-      <c r="AH21" s="251"/>
+        <v>4</v>
+      </c>
+      <c r="E21" s="153"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="R21" s="154"/>
+      <c r="S21" s="154"/>
+      <c r="T21" s="154"/>
+      <c r="U21" s="154"/>
+      <c r="V21" s="154"/>
+      <c r="W21" s="154"/>
+      <c r="X21" s="154"/>
+      <c r="Y21" s="154"/>
+      <c r="Z21" s="154"/>
+      <c r="AA21" s="154"/>
+      <c r="AB21" s="154"/>
+      <c r="AC21" s="154"/>
+      <c r="AD21" s="154"/>
+      <c r="AE21" s="154"/>
+      <c r="AF21" s="154"/>
+      <c r="AG21" s="154"/>
+      <c r="AH21" s="155"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="B22" s="1"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="93"/>
       <c r="D22" s="129">
-        <v>4</v>
-      </c>
-      <c r="E22" s="189"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="191"/>
-      <c r="H22" s="189"/>
-      <c r="I22" s="190"/>
-      <c r="J22" s="190"/>
-      <c r="K22" s="190"/>
-      <c r="L22" s="190"/>
-      <c r="M22" s="190"/>
-      <c r="N22" s="190"/>
-      <c r="O22" s="190"/>
-      <c r="P22" s="190"/>
-      <c r="Q22" s="190"/>
-      <c r="R22" s="190"/>
-      <c r="S22" s="190"/>
-      <c r="T22" s="190"/>
-      <c r="U22" s="190"/>
-      <c r="V22" s="191"/>
-      <c r="W22" s="253"/>
-      <c r="X22" s="254"/>
-      <c r="Y22" s="254"/>
-      <c r="Z22" s="255"/>
-      <c r="AA22" s="250"/>
-      <c r="AB22" s="250"/>
-      <c r="AC22" s="250"/>
-      <c r="AD22" s="250"/>
-      <c r="AE22" s="250"/>
-      <c r="AF22" s="250"/>
-      <c r="AG22" s="250"/>
-      <c r="AH22" s="250"/>
+        <v>5</v>
+      </c>
+      <c r="E22" s="153"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="154"/>
+      <c r="S22" s="154"/>
+      <c r="T22" s="154"/>
+      <c r="U22" s="154"/>
+      <c r="V22" s="154"/>
+      <c r="W22" s="154"/>
+      <c r="X22" s="154"/>
+      <c r="Y22" s="154"/>
+      <c r="Z22" s="154"/>
+      <c r="AA22" s="154"/>
+      <c r="AB22" s="154"/>
+      <c r="AC22" s="154"/>
+      <c r="AD22" s="154"/>
+      <c r="AE22" s="154"/>
+      <c r="AF22" s="154"/>
+      <c r="AG22" s="154"/>
+      <c r="AH22" s="155"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B23" s="87"/>
       <c r="C23" s="93"/>
       <c r="D23" s="129">
-        <v>5</v>
-      </c>
-      <c r="E23" s="189"/>
-      <c r="F23" s="190"/>
-      <c r="G23" s="191"/>
-      <c r="H23" s="189"/>
-      <c r="I23" s="190"/>
-      <c r="J23" s="190"/>
-      <c r="K23" s="190"/>
-      <c r="L23" s="190"/>
-      <c r="M23" s="190"/>
-      <c r="N23" s="190"/>
-      <c r="O23" s="190"/>
-      <c r="P23" s="190"/>
-      <c r="Q23" s="190"/>
-      <c r="R23" s="190"/>
-      <c r="S23" s="190"/>
-      <c r="T23" s="190"/>
-      <c r="U23" s="190"/>
-      <c r="V23" s="191"/>
-      <c r="W23" s="253"/>
-      <c r="X23" s="254"/>
-      <c r="Y23" s="254"/>
-      <c r="Z23" s="255"/>
-      <c r="AA23" s="251"/>
-      <c r="AB23" s="251"/>
-      <c r="AC23" s="251"/>
-      <c r="AD23" s="251"/>
-      <c r="AE23" s="251"/>
-      <c r="AF23" s="251"/>
-      <c r="AG23" s="251"/>
-      <c r="AH23" s="251"/>
+        <v>6</v>
+      </c>
+      <c r="E23" s="153"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="154"/>
+      <c r="Q23" s="154"/>
+      <c r="R23" s="154"/>
+      <c r="S23" s="154"/>
+      <c r="T23" s="154"/>
+      <c r="U23" s="154"/>
+      <c r="V23" s="154"/>
+      <c r="W23" s="154"/>
+      <c r="X23" s="154"/>
+      <c r="Y23" s="154"/>
+      <c r="Z23" s="154"/>
+      <c r="AA23" s="154"/>
+      <c r="AB23" s="154"/>
+      <c r="AC23" s="154"/>
+      <c r="AD23" s="154"/>
+      <c r="AE23" s="154"/>
+      <c r="AF23" s="154"/>
+      <c r="AG23" s="154"/>
+      <c r="AH23" s="155"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B24" s="87"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="129">
-        <v>6</v>
-      </c>
-      <c r="E24" s="189"/>
-      <c r="F24" s="190"/>
-      <c r="G24" s="191"/>
-      <c r="H24" s="189"/>
-      <c r="I24" s="190"/>
-      <c r="J24" s="190"/>
-      <c r="K24" s="190"/>
-      <c r="L24" s="190"/>
-      <c r="M24" s="190"/>
-      <c r="N24" s="190"/>
-      <c r="O24" s="190"/>
-      <c r="P24" s="190"/>
-      <c r="Q24" s="190"/>
-      <c r="R24" s="190"/>
-      <c r="S24" s="190"/>
-      <c r="T24" s="190"/>
-      <c r="U24" s="190"/>
-      <c r="V24" s="191"/>
-      <c r="W24" s="253"/>
-      <c r="X24" s="254"/>
-      <c r="Y24" s="254"/>
-      <c r="Z24" s="255"/>
-      <c r="AA24" s="251"/>
-      <c r="AB24" s="251"/>
-      <c r="AC24" s="251"/>
-      <c r="AD24" s="251"/>
-      <c r="AE24" s="251"/>
-      <c r="AF24" s="251"/>
-      <c r="AG24" s="251"/>
-      <c r="AH24" s="251"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="138"/>
+      <c r="Q24" s="138"/>
+      <c r="R24" s="138"/>
+      <c r="S24" s="138"/>
+      <c r="T24" s="138"/>
+      <c r="U24" s="138"/>
+      <c r="V24" s="138"/>
+      <c r="W24" s="141"/>
+      <c r="X24" s="141"/>
+      <c r="Y24" s="141"/>
+      <c r="Z24" s="141"/>
+      <c r="AA24" s="141"/>
+      <c r="AB24" s="141"/>
+      <c r="AC24" s="141"/>
+      <c r="AD24" s="141"/>
+      <c r="AE24" s="141"/>
+      <c r="AF24" s="141"/>
+      <c r="AG24" s="141"/>
+      <c r="AH24" s="141"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B25" s="87"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="138"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="138"/>
-      <c r="O25" s="138"/>
-      <c r="P25" s="138"/>
-      <c r="Q25" s="138"/>
-      <c r="R25" s="138"/>
-      <c r="S25" s="138"/>
-      <c r="T25" s="138"/>
-      <c r="U25" s="138"/>
-      <c r="V25" s="138"/>
-      <c r="W25" s="138"/>
-      <c r="X25" s="138"/>
-      <c r="Y25" s="138"/>
-      <c r="Z25" s="138"/>
-      <c r="AA25" s="138"/>
-      <c r="AB25" s="138"/>
-      <c r="AC25" s="138"/>
-      <c r="AD25" s="138"/>
-      <c r="AE25" s="139"/>
-      <c r="AF25" s="139"/>
-      <c r="AG25" s="139"/>
-      <c r="AH25" s="139"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="141"/>
+      <c r="X25" s="141"/>
+      <c r="Y25" s="141"/>
+      <c r="Z25" s="141"/>
+      <c r="AA25" s="141"/>
+      <c r="AB25" s="141"/>
+      <c r="AC25" s="141"/>
+      <c r="AD25" s="141"/>
+      <c r="AE25" s="141"/>
+      <c r="AF25" s="141"/>
+      <c r="AG25" s="141"/>
+      <c r="AH25" s="141"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="87"/>
-      <c r="AC26" s="87"/>
-      <c r="AD26" s="87"/>
-      <c r="AE26" s="87"/>
-      <c r="AF26" s="87"/>
+      <c r="C26" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="92"/>
+      <c r="Y26" s="92"/>
+      <c r="Z26" s="92"/>
+      <c r="AA26" s="92"/>
+      <c r="AB26" s="92"/>
+      <c r="AC26" s="92"/>
+      <c r="AD26" s="139"/>
+      <c r="AE26" s="139"/>
+      <c r="AF26" s="139"/>
+      <c r="AG26" s="139"/>
+      <c r="AH26" s="139"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B27" s="87"/>
-      <c r="C27" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="92" t="s">
+        <v>39</v>
+      </c>
       <c r="E27" s="92"/>
       <c r="F27" s="92"/>
       <c r="G27" s="92"/>
@@ -12223,18 +12164,16 @@
       <c r="AA27" s="92"/>
       <c r="AB27" s="92"/>
       <c r="AC27" s="92"/>
-      <c r="AD27" s="140"/>
-      <c r="AE27" s="140"/>
-      <c r="AF27" s="140"/>
-      <c r="AG27" s="140"/>
-      <c r="AH27" s="140"/>
+      <c r="AD27" s="139"/>
+      <c r="AE27" s="139"/>
+      <c r="AF27" s="139"/>
+      <c r="AG27" s="139"/>
+      <c r="AH27" s="139"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B28" s="87"/>
       <c r="C28" s="93"/>
-      <c r="D28" s="92" t="s">
-        <v>39</v>
-      </c>
+      <c r="D28" s="92"/>
       <c r="E28" s="92"/>
       <c r="F28" s="92"/>
       <c r="G28" s="92"/>
@@ -12260,53 +12199,54 @@
       <c r="AA28" s="92"/>
       <c r="AB28" s="92"/>
       <c r="AC28" s="92"/>
-      <c r="AD28" s="140"/>
-      <c r="AE28" s="140"/>
-      <c r="AF28" s="140"/>
-      <c r="AG28" s="140"/>
-      <c r="AH28" s="140"/>
+      <c r="AD28" s="139"/>
+      <c r="AE28" s="139"/>
+      <c r="AF28" s="139"/>
+      <c r="AG28" s="139"/>
+      <c r="AH28" s="139"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B29" s="87"/>
       <c r="C29" s="93"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="92"/>
-      <c r="S29" s="92"/>
-      <c r="T29" s="92"/>
-      <c r="U29" s="92"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="92"/>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="92"/>
-      <c r="AB29" s="92"/>
-      <c r="AC29" s="92"/>
+      <c r="E29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
       <c r="AD29" s="140"/>
       <c r="AE29" s="140"/>
-      <c r="AF29" s="140"/>
-      <c r="AG29" s="140"/>
+      <c r="AF29" s="139"/>
+      <c r="AG29" s="139"/>
       <c r="AH29" s="140"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A30" s="48"/>
       <c r="B30" s="87"/>
       <c r="C30" s="93"/>
-      <c r="E30" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -12331,132 +12271,135 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
-      <c r="AD30" s="141"/>
-      <c r="AE30" s="141"/>
-      <c r="AF30" s="140"/>
-      <c r="AG30" s="140"/>
-      <c r="AH30" s="141"/>
+      <c r="AD30" s="140"/>
+      <c r="AE30" s="140"/>
+      <c r="AF30" s="139"/>
+      <c r="AG30" s="139"/>
+      <c r="AH30" s="140"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A31" s="48"/>
       <c r="B31" s="87"/>
       <c r="C31" s="93"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="141"/>
-      <c r="AE31" s="141"/>
-      <c r="AF31" s="140"/>
-      <c r="AG31" s="140"/>
-      <c r="AH31" s="141"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="254" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="254"/>
+      <c r="G31" s="260"/>
+      <c r="H31" s="260"/>
+      <c r="I31" s="260"/>
+      <c r="J31" s="260"/>
+      <c r="K31" s="260"/>
+      <c r="L31" s="260"/>
+      <c r="M31" s="254" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="254"/>
+      <c r="O31" s="297"/>
+      <c r="P31" s="298"/>
+      <c r="Q31" s="298"/>
+      <c r="R31" s="298"/>
+      <c r="S31" s="298"/>
+      <c r="T31" s="298"/>
+      <c r="U31" s="298"/>
+      <c r="V31" s="298"/>
+      <c r="W31" s="298"/>
+      <c r="X31" s="298"/>
+      <c r="Y31" s="298"/>
+      <c r="Z31" s="298"/>
+      <c r="AA31" s="298"/>
+      <c r="AB31" s="298"/>
+      <c r="AC31" s="298"/>
+      <c r="AD31" s="298"/>
+      <c r="AE31" s="298"/>
+      <c r="AF31" s="298"/>
+      <c r="AG31" s="298"/>
+      <c r="AH31" s="299"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A32" s="48"/>
-      <c r="B32" s="87"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="93"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="311" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="311"/>
-      <c r="G32" s="314"/>
-      <c r="H32" s="314"/>
-      <c r="I32" s="314"/>
-      <c r="J32" s="314"/>
-      <c r="K32" s="314"/>
-      <c r="L32" s="314"/>
-      <c r="M32" s="311" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" s="311"/>
-      <c r="O32" s="270"/>
-      <c r="P32" s="271"/>
-      <c r="Q32" s="271"/>
-      <c r="R32" s="271"/>
-      <c r="S32" s="271"/>
-      <c r="T32" s="271"/>
-      <c r="U32" s="271"/>
-      <c r="V32" s="271"/>
-      <c r="W32" s="271"/>
-      <c r="X32" s="271"/>
-      <c r="Y32" s="271"/>
-      <c r="Z32" s="271"/>
-      <c r="AA32" s="271"/>
-      <c r="AB32" s="271"/>
-      <c r="AC32" s="271"/>
-      <c r="AD32" s="271"/>
-      <c r="AE32" s="271"/>
-      <c r="AF32" s="271"/>
-      <c r="AG32" s="271"/>
-      <c r="AH32" s="272"/>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A33" s="48"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="93"/>
-      <c r="W33" s="93"/>
-      <c r="X33" s="93"/>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="93"/>
-      <c r="AA33" s="93"/>
-      <c r="AB33" s="93"/>
-      <c r="AC33" s="93"/>
-      <c r="AD33" s="93"/>
-      <c r="AE33" s="141"/>
-      <c r="AF33" s="140"/>
-      <c r="AG33" s="140"/>
-      <c r="AH33" s="141"/>
-    </row>
-    <row r="34" spans="1:35" s="86" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="93"/>
+      <c r="T32" s="93"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="93"/>
+      <c r="X32" s="93"/>
+      <c r="Y32" s="93"/>
+      <c r="Z32" s="93"/>
+      <c r="AA32" s="93"/>
+      <c r="AB32" s="93"/>
+      <c r="AC32" s="93"/>
+      <c r="AD32" s="93"/>
+      <c r="AE32" s="140"/>
+      <c r="AF32" s="139"/>
+      <c r="AG32" s="139"/>
+      <c r="AH32" s="140"/>
+    </row>
+    <row r="33" spans="1:35" s="86" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="48"/>
+      <c r="AC34" s="48"/>
+      <c r="AD34" s="48"/>
+      <c r="AE34" s="48"/>
+      <c r="AF34" s="48"/>
+      <c r="AG34" s="48"/>
+      <c r="AH34" s="48"/>
+      <c r="AI34" s="48"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A35" s="48"/>
       <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
+      <c r="C35" s="58" t="s">
+        <v>34</v>
+      </c>
       <c r="D35" s="48"/>
       <c r="E35" s="48"/>
       <c r="F35" s="48"/>
@@ -12493,20 +12436,20 @@
     <row r="36" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A36" s="48"/>
       <c r="B36" s="48"/>
-      <c r="C36" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="48"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58" t="s">
+        <v>56</v>
+      </c>
       <c r="E36" s="48"/>
       <c r="F36" s="48"/>
       <c r="G36" s="48"/>
       <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
       <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
+      <c r="N36" s="28"/>
       <c r="O36" s="48"/>
       <c r="P36" s="48"/>
       <c r="Q36" s="48"/>
@@ -12532,20 +12475,18 @@
     <row r="37" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A37" s="48"/>
       <c r="B37" s="48"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58" t="s">
-        <v>56</v>
-      </c>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="48"/>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
       <c r="M37" s="48"/>
-      <c r="N37" s="28"/>
+      <c r="N37" s="48"/>
       <c r="O37" s="48"/>
       <c r="P37" s="48"/>
       <c r="Q37" s="48"/>
@@ -14196,48 +14137,45 @@
       <c r="AH81" s="48"/>
       <c r="AI81" s="48"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A82" s="48"/>
-      <c r="B82" s="48"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="48"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="48"/>
-      <c r="K82" s="48"/>
-      <c r="L82" s="48"/>
-      <c r="M82" s="48"/>
-      <c r="N82" s="48"/>
-      <c r="O82" s="48"/>
-      <c r="P82" s="48"/>
-      <c r="Q82" s="48"/>
-      <c r="R82" s="48"/>
-      <c r="S82" s="48"/>
-      <c r="T82" s="48"/>
-      <c r="U82" s="48"/>
-      <c r="V82" s="48"/>
-      <c r="W82" s="48"/>
-      <c r="X82" s="48"/>
-      <c r="Y82" s="48"/>
-      <c r="Z82" s="48"/>
-      <c r="AA82" s="48"/>
-      <c r="AB82" s="48"/>
-      <c r="AC82" s="48"/>
-      <c r="AD82" s="48"/>
-      <c r="AE82" s="48"/>
-      <c r="AF82" s="48"/>
-      <c r="AG82" s="48"/>
-      <c r="AH82" s="48"/>
-      <c r="AI82" s="48"/>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="C83" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="30"/>
+      <c r="Q83" s="30"/>
+      <c r="R83" s="30"/>
+      <c r="S83" s="30"/>
+      <c r="T83" s="30"/>
+      <c r="U83" s="30"/>
+      <c r="V83" s="30"/>
+      <c r="W83" s="30"/>
+      <c r="X83" s="30"/>
+      <c r="Y83" s="30"/>
+      <c r="Z83" s="30"/>
+      <c r="AA83" s="30"/>
+      <c r="AB83" s="30"/>
+      <c r="AC83" s="30"/>
+      <c r="AD83" s="30"/>
+      <c r="AE83" s="30"/>
+      <c r="AF83" s="30"/>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="C84" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="E84" s="30"/>
       <c r="F84" s="30"/>
       <c r="G84" s="30"/>
@@ -14269,9 +14207,7 @@
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C85" s="30"/>
-      <c r="D85" s="30" t="s">
-        <v>40</v>
-      </c>
+      <c r="D85" s="30"/>
       <c r="E85" s="30"/>
       <c r="F85" s="30"/>
       <c r="G85" s="30"/>
@@ -14303,41 +14239,41 @@
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="30"/>
-      <c r="K86" s="30"/>
-      <c r="L86" s="30"/>
-      <c r="M86" s="30"/>
-      <c r="N86" s="30"/>
-      <c r="O86" s="30"/>
-      <c r="P86" s="30"/>
-      <c r="Q86" s="30"/>
-      <c r="R86" s="30"/>
-      <c r="S86" s="30"/>
-      <c r="T86" s="30"/>
-      <c r="U86" s="30"/>
-      <c r="V86" s="30"/>
-      <c r="W86" s="30"/>
-      <c r="X86" s="30"/>
-      <c r="Y86" s="30"/>
-      <c r="Z86" s="30"/>
-      <c r="AA86" s="30"/>
-      <c r="AB86" s="30"/>
-      <c r="AC86" s="30"/>
-      <c r="AD86" s="30"/>
+      <c r="E86" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="27"/>
       <c r="AE86" s="30"/>
       <c r="AF86" s="30"/>
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C87" s="30"/>
-      <c r="E87" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -14368,73 +14304,73 @@
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C88" s="30"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
-      <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="W88" s="1"/>
-      <c r="X88" s="1"/>
-      <c r="Y88" s="1"/>
-      <c r="Z88" s="1"/>
-      <c r="AA88" s="1"/>
-      <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
-      <c r="AD88" s="27"/>
-      <c r="AE88" s="30"/>
-      <c r="AF88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="254" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88" s="254"/>
+      <c r="G88" s="255"/>
+      <c r="H88" s="256"/>
+      <c r="I88" s="256"/>
+      <c r="J88" s="256"/>
+      <c r="K88" s="256"/>
+      <c r="L88" s="257"/>
+      <c r="M88" s="254" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88" s="254"/>
+      <c r="O88" s="255"/>
+      <c r="P88" s="256"/>
+      <c r="Q88" s="256"/>
+      <c r="R88" s="256"/>
+      <c r="S88" s="256"/>
+      <c r="T88" s="256"/>
+      <c r="U88" s="256"/>
+      <c r="V88" s="256"/>
+      <c r="W88" s="256"/>
+      <c r="X88" s="256"/>
+      <c r="Y88" s="256"/>
+      <c r="Z88" s="256"/>
+      <c r="AA88" s="256"/>
+      <c r="AB88" s="256"/>
+      <c r="AC88" s="256"/>
+      <c r="AD88" s="256"/>
+      <c r="AE88" s="256"/>
+      <c r="AF88" s="256"/>
+      <c r="AG88" s="256"/>
+      <c r="AH88" s="257"/>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C89" s="30"/>
       <c r="D89" s="30"/>
-      <c r="E89" s="311" t="s">
-        <v>24</v>
-      </c>
-      <c r="F89" s="311"/>
-      <c r="G89" s="261"/>
-      <c r="H89" s="262"/>
-      <c r="I89" s="262"/>
-      <c r="J89" s="262"/>
-      <c r="K89" s="262"/>
-      <c r="L89" s="263"/>
-      <c r="M89" s="311" t="s">
-        <v>25</v>
-      </c>
-      <c r="N89" s="311"/>
-      <c r="O89" s="261"/>
-      <c r="P89" s="262"/>
-      <c r="Q89" s="262"/>
-      <c r="R89" s="262"/>
-      <c r="S89" s="262"/>
-      <c r="T89" s="262"/>
-      <c r="U89" s="262"/>
-      <c r="V89" s="262"/>
-      <c r="W89" s="262"/>
-      <c r="X89" s="262"/>
-      <c r="Y89" s="262"/>
-      <c r="Z89" s="262"/>
-      <c r="AA89" s="262"/>
-      <c r="AB89" s="262"/>
-      <c r="AC89" s="262"/>
-      <c r="AD89" s="262"/>
-      <c r="AE89" s="262"/>
-      <c r="AF89" s="262"/>
-      <c r="AG89" s="262"/>
-      <c r="AH89" s="263"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="30"/>
+      <c r="M89" s="30"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="30"/>
+      <c r="P89" s="30"/>
+      <c r="Q89" s="30"/>
+      <c r="R89" s="30"/>
+      <c r="S89" s="30"/>
+      <c r="T89" s="30"/>
+      <c r="U89" s="30"/>
+      <c r="V89" s="30"/>
+      <c r="W89" s="30"/>
+      <c r="X89" s="30"/>
+      <c r="Y89" s="30"/>
+      <c r="Z89" s="30"/>
+      <c r="AA89" s="30"/>
+      <c r="AB89" s="30"/>
+      <c r="AC89" s="30"/>
+      <c r="AD89" s="30"/>
+      <c r="AE89" s="30"/>
+      <c r="AF89" s="30"/>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C90" s="30"/>
@@ -14470,7 +14406,9 @@
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
+      <c r="D91" s="30" t="s">
+        <v>41</v>
+      </c>
       <c r="E91" s="30"/>
       <c r="F91" s="30"/>
       <c r="G91" s="30"/>
@@ -14502,9 +14440,7 @@
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C92" s="30"/>
-      <c r="D92" s="30" t="s">
-        <v>41</v>
-      </c>
+      <c r="D92" s="30"/>
       <c r="E92" s="30"/>
       <c r="F92" s="30"/>
       <c r="G92" s="30"/>
@@ -14537,325 +14473,319 @@
     <row r="93" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C93" s="30"/>
       <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="30"/>
-      <c r="M93" s="30"/>
-      <c r="N93" s="30"/>
-      <c r="O93" s="30"/>
-      <c r="P93" s="30"/>
-      <c r="Q93" s="30"/>
-      <c r="R93" s="30"/>
-      <c r="S93" s="30"/>
-      <c r="T93" s="30"/>
-      <c r="U93" s="30"/>
-      <c r="V93" s="30"/>
-      <c r="W93" s="30"/>
-      <c r="X93" s="30"/>
-      <c r="Y93" s="30"/>
-      <c r="Z93" s="30"/>
-      <c r="AA93" s="30"/>
-      <c r="AB93" s="30"/>
-      <c r="AC93" s="30"/>
-      <c r="AD93" s="30"/>
-      <c r="AE93" s="30"/>
-      <c r="AF93" s="30"/>
+      <c r="E93" s="278" t="s">
+        <v>57</v>
+      </c>
+      <c r="F93" s="288" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93" s="289"/>
+      <c r="H93" s="289"/>
+      <c r="I93" s="290"/>
+      <c r="J93" s="288" t="s">
+        <v>27</v>
+      </c>
+      <c r="K93" s="289"/>
+      <c r="L93" s="289"/>
+      <c r="M93" s="290"/>
+      <c r="N93" s="280" t="s">
+        <v>28</v>
+      </c>
+      <c r="O93" s="280"/>
+      <c r="P93" s="280"/>
+      <c r="Q93" s="280"/>
+      <c r="R93" s="280"/>
+      <c r="S93" s="280"/>
+      <c r="T93" s="280"/>
+      <c r="U93" s="280"/>
+      <c r="V93" s="280"/>
+      <c r="W93" s="288" t="s">
+        <v>36</v>
+      </c>
+      <c r="X93" s="289"/>
+      <c r="Y93" s="289"/>
+      <c r="Z93" s="289"/>
+      <c r="AA93" s="289"/>
+      <c r="AB93" s="289"/>
+      <c r="AC93" s="290"/>
+      <c r="AD93" s="288" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE93" s="289"/>
+      <c r="AF93" s="289"/>
+      <c r="AG93" s="289"/>
+      <c r="AH93" s="290"/>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="278" t="s">
-        <v>57</v>
-      </c>
-      <c r="F94" s="264" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" s="265"/>
-      <c r="H94" s="265"/>
-      <c r="I94" s="266"/>
-      <c r="J94" s="264" t="s">
-        <v>27</v>
-      </c>
-      <c r="K94" s="265"/>
-      <c r="L94" s="265"/>
-      <c r="M94" s="266"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="279"/>
+      <c r="F94" s="291"/>
+      <c r="G94" s="292"/>
+      <c r="H94" s="292"/>
+      <c r="I94" s="293"/>
+      <c r="J94" s="291"/>
+      <c r="K94" s="292"/>
+      <c r="L94" s="292"/>
+      <c r="M94" s="293"/>
       <c r="N94" s="280" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O94" s="280"/>
       <c r="P94" s="280"/>
       <c r="Q94" s="280"/>
       <c r="R94" s="280"/>
-      <c r="S94" s="280"/>
-      <c r="T94" s="280"/>
-      <c r="U94" s="280"/>
-      <c r="V94" s="280"/>
-      <c r="W94" s="264" t="s">
-        <v>36</v>
-      </c>
-      <c r="X94" s="265"/>
-      <c r="Y94" s="265"/>
-      <c r="Z94" s="265"/>
-      <c r="AA94" s="265"/>
-      <c r="AB94" s="265"/>
-      <c r="AC94" s="266"/>
-      <c r="AD94" s="264" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE94" s="265"/>
-      <c r="AF94" s="265"/>
-      <c r="AG94" s="265"/>
-      <c r="AH94" s="266"/>
+      <c r="S94" s="281" t="s">
+        <v>32</v>
+      </c>
+      <c r="T94" s="281"/>
+      <c r="U94" s="281"/>
+      <c r="V94" s="281"/>
+      <c r="W94" s="291"/>
+      <c r="X94" s="292"/>
+      <c r="Y94" s="292"/>
+      <c r="Z94" s="292"/>
+      <c r="AA94" s="292"/>
+      <c r="AB94" s="292"/>
+      <c r="AC94" s="293"/>
+      <c r="AD94" s="291"/>
+      <c r="AE94" s="292"/>
+      <c r="AF94" s="292"/>
+      <c r="AG94" s="292"/>
+      <c r="AH94" s="293"/>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C95" s="30"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="279"/>
-      <c r="F95" s="267"/>
-      <c r="G95" s="268"/>
-      <c r="H95" s="268"/>
-      <c r="I95" s="269"/>
-      <c r="J95" s="267"/>
-      <c r="K95" s="268"/>
-      <c r="L95" s="268"/>
-      <c r="M95" s="269"/>
-      <c r="N95" s="280" t="s">
-        <v>31</v>
-      </c>
-      <c r="O95" s="280"/>
-      <c r="P95" s="280"/>
-      <c r="Q95" s="280"/>
-      <c r="R95" s="280"/>
-      <c r="S95" s="281" t="s">
-        <v>32</v>
-      </c>
-      <c r="T95" s="281"/>
-      <c r="U95" s="281"/>
-      <c r="V95" s="281"/>
-      <c r="W95" s="267"/>
-      <c r="X95" s="268"/>
-      <c r="Y95" s="268"/>
-      <c r="Z95" s="268"/>
-      <c r="AA95" s="268"/>
-      <c r="AB95" s="268"/>
-      <c r="AC95" s="269"/>
-      <c r="AD95" s="267"/>
-      <c r="AE95" s="268"/>
-      <c r="AF95" s="268"/>
-      <c r="AG95" s="268"/>
-      <c r="AH95" s="269"/>
+      <c r="E95" s="41">
+        <v>1</v>
+      </c>
+      <c r="F95" s="285"/>
+      <c r="G95" s="286"/>
+      <c r="H95" s="286"/>
+      <c r="I95" s="287"/>
+      <c r="J95" s="285"/>
+      <c r="K95" s="286"/>
+      <c r="L95" s="286"/>
+      <c r="M95" s="287"/>
+      <c r="N95" s="251"/>
+      <c r="O95" s="252"/>
+      <c r="P95" s="252"/>
+      <c r="Q95" s="252"/>
+      <c r="R95" s="252"/>
+      <c r="S95" s="253"/>
+      <c r="T95" s="253"/>
+      <c r="U95" s="253"/>
+      <c r="V95" s="253"/>
+      <c r="W95" s="275"/>
+      <c r="X95" s="276"/>
+      <c r="Y95" s="276"/>
+      <c r="Z95" s="276"/>
+      <c r="AA95" s="276"/>
+      <c r="AB95" s="276"/>
+      <c r="AC95" s="277"/>
+      <c r="AD95" s="275"/>
+      <c r="AE95" s="276"/>
+      <c r="AF95" s="276"/>
+      <c r="AG95" s="276"/>
+      <c r="AH95" s="277"/>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C96" s="30"/>
       <c r="D96" s="1"/>
       <c r="E96" s="41">
-        <v>1</v>
-      </c>
-      <c r="F96" s="273"/>
-      <c r="G96" s="274"/>
-      <c r="H96" s="274"/>
-      <c r="I96" s="275"/>
-      <c r="J96" s="273"/>
-      <c r="K96" s="274"/>
-      <c r="L96" s="274"/>
-      <c r="M96" s="275"/>
-      <c r="N96" s="256"/>
-      <c r="O96" s="257"/>
-      <c r="P96" s="257"/>
-      <c r="Q96" s="257"/>
-      <c r="R96" s="257"/>
-      <c r="S96" s="251"/>
-      <c r="T96" s="251"/>
-      <c r="U96" s="251"/>
-      <c r="V96" s="251"/>
-      <c r="W96" s="253"/>
-      <c r="X96" s="254"/>
-      <c r="Y96" s="254"/>
-      <c r="Z96" s="254"/>
-      <c r="AA96" s="254"/>
-      <c r="AB96" s="254"/>
-      <c r="AC96" s="255"/>
-      <c r="AD96" s="253"/>
-      <c r="AE96" s="254"/>
-      <c r="AF96" s="254"/>
-      <c r="AG96" s="254"/>
-      <c r="AH96" s="255"/>
+        <v>2</v>
+      </c>
+      <c r="F96" s="285"/>
+      <c r="G96" s="286"/>
+      <c r="H96" s="286"/>
+      <c r="I96" s="287"/>
+      <c r="J96" s="285"/>
+      <c r="K96" s="286"/>
+      <c r="L96" s="286"/>
+      <c r="M96" s="287"/>
+      <c r="N96" s="251"/>
+      <c r="O96" s="252"/>
+      <c r="P96" s="252"/>
+      <c r="Q96" s="252"/>
+      <c r="R96" s="252"/>
+      <c r="S96" s="253"/>
+      <c r="T96" s="253"/>
+      <c r="U96" s="253"/>
+      <c r="V96" s="253"/>
+      <c r="W96" s="275"/>
+      <c r="X96" s="276"/>
+      <c r="Y96" s="276"/>
+      <c r="Z96" s="276"/>
+      <c r="AA96" s="276"/>
+      <c r="AB96" s="276"/>
+      <c r="AC96" s="277"/>
+      <c r="AD96" s="275"/>
+      <c r="AE96" s="276"/>
+      <c r="AF96" s="276"/>
+      <c r="AG96" s="276"/>
+      <c r="AH96" s="277"/>
     </row>
     <row r="97" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C97" s="30"/>
       <c r="D97" s="1"/>
       <c r="E97" s="41">
-        <v>2</v>
-      </c>
-      <c r="F97" s="273"/>
-      <c r="G97" s="274"/>
-      <c r="H97" s="274"/>
-      <c r="I97" s="275"/>
-      <c r="J97" s="273"/>
-      <c r="K97" s="274"/>
-      <c r="L97" s="274"/>
-      <c r="M97" s="275"/>
-      <c r="N97" s="256"/>
-      <c r="O97" s="257"/>
-      <c r="P97" s="257"/>
-      <c r="Q97" s="257"/>
-      <c r="R97" s="257"/>
-      <c r="S97" s="251"/>
-      <c r="T97" s="251"/>
-      <c r="U97" s="251"/>
-      <c r="V97" s="251"/>
-      <c r="W97" s="253"/>
-      <c r="X97" s="254"/>
-      <c r="Y97" s="254"/>
-      <c r="Z97" s="254"/>
-      <c r="AA97" s="254"/>
-      <c r="AB97" s="254"/>
-      <c r="AC97" s="255"/>
-      <c r="AD97" s="253"/>
-      <c r="AE97" s="254"/>
-      <c r="AF97" s="254"/>
-      <c r="AG97" s="254"/>
-      <c r="AH97" s="255"/>
+        <v>3</v>
+      </c>
+      <c r="F97" s="285"/>
+      <c r="G97" s="286"/>
+      <c r="H97" s="286"/>
+      <c r="I97" s="287"/>
+      <c r="J97" s="285"/>
+      <c r="K97" s="286"/>
+      <c r="L97" s="286"/>
+      <c r="M97" s="287"/>
+      <c r="N97" s="251"/>
+      <c r="O97" s="252"/>
+      <c r="P97" s="252"/>
+      <c r="Q97" s="252"/>
+      <c r="R97" s="252"/>
+      <c r="S97" s="253"/>
+      <c r="T97" s="253"/>
+      <c r="U97" s="253"/>
+      <c r="V97" s="253"/>
+      <c r="W97" s="275"/>
+      <c r="X97" s="276"/>
+      <c r="Y97" s="276"/>
+      <c r="Z97" s="276"/>
+      <c r="AA97" s="276"/>
+      <c r="AB97" s="276"/>
+      <c r="AC97" s="277"/>
+      <c r="AD97" s="275"/>
+      <c r="AE97" s="276"/>
+      <c r="AF97" s="276"/>
+      <c r="AG97" s="276"/>
+      <c r="AH97" s="277"/>
     </row>
     <row r="98" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C98" s="30"/>
       <c r="D98" s="1"/>
       <c r="E98" s="41">
-        <v>3</v>
-      </c>
-      <c r="F98" s="273"/>
-      <c r="G98" s="274"/>
-      <c r="H98" s="274"/>
-      <c r="I98" s="275"/>
-      <c r="J98" s="273"/>
-      <c r="K98" s="274"/>
-      <c r="L98" s="274"/>
-      <c r="M98" s="275"/>
-      <c r="N98" s="256"/>
-      <c r="O98" s="257"/>
-      <c r="P98" s="257"/>
-      <c r="Q98" s="257"/>
-      <c r="R98" s="257"/>
-      <c r="S98" s="251"/>
-      <c r="T98" s="251"/>
-      <c r="U98" s="251"/>
-      <c r="V98" s="251"/>
-      <c r="W98" s="253"/>
-      <c r="X98" s="254"/>
-      <c r="Y98" s="254"/>
-      <c r="Z98" s="254"/>
-      <c r="AA98" s="254"/>
-      <c r="AB98" s="254"/>
-      <c r="AC98" s="255"/>
-      <c r="AD98" s="253"/>
-      <c r="AE98" s="254"/>
-      <c r="AF98" s="254"/>
-      <c r="AG98" s="254"/>
-      <c r="AH98" s="255"/>
+        <v>4</v>
+      </c>
+      <c r="F98" s="285"/>
+      <c r="G98" s="286"/>
+      <c r="H98" s="286"/>
+      <c r="I98" s="287"/>
+      <c r="J98" s="285"/>
+      <c r="K98" s="286"/>
+      <c r="L98" s="286"/>
+      <c r="M98" s="287"/>
+      <c r="N98" s="251"/>
+      <c r="O98" s="252"/>
+      <c r="P98" s="252"/>
+      <c r="Q98" s="252"/>
+      <c r="R98" s="252"/>
+      <c r="S98" s="253"/>
+      <c r="T98" s="253"/>
+      <c r="U98" s="253"/>
+      <c r="V98" s="253"/>
+      <c r="W98" s="275"/>
+      <c r="X98" s="276"/>
+      <c r="Y98" s="276"/>
+      <c r="Z98" s="276"/>
+      <c r="AA98" s="276"/>
+      <c r="AB98" s="276"/>
+      <c r="AC98" s="277"/>
+      <c r="AD98" s="275"/>
+      <c r="AE98" s="276"/>
+      <c r="AF98" s="276"/>
+      <c r="AG98" s="276"/>
+      <c r="AH98" s="277"/>
     </row>
     <row r="99" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C99" s="30"/>
       <c r="D99" s="1"/>
       <c r="E99" s="41">
-        <v>4</v>
-      </c>
-      <c r="F99" s="273"/>
-      <c r="G99" s="274"/>
-      <c r="H99" s="274"/>
-      <c r="I99" s="275"/>
-      <c r="J99" s="273"/>
-      <c r="K99" s="274"/>
-      <c r="L99" s="274"/>
-      <c r="M99" s="275"/>
-      <c r="N99" s="256"/>
-      <c r="O99" s="257"/>
-      <c r="P99" s="257"/>
-      <c r="Q99" s="257"/>
-      <c r="R99" s="257"/>
-      <c r="S99" s="251"/>
-      <c r="T99" s="251"/>
-      <c r="U99" s="251"/>
-      <c r="V99" s="251"/>
-      <c r="W99" s="253"/>
-      <c r="X99" s="254"/>
-      <c r="Y99" s="254"/>
-      <c r="Z99" s="254"/>
-      <c r="AA99" s="254"/>
-      <c r="AB99" s="254"/>
-      <c r="AC99" s="255"/>
-      <c r="AD99" s="253"/>
-      <c r="AE99" s="254"/>
-      <c r="AF99" s="254"/>
-      <c r="AG99" s="254"/>
-      <c r="AH99" s="255"/>
-    </row>
-    <row r="100" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="C100" s="30"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="41">
         <v>5</v>
       </c>
-      <c r="F100" s="273"/>
-      <c r="G100" s="274"/>
-      <c r="H100" s="274"/>
-      <c r="I100" s="275"/>
-      <c r="J100" s="273"/>
-      <c r="K100" s="274"/>
-      <c r="L100" s="274"/>
-      <c r="M100" s="275"/>
-      <c r="N100" s="256"/>
-      <c r="O100" s="257"/>
-      <c r="P100" s="257"/>
-      <c r="Q100" s="257"/>
-      <c r="R100" s="257"/>
-      <c r="S100" s="251"/>
-      <c r="T100" s="251"/>
-      <c r="U100" s="251"/>
-      <c r="V100" s="251"/>
-      <c r="W100" s="253"/>
-      <c r="X100" s="254"/>
-      <c r="Y100" s="254"/>
-      <c r="Z100" s="254"/>
-      <c r="AA100" s="254"/>
-      <c r="AB100" s="254"/>
-      <c r="AC100" s="255"/>
-      <c r="AD100" s="253"/>
-      <c r="AE100" s="254"/>
-      <c r="AF100" s="254"/>
-      <c r="AG100" s="254"/>
-      <c r="AH100" s="255"/>
+      <c r="F99" s="285"/>
+      <c r="G99" s="286"/>
+      <c r="H99" s="286"/>
+      <c r="I99" s="287"/>
+      <c r="J99" s="285"/>
+      <c r="K99" s="286"/>
+      <c r="L99" s="286"/>
+      <c r="M99" s="287"/>
+      <c r="N99" s="251"/>
+      <c r="O99" s="252"/>
+      <c r="P99" s="252"/>
+      <c r="Q99" s="252"/>
+      <c r="R99" s="252"/>
+      <c r="S99" s="253"/>
+      <c r="T99" s="253"/>
+      <c r="U99" s="253"/>
+      <c r="V99" s="253"/>
+      <c r="W99" s="275"/>
+      <c r="X99" s="276"/>
+      <c r="Y99" s="276"/>
+      <c r="Z99" s="276"/>
+      <c r="AA99" s="276"/>
+      <c r="AB99" s="276"/>
+      <c r="AC99" s="277"/>
+      <c r="AD99" s="275"/>
+      <c r="AE99" s="276"/>
+      <c r="AF99" s="276"/>
+      <c r="AG99" s="276"/>
+      <c r="AH99" s="277"/>
     </row>
   </sheetData>
-  <mergeCells count="111">
+  <mergeCells count="96">
+    <mergeCell ref="AD98:AH98"/>
+    <mergeCell ref="AD99:AH99"/>
+    <mergeCell ref="H17:AH17"/>
+    <mergeCell ref="H18:AH18"/>
+    <mergeCell ref="H19:AH19"/>
+    <mergeCell ref="H20:AH20"/>
+    <mergeCell ref="H21:AH21"/>
+    <mergeCell ref="H22:AH22"/>
+    <mergeCell ref="H23:AH23"/>
+    <mergeCell ref="N99:R99"/>
+    <mergeCell ref="S99:V99"/>
+    <mergeCell ref="N98:R98"/>
+    <mergeCell ref="S98:V98"/>
     <mergeCell ref="N97:R97"/>
     <mergeCell ref="S97:V97"/>
-    <mergeCell ref="N96:R96"/>
-    <mergeCell ref="S96:V96"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="G89:L89"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="O88:AH88"/>
+    <mergeCell ref="W93:AC94"/>
+    <mergeCell ref="AD93:AH94"/>
+    <mergeCell ref="W95:AC95"/>
+    <mergeCell ref="W96:AC96"/>
+    <mergeCell ref="W97:AC97"/>
+    <mergeCell ref="W98:AC98"/>
+    <mergeCell ref="W99:AC99"/>
+    <mergeCell ref="AD95:AH95"/>
+    <mergeCell ref="AD96:AH96"/>
+    <mergeCell ref="AD97:AH97"/>
+    <mergeCell ref="O31:AH31"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="J95:M95"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="J93:M94"/>
+    <mergeCell ref="F93:I94"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="N93:V93"/>
+    <mergeCell ref="N94:R94"/>
+    <mergeCell ref="S94:V94"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="E21:G21"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AC2:AF2"/>
@@ -14878,71 +14808,30 @@
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="V8:AH9"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="N94:V94"/>
+    <mergeCell ref="N96:R96"/>
+    <mergeCell ref="S96:V96"/>
     <mergeCell ref="N95:R95"/>
     <mergeCell ref="S95:V95"/>
-    <mergeCell ref="H20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="W17:Z18"/>
-    <mergeCell ref="H17:V18"/>
-    <mergeCell ref="E17:G18"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:V19"/>
-    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="G88:L88"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E88:F88"/>
     <mergeCell ref="E20:G20"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="J94:M95"/>
-    <mergeCell ref="F94:I95"/>
-    <mergeCell ref="N100:R100"/>
-    <mergeCell ref="S100:V100"/>
-    <mergeCell ref="N99:R99"/>
-    <mergeCell ref="S99:V99"/>
-    <mergeCell ref="N98:R98"/>
-    <mergeCell ref="S98:V98"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="H23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="O89:AH89"/>
-    <mergeCell ref="W94:AC95"/>
-    <mergeCell ref="AD94:AH95"/>
-    <mergeCell ref="W96:AC96"/>
-    <mergeCell ref="W97:AC97"/>
-    <mergeCell ref="W98:AC98"/>
-    <mergeCell ref="W99:AC99"/>
-    <mergeCell ref="W100:AC100"/>
-    <mergeCell ref="AD96:AH96"/>
-    <mergeCell ref="AD97:AH97"/>
-    <mergeCell ref="AD98:AH98"/>
-    <mergeCell ref="O32:AH32"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="AA19:AH19"/>
-    <mergeCell ref="AA20:AH20"/>
-    <mergeCell ref="AA21:AH21"/>
-    <mergeCell ref="AA22:AH22"/>
-    <mergeCell ref="AA23:AH23"/>
-    <mergeCell ref="AA24:AH24"/>
-    <mergeCell ref="AA17:AH18"/>
-    <mergeCell ref="AD99:AH99"/>
-    <mergeCell ref="AD100:AH100"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="T12:U12"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
@@ -14963,8 +14852,8 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="34" max="34" man="1"/>
-    <brk id="82" max="34" man="1"/>
+    <brk id="33" max="34" man="1"/>
+    <brk id="81" max="34" man="1"/>
   </rowBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -14986,37 +14875,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="95" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="96" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="96" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="96" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(Webサービス)_(取引ID)_(取引名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(Webサービス)_(取引ID)_(取引名).xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>PJ名</t>
   </si>
@@ -604,6 +604,10 @@
     <t>API ID</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>【外部インタフェース定義書_XXX】を参照。</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -613,7 +617,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1384,6 +1388,117 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1420,158 +1535,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1609,41 +1649,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1672,15 +1700,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1690,19 +1709,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1714,18 +1736,120 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1740,126 +1864,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4850,42 +4854,42 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1">
       <c r="F22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1">
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -4896,7 +4900,7 @@
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1">
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -4905,7 +4909,7 @@
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:12" ht="18" customHeight="1">
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -4917,7 +4921,7 @@
       <c r="K25" s="143"/>
       <c r="L25" s="37"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1">
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -4926,7 +4930,7 @@
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1">
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -4935,7 +4939,7 @@
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1">
       <c r="F28" s="9"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -4944,7 +4948,7 @@
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:12" ht="15" customHeight="1">
       <c r="F29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="37"/>
@@ -4952,7 +4956,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1">
       <c r="F30" s="7"/>
       <c r="G30" s="10"/>
       <c r="H30" s="7"/>
@@ -4961,7 +4965,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1">
       <c r="F31" s="7"/>
       <c r="G31" s="10"/>
       <c r="H31" s="7"/>
@@ -4970,7 +4974,7 @@
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:12" ht="18.75">
       <c r="F32" s="7"/>
       <c r="G32" s="10"/>
       <c r="H32" s="7"/>
@@ -4981,7 +4985,7 @@
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="18.75">
       <c r="F33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="37"/>
@@ -4993,7 +4997,7 @@
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="18.75">
       <c r="F34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="37"/>
@@ -5010,515 +5014,515 @@
       <c r="R34" s="100"/>
       <c r="S34" s="100"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1">
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="100"/>
       <c r="R35" s="100"/>
       <c r="S35" s="100"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1">
       <c r="O36" s="101"/>
       <c r="P36" s="100"/>
       <c r="Q36" s="101"/>
       <c r="R36" s="100"/>
       <c r="S36" s="97"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1">
       <c r="O37" s="102"/>
       <c r="P37" s="103"/>
       <c r="Q37" s="102"/>
       <c r="R37" s="103"/>
       <c r="S37" s="102"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1">
       <c r="O38" s="103"/>
       <c r="P38" s="103"/>
       <c r="Q38" s="103"/>
       <c r="R38" s="103"/>
       <c r="S38" s="103"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1">
       <c r="O39" s="103"/>
       <c r="P39" s="103"/>
       <c r="Q39" s="103"/>
       <c r="R39" s="103"/>
       <c r="S39" s="103"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="513" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -5543,164 +5547,164 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="186" t="s">
+    <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="189" t="s">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="198" t="s">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="199"/>
-      <c r="U1" s="199"/>
-      <c r="V1" s="199"/>
-      <c r="W1" s="199"/>
-      <c r="X1" s="199"/>
-      <c r="Y1" s="199"/>
-      <c r="Z1" s="200"/>
-      <c r="AA1" s="186" t="s">
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="144" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="173" t="str">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="147" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="175"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
       <c r="AM1" s="13"/>
       <c r="AN1" s="14"/>
     </row>
-    <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="186" t="s">
+    <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="203"/>
-      <c r="AA2" s="186" t="s">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="183" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="157" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="184"/>
-      <c r="AE2" s="184"/>
-      <c r="AF2" s="185"/>
-      <c r="AG2" s="173" t="str">
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="159"/>
+      <c r="AG2" s="147" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="175"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
       <c r="AM2" s="13"/>
       <c r="AN2" s="13"/>
     </row>
-    <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="186" t="s">
+    <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="205"/>
-      <c r="U3" s="205"/>
-      <c r="V3" s="205"/>
-      <c r="W3" s="205"/>
-      <c r="X3" s="205"/>
-      <c r="Y3" s="205"/>
-      <c r="Z3" s="206"/>
-      <c r="AA3" s="186"/>
-      <c r="AB3" s="188"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="173"/>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="175"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="178"/>
+      <c r="T3" s="179"/>
+      <c r="U3" s="179"/>
+      <c r="V3" s="179"/>
+      <c r="W3" s="179"/>
+      <c r="X3" s="179"/>
+      <c r="Y3" s="179"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="144"/>
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
       <c r="AM3" s="13"/>
       <c r="AN3" s="13"/>
     </row>
-    <row r="5" spans="1:40" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="17" t="s">
         <v>13</v>
       </c>
@@ -5714,7 +5718,7 @@
       <c r="AH5" s="35"/>
       <c r="AI5" s="35"/>
     </row>
-    <row r="6" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="N6" s="17"/>
       <c r="AA6" s="35"/>
       <c r="AB6" s="35"/>
@@ -5726,1024 +5730,1180 @@
       <c r="AH6" s="35"/>
       <c r="AI6" s="35"/>
     </row>
-    <row r="7" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="176" t="s">
+      <c r="B7" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="177"/>
-      <c r="D7" s="176" t="s">
+      <c r="C7" s="151"/>
+      <c r="D7" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="178"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="176" t="s">
+      <c r="E7" s="152"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="178"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="179" t="s">
+      <c r="H7" s="152"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="178"/>
-      <c r="L7" s="178"/>
-      <c r="M7" s="178"/>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="176" t="s">
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="178"/>
-      <c r="S7" s="178"/>
-      <c r="T7" s="178"/>
-      <c r="U7" s="178"/>
-      <c r="V7" s="178"/>
-      <c r="W7" s="178"/>
-      <c r="X7" s="178"/>
-      <c r="Y7" s="178"/>
-      <c r="Z7" s="178"/>
-      <c r="AA7" s="178"/>
-      <c r="AB7" s="178"/>
-      <c r="AC7" s="178"/>
-      <c r="AD7" s="178"/>
-      <c r="AE7" s="177"/>
-      <c r="AF7" s="176" t="s">
+      <c r="R7" s="152"/>
+      <c r="S7" s="152"/>
+      <c r="T7" s="152"/>
+      <c r="U7" s="152"/>
+      <c r="V7" s="152"/>
+      <c r="W7" s="152"/>
+      <c r="X7" s="152"/>
+      <c r="Y7" s="152"/>
+      <c r="Z7" s="152"/>
+      <c r="AA7" s="152"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="151"/>
+      <c r="AF7" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="178"/>
-      <c r="AH7" s="178"/>
-      <c r="AI7" s="177"/>
-    </row>
-    <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="AG7" s="152"/>
+      <c r="AH7" s="152"/>
+      <c r="AI7" s="151"/>
+    </row>
+    <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="132"/>
-      <c r="B8" s="157"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="167"/>
-      <c r="R8" s="168"/>
-      <c r="S8" s="168"/>
-      <c r="T8" s="168"/>
-      <c r="U8" s="168"/>
-      <c r="V8" s="168"/>
-      <c r="W8" s="168"/>
-      <c r="X8" s="168"/>
-      <c r="Y8" s="168"/>
-      <c r="Z8" s="168"/>
-      <c r="AA8" s="168"/>
-      <c r="AB8" s="168"/>
-      <c r="AC8" s="168"/>
-      <c r="AD8" s="168"/>
-      <c r="AE8" s="169"/>
-      <c r="AF8" s="164"/>
-      <c r="AG8" s="165"/>
-      <c r="AH8" s="165"/>
-      <c r="AI8" s="166"/>
-    </row>
-    <row r="9" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="193"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="201"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="203"/>
+      <c r="R8" s="204"/>
+      <c r="S8" s="204"/>
+      <c r="T8" s="204"/>
+      <c r="U8" s="204"/>
+      <c r="V8" s="204"/>
+      <c r="W8" s="204"/>
+      <c r="X8" s="204"/>
+      <c r="Y8" s="204"/>
+      <c r="Z8" s="204"/>
+      <c r="AA8" s="204"/>
+      <c r="AB8" s="204"/>
+      <c r="AC8" s="204"/>
+      <c r="AD8" s="204"/>
+      <c r="AE8" s="205"/>
+      <c r="AF8" s="200"/>
+      <c r="AG8" s="201"/>
+      <c r="AH8" s="201"/>
+      <c r="AI8" s="202"/>
+    </row>
+    <row r="9" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="133"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="154"/>
-      <c r="S9" s="154"/>
-      <c r="T9" s="154"/>
-      <c r="U9" s="154"/>
-      <c r="V9" s="154"/>
-      <c r="W9" s="154"/>
-      <c r="X9" s="154"/>
-      <c r="Y9" s="154"/>
-      <c r="Z9" s="154"/>
-      <c r="AA9" s="154"/>
-      <c r="AB9" s="154"/>
-      <c r="AC9" s="154"/>
-      <c r="AD9" s="154"/>
-      <c r="AE9" s="155"/>
-      <c r="AF9" s="150"/>
-      <c r="AG9" s="151"/>
-      <c r="AH9" s="151"/>
-      <c r="AI9" s="152"/>
-    </row>
-    <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="181"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="188"/>
+      <c r="N9" s="188"/>
+      <c r="O9" s="188"/>
+      <c r="P9" s="189"/>
+      <c r="Q9" s="190"/>
+      <c r="R9" s="191"/>
+      <c r="S9" s="191"/>
+      <c r="T9" s="191"/>
+      <c r="U9" s="191"/>
+      <c r="V9" s="191"/>
+      <c r="W9" s="191"/>
+      <c r="X9" s="191"/>
+      <c r="Y9" s="191"/>
+      <c r="Z9" s="191"/>
+      <c r="AA9" s="191"/>
+      <c r="AB9" s="191"/>
+      <c r="AC9" s="191"/>
+      <c r="AD9" s="191"/>
+      <c r="AE9" s="192"/>
+      <c r="AF9" s="187"/>
+      <c r="AG9" s="188"/>
+      <c r="AH9" s="188"/>
+      <c r="AI9" s="189"/>
+    </row>
+    <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="133"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="154"/>
-      <c r="S10" s="154"/>
-      <c r="T10" s="154"/>
-      <c r="U10" s="154"/>
-      <c r="V10" s="154"/>
-      <c r="W10" s="154"/>
-      <c r="X10" s="154"/>
-      <c r="Y10" s="154"/>
-      <c r="Z10" s="154"/>
-      <c r="AA10" s="154"/>
-      <c r="AB10" s="154"/>
-      <c r="AC10" s="154"/>
-      <c r="AD10" s="154"/>
-      <c r="AE10" s="155"/>
-      <c r="AF10" s="150"/>
-      <c r="AG10" s="151"/>
-      <c r="AH10" s="151"/>
-      <c r="AI10" s="152"/>
-    </row>
-    <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="181"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="187"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="188"/>
+      <c r="N10" s="188"/>
+      <c r="O10" s="188"/>
+      <c r="P10" s="189"/>
+      <c r="Q10" s="190"/>
+      <c r="R10" s="191"/>
+      <c r="S10" s="191"/>
+      <c r="T10" s="191"/>
+      <c r="U10" s="191"/>
+      <c r="V10" s="191"/>
+      <c r="W10" s="191"/>
+      <c r="X10" s="191"/>
+      <c r="Y10" s="191"/>
+      <c r="Z10" s="191"/>
+      <c r="AA10" s="191"/>
+      <c r="AB10" s="191"/>
+      <c r="AC10" s="191"/>
+      <c r="AD10" s="191"/>
+      <c r="AE10" s="192"/>
+      <c r="AF10" s="187"/>
+      <c r="AG10" s="188"/>
+      <c r="AH10" s="188"/>
+      <c r="AI10" s="189"/>
+    </row>
+    <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="133"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="154"/>
-      <c r="T11" s="154"/>
-      <c r="U11" s="154"/>
-      <c r="V11" s="154"/>
-      <c r="W11" s="154"/>
-      <c r="X11" s="154"/>
-      <c r="Y11" s="154"/>
-      <c r="Z11" s="154"/>
-      <c r="AA11" s="154"/>
-      <c r="AB11" s="154"/>
-      <c r="AC11" s="154"/>
-      <c r="AD11" s="154"/>
-      <c r="AE11" s="155"/>
-      <c r="AF11" s="150"/>
-      <c r="AG11" s="151"/>
-      <c r="AH11" s="151"/>
-      <c r="AI11" s="152"/>
-    </row>
-    <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="181"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="187"/>
+      <c r="K11" s="188"/>
+      <c r="L11" s="188"/>
+      <c r="M11" s="188"/>
+      <c r="N11" s="188"/>
+      <c r="O11" s="188"/>
+      <c r="P11" s="189"/>
+      <c r="Q11" s="190"/>
+      <c r="R11" s="191"/>
+      <c r="S11" s="191"/>
+      <c r="T11" s="191"/>
+      <c r="U11" s="191"/>
+      <c r="V11" s="191"/>
+      <c r="W11" s="191"/>
+      <c r="X11" s="191"/>
+      <c r="Y11" s="191"/>
+      <c r="Z11" s="191"/>
+      <c r="AA11" s="191"/>
+      <c r="AB11" s="191"/>
+      <c r="AC11" s="191"/>
+      <c r="AD11" s="191"/>
+      <c r="AE11" s="192"/>
+      <c r="AF11" s="187"/>
+      <c r="AG11" s="188"/>
+      <c r="AH11" s="188"/>
+      <c r="AI11" s="189"/>
+    </row>
+    <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="133"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="154"/>
-      <c r="S12" s="154"/>
-      <c r="T12" s="154"/>
-      <c r="U12" s="154"/>
-      <c r="V12" s="154"/>
-      <c r="W12" s="154"/>
-      <c r="X12" s="154"/>
-      <c r="Y12" s="154"/>
-      <c r="Z12" s="154"/>
-      <c r="AA12" s="154"/>
-      <c r="AB12" s="154"/>
-      <c r="AC12" s="154"/>
-      <c r="AD12" s="154"/>
-      <c r="AE12" s="155"/>
-      <c r="AF12" s="150"/>
-      <c r="AG12" s="151"/>
-      <c r="AH12" s="151"/>
-      <c r="AI12" s="152"/>
-    </row>
-    <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="181"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="182"/>
+      <c r="J12" s="187"/>
+      <c r="K12" s="188"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="188"/>
+      <c r="N12" s="188"/>
+      <c r="O12" s="188"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="190"/>
+      <c r="R12" s="191"/>
+      <c r="S12" s="191"/>
+      <c r="T12" s="191"/>
+      <c r="U12" s="191"/>
+      <c r="V12" s="191"/>
+      <c r="W12" s="191"/>
+      <c r="X12" s="191"/>
+      <c r="Y12" s="191"/>
+      <c r="Z12" s="191"/>
+      <c r="AA12" s="191"/>
+      <c r="AB12" s="191"/>
+      <c r="AC12" s="191"/>
+      <c r="AD12" s="191"/>
+      <c r="AE12" s="192"/>
+      <c r="AF12" s="187"/>
+      <c r="AG12" s="188"/>
+      <c r="AH12" s="188"/>
+      <c r="AI12" s="189"/>
+    </row>
+    <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="133"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="154"/>
-      <c r="T13" s="154"/>
-      <c r="U13" s="154"/>
-      <c r="V13" s="154"/>
-      <c r="W13" s="154"/>
-      <c r="X13" s="154"/>
-      <c r="Y13" s="154"/>
-      <c r="Z13" s="154"/>
-      <c r="AA13" s="154"/>
-      <c r="AB13" s="154"/>
-      <c r="AC13" s="154"/>
-      <c r="AD13" s="154"/>
-      <c r="AE13" s="155"/>
-      <c r="AF13" s="150"/>
-      <c r="AG13" s="151"/>
-      <c r="AH13" s="151"/>
-      <c r="AI13" s="152"/>
-    </row>
-    <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="181"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="187"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="188"/>
+      <c r="N13" s="188"/>
+      <c r="O13" s="188"/>
+      <c r="P13" s="189"/>
+      <c r="Q13" s="190"/>
+      <c r="R13" s="191"/>
+      <c r="S13" s="191"/>
+      <c r="T13" s="191"/>
+      <c r="U13" s="191"/>
+      <c r="V13" s="191"/>
+      <c r="W13" s="191"/>
+      <c r="X13" s="191"/>
+      <c r="Y13" s="191"/>
+      <c r="Z13" s="191"/>
+      <c r="AA13" s="191"/>
+      <c r="AB13" s="191"/>
+      <c r="AC13" s="191"/>
+      <c r="AD13" s="191"/>
+      <c r="AE13" s="192"/>
+      <c r="AF13" s="187"/>
+      <c r="AG13" s="188"/>
+      <c r="AH13" s="188"/>
+      <c r="AI13" s="189"/>
+    </row>
+    <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="133"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="154"/>
-      <c r="T14" s="154"/>
-      <c r="U14" s="154"/>
-      <c r="V14" s="154"/>
-      <c r="W14" s="154"/>
-      <c r="X14" s="154"/>
-      <c r="Y14" s="154"/>
-      <c r="Z14" s="154"/>
-      <c r="AA14" s="154"/>
-      <c r="AB14" s="154"/>
-      <c r="AC14" s="154"/>
-      <c r="AD14" s="154"/>
-      <c r="AE14" s="155"/>
-      <c r="AF14" s="150"/>
-      <c r="AG14" s="151"/>
-      <c r="AH14" s="151"/>
-      <c r="AI14" s="152"/>
-    </row>
-    <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="181"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="187"/>
+      <c r="K14" s="188"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="188"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="188"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="190"/>
+      <c r="R14" s="191"/>
+      <c r="S14" s="191"/>
+      <c r="T14" s="191"/>
+      <c r="U14" s="191"/>
+      <c r="V14" s="191"/>
+      <c r="W14" s="191"/>
+      <c r="X14" s="191"/>
+      <c r="Y14" s="191"/>
+      <c r="Z14" s="191"/>
+      <c r="AA14" s="191"/>
+      <c r="AB14" s="191"/>
+      <c r="AC14" s="191"/>
+      <c r="AD14" s="191"/>
+      <c r="AE14" s="192"/>
+      <c r="AF14" s="187"/>
+      <c r="AG14" s="188"/>
+      <c r="AH14" s="188"/>
+      <c r="AI14" s="189"/>
+    </row>
+    <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="133"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="154"/>
-      <c r="T15" s="154"/>
-      <c r="U15" s="154"/>
-      <c r="V15" s="154"/>
-      <c r="W15" s="154"/>
-      <c r="X15" s="154"/>
-      <c r="Y15" s="154"/>
-      <c r="Z15" s="154"/>
-      <c r="AA15" s="154"/>
-      <c r="AB15" s="154"/>
-      <c r="AC15" s="154"/>
-      <c r="AD15" s="154"/>
-      <c r="AE15" s="155"/>
-      <c r="AF15" s="150"/>
-      <c r="AG15" s="151"/>
-      <c r="AH15" s="151"/>
-      <c r="AI15" s="152"/>
-    </row>
-    <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="181"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="187"/>
+      <c r="K15" s="188"/>
+      <c r="L15" s="188"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="188"/>
+      <c r="O15" s="188"/>
+      <c r="P15" s="189"/>
+      <c r="Q15" s="190"/>
+      <c r="R15" s="191"/>
+      <c r="S15" s="191"/>
+      <c r="T15" s="191"/>
+      <c r="U15" s="191"/>
+      <c r="V15" s="191"/>
+      <c r="W15" s="191"/>
+      <c r="X15" s="191"/>
+      <c r="Y15" s="191"/>
+      <c r="Z15" s="191"/>
+      <c r="AA15" s="191"/>
+      <c r="AB15" s="191"/>
+      <c r="AC15" s="191"/>
+      <c r="AD15" s="191"/>
+      <c r="AE15" s="192"/>
+      <c r="AF15" s="187"/>
+      <c r="AG15" s="188"/>
+      <c r="AH15" s="188"/>
+      <c r="AI15" s="189"/>
+    </row>
+    <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="133"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="154"/>
-      <c r="S16" s="154"/>
-      <c r="T16" s="154"/>
-      <c r="U16" s="154"/>
-      <c r="V16" s="154"/>
-      <c r="W16" s="154"/>
-      <c r="X16" s="154"/>
-      <c r="Y16" s="154"/>
-      <c r="Z16" s="154"/>
-      <c r="AA16" s="154"/>
-      <c r="AB16" s="154"/>
-      <c r="AC16" s="154"/>
-      <c r="AD16" s="154"/>
-      <c r="AE16" s="155"/>
-      <c r="AF16" s="150"/>
-      <c r="AG16" s="151"/>
-      <c r="AH16" s="151"/>
-      <c r="AI16" s="152"/>
-    </row>
-    <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="181"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="188"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="188"/>
+      <c r="N16" s="188"/>
+      <c r="O16" s="188"/>
+      <c r="P16" s="189"/>
+      <c r="Q16" s="190"/>
+      <c r="R16" s="191"/>
+      <c r="S16" s="191"/>
+      <c r="T16" s="191"/>
+      <c r="U16" s="191"/>
+      <c r="V16" s="191"/>
+      <c r="W16" s="191"/>
+      <c r="X16" s="191"/>
+      <c r="Y16" s="191"/>
+      <c r="Z16" s="191"/>
+      <c r="AA16" s="191"/>
+      <c r="AB16" s="191"/>
+      <c r="AC16" s="191"/>
+      <c r="AD16" s="191"/>
+      <c r="AE16" s="192"/>
+      <c r="AF16" s="187"/>
+      <c r="AG16" s="188"/>
+      <c r="AH16" s="188"/>
+      <c r="AI16" s="189"/>
+    </row>
+    <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="133"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="154"/>
-      <c r="S17" s="154"/>
-      <c r="T17" s="154"/>
-      <c r="U17" s="154"/>
-      <c r="V17" s="154"/>
-      <c r="W17" s="154"/>
-      <c r="X17" s="154"/>
-      <c r="Y17" s="154"/>
-      <c r="Z17" s="154"/>
-      <c r="AA17" s="154"/>
-      <c r="AB17" s="154"/>
-      <c r="AC17" s="154"/>
-      <c r="AD17" s="154"/>
-      <c r="AE17" s="155"/>
-      <c r="AF17" s="150"/>
-      <c r="AG17" s="151"/>
-      <c r="AH17" s="151"/>
-      <c r="AI17" s="152"/>
-    </row>
-    <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="181"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="184"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="188"/>
+      <c r="L17" s="188"/>
+      <c r="M17" s="188"/>
+      <c r="N17" s="188"/>
+      <c r="O17" s="188"/>
+      <c r="P17" s="189"/>
+      <c r="Q17" s="190"/>
+      <c r="R17" s="191"/>
+      <c r="S17" s="191"/>
+      <c r="T17" s="191"/>
+      <c r="U17" s="191"/>
+      <c r="V17" s="191"/>
+      <c r="W17" s="191"/>
+      <c r="X17" s="191"/>
+      <c r="Y17" s="191"/>
+      <c r="Z17" s="191"/>
+      <c r="AA17" s="191"/>
+      <c r="AB17" s="191"/>
+      <c r="AC17" s="191"/>
+      <c r="AD17" s="191"/>
+      <c r="AE17" s="192"/>
+      <c r="AF17" s="187"/>
+      <c r="AG17" s="188"/>
+      <c r="AH17" s="188"/>
+      <c r="AI17" s="189"/>
+    </row>
+    <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="133"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="153"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="154"/>
-      <c r="T18" s="154"/>
-      <c r="U18" s="154"/>
-      <c r="V18" s="154"/>
-      <c r="W18" s="154"/>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="154"/>
-      <c r="Z18" s="154"/>
-      <c r="AA18" s="154"/>
-      <c r="AB18" s="154"/>
-      <c r="AC18" s="154"/>
-      <c r="AD18" s="154"/>
-      <c r="AE18" s="155"/>
-      <c r="AF18" s="150"/>
-      <c r="AG18" s="151"/>
-      <c r="AH18" s="151"/>
-      <c r="AI18" s="152"/>
-    </row>
-    <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="181"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="188"/>
+      <c r="L18" s="188"/>
+      <c r="M18" s="188"/>
+      <c r="N18" s="188"/>
+      <c r="O18" s="188"/>
+      <c r="P18" s="189"/>
+      <c r="Q18" s="190"/>
+      <c r="R18" s="191"/>
+      <c r="S18" s="191"/>
+      <c r="T18" s="191"/>
+      <c r="U18" s="191"/>
+      <c r="V18" s="191"/>
+      <c r="W18" s="191"/>
+      <c r="X18" s="191"/>
+      <c r="Y18" s="191"/>
+      <c r="Z18" s="191"/>
+      <c r="AA18" s="191"/>
+      <c r="AB18" s="191"/>
+      <c r="AC18" s="191"/>
+      <c r="AD18" s="191"/>
+      <c r="AE18" s="192"/>
+      <c r="AF18" s="187"/>
+      <c r="AG18" s="188"/>
+      <c r="AH18" s="188"/>
+      <c r="AI18" s="189"/>
+    </row>
+    <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="133"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="154"/>
-      <c r="S19" s="154"/>
-      <c r="T19" s="154"/>
-      <c r="U19" s="154"/>
-      <c r="V19" s="154"/>
-      <c r="W19" s="154"/>
-      <c r="X19" s="154"/>
-      <c r="Y19" s="154"/>
-      <c r="Z19" s="154"/>
-      <c r="AA19" s="154"/>
-      <c r="AB19" s="154"/>
-      <c r="AC19" s="154"/>
-      <c r="AD19" s="154"/>
-      <c r="AE19" s="155"/>
-      <c r="AF19" s="150"/>
-      <c r="AG19" s="151"/>
-      <c r="AH19" s="151"/>
-      <c r="AI19" s="152"/>
-    </row>
-    <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="181"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="187"/>
+      <c r="K19" s="188"/>
+      <c r="L19" s="188"/>
+      <c r="M19" s="188"/>
+      <c r="N19" s="188"/>
+      <c r="O19" s="188"/>
+      <c r="P19" s="189"/>
+      <c r="Q19" s="190"/>
+      <c r="R19" s="191"/>
+      <c r="S19" s="191"/>
+      <c r="T19" s="191"/>
+      <c r="U19" s="191"/>
+      <c r="V19" s="191"/>
+      <c r="W19" s="191"/>
+      <c r="X19" s="191"/>
+      <c r="Y19" s="191"/>
+      <c r="Z19" s="191"/>
+      <c r="AA19" s="191"/>
+      <c r="AB19" s="191"/>
+      <c r="AC19" s="191"/>
+      <c r="AD19" s="191"/>
+      <c r="AE19" s="192"/>
+      <c r="AF19" s="187"/>
+      <c r="AG19" s="188"/>
+      <c r="AH19" s="188"/>
+      <c r="AI19" s="189"/>
+    </row>
+    <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="133"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="151"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="151"/>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="154"/>
-      <c r="S20" s="154"/>
-      <c r="T20" s="154"/>
-      <c r="U20" s="154"/>
-      <c r="V20" s="154"/>
-      <c r="W20" s="154"/>
-      <c r="X20" s="154"/>
-      <c r="Y20" s="154"/>
-      <c r="Z20" s="154"/>
-      <c r="AA20" s="154"/>
-      <c r="AB20" s="154"/>
-      <c r="AC20" s="154"/>
-      <c r="AD20" s="154"/>
-      <c r="AE20" s="155"/>
-      <c r="AF20" s="150"/>
-      <c r="AG20" s="151"/>
-      <c r="AH20" s="151"/>
-      <c r="AI20" s="152"/>
-    </row>
-    <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="181"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="187"/>
+      <c r="K20" s="188"/>
+      <c r="L20" s="188"/>
+      <c r="M20" s="188"/>
+      <c r="N20" s="188"/>
+      <c r="O20" s="188"/>
+      <c r="P20" s="189"/>
+      <c r="Q20" s="190"/>
+      <c r="R20" s="191"/>
+      <c r="S20" s="191"/>
+      <c r="T20" s="191"/>
+      <c r="U20" s="191"/>
+      <c r="V20" s="191"/>
+      <c r="W20" s="191"/>
+      <c r="X20" s="191"/>
+      <c r="Y20" s="191"/>
+      <c r="Z20" s="191"/>
+      <c r="AA20" s="191"/>
+      <c r="AB20" s="191"/>
+      <c r="AC20" s="191"/>
+      <c r="AD20" s="191"/>
+      <c r="AE20" s="192"/>
+      <c r="AF20" s="187"/>
+      <c r="AG20" s="188"/>
+      <c r="AH20" s="188"/>
+      <c r="AI20" s="189"/>
+    </row>
+    <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="133"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="154"/>
-      <c r="S21" s="154"/>
-      <c r="T21" s="154"/>
-      <c r="U21" s="154"/>
-      <c r="V21" s="154"/>
-      <c r="W21" s="154"/>
-      <c r="X21" s="154"/>
-      <c r="Y21" s="154"/>
-      <c r="Z21" s="154"/>
-      <c r="AA21" s="154"/>
-      <c r="AB21" s="154"/>
-      <c r="AC21" s="154"/>
-      <c r="AD21" s="154"/>
-      <c r="AE21" s="155"/>
-      <c r="AF21" s="150"/>
-      <c r="AG21" s="151"/>
-      <c r="AH21" s="151"/>
-      <c r="AI21" s="152"/>
-    </row>
-    <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="181"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="187"/>
+      <c r="K21" s="188"/>
+      <c r="L21" s="188"/>
+      <c r="M21" s="188"/>
+      <c r="N21" s="188"/>
+      <c r="O21" s="188"/>
+      <c r="P21" s="189"/>
+      <c r="Q21" s="190"/>
+      <c r="R21" s="191"/>
+      <c r="S21" s="191"/>
+      <c r="T21" s="191"/>
+      <c r="U21" s="191"/>
+      <c r="V21" s="191"/>
+      <c r="W21" s="191"/>
+      <c r="X21" s="191"/>
+      <c r="Y21" s="191"/>
+      <c r="Z21" s="191"/>
+      <c r="AA21" s="191"/>
+      <c r="AB21" s="191"/>
+      <c r="AC21" s="191"/>
+      <c r="AD21" s="191"/>
+      <c r="AE21" s="192"/>
+      <c r="AF21" s="187"/>
+      <c r="AG21" s="188"/>
+      <c r="AH21" s="188"/>
+      <c r="AI21" s="189"/>
+    </row>
+    <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="133"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="145"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="154"/>
-      <c r="S22" s="154"/>
-      <c r="T22" s="154"/>
-      <c r="U22" s="154"/>
-      <c r="V22" s="154"/>
-      <c r="W22" s="154"/>
-      <c r="X22" s="154"/>
-      <c r="Y22" s="154"/>
-      <c r="Z22" s="154"/>
-      <c r="AA22" s="154"/>
-      <c r="AB22" s="154"/>
-      <c r="AC22" s="154"/>
-      <c r="AD22" s="154"/>
-      <c r="AE22" s="155"/>
-      <c r="AF22" s="150"/>
-      <c r="AG22" s="151"/>
-      <c r="AH22" s="151"/>
-      <c r="AI22" s="152"/>
-    </row>
-    <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="181"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="187"/>
+      <c r="K22" s="188"/>
+      <c r="L22" s="188"/>
+      <c r="M22" s="188"/>
+      <c r="N22" s="188"/>
+      <c r="O22" s="188"/>
+      <c r="P22" s="189"/>
+      <c r="Q22" s="190"/>
+      <c r="R22" s="191"/>
+      <c r="S22" s="191"/>
+      <c r="T22" s="191"/>
+      <c r="U22" s="191"/>
+      <c r="V22" s="191"/>
+      <c r="W22" s="191"/>
+      <c r="X22" s="191"/>
+      <c r="Y22" s="191"/>
+      <c r="Z22" s="191"/>
+      <c r="AA22" s="191"/>
+      <c r="AB22" s="191"/>
+      <c r="AC22" s="191"/>
+      <c r="AD22" s="191"/>
+      <c r="AE22" s="192"/>
+      <c r="AF22" s="187"/>
+      <c r="AG22" s="188"/>
+      <c r="AH22" s="188"/>
+      <c r="AI22" s="189"/>
+    </row>
+    <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="133"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="154"/>
-      <c r="S23" s="154"/>
-      <c r="T23" s="154"/>
-      <c r="U23" s="154"/>
-      <c r="V23" s="154"/>
-      <c r="W23" s="154"/>
-      <c r="X23" s="154"/>
-      <c r="Y23" s="154"/>
-      <c r="Z23" s="154"/>
-      <c r="AA23" s="154"/>
-      <c r="AB23" s="154"/>
-      <c r="AC23" s="154"/>
-      <c r="AD23" s="154"/>
-      <c r="AE23" s="155"/>
-      <c r="AF23" s="150"/>
-      <c r="AG23" s="151"/>
-      <c r="AH23" s="151"/>
-      <c r="AI23" s="152"/>
-    </row>
-    <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="181"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="183"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="188"/>
+      <c r="L23" s="188"/>
+      <c r="M23" s="188"/>
+      <c r="N23" s="188"/>
+      <c r="O23" s="188"/>
+      <c r="P23" s="189"/>
+      <c r="Q23" s="190"/>
+      <c r="R23" s="191"/>
+      <c r="S23" s="191"/>
+      <c r="T23" s="191"/>
+      <c r="U23" s="191"/>
+      <c r="V23" s="191"/>
+      <c r="W23" s="191"/>
+      <c r="X23" s="191"/>
+      <c r="Y23" s="191"/>
+      <c r="Z23" s="191"/>
+      <c r="AA23" s="191"/>
+      <c r="AB23" s="191"/>
+      <c r="AC23" s="191"/>
+      <c r="AD23" s="191"/>
+      <c r="AE23" s="192"/>
+      <c r="AF23" s="187"/>
+      <c r="AG23" s="188"/>
+      <c r="AH23" s="188"/>
+      <c r="AI23" s="189"/>
+    </row>
+    <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="133"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="153"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="154"/>
-      <c r="T24" s="154"/>
-      <c r="U24" s="154"/>
-      <c r="V24" s="154"/>
-      <c r="W24" s="154"/>
-      <c r="X24" s="154"/>
-      <c r="Y24" s="154"/>
-      <c r="Z24" s="154"/>
-      <c r="AA24" s="154"/>
-      <c r="AB24" s="154"/>
-      <c r="AC24" s="154"/>
-      <c r="AD24" s="154"/>
-      <c r="AE24" s="155"/>
-      <c r="AF24" s="150"/>
-      <c r="AG24" s="151"/>
-      <c r="AH24" s="151"/>
-      <c r="AI24" s="152"/>
-    </row>
-    <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="181"/>
+      <c r="C24" s="182"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="182"/>
+      <c r="J24" s="187"/>
+      <c r="K24" s="188"/>
+      <c r="L24" s="188"/>
+      <c r="M24" s="188"/>
+      <c r="N24" s="188"/>
+      <c r="O24" s="188"/>
+      <c r="P24" s="189"/>
+      <c r="Q24" s="190"/>
+      <c r="R24" s="191"/>
+      <c r="S24" s="191"/>
+      <c r="T24" s="191"/>
+      <c r="U24" s="191"/>
+      <c r="V24" s="191"/>
+      <c r="W24" s="191"/>
+      <c r="X24" s="191"/>
+      <c r="Y24" s="191"/>
+      <c r="Z24" s="191"/>
+      <c r="AA24" s="191"/>
+      <c r="AB24" s="191"/>
+      <c r="AC24" s="191"/>
+      <c r="AD24" s="191"/>
+      <c r="AE24" s="192"/>
+      <c r="AF24" s="187"/>
+      <c r="AG24" s="188"/>
+      <c r="AH24" s="188"/>
+      <c r="AI24" s="189"/>
+    </row>
+    <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="133"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="152"/>
-      <c r="Q25" s="153"/>
-      <c r="R25" s="154"/>
-      <c r="S25" s="154"/>
-      <c r="T25" s="154"/>
-      <c r="U25" s="154"/>
-      <c r="V25" s="154"/>
-      <c r="W25" s="154"/>
-      <c r="X25" s="154"/>
-      <c r="Y25" s="154"/>
-      <c r="Z25" s="154"/>
-      <c r="AA25" s="154"/>
-      <c r="AB25" s="154"/>
-      <c r="AC25" s="154"/>
-      <c r="AD25" s="154"/>
-      <c r="AE25" s="155"/>
-      <c r="AF25" s="150"/>
-      <c r="AG25" s="151"/>
-      <c r="AH25" s="151"/>
-      <c r="AI25" s="152"/>
-    </row>
-    <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="181"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="187"/>
+      <c r="K25" s="188"/>
+      <c r="L25" s="188"/>
+      <c r="M25" s="188"/>
+      <c r="N25" s="188"/>
+      <c r="O25" s="188"/>
+      <c r="P25" s="189"/>
+      <c r="Q25" s="190"/>
+      <c r="R25" s="191"/>
+      <c r="S25" s="191"/>
+      <c r="T25" s="191"/>
+      <c r="U25" s="191"/>
+      <c r="V25" s="191"/>
+      <c r="W25" s="191"/>
+      <c r="X25" s="191"/>
+      <c r="Y25" s="191"/>
+      <c r="Z25" s="191"/>
+      <c r="AA25" s="191"/>
+      <c r="AB25" s="191"/>
+      <c r="AC25" s="191"/>
+      <c r="AD25" s="191"/>
+      <c r="AE25" s="192"/>
+      <c r="AF25" s="187"/>
+      <c r="AG25" s="188"/>
+      <c r="AH25" s="188"/>
+      <c r="AI25" s="189"/>
+    </row>
+    <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="133"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="145"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="154"/>
-      <c r="S26" s="154"/>
-      <c r="T26" s="154"/>
-      <c r="U26" s="154"/>
-      <c r="V26" s="154"/>
-      <c r="W26" s="154"/>
-      <c r="X26" s="154"/>
-      <c r="Y26" s="154"/>
-      <c r="Z26" s="154"/>
-      <c r="AA26" s="154"/>
-      <c r="AB26" s="154"/>
-      <c r="AC26" s="154"/>
-      <c r="AD26" s="154"/>
-      <c r="AE26" s="155"/>
-      <c r="AF26" s="150"/>
-      <c r="AG26" s="151"/>
-      <c r="AH26" s="151"/>
-      <c r="AI26" s="152"/>
-    </row>
-    <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="181"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="182"/>
+      <c r="J26" s="187"/>
+      <c r="K26" s="188"/>
+      <c r="L26" s="188"/>
+      <c r="M26" s="188"/>
+      <c r="N26" s="188"/>
+      <c r="O26" s="188"/>
+      <c r="P26" s="189"/>
+      <c r="Q26" s="190"/>
+      <c r="R26" s="191"/>
+      <c r="S26" s="191"/>
+      <c r="T26" s="191"/>
+      <c r="U26" s="191"/>
+      <c r="V26" s="191"/>
+      <c r="W26" s="191"/>
+      <c r="X26" s="191"/>
+      <c r="Y26" s="191"/>
+      <c r="Z26" s="191"/>
+      <c r="AA26" s="191"/>
+      <c r="AB26" s="191"/>
+      <c r="AC26" s="191"/>
+      <c r="AD26" s="191"/>
+      <c r="AE26" s="192"/>
+      <c r="AF26" s="187"/>
+      <c r="AG26" s="188"/>
+      <c r="AH26" s="188"/>
+      <c r="AI26" s="189"/>
+    </row>
+    <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="133"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="152"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="154"/>
-      <c r="S27" s="154"/>
-      <c r="T27" s="154"/>
-      <c r="U27" s="154"/>
-      <c r="V27" s="154"/>
-      <c r="W27" s="154"/>
-      <c r="X27" s="154"/>
-      <c r="Y27" s="154"/>
-      <c r="Z27" s="154"/>
-      <c r="AA27" s="154"/>
-      <c r="AB27" s="154"/>
-      <c r="AC27" s="154"/>
-      <c r="AD27" s="154"/>
-      <c r="AE27" s="155"/>
-      <c r="AF27" s="150"/>
-      <c r="AG27" s="151"/>
-      <c r="AH27" s="151"/>
-      <c r="AI27" s="152"/>
-    </row>
-    <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="181"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="185"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="187"/>
+      <c r="K27" s="188"/>
+      <c r="L27" s="188"/>
+      <c r="M27" s="188"/>
+      <c r="N27" s="188"/>
+      <c r="O27" s="188"/>
+      <c r="P27" s="189"/>
+      <c r="Q27" s="190"/>
+      <c r="R27" s="191"/>
+      <c r="S27" s="191"/>
+      <c r="T27" s="191"/>
+      <c r="U27" s="191"/>
+      <c r="V27" s="191"/>
+      <c r="W27" s="191"/>
+      <c r="X27" s="191"/>
+      <c r="Y27" s="191"/>
+      <c r="Z27" s="191"/>
+      <c r="AA27" s="191"/>
+      <c r="AB27" s="191"/>
+      <c r="AC27" s="191"/>
+      <c r="AD27" s="191"/>
+      <c r="AE27" s="192"/>
+      <c r="AF27" s="187"/>
+      <c r="AG27" s="188"/>
+      <c r="AH27" s="188"/>
+      <c r="AI27" s="189"/>
+    </row>
+    <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="133"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="151"/>
-      <c r="P28" s="152"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="154"/>
-      <c r="T28" s="154"/>
-      <c r="U28" s="154"/>
-      <c r="V28" s="154"/>
-      <c r="W28" s="154"/>
-      <c r="X28" s="154"/>
-      <c r="Y28" s="154"/>
-      <c r="Z28" s="154"/>
-      <c r="AA28" s="154"/>
-      <c r="AB28" s="154"/>
-      <c r="AC28" s="154"/>
-      <c r="AD28" s="154"/>
-      <c r="AE28" s="155"/>
-      <c r="AF28" s="150"/>
-      <c r="AG28" s="151"/>
-      <c r="AH28" s="151"/>
-      <c r="AI28" s="152"/>
-    </row>
-    <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="181"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="187"/>
+      <c r="K28" s="188"/>
+      <c r="L28" s="188"/>
+      <c r="M28" s="188"/>
+      <c r="N28" s="188"/>
+      <c r="O28" s="188"/>
+      <c r="P28" s="189"/>
+      <c r="Q28" s="190"/>
+      <c r="R28" s="191"/>
+      <c r="S28" s="191"/>
+      <c r="T28" s="191"/>
+      <c r="U28" s="191"/>
+      <c r="V28" s="191"/>
+      <c r="W28" s="191"/>
+      <c r="X28" s="191"/>
+      <c r="Y28" s="191"/>
+      <c r="Z28" s="191"/>
+      <c r="AA28" s="191"/>
+      <c r="AB28" s="191"/>
+      <c r="AC28" s="191"/>
+      <c r="AD28" s="191"/>
+      <c r="AE28" s="192"/>
+      <c r="AF28" s="187"/>
+      <c r="AG28" s="188"/>
+      <c r="AH28" s="188"/>
+      <c r="AI28" s="189"/>
+    </row>
+    <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="133"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="152"/>
-      <c r="Q29" s="153"/>
-      <c r="R29" s="154"/>
-      <c r="S29" s="154"/>
-      <c r="T29" s="154"/>
-      <c r="U29" s="154"/>
-      <c r="V29" s="154"/>
-      <c r="W29" s="154"/>
-      <c r="X29" s="154"/>
-      <c r="Y29" s="154"/>
-      <c r="Z29" s="154"/>
-      <c r="AA29" s="154"/>
-      <c r="AB29" s="154"/>
-      <c r="AC29" s="154"/>
-      <c r="AD29" s="154"/>
-      <c r="AE29" s="155"/>
-      <c r="AF29" s="150"/>
-      <c r="AG29" s="151"/>
-      <c r="AH29" s="151"/>
-      <c r="AI29" s="152"/>
-    </row>
-    <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="181"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="187"/>
+      <c r="K29" s="188"/>
+      <c r="L29" s="188"/>
+      <c r="M29" s="188"/>
+      <c r="N29" s="188"/>
+      <c r="O29" s="188"/>
+      <c r="P29" s="189"/>
+      <c r="Q29" s="190"/>
+      <c r="R29" s="191"/>
+      <c r="S29" s="191"/>
+      <c r="T29" s="191"/>
+      <c r="U29" s="191"/>
+      <c r="V29" s="191"/>
+      <c r="W29" s="191"/>
+      <c r="X29" s="191"/>
+      <c r="Y29" s="191"/>
+      <c r="Z29" s="191"/>
+      <c r="AA29" s="191"/>
+      <c r="AB29" s="191"/>
+      <c r="AC29" s="191"/>
+      <c r="AD29" s="191"/>
+      <c r="AE29" s="192"/>
+      <c r="AF29" s="187"/>
+      <c r="AG29" s="188"/>
+      <c r="AH29" s="188"/>
+      <c r="AI29" s="189"/>
+    </row>
+    <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="133"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="151"/>
-      <c r="O30" s="151"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="153"/>
-      <c r="R30" s="154"/>
-      <c r="S30" s="154"/>
-      <c r="T30" s="154"/>
-      <c r="U30" s="154"/>
-      <c r="V30" s="154"/>
-      <c r="W30" s="154"/>
-      <c r="X30" s="154"/>
-      <c r="Y30" s="154"/>
-      <c r="Z30" s="154"/>
-      <c r="AA30" s="154"/>
-      <c r="AB30" s="154"/>
-      <c r="AC30" s="154"/>
-      <c r="AD30" s="154"/>
-      <c r="AE30" s="155"/>
-      <c r="AF30" s="150"/>
-      <c r="AG30" s="151"/>
-      <c r="AH30" s="151"/>
-      <c r="AI30" s="152"/>
-    </row>
-    <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="181"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="187"/>
+      <c r="K30" s="188"/>
+      <c r="L30" s="188"/>
+      <c r="M30" s="188"/>
+      <c r="N30" s="188"/>
+      <c r="O30" s="188"/>
+      <c r="P30" s="189"/>
+      <c r="Q30" s="190"/>
+      <c r="R30" s="191"/>
+      <c r="S30" s="191"/>
+      <c r="T30" s="191"/>
+      <c r="U30" s="191"/>
+      <c r="V30" s="191"/>
+      <c r="W30" s="191"/>
+      <c r="X30" s="191"/>
+      <c r="Y30" s="191"/>
+      <c r="Z30" s="191"/>
+      <c r="AA30" s="191"/>
+      <c r="AB30" s="191"/>
+      <c r="AC30" s="191"/>
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="192"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="188"/>
+      <c r="AH30" s="188"/>
+      <c r="AI30" s="189"/>
+    </row>
+    <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="133"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="151"/>
-      <c r="P31" s="152"/>
-      <c r="Q31" s="153"/>
-      <c r="R31" s="154"/>
-      <c r="S31" s="154"/>
-      <c r="T31" s="154"/>
-      <c r="U31" s="154"/>
-      <c r="V31" s="154"/>
-      <c r="W31" s="154"/>
-      <c r="X31" s="154"/>
-      <c r="Y31" s="154"/>
-      <c r="Z31" s="154"/>
-      <c r="AA31" s="154"/>
-      <c r="AB31" s="154"/>
-      <c r="AC31" s="154"/>
-      <c r="AD31" s="154"/>
-      <c r="AE31" s="155"/>
-      <c r="AF31" s="150"/>
-      <c r="AG31" s="151"/>
-      <c r="AH31" s="151"/>
-      <c r="AI31" s="152"/>
-    </row>
-    <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="181"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="185"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="187"/>
+      <c r="K31" s="188"/>
+      <c r="L31" s="188"/>
+      <c r="M31" s="188"/>
+      <c r="N31" s="188"/>
+      <c r="O31" s="188"/>
+      <c r="P31" s="189"/>
+      <c r="Q31" s="190"/>
+      <c r="R31" s="191"/>
+      <c r="S31" s="191"/>
+      <c r="T31" s="191"/>
+      <c r="U31" s="191"/>
+      <c r="V31" s="191"/>
+      <c r="W31" s="191"/>
+      <c r="X31" s="191"/>
+      <c r="Y31" s="191"/>
+      <c r="Z31" s="191"/>
+      <c r="AA31" s="191"/>
+      <c r="AB31" s="191"/>
+      <c r="AC31" s="191"/>
+      <c r="AD31" s="191"/>
+      <c r="AE31" s="192"/>
+      <c r="AF31" s="187"/>
+      <c r="AG31" s="188"/>
+      <c r="AH31" s="188"/>
+      <c r="AI31" s="189"/>
+    </row>
+    <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="133"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="151"/>
-      <c r="P32" s="152"/>
-      <c r="Q32" s="153"/>
-      <c r="R32" s="154"/>
-      <c r="S32" s="154"/>
-      <c r="T32" s="154"/>
-      <c r="U32" s="154"/>
-      <c r="V32" s="154"/>
-      <c r="W32" s="154"/>
-      <c r="X32" s="154"/>
-      <c r="Y32" s="154"/>
-      <c r="Z32" s="154"/>
-      <c r="AA32" s="154"/>
-      <c r="AB32" s="154"/>
-      <c r="AC32" s="154"/>
-      <c r="AD32" s="154"/>
-      <c r="AE32" s="155"/>
-      <c r="AF32" s="150"/>
-      <c r="AG32" s="151"/>
-      <c r="AH32" s="151"/>
-      <c r="AI32" s="152"/>
-    </row>
-    <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="181"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="183"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="185"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="187"/>
+      <c r="K32" s="206"/>
+      <c r="L32" s="188"/>
+      <c r="M32" s="188"/>
+      <c r="N32" s="188"/>
+      <c r="O32" s="188"/>
+      <c r="P32" s="189"/>
+      <c r="Q32" s="190"/>
+      <c r="R32" s="191"/>
+      <c r="S32" s="191"/>
+      <c r="T32" s="191"/>
+      <c r="U32" s="191"/>
+      <c r="V32" s="191"/>
+      <c r="W32" s="191"/>
+      <c r="X32" s="191"/>
+      <c r="Y32" s="191"/>
+      <c r="Z32" s="191"/>
+      <c r="AA32" s="191"/>
+      <c r="AB32" s="191"/>
+      <c r="AC32" s="191"/>
+      <c r="AD32" s="191"/>
+      <c r="AE32" s="192"/>
+      <c r="AF32" s="187"/>
+      <c r="AG32" s="188"/>
+      <c r="AH32" s="188"/>
+      <c r="AI32" s="189"/>
+    </row>
+    <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="133"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="151"/>
-      <c r="O33" s="151"/>
-      <c r="P33" s="152"/>
-      <c r="Q33" s="153"/>
-      <c r="R33" s="154"/>
-      <c r="S33" s="154"/>
-      <c r="T33" s="154"/>
-      <c r="U33" s="154"/>
-      <c r="V33" s="154"/>
-      <c r="W33" s="154"/>
-      <c r="X33" s="154"/>
-      <c r="Y33" s="154"/>
-      <c r="Z33" s="154"/>
-      <c r="AA33" s="154"/>
-      <c r="AB33" s="154"/>
-      <c r="AC33" s="154"/>
-      <c r="AD33" s="154"/>
-      <c r="AE33" s="155"/>
-      <c r="AF33" s="150"/>
-      <c r="AG33" s="151"/>
-      <c r="AH33" s="151"/>
-      <c r="AI33" s="152"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="181"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="185"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="187"/>
+      <c r="K33" s="188"/>
+      <c r="L33" s="188"/>
+      <c r="M33" s="188"/>
+      <c r="N33" s="188"/>
+      <c r="O33" s="188"/>
+      <c r="P33" s="189"/>
+      <c r="Q33" s="190"/>
+      <c r="R33" s="191"/>
+      <c r="S33" s="191"/>
+      <c r="T33" s="191"/>
+      <c r="U33" s="191"/>
+      <c r="V33" s="191"/>
+      <c r="W33" s="191"/>
+      <c r="X33" s="191"/>
+      <c r="Y33" s="191"/>
+      <c r="Z33" s="191"/>
+      <c r="AA33" s="191"/>
+      <c r="AB33" s="191"/>
+      <c r="AC33" s="191"/>
+      <c r="AD33" s="191"/>
+      <c r="AE33" s="192"/>
+      <c r="AF33" s="187"/>
+      <c r="AG33" s="188"/>
+      <c r="AH33" s="188"/>
+      <c r="AI33" s="189"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -6767,162 +6927,6 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -6943,7 +6947,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="54" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="75" customWidth="1"/>
@@ -7078,160 +7082,160 @@
     <col min="16163" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="219" t="s">
+    <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="180" t="str">
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="222" t="s">
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="210" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="223"/>
-      <c r="Q1" s="223"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="210" t="str">
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="212"/>
+      <c r="S1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="212"/>
-      <c r="AA1" s="219" t="s">
+      <c r="T1" s="223"/>
+      <c r="U1" s="223"/>
+      <c r="V1" s="223"/>
+      <c r="W1" s="223"/>
+      <c r="X1" s="223"/>
+      <c r="Y1" s="223"/>
+      <c r="Z1" s="224"/>
+      <c r="AA1" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="221"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="207" t="str">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="208"/>
-      <c r="AI1" s="209"/>
-    </row>
-    <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="219" t="s">
+      <c r="AH1" s="220"/>
+      <c r="AI1" s="221"/>
+    </row>
+    <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="180" t="str">
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="225"/>
-      <c r="P2" s="226"/>
-      <c r="Q2" s="226"/>
-      <c r="R2" s="227"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="214"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="219" t="s">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="221"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="207" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="208"/>
-      <c r="AI2" s="209"/>
-    </row>
-    <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="219" t="s">
+      <c r="AH2" s="220"/>
+      <c r="AI2" s="221"/>
+    </row>
+    <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="180" t="str">
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="228"/>
-      <c r="P3" s="229"/>
-      <c r="Q3" s="229"/>
-      <c r="R3" s="230"/>
-      <c r="S3" s="216"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
-      <c r="W3" s="217"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="218"/>
-      <c r="AA3" s="219"/>
-      <c r="AB3" s="221"/>
-      <c r="AC3" s="170" t="str">
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="217"/>
+      <c r="Q3" s="217"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="230"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="207" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="208"/>
-      <c r="AI3" s="209"/>
-    </row>
-    <row r="4" spans="1:35" s="46" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH3" s="220"/>
+      <c r="AI3" s="221"/>
+    </row>
+    <row r="4" spans="1:35" s="46" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -7268,7 +7272,7 @@
       <c r="AH4" s="44"/>
       <c r="AI4" s="44"/>
     </row>
-    <row r="5" spans="1:35" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" s="46" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -7307,7 +7311,7 @@
       <c r="AH5" s="44"/>
       <c r="AI5" s="44"/>
     </row>
-    <row r="6" spans="1:35" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" s="46" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -7344,7 +7348,7 @@
       <c r="AH6" s="44"/>
       <c r="AI6" s="44"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="48"/>
       <c r="B7" s="28" t="s">
         <v>29</v>
@@ -7383,7 +7387,7 @@
       <c r="AH7" s="52"/>
       <c r="AI7" s="53"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="15" customHeight="1">
       <c r="A8" s="48"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28" t="s">
@@ -7422,7 +7426,7 @@
       <c r="AH8" s="56"/>
       <c r="AI8" s="53"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="15" customHeight="1">
       <c r="A9" s="48"/>
       <c r="B9" s="49"/>
       <c r="C9" s="28" t="s">
@@ -7461,7 +7465,7 @@
       <c r="AH9" s="57"/>
       <c r="AI9" s="48"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="15" customHeight="1">
       <c r="A10" s="48"/>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
@@ -7498,7 +7502,7 @@
       <c r="AH10" s="52"/>
       <c r="AI10" s="53"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="15" customHeight="1">
       <c r="A11" s="48"/>
       <c r="B11" s="1" t="s">
         <v>71</v>
@@ -7537,7 +7541,7 @@
       <c r="AH11" s="52"/>
       <c r="AI11" s="53"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="15" customHeight="1">
       <c r="A12" s="48"/>
       <c r="B12" s="49"/>
       <c r="C12" s="1" t="s">
@@ -7576,7 +7580,7 @@
       <c r="AH12" s="52"/>
       <c r="AI12" s="53"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="15" customHeight="1">
       <c r="A13" s="48"/>
       <c r="B13" s="49"/>
       <c r="C13" s="58" t="s">
@@ -7610,7 +7614,7 @@
       <c r="AH13" s="52"/>
       <c r="AI13" s="53"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" ht="15" customHeight="1">
       <c r="A14" s="48"/>
       <c r="B14" s="53"/>
       <c r="C14" s="1" t="s">
@@ -7649,7 +7653,7 @@
       <c r="AH14" s="52"/>
       <c r="AI14" s="53"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="15" customHeight="1">
       <c r="A15" s="48"/>
       <c r="B15" s="1"/>
       <c r="C15" s="58" t="s">
@@ -7688,7 +7692,7 @@
       <c r="AH15" s="52"/>
       <c r="AI15" s="53"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="15" customHeight="1">
       <c r="A16" s="48"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
@@ -7723,7 +7727,7 @@
       <c r="AH16" s="52"/>
       <c r="AI16" s="53"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="48"/>
       <c r="B17" s="44"/>
       <c r="C17" s="1"/>
@@ -7760,7 +7764,7 @@
       <c r="AH17" s="52"/>
       <c r="AI17" s="53"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="48"/>
       <c r="B18" s="44"/>
       <c r="C18" s="48"/>
@@ -7797,7 +7801,7 @@
       <c r="AH18" s="52"/>
       <c r="AI18" s="53"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="48"/>
       <c r="B19" s="44"/>
       <c r="C19" s="48"/>
@@ -7834,7 +7838,7 @@
       <c r="AH19" s="52"/>
       <c r="AI19" s="53"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="48"/>
       <c r="B20" s="44"/>
       <c r="C20" s="48"/>
@@ -7871,7 +7875,7 @@
       <c r="AH20" s="52"/>
       <c r="AI20" s="53"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="48"/>
       <c r="B21" s="44"/>
       <c r="C21" s="48"/>
@@ -7908,7 +7912,7 @@
       <c r="AH21" s="52"/>
       <c r="AI21" s="53"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="48"/>
       <c r="B22" s="44"/>
       <c r="C22" s="48"/>
@@ -7945,7 +7949,7 @@
       <c r="AH22" s="52"/>
       <c r="AI22" s="53"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="48"/>
       <c r="B23" s="59"/>
       <c r="C23" s="49"/>
@@ -7982,7 +7986,7 @@
       <c r="AH23" s="52"/>
       <c r="AI23" s="53"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="48"/>
       <c r="B24" s="44"/>
       <c r="C24" s="48"/>
@@ -8019,7 +8023,7 @@
       <c r="AH24" s="52"/>
       <c r="AI24" s="53"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="48"/>
       <c r="B25" s="44"/>
       <c r="C25" s="48"/>
@@ -8056,7 +8060,7 @@
       <c r="AH25" s="52"/>
       <c r="AI25" s="53"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="48"/>
       <c r="B26" s="44"/>
       <c r="C26" s="48"/>
@@ -8093,7 +8097,7 @@
       <c r="AH26" s="52"/>
       <c r="AI26" s="53"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="44"/>
       <c r="C27" s="48"/>
@@ -8130,7 +8134,7 @@
       <c r="AH27" s="52"/>
       <c r="AI27" s="53"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="48"/>
       <c r="B28" s="44"/>
       <c r="C28" s="48"/>
@@ -8167,7 +8171,7 @@
       <c r="AH28" s="52"/>
       <c r="AI28" s="53"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="48"/>
       <c r="B29" s="44"/>
       <c r="C29" s="48"/>
@@ -8204,7 +8208,7 @@
       <c r="AH29" s="52"/>
       <c r="AI29" s="53"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="60"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -8241,7 +8245,7 @@
       <c r="AH30" s="63"/>
       <c r="AI30" s="64"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="60"/>
       <c r="B31" s="44"/>
       <c r="C31" s="45"/>
@@ -8278,7 +8282,7 @@
       <c r="AH31" s="63"/>
       <c r="AI31" s="64"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="60"/>
       <c r="B32" s="67"/>
       <c r="C32" s="48"/>
@@ -8315,7 +8319,7 @@
       <c r="AH32" s="63"/>
       <c r="AI32" s="64"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="60"/>
       <c r="B33" s="67"/>
       <c r="C33" s="48"/>
@@ -8352,7 +8356,7 @@
       <c r="AH33" s="63"/>
       <c r="AI33" s="64"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" ht="15" customHeight="1">
       <c r="A34" s="60"/>
       <c r="B34" s="67"/>
       <c r="C34" s="48"/>
@@ -8389,7 +8393,7 @@
       <c r="AH34" s="63"/>
       <c r="AI34" s="64"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:35" ht="15" customHeight="1">
       <c r="A35" s="60"/>
       <c r="B35" s="67"/>
       <c r="C35" s="48"/>
@@ -8426,7 +8430,7 @@
       <c r="AH35" s="63"/>
       <c r="AI35" s="64"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35" ht="15" customHeight="1">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
       <c r="C36" s="60"/>
@@ -8463,7 +8467,7 @@
       <c r="AH36" s="72"/>
       <c r="AI36" s="60"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35" ht="15" customHeight="1">
       <c r="B37" s="73"/>
       <c r="E37" s="73"/>
       <c r="F37" s="73"/>
@@ -8495,7 +8499,7 @@
       <c r="AH37" s="80"/>
       <c r="AI37" s="76"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35" ht="15" customHeight="1">
       <c r="S38" s="76"/>
       <c r="T38" s="76"/>
       <c r="U38" s="77"/>
@@ -8514,7 +8518,7 @@
       <c r="AH38" s="83"/>
       <c r="AI38" s="76"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35" ht="15" customHeight="1">
       <c r="Q39" s="84"/>
       <c r="S39" s="76"/>
       <c r="T39" s="77"/>
@@ -8534,7 +8538,7 @@
       <c r="AH39" s="83"/>
       <c r="AI39" s="76"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35" ht="15" customHeight="1">
       <c r="S40" s="76"/>
       <c r="T40" s="76"/>
       <c r="U40" s="76"/>
@@ -8553,7 +8557,7 @@
       <c r="AH40" s="83"/>
       <c r="AI40" s="76"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35" ht="15" customHeight="1">
       <c r="J41" s="73"/>
       <c r="K41" s="73"/>
       <c r="L41" s="73"/>
@@ -8567,37 +8571,37 @@
       <c r="AH41" s="83"/>
       <c r="AI41" s="76"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35" ht="15" customHeight="1">
       <c r="AE42" s="76"/>
       <c r="AF42" s="81"/>
       <c r="AG42" s="82"/>
       <c r="AH42" s="83"/>
       <c r="AI42" s="76"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35" ht="15" customHeight="1">
       <c r="AE43" s="76"/>
       <c r="AF43" s="81"/>
       <c r="AG43" s="81"/>
       <c r="AH43" s="83"/>
       <c r="AI43" s="76"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35" ht="15" customHeight="1">
       <c r="A44" s="73"/>
       <c r="AF44" s="85"/>
       <c r="AG44" s="85"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35" ht="15" customHeight="1">
       <c r="A45" s="73"/>
       <c r="AG45" s="85"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35" ht="15" customHeight="1">
       <c r="AF46" s="85"/>
       <c r="AG46" s="85"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35" ht="15" customHeight="1">
       <c r="AG47" s="85"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35" ht="15" customHeight="1">
       <c r="S48" s="73"/>
       <c r="T48" s="73"/>
       <c r="V48" s="73"/>
@@ -8610,7 +8614,7 @@
       <c r="AC48" s="73"/>
       <c r="AD48" s="73"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:34" ht="15" customHeight="1">
       <c r="R49" s="73"/>
       <c r="S49" s="73"/>
       <c r="T49" s="73"/>
@@ -8625,10 +8629,10 @@
       <c r="AD49" s="73"/>
       <c r="AG49" s="85"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:34" ht="15" customHeight="1">
       <c r="R50" s="73"/>
     </row>
-    <row r="51" spans="1:34" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:34" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="54"/>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
@@ -8661,7 +8665,7 @@
       <c r="AD51" s="54"/>
       <c r="AH51" s="84"/>
     </row>
-    <row r="52" spans="1:34" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:34" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="54"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -8696,14 +8700,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -8713,6 +8709,14 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -8733,167 +8737,167 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="32" width="4.83203125" style="1"/>
     <col min="33" max="33" width="4.83203125" style="1" customWidth="1"/>
     <col min="34" max="16384" width="4.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="186" t="s">
+    <row r="1" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="180" t="str">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="189" t="s">
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="210" t="str">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="212"/>
-      <c r="AA1" s="186" t="s">
+      <c r="T1" s="223"/>
+      <c r="U1" s="223"/>
+      <c r="V1" s="223"/>
+      <c r="W1" s="223"/>
+      <c r="X1" s="223"/>
+      <c r="Y1" s="223"/>
+      <c r="Z1" s="224"/>
+      <c r="AA1" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="247" t="str">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="248"/>
-      <c r="AI1" s="249"/>
-    </row>
-    <row r="2" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="186" t="s">
+      <c r="AH1" s="233"/>
+      <c r="AI1" s="234"/>
+    </row>
+    <row r="2" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="180" t="str">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="214"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="186" t="s">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="247" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="249"/>
-    </row>
-    <row r="3" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="186" t="s">
+      <c r="AH2" s="233"/>
+      <c r="AI2" s="234"/>
+    </row>
+    <row r="3" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="180" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="216"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
-      <c r="W3" s="217"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="218"/>
-      <c r="AA3" s="186"/>
-      <c r="AB3" s="188"/>
-      <c r="AC3" s="170" t="str">
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="230"/>
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="247" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="248"/>
-      <c r="AI3" s="249"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH3" s="233"/>
+      <c r="AI3" s="234"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -8930,7 +8934,7 @@
       <c r="AH4" s="30"/>
       <c r="AI4" s="30"/>
     </row>
-    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:35" ht="12" customHeight="1">
       <c r="A5" s="30"/>
       <c r="B5" s="135" t="s">
         <v>29</v>
@@ -8969,7 +8973,7 @@
       <c r="AH5" s="30"/>
       <c r="AI5" s="30"/>
     </row>
-    <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" ht="12" customHeight="1">
       <c r="A6" s="30"/>
       <c r="B6" s="30"/>
       <c r="C6" s="135" t="s">
@@ -9007,7 +9011,7 @@
       <c r="AG6" s="30"/>
       <c r="AH6" s="30"/>
     </row>
-    <row r="7" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="12" customHeight="1">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -9043,92 +9047,92 @@
       <c r="AG7" s="30"/>
       <c r="AH7" s="30"/>
     </row>
-    <row r="8" spans="1:35" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="240" t="s">
+      <c r="D8" s="236" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
-      <c r="G8" s="242"/>
-      <c r="H8" s="250"/>
-      <c r="I8" s="250"/>
-      <c r="J8" s="250"/>
-      <c r="K8" s="250"/>
-      <c r="L8" s="250"/>
-      <c r="M8" s="250"/>
-      <c r="N8" s="250"/>
-      <c r="O8" s="250"/>
-      <c r="P8" s="250"/>
-      <c r="Q8" s="250"/>
-      <c r="R8" s="250"/>
-      <c r="S8" s="250"/>
-      <c r="T8" s="250"/>
-      <c r="U8" s="250"/>
-      <c r="V8" s="250"/>
-      <c r="W8" s="250"/>
-      <c r="X8" s="250"/>
-      <c r="Y8" s="250"/>
-      <c r="Z8" s="250"/>
-      <c r="AA8" s="250"/>
-      <c r="AB8" s="250"/>
-      <c r="AC8" s="250"/>
-      <c r="AD8" s="250"/>
-      <c r="AE8" s="250"/>
-      <c r="AF8" s="250"/>
-      <c r="AG8" s="250"/>
-      <c r="AH8" s="250"/>
-    </row>
-    <row r="9" spans="1:35" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="238"/>
+      <c r="H8" s="235"/>
+      <c r="I8" s="235"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="235"/>
+      <c r="M8" s="235"/>
+      <c r="N8" s="235"/>
+      <c r="O8" s="235"/>
+      <c r="P8" s="235"/>
+      <c r="Q8" s="235"/>
+      <c r="R8" s="235"/>
+      <c r="S8" s="235"/>
+      <c r="T8" s="235"/>
+      <c r="U8" s="235"/>
+      <c r="V8" s="235"/>
+      <c r="W8" s="235"/>
+      <c r="X8" s="235"/>
+      <c r="Y8" s="235"/>
+      <c r="Z8" s="235"/>
+      <c r="AA8" s="235"/>
+      <c r="AB8" s="235"/>
+      <c r="AC8" s="235"/>
+      <c r="AD8" s="235"/>
+      <c r="AE8" s="235"/>
+      <c r="AF8" s="235"/>
+      <c r="AG8" s="235"/>
+      <c r="AH8" s="235"/>
+    </row>
+    <row r="9" spans="1:35" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="240" t="s">
+      <c r="D9" s="236" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
-      <c r="G9" s="242"/>
-      <c r="H9" s="246"/>
-      <c r="I9" s="246"/>
-      <c r="J9" s="246"/>
-      <c r="K9" s="246"/>
-      <c r="L9" s="246"/>
-      <c r="M9" s="246"/>
-      <c r="N9" s="246"/>
-      <c r="O9" s="246"/>
-      <c r="P9" s="246"/>
-      <c r="Q9" s="246"/>
-      <c r="R9" s="246"/>
-      <c r="S9" s="246"/>
-      <c r="T9" s="246"/>
-      <c r="U9" s="246"/>
-      <c r="V9" s="246"/>
-      <c r="W9" s="246"/>
-      <c r="X9" s="246"/>
-      <c r="Y9" s="246"/>
-      <c r="Z9" s="246"/>
-      <c r="AA9" s="246"/>
-      <c r="AB9" s="246"/>
-      <c r="AC9" s="246"/>
-      <c r="AD9" s="246"/>
-      <c r="AE9" s="246"/>
-      <c r="AF9" s="246"/>
-      <c r="AG9" s="246"/>
-      <c r="AH9" s="246"/>
-    </row>
-    <row r="10" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="237"/>
+      <c r="F9" s="237"/>
+      <c r="G9" s="238"/>
+      <c r="H9" s="231"/>
+      <c r="I9" s="231"/>
+      <c r="J9" s="231"/>
+      <c r="K9" s="231"/>
+      <c r="L9" s="231"/>
+      <c r="M9" s="231"/>
+      <c r="N9" s="231"/>
+      <c r="O9" s="231"/>
+      <c r="P9" s="231"/>
+      <c r="Q9" s="231"/>
+      <c r="R9" s="231"/>
+      <c r="S9" s="231"/>
+      <c r="T9" s="231"/>
+      <c r="U9" s="231"/>
+      <c r="V9" s="231"/>
+      <c r="W9" s="231"/>
+      <c r="X9" s="231"/>
+      <c r="Y9" s="231"/>
+      <c r="Z9" s="231"/>
+      <c r="AA9" s="231"/>
+      <c r="AB9" s="231"/>
+      <c r="AC9" s="231"/>
+      <c r="AD9" s="231"/>
+      <c r="AE9" s="231"/>
+      <c r="AF9" s="231"/>
+      <c r="AG9" s="231"/>
+      <c r="AH9" s="231"/>
+    </row>
+    <row r="10" spans="1:35" ht="12" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="231" t="s">
+      <c r="D10" s="239" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="232"/>
-      <c r="F10" s="232"/>
-      <c r="G10" s="233"/>
+      <c r="E10" s="240"/>
+      <c r="F10" s="240"/>
+      <c r="G10" s="241"/>
       <c r="H10" s="104"/>
       <c r="I10" s="105"/>
       <c r="J10" s="105"/>
@@ -9157,14 +9161,14 @@
       <c r="AG10" s="105"/>
       <c r="AH10" s="106"/>
     </row>
-    <row r="11" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="12" customHeight="1">
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="235"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="236"/>
+      <c r="D11" s="242"/>
+      <c r="E11" s="243"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="244"/>
       <c r="H11" s="107"/>
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
@@ -9193,14 +9197,14 @@
       <c r="AG11" s="98"/>
       <c r="AH11" s="108"/>
     </row>
-    <row r="12" spans="1:35" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="234"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="236"/>
+      <c r="D12" s="242"/>
+      <c r="E12" s="243"/>
+      <c r="F12" s="243"/>
+      <c r="G12" s="244"/>
       <c r="H12" s="107"/>
       <c r="I12" s="121"/>
       <c r="J12" s="121"/>
@@ -9229,14 +9233,14 @@
       <c r="AG12" s="121"/>
       <c r="AH12" s="108"/>
     </row>
-    <row r="13" spans="1:35" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="234"/>
-      <c r="E13" s="235"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="236"/>
+      <c r="D13" s="242"/>
+      <c r="E13" s="243"/>
+      <c r="F13" s="243"/>
+      <c r="G13" s="244"/>
       <c r="H13" s="107"/>
       <c r="I13" s="121"/>
       <c r="J13" s="121"/>
@@ -9265,14 +9269,14 @@
       <c r="AG13" s="121"/>
       <c r="AH13" s="108"/>
     </row>
-    <row r="14" spans="1:35" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="234"/>
-      <c r="E14" s="235"/>
-      <c r="F14" s="235"/>
-      <c r="G14" s="236"/>
+      <c r="D14" s="242"/>
+      <c r="E14" s="243"/>
+      <c r="F14" s="243"/>
+      <c r="G14" s="244"/>
       <c r="H14" s="107"/>
       <c r="I14" s="121"/>
       <c r="J14" s="121"/>
@@ -9301,14 +9305,14 @@
       <c r="AG14" s="121"/>
       <c r="AH14" s="108"/>
     </row>
-    <row r="15" spans="1:35" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="234"/>
-      <c r="E15" s="235"/>
-      <c r="F15" s="235"/>
-      <c r="G15" s="236"/>
+      <c r="D15" s="242"/>
+      <c r="E15" s="243"/>
+      <c r="F15" s="243"/>
+      <c r="G15" s="244"/>
       <c r="H15" s="107"/>
       <c r="I15" s="121"/>
       <c r="J15" s="121"/>
@@ -9337,14 +9341,14 @@
       <c r="AG15" s="121"/>
       <c r="AH15" s="108"/>
     </row>
-    <row r="16" spans="1:35" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="234"/>
-      <c r="E16" s="235"/>
-      <c r="F16" s="235"/>
-      <c r="G16" s="236"/>
+      <c r="D16" s="242"/>
+      <c r="E16" s="243"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="244"/>
       <c r="H16" s="107"/>
       <c r="I16" s="121"/>
       <c r="J16" s="121"/>
@@ -9373,14 +9377,14 @@
       <c r="AG16" s="121"/>
       <c r="AH16" s="108"/>
     </row>
-    <row r="17" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="235"/>
-      <c r="F17" s="235"/>
-      <c r="G17" s="236"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="243"/>
+      <c r="F17" s="243"/>
+      <c r="G17" s="244"/>
       <c r="H17" s="107"/>
       <c r="I17" s="121"/>
       <c r="J17" s="121"/>
@@ -9409,14 +9413,14 @@
       <c r="AG17" s="121"/>
       <c r="AH17" s="108"/>
     </row>
-    <row r="18" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="234"/>
-      <c r="E18" s="235"/>
-      <c r="F18" s="235"/>
-      <c r="G18" s="236"/>
+      <c r="D18" s="242"/>
+      <c r="E18" s="243"/>
+      <c r="F18" s="243"/>
+      <c r="G18" s="244"/>
       <c r="H18" s="107"/>
       <c r="I18" s="121"/>
       <c r="J18" s="121"/>
@@ -9445,14 +9449,14 @@
       <c r="AG18" s="121"/>
       <c r="AH18" s="108"/>
     </row>
-    <row r="19" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="234"/>
-      <c r="E19" s="235"/>
-      <c r="F19" s="235"/>
-      <c r="G19" s="236"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="243"/>
+      <c r="F19" s="243"/>
+      <c r="G19" s="244"/>
       <c r="H19" s="107"/>
       <c r="I19" s="121"/>
       <c r="J19" s="121"/>
@@ -9481,14 +9485,14 @@
       <c r="AG19" s="121"/>
       <c r="AH19" s="108"/>
     </row>
-    <row r="20" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="234"/>
-      <c r="E20" s="235"/>
-      <c r="F20" s="235"/>
-      <c r="G20" s="236"/>
+      <c r="D20" s="242"/>
+      <c r="E20" s="243"/>
+      <c r="F20" s="243"/>
+      <c r="G20" s="244"/>
       <c r="H20" s="107"/>
       <c r="I20" s="121"/>
       <c r="J20" s="121"/>
@@ -9517,14 +9521,14 @@
       <c r="AG20" s="121"/>
       <c r="AH20" s="108"/>
     </row>
-    <row r="21" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="30"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
-      <c r="D21" s="234"/>
-      <c r="E21" s="235"/>
-      <c r="F21" s="235"/>
-      <c r="G21" s="236"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="243"/>
+      <c r="F21" s="243"/>
+      <c r="G21" s="244"/>
       <c r="H21" s="107"/>
       <c r="I21" s="121"/>
       <c r="J21" s="121"/>
@@ -9553,14 +9557,14 @@
       <c r="AG21" s="121"/>
       <c r="AH21" s="108"/>
     </row>
-    <row r="22" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="234"/>
-      <c r="E22" s="235"/>
-      <c r="F22" s="235"/>
-      <c r="G22" s="236"/>
+      <c r="D22" s="242"/>
+      <c r="E22" s="243"/>
+      <c r="F22" s="243"/>
+      <c r="G22" s="244"/>
       <c r="H22" s="107"/>
       <c r="I22" s="121"/>
       <c r="J22" s="121"/>
@@ -9589,14 +9593,14 @@
       <c r="AG22" s="121"/>
       <c r="AH22" s="108"/>
     </row>
-    <row r="23" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="234"/>
-      <c r="E23" s="235"/>
-      <c r="F23" s="235"/>
-      <c r="G23" s="236"/>
+      <c r="D23" s="242"/>
+      <c r="E23" s="243"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="244"/>
       <c r="H23" s="107"/>
       <c r="I23" s="121"/>
       <c r="J23" s="121"/>
@@ -9625,14 +9629,14 @@
       <c r="AG23" s="121"/>
       <c r="AH23" s="108"/>
     </row>
-    <row r="24" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="234"/>
-      <c r="E24" s="235"/>
-      <c r="F24" s="235"/>
-      <c r="G24" s="236"/>
+      <c r="D24" s="242"/>
+      <c r="E24" s="243"/>
+      <c r="F24" s="243"/>
+      <c r="G24" s="244"/>
       <c r="H24" s="107"/>
       <c r="I24" s="98"/>
       <c r="J24" s="98"/>
@@ -9661,14 +9665,14 @@
       <c r="AG24" s="98"/>
       <c r="AH24" s="108"/>
     </row>
-    <row r="25" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
-      <c r="D25" s="234"/>
-      <c r="E25" s="235"/>
-      <c r="F25" s="235"/>
-      <c r="G25" s="236"/>
+      <c r="D25" s="242"/>
+      <c r="E25" s="243"/>
+      <c r="F25" s="243"/>
+      <c r="G25" s="244"/>
       <c r="H25" s="107"/>
       <c r="I25" s="98"/>
       <c r="J25" s="98"/>
@@ -9697,14 +9701,14 @@
       <c r="AG25" s="98"/>
       <c r="AH25" s="108"/>
     </row>
-    <row r="26" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="234"/>
-      <c r="E26" s="235"/>
-      <c r="F26" s="235"/>
-      <c r="G26" s="236"/>
+      <c r="D26" s="242"/>
+      <c r="E26" s="243"/>
+      <c r="F26" s="243"/>
+      <c r="G26" s="244"/>
       <c r="H26" s="107"/>
       <c r="I26" s="98"/>
       <c r="J26" s="98"/>
@@ -9733,14 +9737,14 @@
       <c r="AG26" s="98"/>
       <c r="AH26" s="108"/>
     </row>
-    <row r="27" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="234"/>
-      <c r="E27" s="235"/>
-      <c r="F27" s="235"/>
-      <c r="G27" s="236"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="243"/>
+      <c r="F27" s="243"/>
+      <c r="G27" s="244"/>
       <c r="H27" s="107"/>
       <c r="I27" s="98"/>
       <c r="J27" s="98"/>
@@ -9769,14 +9773,14 @@
       <c r="AG27" s="98"/>
       <c r="AH27" s="108"/>
     </row>
-    <row r="28" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="234"/>
-      <c r="E28" s="235"/>
-      <c r="F28" s="235"/>
-      <c r="G28" s="236"/>
+      <c r="D28" s="242"/>
+      <c r="E28" s="243"/>
+      <c r="F28" s="243"/>
+      <c r="G28" s="244"/>
       <c r="H28" s="107"/>
       <c r="I28" s="98"/>
       <c r="J28" s="98"/>
@@ -9805,14 +9809,14 @@
       <c r="AG28" s="98"/>
       <c r="AH28" s="108"/>
     </row>
-    <row r="29" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
-      <c r="D29" s="237"/>
-      <c r="E29" s="238"/>
-      <c r="F29" s="238"/>
-      <c r="G29" s="239"/>
+      <c r="D29" s="245"/>
+      <c r="E29" s="246"/>
+      <c r="F29" s="246"/>
+      <c r="G29" s="247"/>
       <c r="H29" s="109"/>
       <c r="I29" s="110"/>
       <c r="J29" s="110"/>
@@ -9841,168 +9845,168 @@
       <c r="AG29" s="110"/>
       <c r="AH29" s="111"/>
     </row>
-    <row r="30" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="240" t="s">
+      <c r="D30" s="236" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="241"/>
-      <c r="F30" s="241"/>
-      <c r="G30" s="242"/>
-      <c r="H30" s="246"/>
-      <c r="I30" s="246"/>
-      <c r="J30" s="246"/>
-      <c r="K30" s="246"/>
-      <c r="L30" s="246"/>
-      <c r="M30" s="246"/>
-      <c r="N30" s="246"/>
-      <c r="O30" s="246"/>
-      <c r="P30" s="246"/>
-      <c r="Q30" s="246"/>
-      <c r="R30" s="246"/>
-      <c r="S30" s="246"/>
-      <c r="T30" s="246"/>
-      <c r="U30" s="246"/>
-      <c r="V30" s="246"/>
-      <c r="W30" s="246"/>
-      <c r="X30" s="246"/>
-      <c r="Y30" s="246"/>
-      <c r="Z30" s="246"/>
-      <c r="AA30" s="246"/>
-      <c r="AB30" s="246"/>
-      <c r="AC30" s="246"/>
-      <c r="AD30" s="246"/>
-      <c r="AE30" s="246"/>
-      <c r="AF30" s="246"/>
-      <c r="AG30" s="246"/>
-      <c r="AH30" s="246"/>
-    </row>
-    <row r="31" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="237"/>
+      <c r="F30" s="237"/>
+      <c r="G30" s="238"/>
+      <c r="H30" s="231"/>
+      <c r="I30" s="231"/>
+      <c r="J30" s="231"/>
+      <c r="K30" s="231"/>
+      <c r="L30" s="231"/>
+      <c r="M30" s="231"/>
+      <c r="N30" s="231"/>
+      <c r="O30" s="231"/>
+      <c r="P30" s="231"/>
+      <c r="Q30" s="231"/>
+      <c r="R30" s="231"/>
+      <c r="S30" s="231"/>
+      <c r="T30" s="231"/>
+      <c r="U30" s="231"/>
+      <c r="V30" s="231"/>
+      <c r="W30" s="231"/>
+      <c r="X30" s="231"/>
+      <c r="Y30" s="231"/>
+      <c r="Z30" s="231"/>
+      <c r="AA30" s="231"/>
+      <c r="AB30" s="231"/>
+      <c r="AC30" s="231"/>
+      <c r="AD30" s="231"/>
+      <c r="AE30" s="231"/>
+      <c r="AF30" s="231"/>
+      <c r="AG30" s="231"/>
+      <c r="AH30" s="231"/>
+    </row>
+    <row r="31" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="240" t="s">
+      <c r="D31" s="236" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="241"/>
-      <c r="F31" s="241"/>
-      <c r="G31" s="242"/>
-      <c r="H31" s="246"/>
-      <c r="I31" s="246"/>
-      <c r="J31" s="246"/>
-      <c r="K31" s="246"/>
-      <c r="L31" s="246"/>
-      <c r="M31" s="246"/>
-      <c r="N31" s="246"/>
-      <c r="O31" s="246"/>
-      <c r="P31" s="246"/>
-      <c r="Q31" s="246"/>
-      <c r="R31" s="246"/>
-      <c r="S31" s="246"/>
-      <c r="T31" s="246"/>
-      <c r="U31" s="246"/>
-      <c r="V31" s="246"/>
-      <c r="W31" s="246"/>
-      <c r="X31" s="246"/>
-      <c r="Y31" s="246"/>
-      <c r="Z31" s="246"/>
-      <c r="AA31" s="246"/>
-      <c r="AB31" s="246"/>
-      <c r="AC31" s="246"/>
-      <c r="AD31" s="246"/>
-      <c r="AE31" s="246"/>
-      <c r="AF31" s="246"/>
-      <c r="AG31" s="246"/>
-      <c r="AH31" s="246"/>
-    </row>
-    <row r="32" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="237"/>
+      <c r="F31" s="237"/>
+      <c r="G31" s="238"/>
+      <c r="H31" s="231"/>
+      <c r="I31" s="231"/>
+      <c r="J31" s="231"/>
+      <c r="K31" s="231"/>
+      <c r="L31" s="231"/>
+      <c r="M31" s="231"/>
+      <c r="N31" s="231"/>
+      <c r="O31" s="231"/>
+      <c r="P31" s="231"/>
+      <c r="Q31" s="231"/>
+      <c r="R31" s="231"/>
+      <c r="S31" s="231"/>
+      <c r="T31" s="231"/>
+      <c r="U31" s="231"/>
+      <c r="V31" s="231"/>
+      <c r="W31" s="231"/>
+      <c r="X31" s="231"/>
+      <c r="Y31" s="231"/>
+      <c r="Z31" s="231"/>
+      <c r="AA31" s="231"/>
+      <c r="AB31" s="231"/>
+      <c r="AC31" s="231"/>
+      <c r="AD31" s="231"/>
+      <c r="AE31" s="231"/>
+      <c r="AF31" s="231"/>
+      <c r="AG31" s="231"/>
+      <c r="AH31" s="231"/>
+    </row>
+    <row r="32" spans="1:34" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
-      <c r="D32" s="240" t="s">
+      <c r="D32" s="236" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="241"/>
-      <c r="F32" s="241"/>
-      <c r="G32" s="242"/>
-      <c r="H32" s="246"/>
-      <c r="I32" s="246"/>
-      <c r="J32" s="246"/>
-      <c r="K32" s="246"/>
-      <c r="L32" s="246"/>
-      <c r="M32" s="246"/>
-      <c r="N32" s="246"/>
-      <c r="O32" s="246"/>
-      <c r="P32" s="246"/>
-      <c r="Q32" s="246"/>
-      <c r="R32" s="246"/>
-      <c r="S32" s="246"/>
-      <c r="T32" s="246"/>
-      <c r="U32" s="246"/>
-      <c r="V32" s="246"/>
-      <c r="W32" s="246"/>
-      <c r="X32" s="246"/>
-      <c r="Y32" s="246"/>
-      <c r="Z32" s="246"/>
-      <c r="AA32" s="246"/>
-      <c r="AB32" s="246"/>
-      <c r="AC32" s="246"/>
-      <c r="AD32" s="246"/>
-      <c r="AE32" s="246"/>
-      <c r="AF32" s="246"/>
-      <c r="AG32" s="246"/>
-      <c r="AH32" s="246"/>
-    </row>
-    <row r="33" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="237"/>
+      <c r="F32" s="237"/>
+      <c r="G32" s="238"/>
+      <c r="H32" s="231"/>
+      <c r="I32" s="231"/>
+      <c r="J32" s="231"/>
+      <c r="K32" s="231"/>
+      <c r="L32" s="231"/>
+      <c r="M32" s="231"/>
+      <c r="N32" s="231"/>
+      <c r="O32" s="231"/>
+      <c r="P32" s="231"/>
+      <c r="Q32" s="231"/>
+      <c r="R32" s="231"/>
+      <c r="S32" s="231"/>
+      <c r="T32" s="231"/>
+      <c r="U32" s="231"/>
+      <c r="V32" s="231"/>
+      <c r="W32" s="231"/>
+      <c r="X32" s="231"/>
+      <c r="Y32" s="231"/>
+      <c r="Z32" s="231"/>
+      <c r="AA32" s="231"/>
+      <c r="AB32" s="231"/>
+      <c r="AC32" s="231"/>
+      <c r="AD32" s="231"/>
+      <c r="AE32" s="231"/>
+      <c r="AF32" s="231"/>
+      <c r="AG32" s="231"/>
+      <c r="AH32" s="231"/>
+    </row>
+    <row r="33" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="240" t="s">
+      <c r="D33" s="236" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="241"/>
-      <c r="F33" s="241"/>
-      <c r="G33" s="242"/>
-      <c r="H33" s="246"/>
-      <c r="I33" s="246"/>
-      <c r="J33" s="246"/>
-      <c r="K33" s="246"/>
-      <c r="L33" s="246"/>
-      <c r="M33" s="246"/>
-      <c r="N33" s="246"/>
-      <c r="O33" s="246"/>
-      <c r="P33" s="246"/>
-      <c r="Q33" s="246"/>
-      <c r="R33" s="246"/>
-      <c r="S33" s="246"/>
-      <c r="T33" s="246"/>
-      <c r="U33" s="246"/>
-      <c r="V33" s="246"/>
-      <c r="W33" s="246"/>
-      <c r="X33" s="246"/>
-      <c r="Y33" s="246"/>
-      <c r="Z33" s="246"/>
-      <c r="AA33" s="246"/>
-      <c r="AB33" s="246"/>
-      <c r="AC33" s="246"/>
-      <c r="AD33" s="246"/>
-      <c r="AE33" s="246"/>
-      <c r="AF33" s="246"/>
-      <c r="AG33" s="246"/>
-      <c r="AH33" s="246"/>
-    </row>
-    <row r="34" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="237"/>
+      <c r="F33" s="237"/>
+      <c r="G33" s="238"/>
+      <c r="H33" s="231"/>
+      <c r="I33" s="231"/>
+      <c r="J33" s="231"/>
+      <c r="K33" s="231"/>
+      <c r="L33" s="231"/>
+      <c r="M33" s="231"/>
+      <c r="N33" s="231"/>
+      <c r="O33" s="231"/>
+      <c r="P33" s="231"/>
+      <c r="Q33" s="231"/>
+      <c r="R33" s="231"/>
+      <c r="S33" s="231"/>
+      <c r="T33" s="231"/>
+      <c r="U33" s="231"/>
+      <c r="V33" s="231"/>
+      <c r="W33" s="231"/>
+      <c r="X33" s="231"/>
+      <c r="Y33" s="231"/>
+      <c r="Z33" s="231"/>
+      <c r="AA33" s="231"/>
+      <c r="AB33" s="231"/>
+      <c r="AC33" s="231"/>
+      <c r="AD33" s="231"/>
+      <c r="AE33" s="231"/>
+      <c r="AF33" s="231"/>
+      <c r="AG33" s="231"/>
+      <c r="AH33" s="231"/>
+    </row>
+    <row r="34" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
-      <c r="D34" s="231" t="s">
+      <c r="D34" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="232"/>
-      <c r="F34" s="232"/>
-      <c r="G34" s="233"/>
+      <c r="E34" s="240"/>
+      <c r="F34" s="240"/>
+      <c r="G34" s="241"/>
       <c r="H34" s="112"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -10031,14 +10035,14 @@
       <c r="AG34" s="113"/>
       <c r="AH34" s="114"/>
     </row>
-    <row r="35" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="234"/>
-      <c r="E35" s="235"/>
-      <c r="F35" s="235"/>
-      <c r="G35" s="236"/>
+      <c r="D35" s="242"/>
+      <c r="E35" s="243"/>
+      <c r="F35" s="243"/>
+      <c r="G35" s="244"/>
       <c r="H35" s="115"/>
       <c r="I35" s="116"/>
       <c r="J35" s="116"/>
@@ -10067,14 +10071,14 @@
       <c r="AG35" s="116"/>
       <c r="AH35" s="117"/>
     </row>
-    <row r="36" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="234"/>
-      <c r="E36" s="235"/>
-      <c r="F36" s="235"/>
-      <c r="G36" s="236"/>
+      <c r="D36" s="242"/>
+      <c r="E36" s="243"/>
+      <c r="F36" s="243"/>
+      <c r="G36" s="244"/>
       <c r="H36" s="115"/>
       <c r="I36" s="116"/>
       <c r="J36" s="116"/>
@@ -10103,14 +10107,14 @@
       <c r="AG36" s="116"/>
       <c r="AH36" s="117"/>
     </row>
-    <row r="37" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
-      <c r="D37" s="234"/>
-      <c r="E37" s="235"/>
-      <c r="F37" s="235"/>
-      <c r="G37" s="236"/>
+      <c r="D37" s="242"/>
+      <c r="E37" s="243"/>
+      <c r="F37" s="243"/>
+      <c r="G37" s="244"/>
       <c r="H37" s="115"/>
       <c r="I37" s="116"/>
       <c r="J37" s="116"/>
@@ -10139,14 +10143,14 @@
       <c r="AG37" s="116"/>
       <c r="AH37" s="117"/>
     </row>
-    <row r="38" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
-      <c r="D38" s="234"/>
-      <c r="E38" s="235"/>
-      <c r="F38" s="235"/>
-      <c r="G38" s="236"/>
+      <c r="D38" s="242"/>
+      <c r="E38" s="243"/>
+      <c r="F38" s="243"/>
+      <c r="G38" s="244"/>
       <c r="H38" s="115"/>
       <c r="I38" s="116"/>
       <c r="J38" s="116"/>
@@ -10175,14 +10179,14 @@
       <c r="AG38" s="116"/>
       <c r="AH38" s="117"/>
     </row>
-    <row r="39" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
-      <c r="D39" s="234"/>
-      <c r="E39" s="235"/>
-      <c r="F39" s="235"/>
-      <c r="G39" s="236"/>
+      <c r="D39" s="242"/>
+      <c r="E39" s="243"/>
+      <c r="F39" s="243"/>
+      <c r="G39" s="244"/>
       <c r="H39" s="115"/>
       <c r="I39" s="116"/>
       <c r="J39" s="116"/>
@@ -10211,14 +10215,14 @@
       <c r="AG39" s="116"/>
       <c r="AH39" s="117"/>
     </row>
-    <row r="40" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
-      <c r="D40" s="234"/>
-      <c r="E40" s="235"/>
-      <c r="F40" s="235"/>
-      <c r="G40" s="236"/>
+      <c r="D40" s="242"/>
+      <c r="E40" s="243"/>
+      <c r="F40" s="243"/>
+      <c r="G40" s="244"/>
       <c r="H40" s="115"/>
       <c r="I40" s="116"/>
       <c r="J40" s="116"/>
@@ -10247,14 +10251,14 @@
       <c r="AG40" s="116"/>
       <c r="AH40" s="117"/>
     </row>
-    <row r="41" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
-      <c r="D41" s="237"/>
-      <c r="E41" s="238"/>
-      <c r="F41" s="238"/>
-      <c r="G41" s="239"/>
+      <c r="D41" s="245"/>
+      <c r="E41" s="246"/>
+      <c r="F41" s="246"/>
+      <c r="G41" s="247"/>
       <c r="H41" s="118"/>
       <c r="I41" s="119"/>
       <c r="J41" s="119"/>
@@ -10283,7 +10287,7 @@
       <c r="AG41" s="119"/>
       <c r="AH41" s="120"/>
     </row>
-    <row r="42" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:38" ht="12" customHeight="1">
       <c r="A42" s="31"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -10323,7 +10327,7 @@
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
     </row>
-    <row r="43" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:38" ht="12" customHeight="1">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -10360,7 +10364,7 @@
       <c r="AH43" s="36"/>
       <c r="AI43" s="30"/>
     </row>
-    <row r="44" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:38" ht="12" customHeight="1">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -10397,40 +10401,40 @@
       <c r="AH44" s="36"/>
       <c r="AI44" s="30"/>
     </row>
-    <row r="45" spans="1:38" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:38" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="33"/>
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
       <c r="F45" s="29"/>
-      <c r="G45" s="245"/>
-      <c r="H45" s="245"/>
-      <c r="I45" s="245"/>
-      <c r="J45" s="245"/>
-      <c r="K45" s="245"/>
-      <c r="L45" s="245"/>
-      <c r="M45" s="245"/>
-      <c r="N45" s="245"/>
-      <c r="O45" s="243"/>
-      <c r="P45" s="244"/>
-      <c r="Q45" s="244"/>
-      <c r="R45" s="244"/>
-      <c r="S45" s="244"/>
-      <c r="T45" s="244"/>
-      <c r="U45" s="244"/>
-      <c r="V45" s="244"/>
-      <c r="W45" s="244"/>
-      <c r="X45" s="244"/>
-      <c r="Y45" s="244"/>
-      <c r="Z45" s="244"/>
-      <c r="AA45" s="244"/>
-      <c r="AB45" s="244"/>
-      <c r="AC45" s="244"/>
-      <c r="AD45" s="244"/>
+      <c r="G45" s="250"/>
+      <c r="H45" s="250"/>
+      <c r="I45" s="250"/>
+      <c r="J45" s="250"/>
+      <c r="K45" s="250"/>
+      <c r="L45" s="250"/>
+      <c r="M45" s="250"/>
+      <c r="N45" s="250"/>
+      <c r="O45" s="248"/>
+      <c r="P45" s="249"/>
+      <c r="Q45" s="249"/>
+      <c r="R45" s="249"/>
+      <c r="S45" s="249"/>
+      <c r="T45" s="249"/>
+      <c r="U45" s="249"/>
+      <c r="V45" s="249"/>
+      <c r="W45" s="249"/>
+      <c r="X45" s="249"/>
+      <c r="Y45" s="249"/>
+      <c r="Z45" s="249"/>
+      <c r="AA45" s="249"/>
+      <c r="AB45" s="249"/>
+      <c r="AC45" s="249"/>
+      <c r="AD45" s="249"/>
       <c r="AE45" s="32"/>
     </row>
-    <row r="46" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:38" ht="12" customHeight="1">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
@@ -10467,7 +10471,7 @@
       <c r="AH46" s="30"/>
       <c r="AI46" s="30"/>
     </row>
-    <row r="47" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:38" ht="12" customHeight="1">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -10504,7 +10508,7 @@
       <c r="AH47" s="30"/>
       <c r="AI47" s="30"/>
     </row>
-    <row r="48" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:38" ht="12" customHeight="1">
       <c r="A48" s="30"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -10541,7 +10545,7 @@
       <c r="AH48" s="30"/>
       <c r="AI48" s="30"/>
     </row>
-    <row r="49" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:35" ht="12" customHeight="1">
       <c r="A49" s="30"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -10578,7 +10582,7 @@
       <c r="AH49" s="30"/>
       <c r="AI49" s="30"/>
     </row>
-    <row r="50" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:35" ht="12" customHeight="1">
       <c r="A50" s="30"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -10615,7 +10619,7 @@
       <c r="AH50" s="30"/>
       <c r="AI50" s="30"/>
     </row>
-    <row r="51" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:35" ht="12" customHeight="1">
       <c r="A51" s="30"/>
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
@@ -10652,7 +10656,7 @@
       <c r="AH51" s="30"/>
       <c r="AI51" s="30"/>
     </row>
-    <row r="52" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:35" ht="12" customHeight="1">
       <c r="A52" s="30"/>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -10689,7 +10693,7 @@
       <c r="AH52" s="30"/>
       <c r="AI52" s="30"/>
     </row>
-    <row r="53" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:35" ht="12" customHeight="1">
       <c r="A53" s="30"/>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -10726,7 +10730,7 @@
       <c r="AH53" s="30"/>
       <c r="AI53" s="30"/>
     </row>
-    <row r="54" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:35" ht="12" customHeight="1">
       <c r="A54" s="30"/>
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
@@ -10763,7 +10767,7 @@
       <c r="AH54" s="30"/>
       <c r="AI54" s="30"/>
     </row>
-    <row r="55" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:35" ht="12" customHeight="1">
       <c r="A55" s="30"/>
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
@@ -10800,7 +10804,7 @@
       <c r="AH55" s="30"/>
       <c r="AI55" s="30"/>
     </row>
-    <row r="56" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:35" ht="12" customHeight="1">
       <c r="A56" s="30"/>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
@@ -10837,7 +10841,7 @@
       <c r="AH56" s="30"/>
       <c r="AI56" s="30"/>
     </row>
-    <row r="57" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:35" ht="12" customHeight="1">
       <c r="A57" s="30"/>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
@@ -10874,19 +10878,20 @@
       <c r="AH57" s="30"/>
       <c r="AI57" s="30"/>
     </row>
-    <row r="58" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:35" ht="12" customHeight="1"/>
+    <row r="59" spans="1:35" ht="12" customHeight="1"/>
+    <row r="60" spans="1:35" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="O45:AD45"/>
+    <mergeCell ref="G45:N45"/>
+    <mergeCell ref="H31:AH31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G41"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -10903,15 +10908,14 @@
     <mergeCell ref="H30:AH30"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="O45:AD45"/>
-    <mergeCell ref="G45:N45"/>
-    <mergeCell ref="H31:AH31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G41"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -10934,173 +10938,179 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="186" t="s">
+    <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="180" t="str">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="189" t="s">
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="210" t="str">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="212"/>
-      <c r="AA1" s="186" t="s">
+      <c r="T1" s="223"/>
+      <c r="U1" s="223"/>
+      <c r="V1" s="223"/>
+      <c r="W1" s="223"/>
+      <c r="X1" s="223"/>
+      <c r="Y1" s="223"/>
+      <c r="Z1" s="224"/>
+      <c r="AA1" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="247" t="str">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="248"/>
-      <c r="AI1" s="249"/>
-    </row>
-    <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="186" t="s">
+      <c r="AH1" s="233"/>
+      <c r="AI1" s="234"/>
+    </row>
+    <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="180" t="str">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="214"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="186" t="s">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="247" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="249"/>
-    </row>
-    <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="186" t="s">
+      <c r="AH2" s="233"/>
+      <c r="AI2" s="234"/>
+    </row>
+    <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="180" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="216"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
-      <c r="W3" s="217"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="218"/>
-      <c r="AA3" s="186"/>
-      <c r="AB3" s="188"/>
-      <c r="AC3" s="170" t="str">
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="230"/>
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="247" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="248"/>
-      <c r="AI3" s="249"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH3" s="233"/>
+      <c r="AI3" s="234"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1"/>
+    <row r="5" spans="1:35" ht="12" customHeight="1">
       <c r="C5" s="91" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:35" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11112,12 +11122,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11141,175 +11145,175 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="186" t="s">
+    <row r="1" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="180" t="str">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="189" t="s">
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="210" t="str">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="212"/>
-      <c r="AA1" s="186" t="s">
+      <c r="T1" s="223"/>
+      <c r="U1" s="223"/>
+      <c r="V1" s="223"/>
+      <c r="W1" s="223"/>
+      <c r="X1" s="223"/>
+      <c r="Y1" s="223"/>
+      <c r="Z1" s="224"/>
+      <c r="AA1" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="247" t="str">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="248"/>
-      <c r="AI1" s="249"/>
+      <c r="AH1" s="233"/>
+      <c r="AI1" s="234"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
-    <row r="2" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="186" t="s">
+    <row r="2" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="180" t="str">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="214"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="186" t="s">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="247" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="249"/>
+      <c r="AH2" s="233"/>
+      <c r="AI2" s="234"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
-    <row r="3" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="186" t="s">
+    <row r="3" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="180" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="216"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
-      <c r="W3" s="217"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="218"/>
-      <c r="AA3" s="186"/>
-      <c r="AB3" s="188"/>
-      <c r="AC3" s="170" t="str">
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="230"/>
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="247" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="248"/>
-      <c r="AI3" s="249"/>
+      <c r="AH3" s="233"/>
+      <c r="AI3" s="234"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
     </row>
-    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" ht="12" customHeight="1"/>
+    <row r="5" spans="1:38" ht="12" customHeight="1">
       <c r="B5" s="30" t="s">
         <v>72</v>
       </c>
@@ -11346,7 +11350,7 @@
       <c r="AG5" s="30"/>
       <c r="AH5" s="30"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38">
       <c r="B6" s="30"/>
       <c r="C6" s="30" t="s">
         <v>43</v>
@@ -11383,7 +11387,7 @@
       <c r="AG6" s="30"/>
       <c r="AH6" s="30"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38">
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="40"/>
@@ -11418,68 +11422,68 @@
       <c r="AG7" s="30"/>
       <c r="AH7" s="30"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="263" t="s">
+      <c r="D8" s="285" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="265" t="s">
+      <c r="E8" s="287" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="266"/>
-      <c r="G8" s="266"/>
-      <c r="H8" s="266"/>
-      <c r="I8" s="266"/>
-      <c r="J8" s="267"/>
-      <c r="K8" s="271" t="s">
+      <c r="F8" s="288"/>
+      <c r="G8" s="288"/>
+      <c r="H8" s="288"/>
+      <c r="I8" s="288"/>
+      <c r="J8" s="289"/>
+      <c r="K8" s="293" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="266"/>
-      <c r="M8" s="266"/>
-      <c r="N8" s="267"/>
-      <c r="O8" s="272" t="s">
+      <c r="L8" s="288"/>
+      <c r="M8" s="288"/>
+      <c r="N8" s="289"/>
+      <c r="O8" s="294" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="294" t="s">
+      <c r="P8" s="260" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="295"/>
-      <c r="R8" s="295"/>
-      <c r="S8" s="295"/>
-      <c r="T8" s="295"/>
-      <c r="U8" s="296"/>
-      <c r="V8" s="274" t="s">
+      <c r="Q8" s="261"/>
+      <c r="R8" s="261"/>
+      <c r="S8" s="261"/>
+      <c r="T8" s="261"/>
+      <c r="U8" s="262"/>
+      <c r="V8" s="296" t="s">
         <v>37</v>
       </c>
-      <c r="W8" s="274"/>
-      <c r="X8" s="274"/>
-      <c r="Y8" s="274"/>
-      <c r="Z8" s="274"/>
-      <c r="AA8" s="274"/>
-      <c r="AB8" s="274"/>
-      <c r="AC8" s="274"/>
-      <c r="AD8" s="274"/>
-      <c r="AE8" s="274"/>
-      <c r="AF8" s="274"/>
-      <c r="AG8" s="274"/>
-      <c r="AH8" s="274"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="W8" s="296"/>
+      <c r="X8" s="296"/>
+      <c r="Y8" s="296"/>
+      <c r="Z8" s="296"/>
+      <c r="AA8" s="296"/>
+      <c r="AB8" s="296"/>
+      <c r="AC8" s="296"/>
+      <c r="AD8" s="296"/>
+      <c r="AE8" s="296"/>
+      <c r="AF8" s="296"/>
+      <c r="AG8" s="296"/>
+      <c r="AH8" s="296"/>
+    </row>
+    <row r="9" spans="1:38">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="269"/>
-      <c r="H9" s="269"/>
-      <c r="I9" s="269"/>
-      <c r="J9" s="270"/>
-      <c r="K9" s="268"/>
-      <c r="L9" s="269"/>
-      <c r="M9" s="269"/>
-      <c r="N9" s="270"/>
-      <c r="O9" s="273"/>
+      <c r="D9" s="286"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="291"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="290"/>
+      <c r="L9" s="291"/>
+      <c r="M9" s="291"/>
+      <c r="N9" s="292"/>
+      <c r="O9" s="295"/>
       <c r="P9" s="90" t="s">
         <v>48</v>
       </c>
@@ -11492,136 +11496,136 @@
       <c r="S9" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="T9" s="258" t="s">
+      <c r="T9" s="298" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="259"/>
-      <c r="V9" s="274"/>
-      <c r="W9" s="274"/>
-      <c r="X9" s="274"/>
-      <c r="Y9" s="274"/>
-      <c r="Z9" s="274"/>
-      <c r="AA9" s="274"/>
-      <c r="AB9" s="274"/>
-      <c r="AC9" s="274"/>
-      <c r="AD9" s="274"/>
-      <c r="AE9" s="274"/>
-      <c r="AF9" s="274"/>
-      <c r="AG9" s="274"/>
-      <c r="AH9" s="274"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="U9" s="299"/>
+      <c r="V9" s="296"/>
+      <c r="W9" s="296"/>
+      <c r="X9" s="296"/>
+      <c r="Y9" s="296"/>
+      <c r="Z9" s="296"/>
+      <c r="AA9" s="296"/>
+      <c r="AB9" s="296"/>
+      <c r="AC9" s="296"/>
+      <c r="AD9" s="296"/>
+      <c r="AE9" s="296"/>
+      <c r="AF9" s="296"/>
+      <c r="AG9" s="296"/>
+      <c r="AH9" s="296"/>
+    </row>
+    <row r="10" spans="1:38">
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="129">
         <v>1</v>
       </c>
-      <c r="E10" s="153"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="155"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="191"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="192"/>
       <c r="O10" s="130"/>
       <c r="P10" s="89"/>
       <c r="Q10" s="89"/>
       <c r="R10" s="89"/>
       <c r="S10" s="89"/>
-      <c r="T10" s="261"/>
-      <c r="U10" s="262"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="154"/>
-      <c r="X10" s="154"/>
-      <c r="Y10" s="154"/>
-      <c r="Z10" s="154"/>
-      <c r="AA10" s="154"/>
-      <c r="AB10" s="154"/>
-      <c r="AC10" s="154"/>
-      <c r="AD10" s="154"/>
-      <c r="AE10" s="154"/>
-      <c r="AF10" s="154"/>
-      <c r="AG10" s="154"/>
-      <c r="AH10" s="155"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="T10" s="301"/>
+      <c r="U10" s="302"/>
+      <c r="V10" s="190"/>
+      <c r="W10" s="191"/>
+      <c r="X10" s="191"/>
+      <c r="Y10" s="191"/>
+      <c r="Z10" s="191"/>
+      <c r="AA10" s="191"/>
+      <c r="AB10" s="191"/>
+      <c r="AC10" s="191"/>
+      <c r="AD10" s="191"/>
+      <c r="AE10" s="191"/>
+      <c r="AF10" s="191"/>
+      <c r="AG10" s="191"/>
+      <c r="AH10" s="192"/>
+    </row>
+    <row r="11" spans="1:38">
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="129">
         <v>2</v>
       </c>
-      <c r="E11" s="153"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="155"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="191"/>
+      <c r="G11" s="191"/>
+      <c r="H11" s="191"/>
+      <c r="I11" s="191"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="191"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="192"/>
       <c r="O11" s="131"/>
       <c r="P11" s="89"/>
       <c r="Q11" s="89"/>
       <c r="R11" s="89"/>
       <c r="S11" s="89"/>
-      <c r="T11" s="261"/>
-      <c r="U11" s="262"/>
-      <c r="V11" s="153"/>
-      <c r="W11" s="154"/>
-      <c r="X11" s="154"/>
-      <c r="Y11" s="154"/>
-      <c r="Z11" s="154"/>
-      <c r="AA11" s="154"/>
-      <c r="AB11" s="154"/>
-      <c r="AC11" s="154"/>
-      <c r="AD11" s="154"/>
-      <c r="AE11" s="154"/>
-      <c r="AF11" s="154"/>
-      <c r="AG11" s="154"/>
-      <c r="AH11" s="155"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="T11" s="301"/>
+      <c r="U11" s="302"/>
+      <c r="V11" s="190"/>
+      <c r="W11" s="191"/>
+      <c r="X11" s="191"/>
+      <c r="Y11" s="191"/>
+      <c r="Z11" s="191"/>
+      <c r="AA11" s="191"/>
+      <c r="AB11" s="191"/>
+      <c r="AC11" s="191"/>
+      <c r="AD11" s="191"/>
+      <c r="AE11" s="191"/>
+      <c r="AF11" s="191"/>
+      <c r="AG11" s="191"/>
+      <c r="AH11" s="192"/>
+    </row>
+    <row r="12" spans="1:38">
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="D12" s="129">
         <v>3</v>
       </c>
-      <c r="E12" s="153"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="155"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="191"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="191"/>
+      <c r="I12" s="191"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="191"/>
+      <c r="M12" s="191"/>
+      <c r="N12" s="192"/>
       <c r="O12" s="131"/>
       <c r="P12" s="89"/>
       <c r="Q12" s="89"/>
       <c r="R12" s="89"/>
       <c r="S12" s="89"/>
-      <c r="T12" s="261"/>
-      <c r="U12" s="262"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="154"/>
-      <c r="X12" s="154"/>
-      <c r="Y12" s="154"/>
-      <c r="Z12" s="154"/>
-      <c r="AA12" s="154"/>
-      <c r="AB12" s="154"/>
-      <c r="AC12" s="154"/>
-      <c r="AD12" s="154"/>
-      <c r="AE12" s="154"/>
-      <c r="AF12" s="154"/>
-      <c r="AG12" s="154"/>
-      <c r="AH12" s="155"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="T12" s="301"/>
+      <c r="U12" s="302"/>
+      <c r="V12" s="190"/>
+      <c r="W12" s="191"/>
+      <c r="X12" s="191"/>
+      <c r="Y12" s="191"/>
+      <c r="Z12" s="191"/>
+      <c r="AA12" s="191"/>
+      <c r="AB12" s="191"/>
+      <c r="AC12" s="191"/>
+      <c r="AD12" s="191"/>
+      <c r="AE12" s="191"/>
+      <c r="AF12" s="191"/>
+      <c r="AG12" s="191"/>
+      <c r="AH12" s="192"/>
+    </row>
+    <row r="13" spans="1:38">
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="124"/>
@@ -11656,7 +11660,7 @@
       <c r="AG13" s="137"/>
       <c r="AH13" s="137"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="40"/>
@@ -11691,7 +11695,7 @@
       <c r="AG14" s="30"/>
       <c r="AH14" s="30"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38">
       <c r="B15" s="30"/>
       <c r="C15" s="91" t="s">
         <v>60</v>
@@ -11728,7 +11732,7 @@
       <c r="AG15" s="141"/>
       <c r="AH15" s="141"/>
     </row>
-    <row r="16" spans="1:38" s="88" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" s="88" customFormat="1">
       <c r="B16" s="30"/>
       <c r="C16" s="93"/>
       <c r="D16" s="93"/>
@@ -11763,7 +11767,7 @@
       <c r="AG16" s="141"/>
       <c r="AH16" s="141"/>
     </row>
-    <row r="17" spans="1:34" s="88" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:34" s="88" customFormat="1" ht="24.75" customHeight="1">
       <c r="B17" s="30"/>
       <c r="C17" s="128"/>
       <c r="D17" s="142" t="s">
@@ -11774,259 +11778,259 @@
       </c>
       <c r="F17" s="283"/>
       <c r="G17" s="284"/>
-      <c r="H17" s="300" t="s">
+      <c r="H17" s="254" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="301"/>
-      <c r="J17" s="301"/>
-      <c r="K17" s="301"/>
-      <c r="L17" s="301"/>
-      <c r="M17" s="301"/>
-      <c r="N17" s="301"/>
-      <c r="O17" s="301"/>
-      <c r="P17" s="301"/>
-      <c r="Q17" s="301"/>
-      <c r="R17" s="301"/>
-      <c r="S17" s="301"/>
-      <c r="T17" s="301"/>
-      <c r="U17" s="301"/>
-      <c r="V17" s="301"/>
-      <c r="W17" s="301"/>
-      <c r="X17" s="301"/>
-      <c r="Y17" s="301"/>
-      <c r="Z17" s="301"/>
-      <c r="AA17" s="301"/>
-      <c r="AB17" s="301"/>
-      <c r="AC17" s="301"/>
-      <c r="AD17" s="301"/>
-      <c r="AE17" s="301"/>
-      <c r="AF17" s="301"/>
-      <c r="AG17" s="301"/>
-      <c r="AH17" s="302"/>
-    </row>
-    <row r="18" spans="1:34" s="88" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I17" s="255"/>
+      <c r="J17" s="255"/>
+      <c r="K17" s="255"/>
+      <c r="L17" s="255"/>
+      <c r="M17" s="255"/>
+      <c r="N17" s="255"/>
+      <c r="O17" s="255"/>
+      <c r="P17" s="255"/>
+      <c r="Q17" s="255"/>
+      <c r="R17" s="255"/>
+      <c r="S17" s="255"/>
+      <c r="T17" s="255"/>
+      <c r="U17" s="255"/>
+      <c r="V17" s="255"/>
+      <c r="W17" s="255"/>
+      <c r="X17" s="255"/>
+      <c r="Y17" s="255"/>
+      <c r="Z17" s="255"/>
+      <c r="AA17" s="255"/>
+      <c r="AB17" s="255"/>
+      <c r="AC17" s="255"/>
+      <c r="AD17" s="255"/>
+      <c r="AE17" s="255"/>
+      <c r="AF17" s="255"/>
+      <c r="AG17" s="255"/>
+      <c r="AH17" s="256"/>
+    </row>
+    <row r="18" spans="1:34" s="88" customFormat="1">
       <c r="B18" s="30"/>
       <c r="C18" s="93"/>
       <c r="D18" s="129">
         <v>1</v>
       </c>
-      <c r="E18" s="153"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="154"/>
-      <c r="T18" s="154"/>
-      <c r="U18" s="154"/>
-      <c r="V18" s="154"/>
-      <c r="W18" s="154"/>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="154"/>
-      <c r="Z18" s="154"/>
-      <c r="AA18" s="154"/>
-      <c r="AB18" s="154"/>
-      <c r="AC18" s="154"/>
-      <c r="AD18" s="154"/>
-      <c r="AE18" s="154"/>
-      <c r="AF18" s="154"/>
-      <c r="AG18" s="154"/>
-      <c r="AH18" s="155"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="E18" s="190"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="190"/>
+      <c r="I18" s="191"/>
+      <c r="J18" s="191"/>
+      <c r="K18" s="191"/>
+      <c r="L18" s="191"/>
+      <c r="M18" s="191"/>
+      <c r="N18" s="191"/>
+      <c r="O18" s="191"/>
+      <c r="P18" s="191"/>
+      <c r="Q18" s="191"/>
+      <c r="R18" s="191"/>
+      <c r="S18" s="191"/>
+      <c r="T18" s="191"/>
+      <c r="U18" s="191"/>
+      <c r="V18" s="191"/>
+      <c r="W18" s="191"/>
+      <c r="X18" s="191"/>
+      <c r="Y18" s="191"/>
+      <c r="Z18" s="191"/>
+      <c r="AA18" s="191"/>
+      <c r="AB18" s="191"/>
+      <c r="AC18" s="191"/>
+      <c r="AD18" s="191"/>
+      <c r="AE18" s="191"/>
+      <c r="AF18" s="191"/>
+      <c r="AG18" s="191"/>
+      <c r="AH18" s="192"/>
+    </row>
+    <row r="19" spans="1:34">
       <c r="B19" s="1"/>
       <c r="C19" s="93"/>
       <c r="D19" s="129">
         <v>2</v>
       </c>
-      <c r="E19" s="153"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="154"/>
-      <c r="S19" s="154"/>
-      <c r="T19" s="154"/>
-      <c r="U19" s="154"/>
-      <c r="V19" s="154"/>
-      <c r="W19" s="154"/>
-      <c r="X19" s="154"/>
-      <c r="Y19" s="154"/>
-      <c r="Z19" s="154"/>
-      <c r="AA19" s="154"/>
-      <c r="AB19" s="154"/>
-      <c r="AC19" s="154"/>
-      <c r="AD19" s="154"/>
-      <c r="AE19" s="154"/>
-      <c r="AF19" s="154"/>
-      <c r="AG19" s="154"/>
-      <c r="AH19" s="155"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="E19" s="190"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="190"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="191"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="191"/>
+      <c r="M19" s="191"/>
+      <c r="N19" s="191"/>
+      <c r="O19" s="191"/>
+      <c r="P19" s="191"/>
+      <c r="Q19" s="191"/>
+      <c r="R19" s="191"/>
+      <c r="S19" s="191"/>
+      <c r="T19" s="191"/>
+      <c r="U19" s="191"/>
+      <c r="V19" s="191"/>
+      <c r="W19" s="191"/>
+      <c r="X19" s="191"/>
+      <c r="Y19" s="191"/>
+      <c r="Z19" s="191"/>
+      <c r="AA19" s="191"/>
+      <c r="AB19" s="191"/>
+      <c r="AC19" s="191"/>
+      <c r="AD19" s="191"/>
+      <c r="AE19" s="191"/>
+      <c r="AF19" s="191"/>
+      <c r="AG19" s="191"/>
+      <c r="AH19" s="192"/>
+    </row>
+    <row r="20" spans="1:34">
       <c r="B20" s="1"/>
       <c r="C20" s="93"/>
       <c r="D20" s="129">
         <v>3</v>
       </c>
-      <c r="E20" s="153"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="154"/>
-      <c r="O20" s="154"/>
-      <c r="P20" s="154"/>
-      <c r="Q20" s="154"/>
-      <c r="R20" s="154"/>
-      <c r="S20" s="154"/>
-      <c r="T20" s="154"/>
-      <c r="U20" s="154"/>
-      <c r="V20" s="154"/>
-      <c r="W20" s="154"/>
-      <c r="X20" s="154"/>
-      <c r="Y20" s="154"/>
-      <c r="Z20" s="154"/>
-      <c r="AA20" s="154"/>
-      <c r="AB20" s="154"/>
-      <c r="AC20" s="154"/>
-      <c r="AD20" s="154"/>
-      <c r="AE20" s="154"/>
-      <c r="AF20" s="154"/>
-      <c r="AG20" s="154"/>
-      <c r="AH20" s="155"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="E20" s="190"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="192"/>
+      <c r="H20" s="190"/>
+      <c r="I20" s="191"/>
+      <c r="J20" s="191"/>
+      <c r="K20" s="191"/>
+      <c r="L20" s="191"/>
+      <c r="M20" s="191"/>
+      <c r="N20" s="191"/>
+      <c r="O20" s="191"/>
+      <c r="P20" s="191"/>
+      <c r="Q20" s="191"/>
+      <c r="R20" s="191"/>
+      <c r="S20" s="191"/>
+      <c r="T20" s="191"/>
+      <c r="U20" s="191"/>
+      <c r="V20" s="191"/>
+      <c r="W20" s="191"/>
+      <c r="X20" s="191"/>
+      <c r="Y20" s="191"/>
+      <c r="Z20" s="191"/>
+      <c r="AA20" s="191"/>
+      <c r="AB20" s="191"/>
+      <c r="AC20" s="191"/>
+      <c r="AD20" s="191"/>
+      <c r="AE20" s="191"/>
+      <c r="AF20" s="191"/>
+      <c r="AG20" s="191"/>
+      <c r="AH20" s="192"/>
+    </row>
+    <row r="21" spans="1:34">
       <c r="B21" s="1"/>
       <c r="C21" s="93"/>
       <c r="D21" s="129">
         <v>4</v>
       </c>
-      <c r="E21" s="153"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="154"/>
-      <c r="O21" s="154"/>
-      <c r="P21" s="154"/>
-      <c r="Q21" s="154"/>
-      <c r="R21" s="154"/>
-      <c r="S21" s="154"/>
-      <c r="T21" s="154"/>
-      <c r="U21" s="154"/>
-      <c r="V21" s="154"/>
-      <c r="W21" s="154"/>
-      <c r="X21" s="154"/>
-      <c r="Y21" s="154"/>
-      <c r="Z21" s="154"/>
-      <c r="AA21" s="154"/>
-      <c r="AB21" s="154"/>
-      <c r="AC21" s="154"/>
-      <c r="AD21" s="154"/>
-      <c r="AE21" s="154"/>
-      <c r="AF21" s="154"/>
-      <c r="AG21" s="154"/>
-      <c r="AH21" s="155"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="E21" s="190"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="190"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="191"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="191"/>
+      <c r="N21" s="191"/>
+      <c r="O21" s="191"/>
+      <c r="P21" s="191"/>
+      <c r="Q21" s="191"/>
+      <c r="R21" s="191"/>
+      <c r="S21" s="191"/>
+      <c r="T21" s="191"/>
+      <c r="U21" s="191"/>
+      <c r="V21" s="191"/>
+      <c r="W21" s="191"/>
+      <c r="X21" s="191"/>
+      <c r="Y21" s="191"/>
+      <c r="Z21" s="191"/>
+      <c r="AA21" s="191"/>
+      <c r="AB21" s="191"/>
+      <c r="AC21" s="191"/>
+      <c r="AD21" s="191"/>
+      <c r="AE21" s="191"/>
+      <c r="AF21" s="191"/>
+      <c r="AG21" s="191"/>
+      <c r="AH21" s="192"/>
+    </row>
+    <row r="22" spans="1:34">
       <c r="B22" s="87"/>
       <c r="C22" s="93"/>
       <c r="D22" s="129">
         <v>5</v>
       </c>
-      <c r="E22" s="153"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="154"/>
-      <c r="O22" s="154"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="154"/>
-      <c r="R22" s="154"/>
-      <c r="S22" s="154"/>
-      <c r="T22" s="154"/>
-      <c r="U22" s="154"/>
-      <c r="V22" s="154"/>
-      <c r="W22" s="154"/>
-      <c r="X22" s="154"/>
-      <c r="Y22" s="154"/>
-      <c r="Z22" s="154"/>
-      <c r="AA22" s="154"/>
-      <c r="AB22" s="154"/>
-      <c r="AC22" s="154"/>
-      <c r="AD22" s="154"/>
-      <c r="AE22" s="154"/>
-      <c r="AF22" s="154"/>
-      <c r="AG22" s="154"/>
-      <c r="AH22" s="155"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="E22" s="190"/>
+      <c r="F22" s="191"/>
+      <c r="G22" s="192"/>
+      <c r="H22" s="190"/>
+      <c r="I22" s="191"/>
+      <c r="J22" s="191"/>
+      <c r="K22" s="191"/>
+      <c r="L22" s="191"/>
+      <c r="M22" s="191"/>
+      <c r="N22" s="191"/>
+      <c r="O22" s="191"/>
+      <c r="P22" s="191"/>
+      <c r="Q22" s="191"/>
+      <c r="R22" s="191"/>
+      <c r="S22" s="191"/>
+      <c r="T22" s="191"/>
+      <c r="U22" s="191"/>
+      <c r="V22" s="191"/>
+      <c r="W22" s="191"/>
+      <c r="X22" s="191"/>
+      <c r="Y22" s="191"/>
+      <c r="Z22" s="191"/>
+      <c r="AA22" s="191"/>
+      <c r="AB22" s="191"/>
+      <c r="AC22" s="191"/>
+      <c r="AD22" s="191"/>
+      <c r="AE22" s="191"/>
+      <c r="AF22" s="191"/>
+      <c r="AG22" s="191"/>
+      <c r="AH22" s="192"/>
+    </row>
+    <row r="23" spans="1:34">
       <c r="B23" s="87"/>
       <c r="C23" s="93"/>
       <c r="D23" s="129">
         <v>6</v>
       </c>
-      <c r="E23" s="153"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="154"/>
-      <c r="O23" s="154"/>
-      <c r="P23" s="154"/>
-      <c r="Q23" s="154"/>
-      <c r="R23" s="154"/>
-      <c r="S23" s="154"/>
-      <c r="T23" s="154"/>
-      <c r="U23" s="154"/>
-      <c r="V23" s="154"/>
-      <c r="W23" s="154"/>
-      <c r="X23" s="154"/>
-      <c r="Y23" s="154"/>
-      <c r="Z23" s="154"/>
-      <c r="AA23" s="154"/>
-      <c r="AB23" s="154"/>
-      <c r="AC23" s="154"/>
-      <c r="AD23" s="154"/>
-      <c r="AE23" s="154"/>
-      <c r="AF23" s="154"/>
-      <c r="AG23" s="154"/>
-      <c r="AH23" s="155"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="E23" s="190"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="190"/>
+      <c r="I23" s="191"/>
+      <c r="J23" s="191"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="191"/>
+      <c r="Q23" s="191"/>
+      <c r="R23" s="191"/>
+      <c r="S23" s="191"/>
+      <c r="T23" s="191"/>
+      <c r="U23" s="191"/>
+      <c r="V23" s="191"/>
+      <c r="W23" s="191"/>
+      <c r="X23" s="191"/>
+      <c r="Y23" s="191"/>
+      <c r="Z23" s="191"/>
+      <c r="AA23" s="191"/>
+      <c r="AB23" s="191"/>
+      <c r="AC23" s="191"/>
+      <c r="AD23" s="191"/>
+      <c r="AE23" s="191"/>
+      <c r="AF23" s="191"/>
+      <c r="AG23" s="191"/>
+      <c r="AH23" s="192"/>
+    </row>
+    <row r="24" spans="1:34">
       <c r="B24" s="87"/>
       <c r="C24" s="121"/>
       <c r="D24" s="122"/>
@@ -12061,7 +12065,7 @@
       <c r="AG24" s="141"/>
       <c r="AH24" s="141"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:34">
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
       <c r="D25" s="87"/>
@@ -12096,7 +12100,7 @@
       <c r="AG25" s="141"/>
       <c r="AH25" s="141"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:34">
       <c r="B26" s="87"/>
       <c r="C26" s="93" t="s">
         <v>33</v>
@@ -12133,7 +12137,7 @@
       <c r="AG26" s="139"/>
       <c r="AH26" s="139"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:34">
       <c r="B27" s="87"/>
       <c r="C27" s="93"/>
       <c r="D27" s="92" t="s">
@@ -12170,7 +12174,7 @@
       <c r="AG27" s="139"/>
       <c r="AH27" s="139"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:34">
       <c r="B28" s="87"/>
       <c r="C28" s="93"/>
       <c r="D28" s="92"/>
@@ -12205,11 +12209,11 @@
       <c r="AG28" s="139"/>
       <c r="AH28" s="139"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:34">
       <c r="B29" s="87"/>
       <c r="C29" s="93"/>
       <c r="E29" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -12241,7 +12245,7 @@
       <c r="AG29" s="139"/>
       <c r="AH29" s="140"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:34">
       <c r="A30" s="48"/>
       <c r="B30" s="87"/>
       <c r="C30" s="93"/>
@@ -12277,47 +12281,47 @@
       <c r="AG30" s="139"/>
       <c r="AH30" s="140"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:34">
       <c r="A31" s="48"/>
       <c r="B31" s="87"/>
       <c r="C31" s="93"/>
       <c r="D31" s="139"/>
-      <c r="E31" s="254" t="s">
+      <c r="E31" s="297" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="254"/>
-      <c r="G31" s="260"/>
-      <c r="H31" s="260"/>
-      <c r="I31" s="260"/>
-      <c r="J31" s="260"/>
-      <c r="K31" s="260"/>
-      <c r="L31" s="260"/>
-      <c r="M31" s="254" t="s">
+      <c r="F31" s="297"/>
+      <c r="G31" s="300"/>
+      <c r="H31" s="300"/>
+      <c r="I31" s="300"/>
+      <c r="J31" s="300"/>
+      <c r="K31" s="300"/>
+      <c r="L31" s="300"/>
+      <c r="M31" s="297" t="s">
         <v>25</v>
       </c>
-      <c r="N31" s="254"/>
-      <c r="O31" s="297"/>
-      <c r="P31" s="298"/>
-      <c r="Q31" s="298"/>
-      <c r="R31" s="298"/>
-      <c r="S31" s="298"/>
-      <c r="T31" s="298"/>
-      <c r="U31" s="298"/>
-      <c r="V31" s="298"/>
-      <c r="W31" s="298"/>
-      <c r="X31" s="298"/>
-      <c r="Y31" s="298"/>
-      <c r="Z31" s="298"/>
-      <c r="AA31" s="298"/>
-      <c r="AB31" s="298"/>
-      <c r="AC31" s="298"/>
-      <c r="AD31" s="298"/>
-      <c r="AE31" s="298"/>
-      <c r="AF31" s="298"/>
-      <c r="AG31" s="298"/>
-      <c r="AH31" s="299"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="N31" s="297"/>
+      <c r="O31" s="272"/>
+      <c r="P31" s="273"/>
+      <c r="Q31" s="273"/>
+      <c r="R31" s="273"/>
+      <c r="S31" s="273"/>
+      <c r="T31" s="273"/>
+      <c r="U31" s="273"/>
+      <c r="V31" s="273"/>
+      <c r="W31" s="273"/>
+      <c r="X31" s="273"/>
+      <c r="Y31" s="273"/>
+      <c r="Z31" s="273"/>
+      <c r="AA31" s="273"/>
+      <c r="AB31" s="273"/>
+      <c r="AC31" s="273"/>
+      <c r="AD31" s="273"/>
+      <c r="AE31" s="273"/>
+      <c r="AF31" s="273"/>
+      <c r="AG31" s="273"/>
+      <c r="AH31" s="274"/>
+    </row>
+    <row r="32" spans="1:34">
       <c r="A32" s="48"/>
       <c r="B32" s="1"/>
       <c r="C32" s="93"/>
@@ -12353,11 +12357,11 @@
       <c r="AG32" s="139"/>
       <c r="AH32" s="140"/>
     </row>
-    <row r="33" spans="1:35" s="86" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" s="86" customFormat="1">
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35">
       <c r="A34" s="48"/>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
@@ -12394,7 +12398,7 @@
       <c r="AH34" s="48"/>
       <c r="AI34" s="48"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:35">
       <c r="A35" s="48"/>
       <c r="B35" s="48"/>
       <c r="C35" s="58" t="s">
@@ -12433,7 +12437,7 @@
       <c r="AH35" s="48"/>
       <c r="AI35" s="48"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35">
       <c r="A36" s="48"/>
       <c r="B36" s="48"/>
       <c r="C36" s="58"/>
@@ -12472,7 +12476,7 @@
       <c r="AH36" s="48"/>
       <c r="AI36" s="48"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35">
       <c r="A37" s="48"/>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
@@ -12509,7 +12513,7 @@
       <c r="AH37" s="48"/>
       <c r="AI37" s="48"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35">
       <c r="A38" s="48"/>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -12546,7 +12550,7 @@
       <c r="AH38" s="48"/>
       <c r="AI38" s="48"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35">
       <c r="A39" s="48"/>
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
@@ -12583,7 +12587,7 @@
       <c r="AH39" s="48"/>
       <c r="AI39" s="48"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35">
       <c r="A40" s="48"/>
       <c r="B40" s="48"/>
       <c r="C40" s="48"/>
@@ -12620,7 +12624,7 @@
       <c r="AH40" s="48"/>
       <c r="AI40" s="48"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35">
       <c r="A41" s="48"/>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
@@ -12657,7 +12661,7 @@
       <c r="AH41" s="48"/>
       <c r="AI41" s="48"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35">
       <c r="A42" s="48"/>
       <c r="B42" s="48"/>
       <c r="C42" s="48"/>
@@ -12694,7 +12698,7 @@
       <c r="AH42" s="48"/>
       <c r="AI42" s="48"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35">
       <c r="A43" s="48"/>
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
@@ -12731,7 +12735,7 @@
       <c r="AH43" s="48"/>
       <c r="AI43" s="48"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35">
       <c r="A44" s="48"/>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
@@ -12768,7 +12772,7 @@
       <c r="AH44" s="48"/>
       <c r="AI44" s="48"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35">
       <c r="A45" s="48"/>
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
@@ -12805,7 +12809,7 @@
       <c r="AH45" s="48"/>
       <c r="AI45" s="48"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35">
       <c r="A46" s="48"/>
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
@@ -12842,7 +12846,7 @@
       <c r="AH46" s="48"/>
       <c r="AI46" s="48"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35">
       <c r="A47" s="48"/>
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
@@ -12879,7 +12883,7 @@
       <c r="AH47" s="48"/>
       <c r="AI47" s="48"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35">
       <c r="A48" s="48"/>
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
@@ -12916,7 +12920,7 @@
       <c r="AH48" s="48"/>
       <c r="AI48" s="48"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:35">
       <c r="A49" s="48"/>
       <c r="B49" s="48"/>
       <c r="C49" s="48"/>
@@ -12953,7 +12957,7 @@
       <c r="AH49" s="48"/>
       <c r="AI49" s="48"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:35">
       <c r="A50" s="48"/>
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
@@ -12990,7 +12994,7 @@
       <c r="AH50" s="48"/>
       <c r="AI50" s="48"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:35">
       <c r="A51" s="48"/>
       <c r="B51" s="48"/>
       <c r="C51" s="48"/>
@@ -13027,7 +13031,7 @@
       <c r="AH51" s="48"/>
       <c r="AI51" s="48"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:35">
       <c r="A52" s="48"/>
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
@@ -13064,7 +13068,7 @@
       <c r="AH52" s="48"/>
       <c r="AI52" s="48"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:35">
       <c r="A53" s="48"/>
       <c r="B53" s="48"/>
       <c r="C53" s="48"/>
@@ -13101,7 +13105,7 @@
       <c r="AH53" s="48"/>
       <c r="AI53" s="48"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:35">
       <c r="A54" s="48"/>
       <c r="B54" s="48"/>
       <c r="C54" s="48"/>
@@ -13138,7 +13142,7 @@
       <c r="AH54" s="48"/>
       <c r="AI54" s="48"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:35">
       <c r="A55" s="48"/>
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
@@ -13175,7 +13179,7 @@
       <c r="AH55" s="48"/>
       <c r="AI55" s="48"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:35">
       <c r="A56" s="48"/>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
@@ -13212,7 +13216,7 @@
       <c r="AH56" s="48"/>
       <c r="AI56" s="48"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:35">
       <c r="A57" s="48"/>
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
@@ -13249,7 +13253,7 @@
       <c r="AH57" s="48"/>
       <c r="AI57" s="48"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:35">
       <c r="A58" s="48"/>
       <c r="B58" s="48"/>
       <c r="C58" s="48"/>
@@ -13286,7 +13290,7 @@
       <c r="AH58" s="48"/>
       <c r="AI58" s="48"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:35">
       <c r="A59" s="48"/>
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
@@ -13323,7 +13327,7 @@
       <c r="AH59" s="48"/>
       <c r="AI59" s="48"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:35">
       <c r="A60" s="48"/>
       <c r="B60" s="48"/>
       <c r="C60" s="48"/>
@@ -13360,7 +13364,7 @@
       <c r="AH60" s="48"/>
       <c r="AI60" s="48"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:35">
       <c r="A61" s="48"/>
       <c r="B61" s="48"/>
       <c r="C61" s="48"/>
@@ -13397,7 +13401,7 @@
       <c r="AH61" s="48"/>
       <c r="AI61" s="48"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:35">
       <c r="A62" s="48"/>
       <c r="B62" s="48"/>
       <c r="C62" s="48"/>
@@ -13434,7 +13438,7 @@
       <c r="AH62" s="48"/>
       <c r="AI62" s="48"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:35">
       <c r="A63" s="48"/>
       <c r="B63" s="48"/>
       <c r="C63" s="48"/>
@@ -13471,7 +13475,7 @@
       <c r="AH63" s="48"/>
       <c r="AI63" s="48"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:35">
       <c r="A64" s="48"/>
       <c r="B64" s="48"/>
       <c r="C64" s="48"/>
@@ -13508,7 +13512,7 @@
       <c r="AH64" s="48"/>
       <c r="AI64" s="48"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:35">
       <c r="A65" s="48"/>
       <c r="B65" s="48"/>
       <c r="C65" s="48"/>
@@ -13545,7 +13549,7 @@
       <c r="AH65" s="48"/>
       <c r="AI65" s="48"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:35">
       <c r="A66" s="48"/>
       <c r="B66" s="48"/>
       <c r="C66" s="48"/>
@@ -13582,7 +13586,7 @@
       <c r="AH66" s="48"/>
       <c r="AI66" s="48"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:35">
       <c r="A67" s="48"/>
       <c r="B67" s="48"/>
       <c r="C67" s="48"/>
@@ -13619,7 +13623,7 @@
       <c r="AH67" s="48"/>
       <c r="AI67" s="48"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:35">
       <c r="A68" s="48"/>
       <c r="B68" s="48"/>
       <c r="C68" s="48"/>
@@ -13656,7 +13660,7 @@
       <c r="AH68" s="48"/>
       <c r="AI68" s="48"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:35">
       <c r="A69" s="48"/>
       <c r="B69" s="48"/>
       <c r="C69" s="48"/>
@@ -13693,7 +13697,7 @@
       <c r="AH69" s="48"/>
       <c r="AI69" s="48"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:35">
       <c r="A70" s="48"/>
       <c r="B70" s="48"/>
       <c r="C70" s="48"/>
@@ -13730,7 +13734,7 @@
       <c r="AH70" s="48"/>
       <c r="AI70" s="48"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:35">
       <c r="A71" s="48"/>
       <c r="B71" s="48"/>
       <c r="C71" s="48"/>
@@ -13767,7 +13771,7 @@
       <c r="AH71" s="48"/>
       <c r="AI71" s="48"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:35">
       <c r="A72" s="48"/>
       <c r="B72" s="48"/>
       <c r="C72" s="48"/>
@@ -13804,7 +13808,7 @@
       <c r="AH72" s="48"/>
       <c r="AI72" s="48"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:35">
       <c r="A73" s="48"/>
       <c r="B73" s="48"/>
       <c r="C73" s="48"/>
@@ -13841,7 +13845,7 @@
       <c r="AH73" s="48"/>
       <c r="AI73" s="48"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:35">
       <c r="A74" s="48"/>
       <c r="B74" s="48"/>
       <c r="C74" s="48"/>
@@ -13878,7 +13882,7 @@
       <c r="AH74" s="48"/>
       <c r="AI74" s="48"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:35">
       <c r="A75" s="48"/>
       <c r="B75" s="48"/>
       <c r="C75" s="48"/>
@@ -13915,7 +13919,7 @@
       <c r="AH75" s="48"/>
       <c r="AI75" s="48"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:35">
       <c r="A76" s="48"/>
       <c r="B76" s="48"/>
       <c r="C76" s="48"/>
@@ -13952,7 +13956,7 @@
       <c r="AH76" s="48"/>
       <c r="AI76" s="48"/>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:35">
       <c r="A77" s="48"/>
       <c r="B77" s="48"/>
       <c r="C77" s="48"/>
@@ -13989,7 +13993,7 @@
       <c r="AH77" s="48"/>
       <c r="AI77" s="48"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:35">
       <c r="A78" s="48"/>
       <c r="B78" s="48"/>
       <c r="C78" s="48"/>
@@ -14026,7 +14030,7 @@
       <c r="AH78" s="48"/>
       <c r="AI78" s="48"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:35">
       <c r="A79" s="48"/>
       <c r="B79" s="48"/>
       <c r="C79" s="48"/>
@@ -14063,7 +14067,7 @@
       <c r="AH79" s="48"/>
       <c r="AI79" s="48"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:35">
       <c r="A80" s="48"/>
       <c r="B80" s="48"/>
       <c r="C80" s="48"/>
@@ -14100,7 +14104,7 @@
       <c r="AH80" s="48"/>
       <c r="AI80" s="48"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:35">
       <c r="A81" s="48"/>
       <c r="B81" s="48"/>
       <c r="C81" s="48"/>
@@ -14137,7 +14141,7 @@
       <c r="AH81" s="48"/>
       <c r="AI81" s="48"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:35">
       <c r="C83" s="30" t="s">
         <v>35</v>
       </c>
@@ -14171,7 +14175,7 @@
       <c r="AE83" s="30"/>
       <c r="AF83" s="30"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:35">
       <c r="C84" s="30"/>
       <c r="D84" s="30" t="s">
         <v>40</v>
@@ -14205,7 +14209,7 @@
       <c r="AE84" s="30"/>
       <c r="AF84" s="30"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:35">
       <c r="C85" s="30"/>
       <c r="D85" s="30"/>
       <c r="E85" s="30"/>
@@ -14237,7 +14241,7 @@
       <c r="AE85" s="30"/>
       <c r="AF85" s="30"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:35">
       <c r="C86" s="30"/>
       <c r="E86" s="1" t="s">
         <v>55</v>
@@ -14270,7 +14274,7 @@
       <c r="AE86" s="30"/>
       <c r="AF86" s="30"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:35">
       <c r="C87" s="30"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -14302,45 +14306,45 @@
       <c r="AE87" s="30"/>
       <c r="AF87" s="30"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:35">
       <c r="C88" s="30"/>
       <c r="D88" s="30"/>
-      <c r="E88" s="254" t="s">
+      <c r="E88" s="297" t="s">
         <v>24</v>
       </c>
-      <c r="F88" s="254"/>
-      <c r="G88" s="255"/>
-      <c r="H88" s="256"/>
-      <c r="I88" s="256"/>
-      <c r="J88" s="256"/>
-      <c r="K88" s="256"/>
-      <c r="L88" s="257"/>
-      <c r="M88" s="254" t="s">
+      <c r="F88" s="297"/>
+      <c r="G88" s="263"/>
+      <c r="H88" s="264"/>
+      <c r="I88" s="264"/>
+      <c r="J88" s="264"/>
+      <c r="K88" s="264"/>
+      <c r="L88" s="265"/>
+      <c r="M88" s="297" t="s">
         <v>25</v>
       </c>
-      <c r="N88" s="254"/>
-      <c r="O88" s="255"/>
-      <c r="P88" s="256"/>
-      <c r="Q88" s="256"/>
-      <c r="R88" s="256"/>
-      <c r="S88" s="256"/>
-      <c r="T88" s="256"/>
-      <c r="U88" s="256"/>
-      <c r="V88" s="256"/>
-      <c r="W88" s="256"/>
-      <c r="X88" s="256"/>
-      <c r="Y88" s="256"/>
-      <c r="Z88" s="256"/>
-      <c r="AA88" s="256"/>
-      <c r="AB88" s="256"/>
-      <c r="AC88" s="256"/>
-      <c r="AD88" s="256"/>
-      <c r="AE88" s="256"/>
-      <c r="AF88" s="256"/>
-      <c r="AG88" s="256"/>
-      <c r="AH88" s="257"/>
-    </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="N88" s="297"/>
+      <c r="O88" s="263"/>
+      <c r="P88" s="264"/>
+      <c r="Q88" s="264"/>
+      <c r="R88" s="264"/>
+      <c r="S88" s="264"/>
+      <c r="T88" s="264"/>
+      <c r="U88" s="264"/>
+      <c r="V88" s="264"/>
+      <c r="W88" s="264"/>
+      <c r="X88" s="264"/>
+      <c r="Y88" s="264"/>
+      <c r="Z88" s="264"/>
+      <c r="AA88" s="264"/>
+      <c r="AB88" s="264"/>
+      <c r="AC88" s="264"/>
+      <c r="AD88" s="264"/>
+      <c r="AE88" s="264"/>
+      <c r="AF88" s="264"/>
+      <c r="AG88" s="264"/>
+      <c r="AH88" s="265"/>
+    </row>
+    <row r="89" spans="1:35">
       <c r="C89" s="30"/>
       <c r="D89" s="30"/>
       <c r="E89" s="30"/>
@@ -14372,7 +14376,7 @@
       <c r="AE89" s="30"/>
       <c r="AF89" s="30"/>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:35">
       <c r="C90" s="30"/>
       <c r="D90" s="30"/>
       <c r="E90" s="30"/>
@@ -14404,7 +14408,7 @@
       <c r="AE90" s="30"/>
       <c r="AF90" s="30"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:35">
       <c r="C91" s="30"/>
       <c r="D91" s="30" t="s">
         <v>41</v>
@@ -14438,7 +14442,7 @@
       <c r="AE91" s="30"/>
       <c r="AF91" s="30"/>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:35">
       <c r="C92" s="30"/>
       <c r="D92" s="30"/>
       <c r="E92" s="30"/>
@@ -14470,24 +14474,24 @@
       <c r="AE92" s="30"/>
       <c r="AF92" s="30"/>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:35">
       <c r="C93" s="30"/>
       <c r="D93" s="30"/>
       <c r="E93" s="278" t="s">
         <v>57</v>
       </c>
-      <c r="F93" s="288" t="s">
+      <c r="F93" s="266" t="s">
         <v>26</v>
       </c>
-      <c r="G93" s="289"/>
-      <c r="H93" s="289"/>
-      <c r="I93" s="290"/>
-      <c r="J93" s="288" t="s">
+      <c r="G93" s="267"/>
+      <c r="H93" s="267"/>
+      <c r="I93" s="268"/>
+      <c r="J93" s="266" t="s">
         <v>27</v>
       </c>
-      <c r="K93" s="289"/>
-      <c r="L93" s="289"/>
-      <c r="M93" s="290"/>
+      <c r="K93" s="267"/>
+      <c r="L93" s="267"/>
+      <c r="M93" s="268"/>
       <c r="N93" s="280" t="s">
         <v>28</v>
       </c>
@@ -14499,35 +14503,35 @@
       <c r="T93" s="280"/>
       <c r="U93" s="280"/>
       <c r="V93" s="280"/>
-      <c r="W93" s="288" t="s">
+      <c r="W93" s="266" t="s">
         <v>36</v>
       </c>
-      <c r="X93" s="289"/>
-      <c r="Y93" s="289"/>
-      <c r="Z93" s="289"/>
-      <c r="AA93" s="289"/>
-      <c r="AB93" s="289"/>
-      <c r="AC93" s="290"/>
-      <c r="AD93" s="288" t="s">
+      <c r="X93" s="267"/>
+      <c r="Y93" s="267"/>
+      <c r="Z93" s="267"/>
+      <c r="AA93" s="267"/>
+      <c r="AB93" s="267"/>
+      <c r="AC93" s="268"/>
+      <c r="AD93" s="266" t="s">
         <v>37</v>
       </c>
-      <c r="AE93" s="289"/>
-      <c r="AF93" s="289"/>
-      <c r="AG93" s="289"/>
-      <c r="AH93" s="290"/>
-    </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AE93" s="267"/>
+      <c r="AF93" s="267"/>
+      <c r="AG93" s="267"/>
+      <c r="AH93" s="268"/>
+    </row>
+    <row r="94" spans="1:35">
       <c r="C94" s="30"/>
       <c r="D94" s="1"/>
       <c r="E94" s="279"/>
-      <c r="F94" s="291"/>
-      <c r="G94" s="292"/>
-      <c r="H94" s="292"/>
-      <c r="I94" s="293"/>
-      <c r="J94" s="291"/>
-      <c r="K94" s="292"/>
-      <c r="L94" s="292"/>
-      <c r="M94" s="293"/>
+      <c r="F94" s="269"/>
+      <c r="G94" s="270"/>
+      <c r="H94" s="270"/>
+      <c r="I94" s="271"/>
+      <c r="J94" s="269"/>
+      <c r="K94" s="270"/>
+      <c r="L94" s="270"/>
+      <c r="M94" s="271"/>
       <c r="N94" s="280" t="s">
         <v>31</v>
       </c>
@@ -14541,251 +14545,229 @@
       <c r="T94" s="281"/>
       <c r="U94" s="281"/>
       <c r="V94" s="281"/>
-      <c r="W94" s="291"/>
-      <c r="X94" s="292"/>
-      <c r="Y94" s="292"/>
-      <c r="Z94" s="292"/>
-      <c r="AA94" s="292"/>
-      <c r="AB94" s="292"/>
-      <c r="AC94" s="293"/>
-      <c r="AD94" s="291"/>
-      <c r="AE94" s="292"/>
-      <c r="AF94" s="292"/>
-      <c r="AG94" s="292"/>
-      <c r="AH94" s="293"/>
-    </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="W94" s="269"/>
+      <c r="X94" s="270"/>
+      <c r="Y94" s="270"/>
+      <c r="Z94" s="270"/>
+      <c r="AA94" s="270"/>
+      <c r="AB94" s="270"/>
+      <c r="AC94" s="271"/>
+      <c r="AD94" s="269"/>
+      <c r="AE94" s="270"/>
+      <c r="AF94" s="270"/>
+      <c r="AG94" s="270"/>
+      <c r="AH94" s="271"/>
+    </row>
+    <row r="95" spans="1:35">
       <c r="C95" s="30"/>
       <c r="D95" s="1"/>
       <c r="E95" s="41">
         <v>1</v>
       </c>
-      <c r="F95" s="285"/>
-      <c r="G95" s="286"/>
-      <c r="H95" s="286"/>
-      <c r="I95" s="287"/>
-      <c r="J95" s="285"/>
-      <c r="K95" s="286"/>
-      <c r="L95" s="286"/>
-      <c r="M95" s="287"/>
-      <c r="N95" s="251"/>
-      <c r="O95" s="252"/>
-      <c r="P95" s="252"/>
-      <c r="Q95" s="252"/>
-      <c r="R95" s="252"/>
-      <c r="S95" s="253"/>
-      <c r="T95" s="253"/>
-      <c r="U95" s="253"/>
-      <c r="V95" s="253"/>
-      <c r="W95" s="275"/>
-      <c r="X95" s="276"/>
-      <c r="Y95" s="276"/>
-      <c r="Z95" s="276"/>
-      <c r="AA95" s="276"/>
-      <c r="AB95" s="276"/>
-      <c r="AC95" s="277"/>
-      <c r="AD95" s="275"/>
-      <c r="AE95" s="276"/>
-      <c r="AF95" s="276"/>
-      <c r="AG95" s="276"/>
-      <c r="AH95" s="277"/>
-    </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="F95" s="275"/>
+      <c r="G95" s="276"/>
+      <c r="H95" s="276"/>
+      <c r="I95" s="277"/>
+      <c r="J95" s="275"/>
+      <c r="K95" s="276"/>
+      <c r="L95" s="276"/>
+      <c r="M95" s="277"/>
+      <c r="N95" s="257"/>
+      <c r="O95" s="258"/>
+      <c r="P95" s="258"/>
+      <c r="Q95" s="258"/>
+      <c r="R95" s="258"/>
+      <c r="S95" s="259"/>
+      <c r="T95" s="259"/>
+      <c r="U95" s="259"/>
+      <c r="V95" s="259"/>
+      <c r="W95" s="251"/>
+      <c r="X95" s="252"/>
+      <c r="Y95" s="252"/>
+      <c r="Z95" s="252"/>
+      <c r="AA95" s="252"/>
+      <c r="AB95" s="252"/>
+      <c r="AC95" s="253"/>
+      <c r="AD95" s="251"/>
+      <c r="AE95" s="252"/>
+      <c r="AF95" s="252"/>
+      <c r="AG95" s="252"/>
+      <c r="AH95" s="253"/>
+    </row>
+    <row r="96" spans="1:35">
       <c r="C96" s="30"/>
       <c r="D96" s="1"/>
       <c r="E96" s="41">
         <v>2</v>
       </c>
-      <c r="F96" s="285"/>
-      <c r="G96" s="286"/>
-      <c r="H96" s="286"/>
-      <c r="I96" s="287"/>
-      <c r="J96" s="285"/>
-      <c r="K96" s="286"/>
-      <c r="L96" s="286"/>
-      <c r="M96" s="287"/>
-      <c r="N96" s="251"/>
-      <c r="O96" s="252"/>
-      <c r="P96" s="252"/>
-      <c r="Q96" s="252"/>
-      <c r="R96" s="252"/>
-      <c r="S96" s="253"/>
-      <c r="T96" s="253"/>
-      <c r="U96" s="253"/>
-      <c r="V96" s="253"/>
-      <c r="W96" s="275"/>
-      <c r="X96" s="276"/>
-      <c r="Y96" s="276"/>
-      <c r="Z96" s="276"/>
-      <c r="AA96" s="276"/>
-      <c r="AB96" s="276"/>
-      <c r="AC96" s="277"/>
-      <c r="AD96" s="275"/>
-      <c r="AE96" s="276"/>
-      <c r="AF96" s="276"/>
-      <c r="AG96" s="276"/>
-      <c r="AH96" s="277"/>
-    </row>
-    <row r="97" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="F96" s="275"/>
+      <c r="G96" s="276"/>
+      <c r="H96" s="276"/>
+      <c r="I96" s="277"/>
+      <c r="J96" s="275"/>
+      <c r="K96" s="276"/>
+      <c r="L96" s="276"/>
+      <c r="M96" s="277"/>
+      <c r="N96" s="257"/>
+      <c r="O96" s="258"/>
+      <c r="P96" s="258"/>
+      <c r="Q96" s="258"/>
+      <c r="R96" s="258"/>
+      <c r="S96" s="259"/>
+      <c r="T96" s="259"/>
+      <c r="U96" s="259"/>
+      <c r="V96" s="259"/>
+      <c r="W96" s="251"/>
+      <c r="X96" s="252"/>
+      <c r="Y96" s="252"/>
+      <c r="Z96" s="252"/>
+      <c r="AA96" s="252"/>
+      <c r="AB96" s="252"/>
+      <c r="AC96" s="253"/>
+      <c r="AD96" s="251"/>
+      <c r="AE96" s="252"/>
+      <c r="AF96" s="252"/>
+      <c r="AG96" s="252"/>
+      <c r="AH96" s="253"/>
+    </row>
+    <row r="97" spans="3:34">
       <c r="C97" s="30"/>
       <c r="D97" s="1"/>
       <c r="E97" s="41">
         <v>3</v>
       </c>
-      <c r="F97" s="285"/>
-      <c r="G97" s="286"/>
-      <c r="H97" s="286"/>
-      <c r="I97" s="287"/>
-      <c r="J97" s="285"/>
-      <c r="K97" s="286"/>
-      <c r="L97" s="286"/>
-      <c r="M97" s="287"/>
-      <c r="N97" s="251"/>
-      <c r="O97" s="252"/>
-      <c r="P97" s="252"/>
-      <c r="Q97" s="252"/>
-      <c r="R97" s="252"/>
-      <c r="S97" s="253"/>
-      <c r="T97" s="253"/>
-      <c r="U97" s="253"/>
-      <c r="V97" s="253"/>
-      <c r="W97" s="275"/>
-      <c r="X97" s="276"/>
-      <c r="Y97" s="276"/>
-      <c r="Z97" s="276"/>
-      <c r="AA97" s="276"/>
-      <c r="AB97" s="276"/>
-      <c r="AC97" s="277"/>
-      <c r="AD97" s="275"/>
-      <c r="AE97" s="276"/>
-      <c r="AF97" s="276"/>
-      <c r="AG97" s="276"/>
-      <c r="AH97" s="277"/>
-    </row>
-    <row r="98" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="F97" s="275"/>
+      <c r="G97" s="276"/>
+      <c r="H97" s="276"/>
+      <c r="I97" s="277"/>
+      <c r="J97" s="275"/>
+      <c r="K97" s="276"/>
+      <c r="L97" s="276"/>
+      <c r="M97" s="277"/>
+      <c r="N97" s="257"/>
+      <c r="O97" s="258"/>
+      <c r="P97" s="258"/>
+      <c r="Q97" s="258"/>
+      <c r="R97" s="258"/>
+      <c r="S97" s="259"/>
+      <c r="T97" s="259"/>
+      <c r="U97" s="259"/>
+      <c r="V97" s="259"/>
+      <c r="W97" s="251"/>
+      <c r="X97" s="252"/>
+      <c r="Y97" s="252"/>
+      <c r="Z97" s="252"/>
+      <c r="AA97" s="252"/>
+      <c r="AB97" s="252"/>
+      <c r="AC97" s="253"/>
+      <c r="AD97" s="251"/>
+      <c r="AE97" s="252"/>
+      <c r="AF97" s="252"/>
+      <c r="AG97" s="252"/>
+      <c r="AH97" s="253"/>
+    </row>
+    <row r="98" spans="3:34">
       <c r="C98" s="30"/>
       <c r="D98" s="1"/>
       <c r="E98" s="41">
         <v>4</v>
       </c>
-      <c r="F98" s="285"/>
-      <c r="G98" s="286"/>
-      <c r="H98" s="286"/>
-      <c r="I98" s="287"/>
-      <c r="J98" s="285"/>
-      <c r="K98" s="286"/>
-      <c r="L98" s="286"/>
-      <c r="M98" s="287"/>
-      <c r="N98" s="251"/>
-      <c r="O98" s="252"/>
-      <c r="P98" s="252"/>
-      <c r="Q98" s="252"/>
-      <c r="R98" s="252"/>
-      <c r="S98" s="253"/>
-      <c r="T98" s="253"/>
-      <c r="U98" s="253"/>
-      <c r="V98" s="253"/>
-      <c r="W98" s="275"/>
-      <c r="X98" s="276"/>
-      <c r="Y98" s="276"/>
-      <c r="Z98" s="276"/>
-      <c r="AA98" s="276"/>
-      <c r="AB98" s="276"/>
-      <c r="AC98" s="277"/>
-      <c r="AD98" s="275"/>
-      <c r="AE98" s="276"/>
-      <c r="AF98" s="276"/>
-      <c r="AG98" s="276"/>
-      <c r="AH98" s="277"/>
-    </row>
-    <row r="99" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="F98" s="275"/>
+      <c r="G98" s="276"/>
+      <c r="H98" s="276"/>
+      <c r="I98" s="277"/>
+      <c r="J98" s="275"/>
+      <c r="K98" s="276"/>
+      <c r="L98" s="276"/>
+      <c r="M98" s="277"/>
+      <c r="N98" s="257"/>
+      <c r="O98" s="258"/>
+      <c r="P98" s="258"/>
+      <c r="Q98" s="258"/>
+      <c r="R98" s="258"/>
+      <c r="S98" s="259"/>
+      <c r="T98" s="259"/>
+      <c r="U98" s="259"/>
+      <c r="V98" s="259"/>
+      <c r="W98" s="251"/>
+      <c r="X98" s="252"/>
+      <c r="Y98" s="252"/>
+      <c r="Z98" s="252"/>
+      <c r="AA98" s="252"/>
+      <c r="AB98" s="252"/>
+      <c r="AC98" s="253"/>
+      <c r="AD98" s="251"/>
+      <c r="AE98" s="252"/>
+      <c r="AF98" s="252"/>
+      <c r="AG98" s="252"/>
+      <c r="AH98" s="253"/>
+    </row>
+    <row r="99" spans="3:34">
       <c r="C99" s="30"/>
       <c r="D99" s="1"/>
       <c r="E99" s="41">
         <v>5</v>
       </c>
-      <c r="F99" s="285"/>
-      <c r="G99" s="286"/>
-      <c r="H99" s="286"/>
-      <c r="I99" s="287"/>
-      <c r="J99" s="285"/>
-      <c r="K99" s="286"/>
-      <c r="L99" s="286"/>
-      <c r="M99" s="287"/>
-      <c r="N99" s="251"/>
-      <c r="O99" s="252"/>
-      <c r="P99" s="252"/>
-      <c r="Q99" s="252"/>
-      <c r="R99" s="252"/>
-      <c r="S99" s="253"/>
-      <c r="T99" s="253"/>
-      <c r="U99" s="253"/>
-      <c r="V99" s="253"/>
-      <c r="W99" s="275"/>
-      <c r="X99" s="276"/>
-      <c r="Y99" s="276"/>
-      <c r="Z99" s="276"/>
-      <c r="AA99" s="276"/>
-      <c r="AB99" s="276"/>
-      <c r="AC99" s="277"/>
-      <c r="AD99" s="275"/>
-      <c r="AE99" s="276"/>
-      <c r="AF99" s="276"/>
-      <c r="AG99" s="276"/>
-      <c r="AH99" s="277"/>
+      <c r="F99" s="275"/>
+      <c r="G99" s="276"/>
+      <c r="H99" s="276"/>
+      <c r="I99" s="277"/>
+      <c r="J99" s="275"/>
+      <c r="K99" s="276"/>
+      <c r="L99" s="276"/>
+      <c r="M99" s="277"/>
+      <c r="N99" s="257"/>
+      <c r="O99" s="258"/>
+      <c r="P99" s="258"/>
+      <c r="Q99" s="258"/>
+      <c r="R99" s="258"/>
+      <c r="S99" s="259"/>
+      <c r="T99" s="259"/>
+      <c r="U99" s="259"/>
+      <c r="V99" s="259"/>
+      <c r="W99" s="251"/>
+      <c r="X99" s="252"/>
+      <c r="Y99" s="252"/>
+      <c r="Z99" s="252"/>
+      <c r="AA99" s="252"/>
+      <c r="AB99" s="252"/>
+      <c r="AC99" s="253"/>
+      <c r="AD99" s="251"/>
+      <c r="AE99" s="252"/>
+      <c r="AF99" s="252"/>
+      <c r="AG99" s="252"/>
+      <c r="AH99" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="AD98:AH98"/>
-    <mergeCell ref="AD99:AH99"/>
-    <mergeCell ref="H17:AH17"/>
-    <mergeCell ref="H18:AH18"/>
-    <mergeCell ref="H19:AH19"/>
-    <mergeCell ref="H20:AH20"/>
-    <mergeCell ref="H21:AH21"/>
-    <mergeCell ref="H22:AH22"/>
-    <mergeCell ref="H23:AH23"/>
-    <mergeCell ref="N99:R99"/>
-    <mergeCell ref="S99:V99"/>
-    <mergeCell ref="N98:R98"/>
-    <mergeCell ref="S98:V98"/>
-    <mergeCell ref="N97:R97"/>
-    <mergeCell ref="S97:V97"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="O88:AH88"/>
-    <mergeCell ref="W93:AC94"/>
-    <mergeCell ref="AD93:AH94"/>
-    <mergeCell ref="W95:AC95"/>
-    <mergeCell ref="W96:AC96"/>
-    <mergeCell ref="W97:AC97"/>
-    <mergeCell ref="W98:AC98"/>
-    <mergeCell ref="W99:AC99"/>
-    <mergeCell ref="AD95:AH95"/>
-    <mergeCell ref="AD96:AH96"/>
-    <mergeCell ref="AD97:AH97"/>
-    <mergeCell ref="O31:AH31"/>
-    <mergeCell ref="F95:I95"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="J95:M95"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="J93:M94"/>
-    <mergeCell ref="F93:I94"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="N93:V93"/>
-    <mergeCell ref="N94:R94"/>
-    <mergeCell ref="S94:V94"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="N96:R96"/>
+    <mergeCell ref="S96:V96"/>
+    <mergeCell ref="N95:R95"/>
+    <mergeCell ref="S95:V95"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="T9:U9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AC2:AF2"/>
@@ -14802,36 +14784,58 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="N96:R96"/>
-    <mergeCell ref="S96:V96"/>
-    <mergeCell ref="N95:R95"/>
-    <mergeCell ref="S95:V95"/>
-    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="J93:M94"/>
+    <mergeCell ref="F93:I94"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="N93:V93"/>
+    <mergeCell ref="N94:R94"/>
+    <mergeCell ref="S94:V94"/>
     <mergeCell ref="G88:L88"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="J95:M95"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="W97:AC97"/>
+    <mergeCell ref="W98:AC98"/>
+    <mergeCell ref="W99:AC99"/>
+    <mergeCell ref="AD95:AH95"/>
+    <mergeCell ref="AD96:AH96"/>
+    <mergeCell ref="AD97:AH97"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="O88:AH88"/>
+    <mergeCell ref="W93:AC94"/>
+    <mergeCell ref="AD93:AH94"/>
+    <mergeCell ref="W95:AC95"/>
+    <mergeCell ref="O31:AH31"/>
     <mergeCell ref="T12:U12"/>
+    <mergeCell ref="AD98:AH98"/>
+    <mergeCell ref="AD99:AH99"/>
+    <mergeCell ref="H17:AH17"/>
+    <mergeCell ref="H18:AH18"/>
+    <mergeCell ref="H19:AH19"/>
+    <mergeCell ref="H20:AH20"/>
+    <mergeCell ref="H21:AH21"/>
+    <mergeCell ref="H22:AH22"/>
+    <mergeCell ref="H23:AH23"/>
+    <mergeCell ref="N99:R99"/>
+    <mergeCell ref="S99:V99"/>
+    <mergeCell ref="N98:R98"/>
+    <mergeCell ref="S98:V98"/>
+    <mergeCell ref="N97:R97"/>
+    <mergeCell ref="S97:V97"/>
+    <mergeCell ref="W96:AC96"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
@@ -14868,42 +14872,42 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="94" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" s="95" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="96" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="96" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="96" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="96" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="96" t="s">
         <v>67</v>
       </c>
